--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C31D5-5BDC-4ADF-8213-F5DF56B23D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A7E3E-154F-46BF-888F-5469B7681DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12567" yWindow="0" windowWidth="12568" windowHeight="13523" tabRatio="819" activeTab="4" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Maynez" sheetId="21" r:id="rId3"/>
     <sheet name="Accounts" sheetId="6" r:id="rId4"/>
     <sheet name="Polls" sheetId="20" r:id="rId5"/>
+    <sheet name="Vida Post" sheetId="22" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>Candidate</t>
   </si>
@@ -191,6 +192,9 @@
   <si>
     <t>Reforma</t>
   </si>
+  <si>
+    <t>Days</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -306,6 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,7 +326,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,9 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6041754-B9A0-4B1F-8AE9-569EC65B3AFE}">
   <dimension ref="A1:XFB168"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -664,43 +678,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="14" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="17"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -9889,7 +9903,7 @@
   <dimension ref="A1:XFB174"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
@@ -9914,43 +9928,43 @@
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="14" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="17"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -19236,43 +19250,43 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="14" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="17"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -19437,7 +19451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -19464,7 +19478,7 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="14">
         <v>45182</v>
       </c>
       <c r="C2">
@@ -19478,7 +19492,7 @@
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>45184</v>
       </c>
       <c r="C3">
@@ -19494,7 +19508,7 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>45214</v>
       </c>
       <c r="C4">
@@ -19510,7 +19524,7 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>45214</v>
       </c>
       <c r="C5">
@@ -19526,7 +19540,7 @@
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>45230</v>
       </c>
       <c r="C6">
@@ -19581,7 +19595,7 @@
       <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>44927</v>
       </c>
       <c r="C10">
@@ -19623,7 +19637,7 @@
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <v>45275</v>
       </c>
       <c r="C13">
@@ -19665,7 +19679,7 @@
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <v>45265</v>
       </c>
       <c r="C16">
@@ -19680,4 +19694,407 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC47CE33-EEC3-446C-940D-05592E4B50CB}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2</v>
+      </c>
+      <c r="K4" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3</v>
+      </c>
+      <c r="K5" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="K6" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="F7" s="19">
+        <v>5</v>
+      </c>
+      <c r="K7" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="K8" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="F9" s="19">
+        <v>7</v>
+      </c>
+      <c r="K9" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="F10" s="19">
+        <v>8</v>
+      </c>
+      <c r="K10" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="F11" s="19">
+        <v>9</v>
+      </c>
+      <c r="K11" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19">
+        <v>10</v>
+      </c>
+      <c r="K12" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="F13" s="19">
+        <v>11</v>
+      </c>
+      <c r="K13" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="F14" s="19">
+        <v>12</v>
+      </c>
+      <c r="K14" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="F15" s="19">
+        <v>13</v>
+      </c>
+      <c r="K15" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>14</v>
+      </c>
+      <c r="F16" s="19">
+        <v>14</v>
+      </c>
+      <c r="K16" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19">
+        <v>15</v>
+      </c>
+      <c r="K17" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="F18" s="19">
+        <v>16</v>
+      </c>
+      <c r="K18" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>17</v>
+      </c>
+      <c r="F19" s="19">
+        <v>17</v>
+      </c>
+      <c r="K19" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19">
+        <v>18</v>
+      </c>
+      <c r="K20" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19">
+        <v>19</v>
+      </c>
+      <c r="K21" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>20</v>
+      </c>
+      <c r="F22" s="19">
+        <v>20</v>
+      </c>
+      <c r="K22" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>21</v>
+      </c>
+      <c r="F23" s="19">
+        <v>21</v>
+      </c>
+      <c r="K23" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="F24" s="19">
+        <v>22</v>
+      </c>
+      <c r="K24" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>23</v>
+      </c>
+      <c r="F25" s="19">
+        <v>23</v>
+      </c>
+      <c r="K25" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>24</v>
+      </c>
+      <c r="F26" s="19">
+        <v>24</v>
+      </c>
+      <c r="K26" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>25</v>
+      </c>
+      <c r="F27" s="19">
+        <v>25</v>
+      </c>
+      <c r="K27" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>26</v>
+      </c>
+      <c r="F28" s="19">
+        <v>26</v>
+      </c>
+      <c r="K28" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>27</v>
+      </c>
+      <c r="F29" s="19">
+        <v>27</v>
+      </c>
+      <c r="K29" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>28</v>
+      </c>
+      <c r="F30" s="19">
+        <v>28</v>
+      </c>
+      <c r="K30" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>29</v>
+      </c>
+      <c r="F31" s="19">
+        <v>29</v>
+      </c>
+      <c r="K31" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>30</v>
+      </c>
+      <c r="F32" s="19">
+        <v>30</v>
+      </c>
+      <c r="K32" s="19">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A7E3E-154F-46BF-888F-5469B7681DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFCA92-82BE-431B-80AB-BBEA75568184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="1" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Candidate</t>
   </si>
@@ -195,12 +195,21 @@
   <si>
     <t>Days</t>
   </si>
+  <si>
+    <t>https://twitter.com/Claudiashein/status/1748050333274714587</t>
+  </si>
+  <si>
+    <t>https://twitter.com/XochitlGalvez/status/1748075123658117400</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AlvarezMaynez/status/1748072739749945601</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +229,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -277,11 +294,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -310,12 +390,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,9 +403,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,9 +739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6041754-B9A0-4B1F-8AE9-569EC65B3AFE}">
   <dimension ref="A1:XFB168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -678,43 +766,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="15" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="15" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="17"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -8200,15 +8288,15 @@
         <v>7044</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" ref="M99:M118" si="44">J99/I99</f>
+        <f t="shared" ref="M99:M120" si="44">J99/I99</f>
         <v>23440</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" ref="N99:N118" si="45">K99/I99</f>
+        <f t="shared" ref="N99:N120" si="45">K99/I99</f>
         <v>5860</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" ref="O99:O118" si="46">L99/I99</f>
+        <f t="shared" ref="O99:O120" si="46">L99/I99</f>
         <v>1408.8</v>
       </c>
       <c r="P99" s="6">
@@ -8656,7 +8744,7 @@
         <v>33845</v>
       </c>
       <c r="R105" s="8">
-        <f t="shared" ref="R105:R118" si="48">Q105/P105</f>
+        <f t="shared" ref="R105:R120" si="48">Q105/P105</f>
         <v>4835</v>
       </c>
       <c r="S105" s="6">
@@ -9395,7 +9483,7 @@
         <v>48809</v>
       </c>
       <c r="U115" s="8">
-        <f t="shared" ref="U115:U118" si="52">T115/S115</f>
+        <f t="shared" ref="U115:U120" si="52">T115/S115</f>
         <v>24404.5</v>
       </c>
     </row>
@@ -9489,15 +9577,15 @@
         <v>25828</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" ref="F117:F118" si="53">C117/B117</f>
+        <f t="shared" ref="F117:F120" si="53">C117/B117</f>
         <v>1379</v>
       </c>
       <c r="G117" s="6">
-        <f t="shared" ref="G117:G118" si="54">D117/B117</f>
+        <f t="shared" ref="G117:G120" si="54">D117/B117</f>
         <v>2039.75</v>
       </c>
       <c r="H117" s="8">
-        <f t="shared" ref="H117:H118" si="55">E117/B117</f>
+        <f t="shared" ref="H117:H120" si="55">E117/B117</f>
         <v>6457</v>
       </c>
       <c r="I117" s="6">
@@ -9619,32 +9707,150 @@
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
+      <c r="A119" s="9">
+        <v>45292</v>
+      </c>
+      <c r="B119" s="6">
+        <v>11</v>
+      </c>
+      <c r="C119" s="6">
+        <v>7223</v>
+      </c>
+      <c r="D119" s="6">
+        <v>19831</v>
+      </c>
+      <c r="E119" s="6">
+        <v>49768</v>
+      </c>
+      <c r="F119" s="6">
+        <f t="shared" si="53"/>
+        <v>656.63636363636363</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="54"/>
+        <v>1802.8181818181818</v>
+      </c>
+      <c r="H119" s="8">
+        <f t="shared" si="55"/>
+        <v>4524.363636363636</v>
+      </c>
+      <c r="I119" s="6">
+        <v>7</v>
+      </c>
+      <c r="J119" s="6">
+        <v>228200</v>
+      </c>
+      <c r="K119" s="6">
+        <v>69165</v>
+      </c>
+      <c r="L119" s="6">
+        <v>11847</v>
+      </c>
+      <c r="M119" s="6">
+        <f t="shared" si="44"/>
+        <v>32600</v>
+      </c>
+      <c r="N119" s="6">
+        <f t="shared" si="45"/>
+        <v>9880.7142857142862</v>
+      </c>
+      <c r="O119" s="8">
+        <f t="shared" si="46"/>
+        <v>1692.4285714285713</v>
+      </c>
+      <c r="P119" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>67227</v>
+      </c>
+      <c r="R119" s="8">
+        <f t="shared" si="48"/>
+        <v>13445.4</v>
+      </c>
+      <c r="S119" s="6">
+        <v>1</v>
+      </c>
+      <c r="T119" s="6">
+        <v>958000</v>
+      </c>
+      <c r="U119" s="8">
+        <f t="shared" si="52"/>
+        <v>958000</v>
+      </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
+      <c r="A120" s="9">
+        <v>45293</v>
+      </c>
+      <c r="B120" s="6">
+        <v>15</v>
+      </c>
+      <c r="C120" s="6">
+        <v>17083</v>
+      </c>
+      <c r="D120" s="6">
+        <v>32287</v>
+      </c>
+      <c r="E120" s="6">
+        <v>86099</v>
+      </c>
+      <c r="F120" s="6">
+        <f t="shared" si="53"/>
+        <v>1138.8666666666666</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="54"/>
+        <v>2152.4666666666667</v>
+      </c>
+      <c r="H120" s="8">
+        <f t="shared" si="55"/>
+        <v>5739.9333333333334</v>
+      </c>
+      <c r="I120" s="6">
+        <v>12</v>
+      </c>
+      <c r="J120" s="6">
+        <v>256400</v>
+      </c>
+      <c r="K120" s="6">
+        <v>88876</v>
+      </c>
+      <c r="L120" s="6">
+        <v>12021</v>
+      </c>
+      <c r="M120" s="6">
+        <f t="shared" si="44"/>
+        <v>21366.666666666668</v>
+      </c>
+      <c r="N120" s="6">
+        <f t="shared" si="45"/>
+        <v>7406.333333333333</v>
+      </c>
+      <c r="O120" s="8">
+        <f t="shared" si="46"/>
+        <v>1001.75</v>
+      </c>
+      <c r="P120" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>63014</v>
+      </c>
+      <c r="R120" s="8">
+        <f t="shared" si="48"/>
+        <v>9002</v>
+      </c>
+      <c r="S120" s="6">
+        <v>2</v>
+      </c>
+      <c r="T120" s="6">
+        <v>1981050</v>
+      </c>
+      <c r="U120" s="8">
+        <f t="shared" si="52"/>
+        <v>990525</v>
+      </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B121" s="6"/>
@@ -9657,7 +9863,6 @@
       <c r="L121" s="6"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
-      <c r="S121" s="6"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B122" s="6"/>
@@ -9671,6 +9876,7 @@
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B123" s="6"/>
@@ -9741,116 +9947,246 @@
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
     </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="P134" s="6"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+    </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="I141" s="6"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
       <c r="P143" s="6"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
     </row>
-    <row r="145" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
     </row>
-    <row r="146" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
     </row>
-    <row r="147" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
     </row>
-    <row r="148" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
     </row>
-    <row r="149" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P149" s="6"/>
     </row>
-    <row r="150" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
     </row>
-    <row r="151" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
     </row>
-    <row r="152" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
     </row>
-    <row r="153" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
     </row>
-    <row r="154" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
     </row>
-    <row r="155" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P155" s="6"/>
     </row>
-    <row r="156" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
     </row>
-    <row r="157" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
     </row>
-    <row r="158" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
     </row>
-    <row r="159" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
     </row>
-    <row r="160" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
     </row>
@@ -9902,9 +10238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4418A-3538-4357-9158-8F79507C1D9F}">
   <dimension ref="A1:XFB174"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -9928,43 +10264,43 @@
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="15" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="15" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="17"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -17267,15 +17603,15 @@
         <v>3657</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" ref="M97:M118" si="25">J97/I97</f>
+        <f t="shared" ref="M97:M120" si="25">J97/I97</f>
         <v>2936.3636363636365</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" ref="N97:N118" si="26">K97/I97</f>
+        <f t="shared" ref="N97:N120" si="26">K97/I97</f>
         <v>504.72727272727275</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" ref="O97:O118" si="27">L97/I97</f>
+        <f t="shared" ref="O97:O120" si="27">L97/I97</f>
         <v>332.45454545454544</v>
       </c>
       <c r="P97" s="6">
@@ -17723,7 +18059,7 @@
         <v>21715</v>
       </c>
       <c r="R103" s="8">
-        <f t="shared" ref="R103:R118" si="28">Q103/P103</f>
+        <f t="shared" ref="R103:R120" si="28">Q103/P103</f>
         <v>2714.375</v>
       </c>
       <c r="S103" s="6">
@@ -18462,7 +18798,7 @@
         <v>167950</v>
       </c>
       <c r="U113" s="8">
-        <f t="shared" ref="U113:U118" si="30">T113/S113</f>
+        <f t="shared" ref="U113:U120" si="30">T113/S113</f>
         <v>12919.23076923077</v>
       </c>
     </row>
@@ -18556,15 +18892,15 @@
         <v>28332</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" ref="F115:F118" si="31">C115/B115</f>
+        <f t="shared" ref="F115:F120" si="31">C115/B115</f>
         <v>541.63636363636363</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" ref="G115:G118" si="32">D115/B115</f>
+        <f t="shared" ref="G115:G120" si="32">D115/B115</f>
         <v>927.63636363636363</v>
       </c>
       <c r="H115" s="8">
-        <f t="shared" ref="H115:H118" si="33">E115/B115</f>
+        <f t="shared" ref="H115:H120" si="33">E115/B115</f>
         <v>2575.6363636363635</v>
       </c>
       <c r="I115" s="6">
@@ -18832,28 +19168,150 @@
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
+      <c r="A119" s="9">
+        <v>45292</v>
+      </c>
+      <c r="B119" s="6">
+        <v>4</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1986</v>
+      </c>
+      <c r="D119" s="6">
+        <v>4253</v>
+      </c>
+      <c r="E119" s="6">
+        <v>11700</v>
+      </c>
+      <c r="F119" s="6">
+        <f t="shared" si="31"/>
+        <v>496.5</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="32"/>
+        <v>1063.25</v>
+      </c>
+      <c r="H119" s="8">
+        <f t="shared" si="33"/>
+        <v>2925</v>
+      </c>
+      <c r="I119" s="6">
+        <v>7</v>
+      </c>
+      <c r="J119" s="6">
+        <v>27800</v>
+      </c>
+      <c r="K119" s="6">
+        <v>3691</v>
+      </c>
+      <c r="L119" s="6">
+        <v>3510</v>
+      </c>
+      <c r="M119" s="6">
+        <f t="shared" si="25"/>
+        <v>3971.4285714285716</v>
+      </c>
+      <c r="N119" s="6">
+        <f t="shared" si="26"/>
+        <v>527.28571428571433</v>
+      </c>
+      <c r="O119" s="8">
+        <f t="shared" si="27"/>
+        <v>501.42857142857144</v>
+      </c>
+      <c r="P119" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>21277</v>
+      </c>
+      <c r="R119" s="8">
+        <f t="shared" si="28"/>
+        <v>3546.1666666666665</v>
+      </c>
+      <c r="S119" s="6">
+        <v>4</v>
+      </c>
+      <c r="T119" s="6">
+        <v>290366</v>
+      </c>
+      <c r="U119" s="8">
+        <f t="shared" si="30"/>
+        <v>72591.5</v>
+      </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
+      <c r="A120" s="9">
+        <v>45293</v>
+      </c>
+      <c r="B120" s="6">
+        <v>5</v>
+      </c>
+      <c r="C120" s="6">
+        <v>3096</v>
+      </c>
+      <c r="D120" s="6">
+        <v>6200</v>
+      </c>
+      <c r="E120" s="6">
+        <v>17100</v>
+      </c>
+      <c r="F120" s="6">
+        <f t="shared" si="31"/>
+        <v>619.20000000000005</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="32"/>
+        <v>1240</v>
+      </c>
+      <c r="H120" s="8">
+        <f t="shared" si="33"/>
+        <v>3420</v>
+      </c>
+      <c r="I120" s="6">
+        <v>6</v>
+      </c>
+      <c r="J120" s="6">
+        <v>75100</v>
+      </c>
+      <c r="K120" s="6">
+        <v>4886</v>
+      </c>
+      <c r="L120" s="6">
+        <v>3929</v>
+      </c>
+      <c r="M120" s="6">
+        <f t="shared" si="25"/>
+        <v>12516.666666666666</v>
+      </c>
+      <c r="N120" s="6">
+        <f t="shared" si="26"/>
+        <v>814.33333333333337</v>
+      </c>
+      <c r="O120" s="8">
+        <f t="shared" si="27"/>
+        <v>654.83333333333337</v>
+      </c>
+      <c r="P120" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>17026</v>
+      </c>
+      <c r="R120" s="8">
+        <f t="shared" si="28"/>
+        <v>5675.333333333333</v>
+      </c>
+      <c r="S120" s="6">
+        <v>2</v>
+      </c>
+      <c r="T120" s="6">
+        <v>499042</v>
+      </c>
+      <c r="U120" s="8">
+        <f t="shared" si="30"/>
+        <v>249521</v>
+      </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B121" s="6"/>
@@ -18908,6 +19366,7 @@
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
+      <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
@@ -18915,7 +19374,6 @@
       <c r="Q125" s="6"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -18931,7 +19389,6 @@
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
-      <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
@@ -19236,12 +19693,12 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="13"/>
+    <col min="1" max="1" width="11.5546875" style="11"/>
     <col min="8" max="8" width="11.5546875" style="2"/>
     <col min="15" max="15" width="11.5546875" style="2"/>
     <col min="18" max="18" width="11.5546875" style="2"/>
@@ -19249,44 +19706,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="15" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="15" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="17"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -19375,7 +19831,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="18">
         <v>45302</v>
       </c>
     </row>
@@ -19396,7 +19852,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -19478,7 +19934,7 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>45182</v>
       </c>
       <c r="C2">
@@ -19492,7 +19948,7 @@
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>45184</v>
       </c>
       <c r="C3">
@@ -19508,7 +19964,7 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>45214</v>
       </c>
       <c r="C4">
@@ -19524,7 +19980,7 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>45214</v>
       </c>
       <c r="C5">
@@ -19540,7 +19996,7 @@
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>45230</v>
       </c>
       <c r="C6">
@@ -19595,7 +20051,7 @@
       <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>44927</v>
       </c>
       <c r="C10">
@@ -19637,7 +20093,7 @@
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>45275</v>
       </c>
       <c r="C13">
@@ -19679,7 +20135,7 @@
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>45265</v>
       </c>
       <c r="C16">
@@ -19701,392 +20157,668 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="F3" s="19">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="22">
         <v>1</v>
       </c>
-      <c r="K3" s="19">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="22">
         <v>1</v>
       </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="22">
         <v>2</v>
       </c>
-      <c r="K4" s="19">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="22">
         <v>2</v>
       </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="F5" s="19">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="22">
         <v>3</v>
       </c>
-      <c r="K5" s="19">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="22">
         <v>3</v>
       </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="F6" s="19">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="22">
         <v>4</v>
       </c>
-      <c r="K6" s="19">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="22">
         <v>4</v>
       </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="F7" s="19">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="22">
         <v>5</v>
       </c>
-      <c r="K7" s="19">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="22">
         <v>5</v>
       </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="F8" s="19">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="22">
         <v>6</v>
       </c>
-      <c r="K8" s="19">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="22">
         <v>6</v>
       </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="F9" s="19">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="22">
         <v>7</v>
       </c>
-      <c r="K9" s="19">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="22">
         <v>7</v>
       </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="F10" s="19">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="22">
         <v>8</v>
       </c>
-      <c r="K10" s="19">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="22">
         <v>8</v>
       </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="F11" s="19">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="22">
         <v>9</v>
       </c>
-      <c r="K11" s="19">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="22">
         <v>9</v>
       </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="F12" s="19">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="22">
         <v>10</v>
       </c>
-      <c r="K12" s="19">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="22">
         <v>10</v>
       </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="F13" s="19">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="22">
         <v>11</v>
       </c>
-      <c r="K13" s="19">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="K13" s="22">
         <v>11</v>
       </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="F14" s="19">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="22">
         <v>12</v>
       </c>
-      <c r="K14" s="19">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="22">
         <v>12</v>
       </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="22">
         <v>13</v>
       </c>
-      <c r="F15" s="19">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="22">
         <v>13</v>
       </c>
-      <c r="K15" s="19">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="22">
         <v>13</v>
       </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="F16" s="19">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="22">
         <v>14</v>
       </c>
-      <c r="K16" s="19">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="22">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="F17" s="19">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="22">
         <v>15</v>
       </c>
-      <c r="K17" s="19">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="K17" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="F18" s="19">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="22">
         <v>16</v>
       </c>
-      <c r="K18" s="19">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="22">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
         <v>17</v>
       </c>
-      <c r="F19" s="19">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="22">
         <v>17</v>
       </c>
-      <c r="K19" s="19">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="K19" s="22">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
         <v>18</v>
       </c>
-      <c r="F20" s="19">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="22">
         <v>18</v>
       </c>
-      <c r="K20" s="19">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="22">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
         <v>19</v>
       </c>
-      <c r="F21" s="19">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="22">
         <v>19</v>
       </c>
-      <c r="K21" s="19">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="22">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
         <v>20</v>
       </c>
-      <c r="F22" s="19">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="22">
         <v>20</v>
       </c>
-      <c r="K22" s="19">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="K22" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
         <v>21</v>
       </c>
-      <c r="F23" s="19">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="22">
         <v>21</v>
       </c>
-      <c r="K23" s="19">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="K23" s="22">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
-      <c r="F24" s="19">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="22">
         <v>22</v>
       </c>
-      <c r="K24" s="19">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="22">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
         <v>23</v>
       </c>
-      <c r="F25" s="19">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="22">
         <v>23</v>
       </c>
-      <c r="K25" s="19">
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="22">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
         <v>24</v>
       </c>
-      <c r="F26" s="19">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="22">
         <v>24</v>
       </c>
-      <c r="K26" s="19">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="K26" s="22">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
         <v>25</v>
       </c>
-      <c r="F27" s="19">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="22">
         <v>25</v>
       </c>
-      <c r="K27" s="19">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="K27" s="22">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
         <v>26</v>
       </c>
-      <c r="F28" s="19">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="22">
         <v>26</v>
       </c>
-      <c r="K28" s="19">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="K28" s="22">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
         <v>27</v>
       </c>
-      <c r="F29" s="19">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="22">
         <v>27</v>
       </c>
-      <c r="K29" s="19">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="K29" s="22">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
         <v>28</v>
       </c>
-      <c r="F30" s="19">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="22">
         <v>28</v>
       </c>
-      <c r="K30" s="19">
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2"/>
+      <c r="K30" s="22">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
         <v>29</v>
       </c>
-      <c r="F31" s="19">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="22">
         <v>29</v>
       </c>
-      <c r="K31" s="19">
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="22">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <v>30</v>
       </c>
-      <c r="F32" s="19">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="F32" s="24">
         <v>30</v>
       </c>
-      <c r="K32" s="19">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="K32" s="24">
         <v>30</v>
       </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -20094,7 +20826,12 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{5E1EDCAE-90DE-4BCC-971D-C69693A51717}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{EFD34DBD-6E3F-43F5-963E-F95592BBEFB2}"/>
+    <hyperlink ref="K1" r:id="rId3" xr:uid="{6858609E-0947-46E3-8C05-5EA5FCDCA27B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFCA92-82BE-431B-80AB-BBEA75568184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C5567-62D8-4D91-B672-0E05F956D9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="1" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="67">
   <si>
     <t>Candidate</t>
   </si>
@@ -163,28 +163,13 @@
     <t>Maynez</t>
   </si>
   <si>
-    <t>Poll</t>
-  </si>
-  <si>
-    <t>Claudia</t>
-  </si>
-  <si>
-    <t>Galvez</t>
-  </si>
-  <si>
     <t>Enkoll</t>
   </si>
   <si>
     <t>GEA-ISA</t>
   </si>
   <si>
-    <t>Covarrubias</t>
-  </si>
-  <si>
     <t>El Financiero</t>
-  </si>
-  <si>
-    <t>Mendoza Blanco</t>
   </si>
   <si>
     <t>Simo</t>
@@ -203,6 +188,60 @@
   </si>
   <si>
     <t>https://twitter.com/AlvarezMaynez/status/1748072739749945601</t>
+  </si>
+  <si>
+    <t>AlvarezMaynez</t>
+  </si>
+  <si>
+    <t>Bruta</t>
+  </si>
+  <si>
+    <t>Jan 2024</t>
+  </si>
+  <si>
+    <t>Mitofsky</t>
+  </si>
+  <si>
+    <t>Mendoza Blanco &amp; Asoc</t>
+  </si>
+  <si>
+    <t>Demotecnia</t>
+  </si>
+  <si>
+    <t>Berumen</t>
+  </si>
+  <si>
+    <t>Varela y Asoc / Citibanamex</t>
+  </si>
+  <si>
+    <t>Dec 2023</t>
+  </si>
+  <si>
+    <t>Parametría</t>
+  </si>
+  <si>
+    <t>Covarrubias y Asoc</t>
+  </si>
+  <si>
+    <t>Buendía &amp; Márquez</t>
+  </si>
+  <si>
+    <t>Estimación</t>
+  </si>
+  <si>
+    <t>Encuestadora</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>XG</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>JAM</t>
   </si>
 </sst>
 </file>
@@ -361,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -390,7 +429,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,23 +457,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -737,11 +783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6041754-B9A0-4B1F-8AE9-569EC65B3AFE}">
-  <dimension ref="A1:XFB168"/>
+  <dimension ref="A1:XFB253"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -766,43 +812,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="13" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="13" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="15"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="25"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -8288,15 +8334,15 @@
         <v>7044</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" ref="M99:M120" si="44">J99/I99</f>
+        <f t="shared" ref="M99:M132" si="44">J99/I99</f>
         <v>23440</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" ref="N99:N120" si="45">K99/I99</f>
+        <f t="shared" ref="N99:N132" si="45">K99/I99</f>
         <v>5860</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" ref="O99:O120" si="46">L99/I99</f>
+        <f t="shared" ref="O99:O132" si="46">L99/I99</f>
         <v>1408.8</v>
       </c>
       <c r="P99" s="6">
@@ -8744,7 +8790,7 @@
         <v>33845</v>
       </c>
       <c r="R105" s="8">
-        <f t="shared" ref="R105:R120" si="48">Q105/P105</f>
+        <f t="shared" ref="R105:R132" si="48">Q105/P105</f>
         <v>4835</v>
       </c>
       <c r="S105" s="6">
@@ -9483,7 +9529,7 @@
         <v>48809</v>
       </c>
       <c r="U115" s="8">
-        <f t="shared" ref="U115:U120" si="52">T115/S115</f>
+        <f t="shared" ref="U115:U121" si="52">T115/S115</f>
         <v>24404.5</v>
       </c>
     </row>
@@ -9853,163 +9899,888 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
+      <c r="A121" s="9">
+        <v>45294</v>
+      </c>
+      <c r="B121" s="6">
+        <v>17</v>
+      </c>
+      <c r="C121" s="6">
+        <v>6904</v>
+      </c>
+      <c r="D121" s="6">
+        <v>20234</v>
+      </c>
+      <c r="E121" s="6">
+        <v>52722</v>
+      </c>
+      <c r="F121" s="6">
+        <f>C121/B121</f>
+        <v>406.11764705882354</v>
+      </c>
+      <c r="G121" s="6">
+        <f>D121/B121</f>
+        <v>1190.2352941176471</v>
+      </c>
+      <c r="H121" s="8">
+        <f>E121/B121</f>
+        <v>3101.294117647059</v>
+      </c>
+      <c r="I121" s="6">
+        <v>10</v>
+      </c>
+      <c r="J121" s="6">
+        <v>261000</v>
+      </c>
+      <c r="K121" s="6">
+        <v>67800</v>
+      </c>
+      <c r="L121" s="6">
+        <v>11252</v>
+      </c>
+      <c r="M121" s="6">
+        <f t="shared" si="44"/>
+        <v>26100</v>
+      </c>
+      <c r="N121" s="6">
+        <f t="shared" si="45"/>
+        <v>6780</v>
+      </c>
+      <c r="O121" s="8">
+        <f t="shared" si="46"/>
+        <v>1125.2</v>
+      </c>
+      <c r="P121" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>49011</v>
+      </c>
+      <c r="R121" s="8">
+        <f t="shared" si="48"/>
+        <v>6126.375</v>
+      </c>
+      <c r="S121" s="6">
+        <v>1</v>
+      </c>
+      <c r="T121" s="6">
+        <v>68676</v>
+      </c>
+      <c r="U121" s="8">
+        <f t="shared" si="52"/>
+        <v>68676</v>
+      </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="S122" s="6"/>
-      <c r="T122" s="6"/>
+      <c r="A122" s="9">
+        <v>45295</v>
+      </c>
+      <c r="B122" s="6">
+        <v>16</v>
+      </c>
+      <c r="C122" s="6">
+        <v>6543</v>
+      </c>
+      <c r="D122" s="6">
+        <v>16882</v>
+      </c>
+      <c r="E122" s="6">
+        <v>48264</v>
+      </c>
+      <c r="F122" s="6">
+        <f>C122/B122</f>
+        <v>408.9375</v>
+      </c>
+      <c r="G122" s="6">
+        <f>D122/B122</f>
+        <v>1055.125</v>
+      </c>
+      <c r="H122" s="8">
+        <f>E122/B122</f>
+        <v>3016.5</v>
+      </c>
+      <c r="I122" s="6">
+        <v>8</v>
+      </c>
+      <c r="J122" s="6">
+        <v>148400</v>
+      </c>
+      <c r="K122" s="6">
+        <v>50000</v>
+      </c>
+      <c r="L122" s="6">
+        <v>7383</v>
+      </c>
+      <c r="M122" s="6">
+        <f t="shared" si="44"/>
+        <v>18550</v>
+      </c>
+      <c r="N122" s="6">
+        <f t="shared" si="45"/>
+        <v>6250</v>
+      </c>
+      <c r="O122" s="8">
+        <f t="shared" si="46"/>
+        <v>922.875</v>
+      </c>
+      <c r="P122" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>60640</v>
+      </c>
+      <c r="R122" s="8">
+        <f t="shared" si="48"/>
+        <v>8662.8571428571431</v>
+      </c>
+      <c r="S122" s="6">
+        <v>0</v>
+      </c>
+      <c r="T122" s="6">
+        <v>0</v>
+      </c>
+      <c r="U122" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="6"/>
+      <c r="A123" s="9">
+        <v>45296</v>
+      </c>
+      <c r="B123" s="6">
+        <v>10</v>
+      </c>
+      <c r="C123" s="6">
+        <v>4821</v>
+      </c>
+      <c r="D123" s="6">
+        <v>13893</v>
+      </c>
+      <c r="E123" s="6">
+        <v>34023</v>
+      </c>
+      <c r="F123" s="6">
+        <f t="shared" ref="F123:F132" si="56">C123/B123</f>
+        <v>482.1</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" ref="G123:G132" si="57">D123/B123</f>
+        <v>1389.3</v>
+      </c>
+      <c r="H123" s="8">
+        <f t="shared" ref="H123:H132" si="58">E123/B123</f>
+        <v>3402.3</v>
+      </c>
+      <c r="I123" s="6">
+        <v>5</v>
+      </c>
+      <c r="J123" s="6">
+        <v>80800</v>
+      </c>
+      <c r="K123" s="6">
+        <v>28500</v>
+      </c>
+      <c r="L123" s="6">
+        <v>4071</v>
+      </c>
+      <c r="M123" s="6">
+        <f t="shared" si="44"/>
+        <v>16160</v>
+      </c>
+      <c r="N123" s="6">
+        <f t="shared" si="45"/>
+        <v>5700</v>
+      </c>
+      <c r="O123" s="8">
+        <f t="shared" si="46"/>
+        <v>814.2</v>
+      </c>
+      <c r="P123" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>29694</v>
+      </c>
+      <c r="R123" s="8">
+        <f t="shared" si="48"/>
+        <v>7423.5</v>
+      </c>
+      <c r="S123" s="6">
+        <v>4</v>
+      </c>
+      <c r="T123" s="6">
+        <v>1115000</v>
+      </c>
+      <c r="U123" s="8">
+        <f>T123/S123</f>
+        <v>278750</v>
+      </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="S124" s="6"/>
+      <c r="A124" s="9">
+        <v>45297</v>
+      </c>
+      <c r="B124" s="6">
+        <v>21</v>
+      </c>
+      <c r="C124" s="6">
+        <v>8392</v>
+      </c>
+      <c r="D124" s="6">
+        <v>25327</v>
+      </c>
+      <c r="E124" s="6">
+        <v>70457</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="56"/>
+        <v>399.61904761904759</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="57"/>
+        <v>1206.047619047619</v>
+      </c>
+      <c r="H124" s="8">
+        <f t="shared" si="58"/>
+        <v>3355.0952380952381</v>
+      </c>
+      <c r="I124" s="6">
+        <v>11</v>
+      </c>
+      <c r="J124" s="6">
+        <v>192700</v>
+      </c>
+      <c r="K124" s="6">
+        <v>42800</v>
+      </c>
+      <c r="L124" s="6">
+        <v>8430</v>
+      </c>
+      <c r="M124" s="6">
+        <f t="shared" si="44"/>
+        <v>17518.18181818182</v>
+      </c>
+      <c r="N124" s="6">
+        <f t="shared" si="45"/>
+        <v>3890.909090909091</v>
+      </c>
+      <c r="O124" s="8">
+        <f t="shared" si="46"/>
+        <v>766.36363636363637</v>
+      </c>
+      <c r="P124" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>67515</v>
+      </c>
+      <c r="R124" s="8">
+        <f t="shared" si="48"/>
+        <v>6751.5</v>
+      </c>
+      <c r="S124" s="6">
+        <v>2</v>
+      </c>
+      <c r="T124" s="6">
+        <v>103800</v>
+      </c>
+      <c r="U124" s="8">
+        <f>T124/S124</f>
+        <v>51900</v>
+      </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
+      <c r="A125" s="9">
+        <v>45298</v>
+      </c>
+      <c r="B125" s="6">
+        <v>13</v>
+      </c>
+      <c r="C125" s="6">
+        <v>3989</v>
+      </c>
+      <c r="D125" s="6">
+        <v>12754</v>
+      </c>
+      <c r="E125" s="6">
+        <v>37631</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="56"/>
+        <v>306.84615384615387</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="57"/>
+        <v>981.07692307692309</v>
+      </c>
+      <c r="H125" s="8">
+        <f t="shared" si="58"/>
+        <v>2894.6923076923076</v>
+      </c>
+      <c r="I125" s="6">
+        <v>8</v>
+      </c>
+      <c r="J125" s="6">
+        <v>74300</v>
+      </c>
+      <c r="K125" s="6">
+        <v>16677</v>
+      </c>
+      <c r="L125" s="6">
+        <v>5720</v>
+      </c>
+      <c r="M125" s="6">
+        <f t="shared" si="44"/>
+        <v>9287.5</v>
+      </c>
+      <c r="N125" s="6">
+        <f t="shared" si="45"/>
+        <v>2084.625</v>
+      </c>
+      <c r="O125" s="8">
+        <f t="shared" si="46"/>
+        <v>715</v>
+      </c>
+      <c r="P125" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q125" s="6">
+        <v>37099</v>
+      </c>
+      <c r="R125" s="8">
+        <f t="shared" si="48"/>
+        <v>6183.166666666667</v>
+      </c>
+      <c r="S125" s="6">
+        <v>1</v>
+      </c>
+      <c r="T125" s="6">
+        <v>4100</v>
+      </c>
+      <c r="U125" s="8">
+        <v>4100</v>
+      </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
+      <c r="A126" s="9">
+        <v>45299</v>
+      </c>
+      <c r="B126" s="6">
+        <v>17</v>
+      </c>
+      <c r="C126" s="6">
+        <v>7896</v>
+      </c>
+      <c r="D126" s="6">
+        <v>25870</v>
+      </c>
+      <c r="E126" s="6">
+        <v>68099</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="56"/>
+        <v>464.47058823529414</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" si="57"/>
+        <v>1521.7647058823529</v>
+      </c>
+      <c r="H126" s="8">
+        <f t="shared" si="58"/>
+        <v>4005.8235294117649</v>
+      </c>
+      <c r="I126" s="6">
+        <v>8</v>
+      </c>
+      <c r="J126" s="6">
+        <v>52100</v>
+      </c>
+      <c r="K126" s="6">
+        <v>10144</v>
+      </c>
+      <c r="L126" s="6">
+        <v>5049</v>
+      </c>
+      <c r="M126" s="6">
+        <f t="shared" si="44"/>
+        <v>6512.5</v>
+      </c>
+      <c r="N126" s="6">
+        <f t="shared" si="45"/>
+        <v>1268</v>
+      </c>
+      <c r="O126" s="8">
+        <f t="shared" si="46"/>
+        <v>631.125</v>
+      </c>
+      <c r="P126" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q126" s="6">
+        <v>24637</v>
+      </c>
+      <c r="R126" s="8">
+        <f t="shared" si="48"/>
+        <v>4106.166666666667</v>
+      </c>
+      <c r="S126" s="6">
+        <v>2</v>
+      </c>
+      <c r="T126" s="6">
+        <v>175749</v>
+      </c>
+      <c r="U126" s="8">
+        <v>87874.5</v>
+      </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
+      <c r="A127" s="9">
+        <v>45300</v>
+      </c>
+      <c r="B127" s="6">
+        <v>14</v>
+      </c>
+      <c r="C127" s="6">
+        <v>7088</v>
+      </c>
+      <c r="D127" s="6">
+        <v>18018</v>
+      </c>
+      <c r="E127" s="6">
+        <v>46823</v>
+      </c>
+      <c r="F127" s="6">
+        <f t="shared" si="56"/>
+        <v>506.28571428571428</v>
+      </c>
+      <c r="G127" s="6">
+        <f t="shared" si="57"/>
+        <v>1287</v>
+      </c>
+      <c r="H127" s="8">
+        <f t="shared" si="58"/>
+        <v>3344.5</v>
+      </c>
+      <c r="I127" s="6">
+        <v>8</v>
+      </c>
+      <c r="J127" s="6">
+        <v>50500</v>
+      </c>
+      <c r="K127" s="6">
+        <v>8934</v>
+      </c>
+      <c r="L127" s="6">
+        <v>4513</v>
+      </c>
+      <c r="M127" s="6">
+        <f t="shared" si="44"/>
+        <v>6312.5</v>
+      </c>
+      <c r="N127" s="6">
+        <f t="shared" si="45"/>
+        <v>1116.75</v>
+      </c>
+      <c r="O127" s="8">
+        <f t="shared" si="46"/>
+        <v>564.125</v>
+      </c>
+      <c r="P127" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q127" s="6">
+        <v>24660</v>
+      </c>
+      <c r="R127" s="8">
+        <f t="shared" si="48"/>
+        <v>6165</v>
+      </c>
+      <c r="S127" s="6">
+        <v>3</v>
+      </c>
+      <c r="T127" s="6">
+        <v>1402700</v>
+      </c>
+      <c r="U127" s="8">
+        <v>87874.5</v>
+      </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="A128" s="9">
+        <v>45301</v>
+      </c>
+      <c r="B128" s="6">
+        <v>12</v>
+      </c>
+      <c r="C128" s="6">
+        <v>5865</v>
+      </c>
+      <c r="D128" s="6">
+        <v>19519</v>
+      </c>
+      <c r="E128" s="6">
+        <v>54168</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" si="56"/>
+        <v>488.75</v>
+      </c>
+      <c r="G128" s="6">
+        <f t="shared" si="57"/>
+        <v>1626.5833333333333</v>
+      </c>
+      <c r="H128" s="8">
+        <f t="shared" si="58"/>
+        <v>4514</v>
+      </c>
+      <c r="I128" s="6">
+        <v>9</v>
+      </c>
+      <c r="J128" s="6">
+        <v>73200</v>
+      </c>
+      <c r="K128" s="6">
+        <v>13110</v>
+      </c>
+      <c r="L128" s="6">
+        <v>5137</v>
+      </c>
+      <c r="M128" s="6">
+        <f t="shared" si="44"/>
+        <v>8133.333333333333</v>
+      </c>
+      <c r="N128" s="6">
+        <f t="shared" si="45"/>
+        <v>1456.6666666666667</v>
+      </c>
+      <c r="O128" s="8">
+        <f t="shared" si="46"/>
+        <v>570.77777777777783</v>
+      </c>
+      <c r="P128" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q128" s="6">
+        <v>41646</v>
+      </c>
+      <c r="R128" s="8">
+        <f t="shared" si="48"/>
+        <v>5949.4285714285716</v>
+      </c>
+      <c r="S128" s="6">
+        <v>1</v>
+      </c>
+      <c r="T128" s="6">
+        <v>350249</v>
+      </c>
+      <c r="U128" s="8">
+        <v>87874.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
+        <v>45302</v>
+      </c>
+      <c r="B129" s="6">
+        <v>10</v>
+      </c>
+      <c r="C129" s="6">
+        <v>7760</v>
+      </c>
+      <c r="D129" s="6">
+        <v>17928</v>
+      </c>
+      <c r="E129" s="6">
+        <v>45329</v>
+      </c>
+      <c r="F129" s="6">
+        <f t="shared" si="56"/>
+        <v>776</v>
+      </c>
+      <c r="G129" s="6">
+        <f t="shared" si="57"/>
+        <v>1792.8</v>
+      </c>
+      <c r="H129" s="8">
+        <f t="shared" si="58"/>
+        <v>4532.8999999999996</v>
+      </c>
+      <c r="I129" s="6">
+        <v>6</v>
+      </c>
+      <c r="J129" s="6">
+        <v>154000</v>
+      </c>
+      <c r="K129" s="6">
+        <v>55900</v>
+      </c>
+      <c r="L129" s="6">
+        <v>9777</v>
+      </c>
+      <c r="M129" s="6">
+        <f t="shared" si="44"/>
+        <v>25666.666666666668</v>
+      </c>
+      <c r="N129" s="6">
+        <f t="shared" si="45"/>
+        <v>9316.6666666666661</v>
+      </c>
+      <c r="O129" s="8">
+        <f t="shared" si="46"/>
+        <v>1629.5</v>
+      </c>
+      <c r="P129" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q129" s="6">
+        <v>53933</v>
+      </c>
+      <c r="R129" s="8">
+        <f t="shared" si="48"/>
+        <v>10786.6</v>
+      </c>
+      <c r="S129" s="6">
+        <v>3</v>
+      </c>
+      <c r="T129" s="6">
+        <v>1093273</v>
+      </c>
+      <c r="U129" s="8">
+        <v>87874.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
+        <v>45303</v>
+      </c>
+      <c r="B130" s="6">
+        <v>12</v>
+      </c>
+      <c r="C130" s="6">
+        <v>6191</v>
+      </c>
+      <c r="D130" s="6">
+        <v>17534</v>
+      </c>
+      <c r="E130" s="6">
+        <v>46977</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" si="56"/>
+        <v>515.91666666666663</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" si="57"/>
+        <v>1461.1666666666667</v>
+      </c>
+      <c r="H130" s="8">
+        <f t="shared" si="58"/>
+        <v>3914.75</v>
+      </c>
+      <c r="I130" s="6">
+        <v>6</v>
+      </c>
+      <c r="J130" s="6">
+        <v>147400</v>
+      </c>
+      <c r="K130" s="6">
+        <v>46400</v>
+      </c>
+      <c r="L130" s="6">
+        <v>8127</v>
+      </c>
+      <c r="M130" s="6">
+        <f t="shared" si="44"/>
+        <v>24566.666666666668</v>
+      </c>
+      <c r="N130" s="6">
+        <f t="shared" si="45"/>
+        <v>7733.333333333333</v>
+      </c>
+      <c r="O130" s="8">
+        <f t="shared" si="46"/>
+        <v>1354.5</v>
+      </c>
+      <c r="P130" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q130" s="6">
+        <v>69168</v>
+      </c>
+      <c r="R130" s="8">
+        <f t="shared" si="48"/>
+        <v>13833.6</v>
+      </c>
+      <c r="S130" s="6">
+        <v>1</v>
+      </c>
+      <c r="T130" s="6">
+        <v>256568</v>
+      </c>
+      <c r="U130" s="8">
+        <v>87874.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
+        <v>45304</v>
+      </c>
+      <c r="B131" s="6">
+        <v>9</v>
+      </c>
+      <c r="C131" s="6">
+        <v>3271</v>
+      </c>
+      <c r="D131" s="6">
+        <v>9988</v>
+      </c>
+      <c r="E131" s="6">
+        <v>27935</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" si="56"/>
+        <v>363.44444444444446</v>
+      </c>
+      <c r="G131" s="6">
+        <f t="shared" si="57"/>
+        <v>1109.7777777777778</v>
+      </c>
+      <c r="H131" s="8">
+        <f t="shared" si="58"/>
+        <v>3103.8888888888887</v>
+      </c>
+      <c r="I131" s="6">
+        <v>5</v>
+      </c>
+      <c r="J131" s="6">
+        <v>58900</v>
+      </c>
+      <c r="K131" s="6">
+        <v>13600</v>
+      </c>
+      <c r="L131" s="6">
+        <v>3710</v>
+      </c>
+      <c r="M131" s="6">
+        <f t="shared" si="44"/>
+        <v>11780</v>
+      </c>
+      <c r="N131" s="6">
+        <f t="shared" si="45"/>
+        <v>2720</v>
+      </c>
+      <c r="O131" s="8">
+        <f t="shared" si="46"/>
+        <v>742</v>
+      </c>
+      <c r="P131" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q131" s="6">
+        <v>66056</v>
+      </c>
+      <c r="R131" s="8">
+        <f t="shared" si="48"/>
+        <v>22018.666666666668</v>
+      </c>
+      <c r="S131" s="6">
+        <v>3</v>
+      </c>
+      <c r="T131" s="6">
+        <v>82100</v>
+      </c>
+      <c r="U131" s="8">
+        <v>87874.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
+        <v>45305</v>
+      </c>
+      <c r="B132" s="6">
+        <v>121</v>
+      </c>
+      <c r="C132" s="6">
+        <v>15562</v>
+      </c>
+      <c r="D132" s="6">
+        <v>111756</v>
+      </c>
+      <c r="E132" s="6">
+        <v>313932</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="56"/>
+        <v>128.61157024793388</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="57"/>
+        <v>923.60330578512401</v>
+      </c>
+      <c r="H132" s="8">
+        <f t="shared" si="58"/>
+        <v>2594.4793388429753</v>
+      </c>
+      <c r="I132" s="6">
+        <v>30</v>
+      </c>
+      <c r="J132" s="6">
+        <v>219600</v>
+      </c>
+      <c r="K132" s="6">
+        <v>64493</v>
+      </c>
+      <c r="L132" s="6">
+        <v>17781</v>
+      </c>
+      <c r="M132" s="6">
+        <f t="shared" si="44"/>
+        <v>7320</v>
+      </c>
+      <c r="N132" s="6">
+        <f t="shared" si="45"/>
+        <v>2149.7666666666669</v>
+      </c>
+      <c r="O132" s="8">
+        <f t="shared" si="46"/>
+        <v>592.70000000000005</v>
+      </c>
+      <c r="P132" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q132" s="6">
+        <v>149731</v>
+      </c>
+      <c r="R132" s="8">
+        <f t="shared" si="48"/>
+        <v>11517.76923076923</v>
+      </c>
+      <c r="S132" s="6">
+        <v>23</v>
+      </c>
+      <c r="T132" s="6">
+        <v>2993100</v>
+      </c>
+      <c r="U132" s="8">
+        <v>87874.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
-    </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -10019,8 +10790,11 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="P134" s="6"/>
-    </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q134" s="6"/>
+      <c r="S134" s="6"/>
+      <c r="T134" s="6"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -10029,14 +10803,25 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="S136" s="6"/>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -10047,8 +10832,10 @@
       <c r="L137" s="6"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S137" s="6"/>
+      <c r="T137" s="6"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -10059,8 +10846,10 @@
       <c r="L138" s="6"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -10071,8 +10860,10 @@
       <c r="L139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S139" s="6"/>
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -10083,143 +10874,888 @@
       <c r="L140" s="6"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
-    </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S141" s="6"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S142" s="6"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
       <c r="P143" s="6"/>
-    </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q143" s="6"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
       <c r="P149" s="6"/>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q149" s="6"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
-    </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S150" s="6"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S151" s="6"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
-    </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
-    </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
-    </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
       <c r="P155" s="6"/>
-    </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
-    </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
-    </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
-    </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
-    </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
-    </row>
-    <row r="161" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="S160" s="6"/>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
     </row>
-    <row r="162" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
     </row>
-    <row r="163" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
     </row>
-    <row r="164" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
     </row>
-    <row r="166" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
     </row>
-    <row r="167" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
       <c r="P168" s="6"/>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10239,8 +11775,8 @@
   <dimension ref="A1:XFB174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -10264,43 +11800,43 @@
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="13" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="13" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="15"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="25"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -17603,15 +19139,15 @@
         <v>3657</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" ref="M97:M120" si="25">J97/I97</f>
+        <f t="shared" ref="M97:M132" si="25">J97/I97</f>
         <v>2936.3636363636365</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" ref="N97:N120" si="26">K97/I97</f>
+        <f t="shared" ref="N97:N132" si="26">K97/I97</f>
         <v>504.72727272727275</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" ref="O97:O120" si="27">L97/I97</f>
+        <f t="shared" ref="O97:O132" si="27">L97/I97</f>
         <v>332.45454545454544</v>
       </c>
       <c r="P97" s="6">
@@ -18059,7 +19595,7 @@
         <v>21715</v>
       </c>
       <c r="R103" s="8">
-        <f t="shared" ref="R103:R120" si="28">Q103/P103</f>
+        <f t="shared" ref="R103:R132" si="28">Q103/P103</f>
         <v>2714.375</v>
       </c>
       <c r="S103" s="6">
@@ -18600,15 +20136,15 @@
         <v>13200</v>
       </c>
       <c r="F111" s="6">
-        <f>C111/B111</f>
+        <f t="shared" ref="F111:F120" si="30">C111/B111</f>
         <v>953</v>
       </c>
       <c r="G111" s="6">
-        <f>D111/B111</f>
+        <f t="shared" ref="G111:G120" si="31">D111/B111</f>
         <v>1366.6666666666667</v>
       </c>
       <c r="H111" s="8">
-        <f>E111/B111</f>
+        <f t="shared" ref="H111:H120" si="32">E111/B111</f>
         <v>4400</v>
       </c>
       <c r="I111" s="6">
@@ -18673,15 +20209,15 @@
         <v>12600</v>
       </c>
       <c r="F112" s="6">
-        <f>C112/B112</f>
+        <f t="shared" si="30"/>
         <v>574.6</v>
       </c>
       <c r="G112" s="6">
-        <f>D112/B112</f>
+        <f t="shared" si="31"/>
         <v>942.4</v>
       </c>
       <c r="H112" s="8">
-        <f>E112/B112</f>
+        <f t="shared" si="32"/>
         <v>2520</v>
       </c>
       <c r="I112" s="6">
@@ -18746,15 +20282,15 @@
         <v>27300</v>
       </c>
       <c r="F113" s="6">
-        <f>C113/B113</f>
+        <f t="shared" si="30"/>
         <v>593.22222222222217</v>
       </c>
       <c r="G113" s="6">
-        <f>D113/B113</f>
+        <f t="shared" si="31"/>
         <v>1050.7777777777778</v>
       </c>
       <c r="H113" s="8">
-        <f>E113/B113</f>
+        <f t="shared" si="32"/>
         <v>3033.3333333333335</v>
       </c>
       <c r="I113" s="6">
@@ -18798,7 +20334,7 @@
         <v>167950</v>
       </c>
       <c r="U113" s="8">
-        <f t="shared" ref="U113:U120" si="30">T113/S113</f>
+        <f t="shared" ref="U113:U124" si="33">T113/S113</f>
         <v>12919.23076923077</v>
       </c>
     </row>
@@ -18819,15 +20355,15 @@
         <v>23800</v>
       </c>
       <c r="F114" s="6">
-        <f>C114/B114</f>
+        <f t="shared" si="30"/>
         <v>458</v>
       </c>
       <c r="G114" s="6">
-        <f>D114/B114</f>
+        <f t="shared" si="31"/>
         <v>936.66666666666663</v>
       </c>
       <c r="H114" s="8">
-        <f>E114/B114</f>
+        <f t="shared" si="32"/>
         <v>2644.4444444444443</v>
       </c>
       <c r="I114" s="6">
@@ -18871,7 +20407,7 @@
         <v>105999</v>
       </c>
       <c r="U114" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>13249.875</v>
       </c>
     </row>
@@ -18892,15 +20428,15 @@
         <v>28332</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" ref="F115:F120" si="31">C115/B115</f>
+        <f t="shared" si="30"/>
         <v>541.63636363636363</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" ref="G115:G120" si="32">D115/B115</f>
+        <f t="shared" si="31"/>
         <v>927.63636363636363</v>
       </c>
       <c r="H115" s="8">
-        <f t="shared" ref="H115:H120" si="33">E115/B115</f>
+        <f t="shared" si="32"/>
         <v>2575.6363636363635</v>
       </c>
       <c r="I115" s="6">
@@ -18944,7 +20480,7 @@
         <v>477348</v>
       </c>
       <c r="U115" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>59668.5</v>
       </c>
     </row>
@@ -18965,15 +20501,15 @@
         <v>18400</v>
       </c>
       <c r="F116" s="6">
+        <f t="shared" si="30"/>
+        <v>392.71428571428572</v>
+      </c>
+      <c r="G116" s="6">
         <f t="shared" si="31"/>
-        <v>392.71428571428572</v>
-      </c>
-      <c r="G116" s="6">
+        <v>933.57142857142856</v>
+      </c>
+      <c r="H116" s="8">
         <f t="shared" si="32"/>
-        <v>933.57142857142856</v>
-      </c>
-      <c r="H116" s="8">
-        <f t="shared" si="33"/>
         <v>2628.5714285714284</v>
       </c>
       <c r="I116" s="6">
@@ -19017,7 +20553,7 @@
         <v>40704</v>
       </c>
       <c r="U116" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>6784</v>
       </c>
     </row>
@@ -19038,15 +20574,15 @@
         <v>21600</v>
       </c>
       <c r="F117" s="6">
+        <f t="shared" si="30"/>
+        <v>997.4</v>
+      </c>
+      <c r="G117" s="6">
         <f t="shared" si="31"/>
-        <v>997.4</v>
-      </c>
-      <c r="G117" s="6">
+        <v>1557.8</v>
+      </c>
+      <c r="H117" s="8">
         <f t="shared" si="32"/>
-        <v>1557.8</v>
-      </c>
-      <c r="H117" s="8">
-        <f t="shared" si="33"/>
         <v>4320</v>
       </c>
       <c r="I117" s="6">
@@ -19090,7 +20626,7 @@
         <v>510513</v>
       </c>
       <c r="U117" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>170171</v>
       </c>
     </row>
@@ -19111,15 +20647,15 @@
         <v>20600</v>
       </c>
       <c r="F118" s="6">
+        <f t="shared" si="30"/>
+        <v>692.2</v>
+      </c>
+      <c r="G118" s="6">
         <f t="shared" si="31"/>
-        <v>692.2</v>
-      </c>
-      <c r="G118" s="6">
+        <v>1295.5999999999999</v>
+      </c>
+      <c r="H118" s="8">
         <f t="shared" si="32"/>
-        <v>1295.5999999999999</v>
-      </c>
-      <c r="H118" s="8">
-        <f t="shared" si="33"/>
         <v>4120</v>
       </c>
       <c r="I118" s="6">
@@ -19163,7 +20699,7 @@
         <v>317733</v>
       </c>
       <c r="U118" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>105911</v>
       </c>
     </row>
@@ -19184,15 +20720,15 @@
         <v>11700</v>
       </c>
       <c r="F119" s="6">
+        <f t="shared" si="30"/>
+        <v>496.5</v>
+      </c>
+      <c r="G119" s="6">
         <f t="shared" si="31"/>
-        <v>496.5</v>
-      </c>
-      <c r="G119" s="6">
+        <v>1063.25</v>
+      </c>
+      <c r="H119" s="8">
         <f t="shared" si="32"/>
-        <v>1063.25</v>
-      </c>
-      <c r="H119" s="8">
-        <f t="shared" si="33"/>
         <v>2925</v>
       </c>
       <c r="I119" s="6">
@@ -19236,7 +20772,7 @@
         <v>290366</v>
       </c>
       <c r="U119" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>72591.5</v>
       </c>
     </row>
@@ -19257,15 +20793,15 @@
         <v>17100</v>
       </c>
       <c r="F120" s="6">
+        <f t="shared" si="30"/>
+        <v>619.20000000000005</v>
+      </c>
+      <c r="G120" s="6">
         <f t="shared" si="31"/>
-        <v>619.20000000000005</v>
-      </c>
-      <c r="G120" s="6">
+        <v>1240</v>
+      </c>
+      <c r="H120" s="8">
         <f t="shared" si="32"/>
-        <v>1240</v>
-      </c>
-      <c r="H120" s="8">
-        <f t="shared" si="33"/>
         <v>3420</v>
       </c>
       <c r="I120" s="6">
@@ -19309,153 +20845,887 @@
         <v>499042</v>
       </c>
       <c r="U120" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>249521</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
+      <c r="A121" s="9">
+        <v>45294</v>
+      </c>
+      <c r="B121" s="6">
+        <v>10</v>
+      </c>
+      <c r="C121" s="6">
+        <v>4645</v>
+      </c>
+      <c r="D121" s="6">
+        <v>8941</v>
+      </c>
+      <c r="E121" s="6">
+        <v>25700</v>
+      </c>
+      <c r="F121" s="6">
+        <f t="shared" ref="F121:F132" si="34">C121/B121</f>
+        <v>464.5</v>
+      </c>
+      <c r="G121" s="6">
+        <f t="shared" ref="G121:G132" si="35">D121/B121</f>
+        <v>894.1</v>
+      </c>
+      <c r="H121" s="8">
+        <f t="shared" ref="H121:H132" si="36">E121/B121</f>
+        <v>2570</v>
+      </c>
+      <c r="I121" s="6">
+        <v>11</v>
+      </c>
+      <c r="J121" s="6">
+        <v>177000</v>
+      </c>
+      <c r="K121" s="6">
+        <v>13291</v>
+      </c>
+      <c r="L121" s="6">
+        <v>8749</v>
+      </c>
+      <c r="M121" s="6">
+        <f t="shared" si="25"/>
+        <v>16090.90909090909</v>
+      </c>
+      <c r="N121" s="6">
+        <f t="shared" si="26"/>
+        <v>1208.2727272727273</v>
+      </c>
+      <c r="O121" s="8">
+        <f t="shared" si="27"/>
+        <v>795.36363636363637</v>
+      </c>
+      <c r="P121" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>36682</v>
+      </c>
+      <c r="R121" s="8">
+        <f t="shared" si="28"/>
+        <v>4075.7777777777778</v>
+      </c>
+      <c r="S121" s="6">
+        <v>5</v>
+      </c>
+      <c r="T121" s="6">
+        <v>189886</v>
+      </c>
+      <c r="U121" s="8">
+        <f t="shared" si="33"/>
+        <v>37977.199999999997</v>
+      </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
+      <c r="A122" s="9">
+        <v>45295</v>
+      </c>
+      <c r="B122" s="6">
+        <v>8</v>
+      </c>
+      <c r="C122" s="6">
+        <v>2042</v>
+      </c>
+      <c r="D122" s="6">
+        <v>6366</v>
+      </c>
+      <c r="E122" s="6">
+        <v>18400</v>
+      </c>
+      <c r="F122" s="6">
+        <f t="shared" si="34"/>
+        <v>255.25</v>
+      </c>
+      <c r="G122" s="6">
+        <f t="shared" si="35"/>
+        <v>795.75</v>
+      </c>
+      <c r="H122" s="8">
+        <f t="shared" si="36"/>
+        <v>2300</v>
+      </c>
+      <c r="I122" s="6">
+        <v>12</v>
+      </c>
+      <c r="J122" s="6">
+        <v>176700</v>
+      </c>
+      <c r="K122" s="6">
+        <v>12096</v>
+      </c>
+      <c r="L122" s="6">
+        <v>10200</v>
+      </c>
+      <c r="M122" s="6">
+        <f t="shared" si="25"/>
+        <v>14725</v>
+      </c>
+      <c r="N122" s="6">
+        <f t="shared" si="26"/>
+        <v>1008</v>
+      </c>
+      <c r="O122" s="8">
+        <f t="shared" si="27"/>
+        <v>850</v>
+      </c>
+      <c r="P122" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>38588</v>
+      </c>
+      <c r="R122" s="8">
+        <f t="shared" si="28"/>
+        <v>4287.5555555555557</v>
+      </c>
+      <c r="S122" s="6">
+        <v>5</v>
+      </c>
+      <c r="T122" s="6">
+        <v>136721</v>
+      </c>
+      <c r="U122" s="8">
+        <f t="shared" si="33"/>
+        <v>27344.2</v>
+      </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
+      <c r="A123" s="9">
+        <v>45296</v>
+      </c>
+      <c r="B123" s="6">
+        <v>8</v>
+      </c>
+      <c r="C123" s="6">
+        <v>2532</v>
+      </c>
+      <c r="D123" s="6">
+        <v>9350</v>
+      </c>
+      <c r="E123" s="6">
+        <v>31800</v>
+      </c>
+      <c r="F123" s="6">
+        <f t="shared" si="34"/>
+        <v>316.5</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" si="35"/>
+        <v>1168.75</v>
+      </c>
+      <c r="H123" s="8">
+        <f t="shared" si="36"/>
+        <v>3975</v>
+      </c>
+      <c r="I123" s="6">
+        <v>10</v>
+      </c>
+      <c r="J123" s="6">
+        <v>50200</v>
+      </c>
+      <c r="K123" s="6">
+        <v>5095</v>
+      </c>
+      <c r="L123" s="6">
+        <v>4925</v>
+      </c>
+      <c r="M123" s="6">
+        <f t="shared" si="25"/>
+        <v>5020</v>
+      </c>
+      <c r="N123" s="6">
+        <f t="shared" si="26"/>
+        <v>509.5</v>
+      </c>
+      <c r="O123" s="8">
+        <f t="shared" si="27"/>
+        <v>492.5</v>
+      </c>
+      <c r="P123" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>25197</v>
+      </c>
+      <c r="R123" s="8">
+        <f t="shared" si="28"/>
+        <v>3149.625</v>
+      </c>
+      <c r="S123" s="6">
+        <v>4</v>
+      </c>
+      <c r="T123" s="6">
+        <v>53800</v>
+      </c>
+      <c r="U123" s="8">
+        <f t="shared" si="33"/>
+        <v>13450</v>
+      </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
+      <c r="A124" s="9">
+        <v>45297</v>
+      </c>
+      <c r="B124" s="6">
+        <v>7</v>
+      </c>
+      <c r="C124" s="6">
+        <v>5482</v>
+      </c>
+      <c r="D124" s="6">
+        <v>7124</v>
+      </c>
+      <c r="E124" s="6">
+        <v>21100</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="34"/>
+        <v>783.14285714285711</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="35"/>
+        <v>1017.7142857142857</v>
+      </c>
+      <c r="H124" s="8">
+        <f t="shared" si="36"/>
+        <v>3014.2857142857142</v>
+      </c>
+      <c r="I124" s="6">
+        <v>9</v>
+      </c>
+      <c r="J124" s="6">
+        <v>51500</v>
+      </c>
+      <c r="K124" s="6">
+        <v>4566</v>
+      </c>
+      <c r="L124" s="6">
+        <v>3303</v>
+      </c>
+      <c r="M124" s="6">
+        <f t="shared" si="25"/>
+        <v>5722.2222222222226</v>
+      </c>
+      <c r="N124" s="6">
+        <f t="shared" si="26"/>
+        <v>507.33333333333331</v>
+      </c>
+      <c r="O124" s="8">
+        <f t="shared" si="27"/>
+        <v>367</v>
+      </c>
+      <c r="P124" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>48591</v>
+      </c>
+      <c r="R124" s="8">
+        <f t="shared" si="28"/>
+        <v>4049.25</v>
+      </c>
+      <c r="S124" s="6">
+        <v>7</v>
+      </c>
+      <c r="T124" s="6">
+        <v>213100</v>
+      </c>
+      <c r="U124" s="8">
+        <f t="shared" si="33"/>
+        <v>30442.857142857141</v>
+      </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
+      <c r="A125" s="9">
+        <v>45298</v>
+      </c>
+      <c r="B125" s="6">
+        <v>6</v>
+      </c>
+      <c r="C125" s="6">
+        <v>3158</v>
+      </c>
+      <c r="D125" s="6">
+        <v>7631</v>
+      </c>
+      <c r="E125" s="6">
+        <v>20900</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="34"/>
+        <v>526.33333333333337</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="35"/>
+        <v>1271.8333333333333</v>
+      </c>
+      <c r="H125" s="8">
+        <f t="shared" si="36"/>
+        <v>3483.3333333333335</v>
+      </c>
+      <c r="I125" s="6">
+        <v>5</v>
+      </c>
+      <c r="J125" s="6">
+        <v>17400</v>
+      </c>
+      <c r="K125" s="6">
+        <v>2405</v>
+      </c>
+      <c r="L125" s="6">
+        <v>2576</v>
+      </c>
+      <c r="M125" s="6">
+        <f t="shared" si="25"/>
+        <v>3480</v>
+      </c>
+      <c r="N125" s="6">
+        <f t="shared" si="26"/>
+        <v>481</v>
+      </c>
+      <c r="O125" s="8">
+        <f t="shared" si="27"/>
+        <v>515.20000000000005</v>
+      </c>
+      <c r="P125" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q125" s="6">
+        <v>26474</v>
+      </c>
+      <c r="R125" s="8">
+        <f t="shared" si="28"/>
+        <v>3309.25</v>
+      </c>
+      <c r="S125" s="6">
+        <v>2</v>
+      </c>
+      <c r="T125" s="6">
+        <v>15700</v>
+      </c>
+      <c r="U125" s="8">
+        <f t="shared" ref="U125:U132" si="37">T125/S125</f>
+        <v>7850</v>
+      </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
+      <c r="A126" s="9">
+        <v>45299</v>
+      </c>
+      <c r="B126" s="6">
+        <v>5</v>
+      </c>
+      <c r="C126" s="6">
+        <v>2128</v>
+      </c>
+      <c r="D126" s="6">
+        <v>4353</v>
+      </c>
+      <c r="E126" s="6">
+        <v>11300</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="34"/>
+        <v>425.6</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" si="35"/>
+        <v>870.6</v>
+      </c>
+      <c r="H126" s="8">
+        <f t="shared" si="36"/>
+        <v>2260</v>
+      </c>
+      <c r="I126" s="6">
+        <v>5</v>
+      </c>
+      <c r="J126" s="6">
+        <v>60100</v>
+      </c>
+      <c r="K126" s="6">
+        <v>5345</v>
+      </c>
+      <c r="L126" s="6">
+        <v>4659</v>
+      </c>
+      <c r="M126" s="6">
+        <f t="shared" si="25"/>
+        <v>12020</v>
+      </c>
+      <c r="N126" s="6">
+        <f t="shared" si="26"/>
+        <v>1069</v>
+      </c>
+      <c r="O126" s="8">
+        <f t="shared" si="27"/>
+        <v>931.8</v>
+      </c>
+      <c r="P126" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q126" s="6">
+        <v>41868</v>
+      </c>
+      <c r="R126" s="8">
+        <f t="shared" si="28"/>
+        <v>2990.5714285714284</v>
+      </c>
+      <c r="S126" s="6">
+        <v>2</v>
+      </c>
+      <c r="T126" s="6">
+        <v>17500</v>
+      </c>
+      <c r="U126" s="8">
+        <f t="shared" si="37"/>
+        <v>8750</v>
+      </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
+      <c r="A127" s="9">
+        <v>45300</v>
+      </c>
+      <c r="B127" s="6">
+        <v>8</v>
+      </c>
+      <c r="C127" s="6">
+        <v>7944</v>
+      </c>
+      <c r="D127" s="6">
+        <v>11968</v>
+      </c>
+      <c r="E127" s="6">
+        <v>32500</v>
+      </c>
+      <c r="F127" s="6">
+        <f t="shared" si="34"/>
+        <v>993</v>
+      </c>
+      <c r="G127" s="6">
+        <f t="shared" si="35"/>
+        <v>1496</v>
+      </c>
+      <c r="H127" s="8">
+        <f t="shared" si="36"/>
+        <v>4062.5</v>
+      </c>
+      <c r="I127" s="6">
+        <v>11</v>
+      </c>
+      <c r="J127" s="6">
+        <v>130300</v>
+      </c>
+      <c r="K127" s="6">
+        <v>11071</v>
+      </c>
+      <c r="L127" s="6">
+        <v>6901</v>
+      </c>
+      <c r="M127" s="6">
+        <f t="shared" si="25"/>
+        <v>11845.454545454546</v>
+      </c>
+      <c r="N127" s="6">
+        <f t="shared" si="26"/>
+        <v>1006.4545454545455</v>
+      </c>
+      <c r="O127" s="8">
+        <f t="shared" si="27"/>
+        <v>627.36363636363637</v>
+      </c>
+      <c r="P127" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q127" s="6">
+        <v>34146</v>
+      </c>
+      <c r="R127" s="8">
+        <f t="shared" si="28"/>
+        <v>3414.6</v>
+      </c>
+      <c r="S127" s="6">
+        <v>6</v>
+      </c>
+      <c r="T127" s="6">
+        <v>49821</v>
+      </c>
+      <c r="U127" s="8">
+        <f t="shared" si="37"/>
+        <v>8303.5</v>
+      </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="A128" s="9">
+        <v>45301</v>
+      </c>
+      <c r="B128" s="6">
+        <v>8</v>
+      </c>
+      <c r="C128" s="6">
+        <v>2865</v>
+      </c>
+      <c r="D128" s="6">
+        <v>6469</v>
+      </c>
+      <c r="E128" s="6">
+        <v>17800</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" si="34"/>
+        <v>358.125</v>
+      </c>
+      <c r="G128" s="6">
+        <f t="shared" si="35"/>
+        <v>808.625</v>
+      </c>
+      <c r="H128" s="8">
+        <f t="shared" si="36"/>
+        <v>2225</v>
+      </c>
+      <c r="I128" s="6">
+        <v>11</v>
+      </c>
+      <c r="J128" s="6">
+        <v>41000</v>
+      </c>
+      <c r="K128" s="6">
+        <v>5178</v>
+      </c>
+      <c r="L128" s="6">
+        <v>3656</v>
+      </c>
+      <c r="M128" s="6">
+        <f t="shared" si="25"/>
+        <v>3727.2727272727275</v>
+      </c>
+      <c r="N128" s="6">
+        <f t="shared" si="26"/>
+        <v>470.72727272727275</v>
+      </c>
+      <c r="O128" s="8">
+        <f t="shared" si="27"/>
+        <v>332.36363636363637</v>
+      </c>
+      <c r="P128" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q128" s="6">
+        <v>31102</v>
+      </c>
+      <c r="R128" s="8">
+        <f t="shared" si="28"/>
+        <v>3110.2</v>
+      </c>
+      <c r="S128" s="6">
+        <v>4</v>
+      </c>
+      <c r="T128" s="6">
+        <v>24242</v>
+      </c>
+      <c r="U128" s="8">
+        <f t="shared" si="37"/>
+        <v>6060.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
+        <v>45302</v>
+      </c>
+      <c r="B129" s="6">
+        <v>7</v>
+      </c>
+      <c r="C129" s="6">
+        <v>3030</v>
+      </c>
+      <c r="D129" s="6">
+        <v>7021</v>
+      </c>
+      <c r="E129" s="6">
+        <v>20300</v>
+      </c>
+      <c r="F129" s="6">
+        <f t="shared" si="34"/>
+        <v>432.85714285714283</v>
+      </c>
+      <c r="G129" s="6">
+        <f t="shared" si="35"/>
+        <v>1003</v>
+      </c>
+      <c r="H129" s="8">
+        <f t="shared" si="36"/>
+        <v>2900</v>
+      </c>
+      <c r="I129" s="6">
+        <v>13</v>
+      </c>
+      <c r="J129" s="6">
+        <v>89800</v>
+      </c>
+      <c r="K129" s="6">
+        <v>8189</v>
+      </c>
+      <c r="L129" s="6">
+        <v>5856</v>
+      </c>
+      <c r="M129" s="6">
+        <f t="shared" si="25"/>
+        <v>6907.6923076923076</v>
+      </c>
+      <c r="N129" s="6">
+        <f t="shared" si="26"/>
+        <v>629.92307692307691</v>
+      </c>
+      <c r="O129" s="8">
+        <f t="shared" si="27"/>
+        <v>450.46153846153845</v>
+      </c>
+      <c r="P129" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q129" s="6">
+        <v>22683</v>
+      </c>
+      <c r="R129" s="8">
+        <f t="shared" si="28"/>
+        <v>2268.3000000000002</v>
+      </c>
+      <c r="S129" s="6">
+        <v>7</v>
+      </c>
+      <c r="T129" s="6">
+        <v>302919</v>
+      </c>
+      <c r="U129" s="8">
+        <f t="shared" si="37"/>
+        <v>43274.142857142855</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
+        <v>45303</v>
+      </c>
+      <c r="B130" s="6">
+        <v>7</v>
+      </c>
+      <c r="C130" s="6">
+        <v>3078</v>
+      </c>
+      <c r="D130" s="6">
+        <v>7681</v>
+      </c>
+      <c r="E130" s="6">
+        <v>21300</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" si="34"/>
+        <v>439.71428571428572</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" si="35"/>
+        <v>1097.2857142857142</v>
+      </c>
+      <c r="H130" s="8">
+        <f t="shared" si="36"/>
+        <v>3042.8571428571427</v>
+      </c>
+      <c r="I130" s="6">
+        <v>11</v>
+      </c>
+      <c r="J130" s="6">
+        <v>43600</v>
+      </c>
+      <c r="K130" s="6">
+        <v>5059</v>
+      </c>
+      <c r="L130" s="6">
+        <v>5128</v>
+      </c>
+      <c r="M130" s="6">
+        <f t="shared" si="25"/>
+        <v>3963.6363636363635</v>
+      </c>
+      <c r="N130" s="6">
+        <f t="shared" si="26"/>
+        <v>459.90909090909093</v>
+      </c>
+      <c r="O130" s="8">
+        <f t="shared" si="27"/>
+        <v>466.18181818181819</v>
+      </c>
+      <c r="P130" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q130" s="6">
+        <v>26941</v>
+      </c>
+      <c r="R130" s="8">
+        <f t="shared" si="28"/>
+        <v>2694.1</v>
+      </c>
+      <c r="S130" s="6">
+        <v>4</v>
+      </c>
+      <c r="T130" s="6">
+        <v>26975</v>
+      </c>
+      <c r="U130" s="8">
+        <f t="shared" si="37"/>
+        <v>6743.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
+        <v>45304</v>
+      </c>
+      <c r="B131" s="6">
+        <v>6</v>
+      </c>
+      <c r="C131" s="6">
+        <v>2600</v>
+      </c>
+      <c r="D131" s="6">
+        <v>5191</v>
+      </c>
+      <c r="E131" s="6">
+        <v>15900</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" si="34"/>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="G131" s="6">
+        <f t="shared" si="35"/>
+        <v>865.16666666666663</v>
+      </c>
+      <c r="H131" s="8">
+        <f t="shared" si="36"/>
+        <v>2650</v>
+      </c>
+      <c r="I131" s="6">
+        <v>14</v>
+      </c>
+      <c r="J131" s="6">
+        <v>112200</v>
+      </c>
+      <c r="K131" s="6">
+        <v>10274</v>
+      </c>
+      <c r="L131" s="6">
+        <v>7191</v>
+      </c>
+      <c r="M131" s="6">
+        <f t="shared" si="25"/>
+        <v>8014.2857142857147</v>
+      </c>
+      <c r="N131" s="6">
+        <f t="shared" si="26"/>
+        <v>733.85714285714289</v>
+      </c>
+      <c r="O131" s="8">
+        <f t="shared" si="27"/>
+        <v>513.64285714285711</v>
+      </c>
+      <c r="P131" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q131" s="6">
+        <v>73104</v>
+      </c>
+      <c r="R131" s="8">
+        <f t="shared" si="28"/>
+        <v>6092</v>
+      </c>
+      <c r="S131" s="6">
+        <v>4</v>
+      </c>
+      <c r="T131" s="6">
+        <v>29656</v>
+      </c>
+      <c r="U131" s="8">
+        <f t="shared" si="37"/>
+        <v>7414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
+        <v>45305</v>
+      </c>
+      <c r="B132" s="6">
+        <v>9</v>
+      </c>
+      <c r="C132" s="6">
+        <v>7051</v>
+      </c>
+      <c r="D132" s="6">
+        <v>10759</v>
+      </c>
+      <c r="E132" s="6">
+        <v>33500</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="34"/>
+        <v>783.44444444444446</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="35"/>
+        <v>1195.4444444444443</v>
+      </c>
+      <c r="H132" s="8">
+        <f t="shared" si="36"/>
+        <v>3722.2222222222222</v>
+      </c>
+      <c r="I132" s="6">
+        <v>8</v>
+      </c>
+      <c r="J132" s="6">
+        <v>123900</v>
+      </c>
+      <c r="K132" s="6">
+        <v>9926</v>
+      </c>
+      <c r="L132" s="6">
+        <v>4657</v>
+      </c>
+      <c r="M132" s="6">
+        <f t="shared" si="25"/>
+        <v>15487.5</v>
+      </c>
+      <c r="N132" s="6">
+        <f t="shared" si="26"/>
+        <v>1240.75</v>
+      </c>
+      <c r="O132" s="8">
+        <f t="shared" si="27"/>
+        <v>582.125</v>
+      </c>
+      <c r="P132" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q132" s="6">
+        <v>37189</v>
+      </c>
+      <c r="R132" s="8">
+        <f t="shared" si="28"/>
+        <v>4132.1111111111113</v>
+      </c>
+      <c r="S132" s="6">
+        <v>4</v>
+      </c>
+      <c r="T132" s="6">
+        <v>197746</v>
+      </c>
+      <c r="U132" s="8">
+        <f t="shared" si="37"/>
+        <v>49436.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -19467,7 +21737,7 @@
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -19479,7 +21749,7 @@
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -19491,7 +21761,11 @@
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
@@ -19499,7 +21773,11 @@
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -19507,7 +21785,11 @@
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
@@ -19515,7 +21797,11 @@
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -19523,7 +21809,11 @@
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
@@ -19531,7 +21821,11 @@
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -19539,7 +21833,10 @@
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
@@ -19547,7 +21844,11 @@
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -19555,69 +21856,176 @@
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
       <c r="P144" s="6"/>
-    </row>
-    <row r="145" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="Q144" s="6"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
     </row>
-    <row r="146" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
     </row>
-    <row r="147" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
     </row>
-    <row r="148" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
     </row>
-    <row r="149" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
     </row>
-    <row r="150" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
     </row>
-    <row r="151" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
     </row>
-    <row r="152" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
     </row>
-    <row r="153" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
     </row>
-    <row r="154" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
       <c r="P154" s="6"/>
-    </row>
-    <row r="155" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="Q154" s="6"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
     </row>
-    <row r="156" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="I156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
     </row>
-    <row r="157" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
     </row>
-    <row r="158" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
     </row>
-    <row r="159" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
     </row>
-    <row r="160" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
     </row>
@@ -19690,61 +22098,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="11"/>
-    <col min="8" max="8" width="11.5546875" style="2"/>
-    <col min="15" max="15" width="11.5546875" style="2"/>
-    <col min="18" max="18" width="11.5546875" style="2"/>
-    <col min="21" max="21" width="11.5546875" style="2"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="13" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="15"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -19808,40 +22223,449 @@
       <c r="U2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>45302</v>
       </c>
+      <c r="B3" s="6">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3839</v>
+      </c>
+      <c r="D3" s="6">
+        <v>622</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1883</v>
+      </c>
+      <c r="F3" s="6">
+        <f>C3/B3</f>
+        <v>225.8235294117647</v>
+      </c>
+      <c r="G3" s="6">
+        <f>D3/B3</f>
+        <v>36.588235294117645</v>
+      </c>
+      <c r="H3" s="8">
+        <f>E3/B3</f>
+        <v>110.76470588235294</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3196</v>
+      </c>
+      <c r="K3" s="6">
+        <v>585</v>
+      </c>
+      <c r="L3" s="6">
+        <v>244</v>
+      </c>
+      <c r="M3" s="6">
+        <f>J3/I3</f>
+        <v>319.60000000000002</v>
+      </c>
+      <c r="N3" s="6">
+        <f>K3/I3</f>
+        <v>58.5</v>
+      </c>
+      <c r="O3" s="8">
+        <f>L3/I3</f>
+        <v>24.4</v>
+      </c>
+      <c r="P3" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>17381</v>
+      </c>
+      <c r="R3" s="8">
+        <f>Q3/P3</f>
+        <v>1931.2222222222222</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2</v>
+      </c>
+      <c r="T3" s="6">
+        <v>263</v>
+      </c>
+      <c r="U3" s="8">
+        <f>T3/S3</f>
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>45303</v>
+      </c>
+      <c r="B4" s="6">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1813</v>
+      </c>
+      <c r="D4" s="6">
+        <v>419</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1294</v>
+      </c>
+      <c r="F4" s="6">
+        <f>C4/B4</f>
+        <v>100.72222222222223</v>
+      </c>
+      <c r="G4" s="6">
+        <f>D4/B4</f>
+        <v>23.277777777777779</v>
+      </c>
+      <c r="H4" s="8">
+        <f>E4/B4</f>
+        <v>71.888888888888886</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1844</v>
+      </c>
+      <c r="K4" s="6">
+        <v>295</v>
+      </c>
+      <c r="L4" s="6">
+        <v>180</v>
+      </c>
+      <c r="M4" s="6">
+        <f>J4/I4</f>
+        <v>184.4</v>
+      </c>
+      <c r="N4" s="6">
+        <f>K4/I4</f>
+        <v>29.5</v>
+      </c>
+      <c r="O4" s="8">
+        <f>L4/I4</f>
+        <v>18</v>
+      </c>
+      <c r="P4" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>45110</v>
+      </c>
+      <c r="R4" s="8">
+        <f>Q4/P4</f>
+        <v>9022</v>
+      </c>
+      <c r="S4" s="6">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6">
+        <v>634</v>
+      </c>
+      <c r="U4" s="8">
+        <f>T4/S4</f>
+        <v>211.33333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>45304</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1220</v>
+      </c>
+      <c r="D5" s="6">
+        <v>189</v>
+      </c>
+      <c r="E5" s="6">
+        <v>640</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F6" si="0">C5/B5</f>
+        <v>174.28571428571428</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G6" si="1">D5/B5</f>
+        <v>27</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H6" si="2">E5/B5</f>
+        <v>91.428571428571431</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2485</v>
+      </c>
+      <c r="K5" s="6">
+        <v>476</v>
+      </c>
+      <c r="L5" s="6">
+        <v>321</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M6" si="3">J5/I5</f>
+        <v>248.5</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" ref="N5:N6" si="4">K5/I5</f>
+        <v>47.6</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" ref="O5:O6" si="5">L5/I5</f>
+        <v>32.1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>11146</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" ref="R5:R6" si="6">Q5/P5</f>
+        <v>2786.5</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>45305</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1125</v>
+      </c>
+      <c r="D6" s="6">
+        <v>149</v>
+      </c>
+      <c r="E6" s="6">
+        <v>567</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>160.71428571428572</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>21.285714285714285</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I6" s="6">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3346</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1543</v>
+      </c>
+      <c r="L6" s="6">
+        <v>142</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="3"/>
+        <v>371.77777777777777</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="4"/>
+        <v>171.44444444444446</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="5"/>
+        <v>15.777777777777779</v>
+      </c>
+      <c r="P6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1918</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="6"/>
+        <v>959</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6">
+        <v>475585</v>
+      </c>
+      <c r="U6" s="8">
+        <f>T6/S6</f>
+        <v>475585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="8"/>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19852,7 +22676,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -19896,6 +22720,9 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
   </sheetData>
@@ -19905,246 +22732,740 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20">
+        <v>22</v>
+      </c>
+      <c r="E2" s="20">
+        <v>63</v>
+      </c>
+      <c r="F2" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="20">
+        <v>27</v>
+      </c>
+      <c r="E3" s="20">
+        <v>51</v>
+      </c>
+      <c r="F3" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="20">
+        <v>24</v>
+      </c>
+      <c r="E4" s="20">
+        <v>61</v>
+      </c>
+      <c r="F4" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="20">
+        <v>27</v>
+      </c>
+      <c r="E5" s="20">
+        <v>55</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20">
+        <v>32</v>
+      </c>
+      <c r="E6" s="20">
+        <v>48</v>
+      </c>
+      <c r="F6" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="20">
+        <v>14</v>
+      </c>
+      <c r="E7" s="20">
+        <v>66</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="20">
+        <v>27</v>
+      </c>
+      <c r="E8" s="20">
+        <v>54</v>
+      </c>
+      <c r="F8" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="20">
+        <v>24</v>
+      </c>
+      <c r="E9" s="20">
+        <v>46</v>
+      </c>
+      <c r="F9" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="20">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20">
+        <v>57</v>
+      </c>
+      <c r="F10" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="20">
+        <v>26</v>
+      </c>
+      <c r="E11" s="20">
+        <v>53</v>
+      </c>
+      <c r="F11" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="20">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20">
+        <v>50</v>
+      </c>
+      <c r="F12" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="20">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20">
+        <v>54</v>
+      </c>
+      <c r="F13" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="20">
+        <v>30</v>
+      </c>
+      <c r="E14" s="20">
+        <v>52</v>
+      </c>
+      <c r="F14" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20">
+        <v>30</v>
+      </c>
+      <c r="E15" s="20">
+        <v>52</v>
+      </c>
+      <c r="F15" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="20">
+        <v>13</v>
+      </c>
+      <c r="E16" s="20">
+        <v>65</v>
+      </c>
+      <c r="F16" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="20">
+        <v>22</v>
+      </c>
+      <c r="E17" s="20">
+        <v>55</v>
+      </c>
+      <c r="F17" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="20">
+        <v>27</v>
+      </c>
+      <c r="E18" s="20">
+        <v>51</v>
+      </c>
+      <c r="F18" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D19" s="20">
+        <v>25</v>
+      </c>
+      <c r="E19" s="20">
+        <v>46</v>
+      </c>
+      <c r="F19" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D20" s="20">
+        <v>25</v>
+      </c>
+      <c r="E20" s="20">
+        <v>52</v>
+      </c>
+      <c r="F20" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D21" s="20">
+        <v>27</v>
+      </c>
+      <c r="E21" s="20">
+        <v>50</v>
+      </c>
+      <c r="F21" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D22" s="20">
+        <v>24</v>
+      </c>
+      <c r="E22" s="20">
+        <v>54</v>
+      </c>
+      <c r="F22" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D23" s="20">
+        <v>23</v>
+      </c>
+      <c r="E23" s="20">
+        <v>49</v>
+      </c>
+      <c r="F23" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D24" s="20">
+        <v>31</v>
+      </c>
+      <c r="E24" s="20">
+        <v>50</v>
+      </c>
+      <c r="F24" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D25" s="20">
+        <v>14</v>
+      </c>
+      <c r="E25" s="20">
+        <v>66</v>
+      </c>
+      <c r="F25" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D26" s="20">
+        <v>22</v>
+      </c>
+      <c r="E26" s="20">
+        <v>57</v>
+      </c>
+      <c r="F26" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="22">
+        <v>45231</v>
+      </c>
+      <c r="D27" s="20">
+        <v>24</v>
+      </c>
+      <c r="E27" s="20">
+        <v>48</v>
+      </c>
+      <c r="F27" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="12">
-        <v>45182</v>
-      </c>
-      <c r="C2">
-        <v>66</v>
-      </c>
-      <c r="D2">
+      <c r="C28" s="22">
+        <v>45200</v>
+      </c>
+      <c r="D28" s="20">
+        <v>22</v>
+      </c>
+      <c r="E28" s="20">
+        <v>57</v>
+      </c>
+      <c r="F28" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="22">
+        <v>45200</v>
+      </c>
+      <c r="D29" s="20">
+        <v>17</v>
+      </c>
+      <c r="E29" s="20">
+        <v>60</v>
+      </c>
+      <c r="F29" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="22">
+        <v>45200</v>
+      </c>
+      <c r="D30" s="20">
+        <v>27</v>
+      </c>
+      <c r="E30" s="20">
+        <v>48</v>
+      </c>
+      <c r="F30" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="22">
+        <v>45200</v>
+      </c>
+      <c r="D31" s="20">
+        <v>24</v>
+      </c>
+      <c r="E31" s="20">
+        <v>55</v>
+      </c>
+      <c r="F31" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="22">
+        <v>45200</v>
+      </c>
+      <c r="D32" s="20">
+        <v>27</v>
+      </c>
+      <c r="E32" s="20">
+        <v>50</v>
+      </c>
+      <c r="F32" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="22">
+        <v>45200</v>
+      </c>
+      <c r="D33" s="20">
+        <v>28</v>
+      </c>
+      <c r="E33" s="20">
+        <v>46</v>
+      </c>
+      <c r="F33" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="22">
+        <v>45200</v>
+      </c>
+      <c r="D34" s="20">
+        <v>21</v>
+      </c>
+      <c r="E34" s="20">
+        <v>59</v>
+      </c>
+      <c r="F34" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="22">
+        <v>45170</v>
+      </c>
+      <c r="D35" s="20">
+        <v>34</v>
+      </c>
+      <c r="E35" s="20">
+        <v>53</v>
+      </c>
+      <c r="F35" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="22">
+        <v>45170</v>
+      </c>
+      <c r="D36" s="20">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="12">
-        <v>45184</v>
-      </c>
-      <c r="C3">
-        <f>5+2+53</f>
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <f>17+12+3</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12">
-        <v>45214</v>
-      </c>
-      <c r="C4">
-        <f>3+2+63</f>
-        <v>68</v>
-      </c>
-      <c r="D4">
-        <f>14+10+2</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="12">
-        <v>45214</v>
-      </c>
-      <c r="C5">
-        <f>1+2+52</f>
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <f>21+12+2</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="12">
-        <v>45230</v>
-      </c>
-      <c r="C6">
-        <f>1+2+59</f>
-        <v>62</v>
-      </c>
-      <c r="D6">
-        <f>17+12+2</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7">
-        <f>3+4+58</f>
-        <v>65</v>
-      </c>
-      <c r="D7">
-        <f>16+12+3</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <f>2+1+59</f>
-        <v>62</v>
-      </c>
-      <c r="D8">
-        <f>17+13+4</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <f>0+1+53</f>
-        <v>54</v>
-      </c>
-      <c r="D9">
-        <f>19+14+2</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="12">
-        <v>44927</v>
-      </c>
-      <c r="C10">
-        <f>2+2+55</f>
-        <v>59</v>
-      </c>
-      <c r="D10">
-        <f>16+10+2</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11">
-        <f>3+4+56</f>
-        <v>63</v>
-      </c>
-      <c r="D11">
-        <f>17+12+3</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E36" s="20">
         <v>49</v>
       </c>
-      <c r="C12">
-        <f>2+1+51</f>
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <f>20+16+3</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="12">
-        <v>45275</v>
-      </c>
-      <c r="C13">
-        <f>6+2+51</f>
-        <v>59</v>
-      </c>
-      <c r="D13">
-        <f>20+13+2</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14">
-        <f>3+4+56</f>
-        <v>63</v>
-      </c>
-      <c r="D14">
-        <f>17+12+3</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15">
-        <f>1+2+63</f>
-        <v>66</v>
-      </c>
-      <c r="D15">
-        <f>17+9+1</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="12">
-        <v>45265</v>
-      </c>
-      <c r="C16">
-        <f>0+2+56</f>
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <f>22+12+2</f>
-        <v>36</v>
+      <c r="F36" s="20">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -20157,668 +23478,638 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="A1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="K1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="22">
+      <c r="B3">
+        <v>632</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="22">
+      <c r="G3">
+        <v>605</v>
+      </c>
+      <c r="H3">
+        <v>1400</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4900</v>
+      </c>
+      <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="2"/>
+      <c r="L3">
+        <v>99</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="22">
+      <c r="B4">
+        <v>636</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F4" s="16">
         <v>2</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="22">
+      <c r="G4">
+        <v>633</v>
+      </c>
+      <c r="H4">
+        <v>1400</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5100</v>
+      </c>
+      <c r="K4" s="16">
         <v>2</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="2"/>
+      <c r="L4">
+        <v>101</v>
+      </c>
+      <c r="M4">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="22">
+      <c r="B5">
+        <v>651</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F5" s="16">
         <v>3</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="22">
+      <c r="G5">
+        <v>634</v>
+      </c>
+      <c r="H5">
+        <v>1400</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5100</v>
+      </c>
+      <c r="K5" s="16">
         <v>3</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="2"/>
+      <c r="L5">
+        <v>101</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="22">
+      <c r="B6">
+        <v>652</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F6" s="16">
         <v>4</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="22">
+      <c r="G6">
+        <v>634</v>
+      </c>
+      <c r="H6">
+        <v>1400</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5100</v>
+      </c>
+      <c r="K6" s="16">
         <v>4</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="2"/>
+      <c r="L6">
+        <v>101</v>
+      </c>
+      <c r="M6">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="22">
+      <c r="B7">
+        <v>654</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F7" s="16">
         <v>5</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="22">
+      <c r="G7">
+        <v>634</v>
+      </c>
+      <c r="H7">
+        <v>1400</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5100</v>
+      </c>
+      <c r="K7" s="16">
         <v>5</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="2"/>
+      <c r="L7">
+        <v>101</v>
+      </c>
+      <c r="M7">
+        <v>21</v>
+      </c>
+      <c r="N7" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="22">
+      <c r="B8">
+        <v>654</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="16">
         <v>6</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="22">
+      <c r="G8">
+        <v>636</v>
+      </c>
+      <c r="H8">
+        <v>1400</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5100</v>
+      </c>
+      <c r="K8" s="16">
         <v>6</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="2"/>
+      <c r="L8">
+        <v>101</v>
+      </c>
+      <c r="M8">
+        <v>21</v>
+      </c>
+      <c r="N8" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
       <c r="D9" s="2"/>
-      <c r="F9" s="22">
+      <c r="F9" s="16">
         <v>7</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="22">
+      <c r="K9" s="16">
         <v>7</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
       <c r="D10" s="2"/>
-      <c r="F10" s="22">
+      <c r="F10" s="16">
         <v>8</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="22">
+      <c r="K10" s="16">
         <v>8</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
       <c r="D11" s="2"/>
-      <c r="F11" s="22">
+      <c r="F11" s="16">
         <v>9</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
       <c r="I11" s="2"/>
-      <c r="K11" s="22">
+      <c r="K11" s="16">
         <v>9</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="22">
+      <c r="F12" s="16">
         <v>10</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
       <c r="I12" s="2"/>
-      <c r="K12" s="22">
+      <c r="K12" s="16">
         <v>10</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
       <c r="D13" s="2"/>
-      <c r="F13" s="22">
+      <c r="F13" s="16">
         <v>11</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
       <c r="I13" s="2"/>
-      <c r="K13" s="22">
+      <c r="K13" s="16">
         <v>11</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
       <c r="D14" s="2"/>
-      <c r="F14" s="22">
+      <c r="F14" s="16">
         <v>12</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="22">
+      <c r="K14" s="16">
         <v>12</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
       <c r="D15" s="2"/>
-      <c r="F15" s="22">
+      <c r="F15" s="16">
         <v>13</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
       <c r="I15" s="2"/>
-      <c r="K15" s="22">
+      <c r="K15" s="16">
         <v>13</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
       <c r="D16" s="2"/>
-      <c r="F16" s="22">
+      <c r="F16" s="16">
         <v>14</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
       <c r="I16" s="2"/>
-      <c r="K16" s="22">
+      <c r="K16" s="16">
         <v>14</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="22">
+      <c r="F17" s="16">
         <v>15</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
       <c r="I17" s="2"/>
-      <c r="K17" s="22">
+      <c r="K17" s="16">
         <v>15</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
       <c r="D18" s="2"/>
-      <c r="F18" s="22">
+      <c r="F18" s="16">
         <v>16</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
       <c r="I18" s="2"/>
-      <c r="K18" s="22">
+      <c r="K18" s="16">
         <v>16</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
       <c r="D19" s="2"/>
-      <c r="F19" s="22">
+      <c r="F19" s="16">
         <v>17</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
       <c r="I19" s="2"/>
-      <c r="K19" s="22">
+      <c r="K19" s="16">
         <v>17</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
       <c r="D20" s="2"/>
-      <c r="F20" s="22">
+      <c r="F20" s="16">
         <v>18</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
       <c r="I20" s="2"/>
-      <c r="K20" s="22">
+      <c r="K20" s="16">
         <v>18</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
       <c r="D21" s="2"/>
-      <c r="F21" s="22">
+      <c r="F21" s="16">
         <v>19</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
       <c r="I21" s="2"/>
-      <c r="K21" s="22">
+      <c r="K21" s="16">
         <v>19</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="22">
+      <c r="F22" s="16">
         <v>20</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
       <c r="I22" s="2"/>
-      <c r="K22" s="22">
+      <c r="K22" s="16">
         <v>20</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="22">
+      <c r="F23" s="16">
         <v>21</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
       <c r="I23" s="2"/>
-      <c r="K23" s="22">
+      <c r="K23" s="16">
         <v>21</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
       <c r="D24" s="2"/>
-      <c r="F24" s="22">
+      <c r="F24" s="16">
         <v>22</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
       <c r="I24" s="2"/>
-      <c r="K24" s="22">
+      <c r="K24" s="16">
         <v>22</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
       <c r="D25" s="2"/>
-      <c r="F25" s="22">
+      <c r="F25" s="16">
         <v>23</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
       <c r="I25" s="2"/>
-      <c r="K25" s="22">
+      <c r="K25" s="16">
         <v>23</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
       <c r="D26" s="2"/>
-      <c r="F26" s="22">
+      <c r="F26" s="16">
         <v>24</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
       <c r="I26" s="2"/>
-      <c r="K26" s="22">
+      <c r="K26" s="16">
         <v>24</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
       <c r="D27" s="2"/>
-      <c r="F27" s="22">
+      <c r="F27" s="16">
         <v>25</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
       <c r="I27" s="2"/>
-      <c r="K27" s="22">
+      <c r="K27" s="16">
         <v>25</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
       <c r="D28" s="2"/>
-      <c r="F28" s="22">
+      <c r="F28" s="16">
         <v>26</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
       <c r="I28" s="2"/>
-      <c r="K28" s="22">
+      <c r="K28" s="16">
         <v>26</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
       <c r="D29" s="2"/>
-      <c r="F29" s="22">
+      <c r="F29" s="16">
         <v>27</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
       <c r="I29" s="2"/>
-      <c r="K29" s="22">
+      <c r="K29" s="16">
         <v>27</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="22">
+      <c r="F30" s="16">
         <v>28</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
       <c r="I30" s="2"/>
-      <c r="K30" s="22">
+      <c r="K30" s="16">
         <v>28</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
       <c r="D31" s="2"/>
-      <c r="F31" s="22">
+      <c r="F31" s="16">
         <v>29</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
       <c r="I31" s="2"/>
-      <c r="K31" s="22">
+      <c r="K31" s="16">
         <v>29</v>
       </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+      <c r="A32" s="17">
         <v>30</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="F32" s="24">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="F32" s="17">
         <v>30</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="K32" s="24">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="K32" s="17">
         <v>30</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="26"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C5567-62D8-4D91-B672-0E05F956D9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623E1B0-4C15-42DD-9373-4107ABD6828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="1" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="4" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Accounts" sheetId="6" r:id="rId4"/>
     <sheet name="Polls" sheetId="20" r:id="rId5"/>
     <sheet name="Vida Post" sheetId="22" r:id="rId6"/>
+    <sheet name="Preds" sheetId="24" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>Candidate</t>
   </si>
@@ -243,12 +244,87 @@
   <si>
     <t>JAM</t>
   </si>
+  <si>
+    <t>Last Result</t>
+  </si>
+  <si>
+    <t>Predictions</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LR Scaled</t>
+  </si>
+  <si>
+    <t>LR PCA</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>MLP PCA</t>
+  </si>
+  <si>
+    <t>MLP Scaled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRNN </t>
+  </si>
+  <si>
+    <t>GRNN Scaled</t>
+  </si>
+  <si>
+    <t>GRNN PCA</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>SVM Scaled</t>
+  </si>
+  <si>
+    <t>SVM PCA</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Galvez</t>
+  </si>
+  <si>
+    <t>Polls Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Álvarez Maynez</t>
+  </si>
+  <si>
+    <t>Claudia Sheinbaum</t>
+  </si>
+  <si>
+    <t>Xóchitl Galvez</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>StdDev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +356,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -307,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -364,43 +470,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -436,9 +511,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -448,6 +520,19 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,6 +547,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,7 +882,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -812,43 +907,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="23" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="23" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="23" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -10766,6 +10861,9 @@
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A133" s="9">
+        <v>45306</v>
+      </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -10781,6 +10879,9 @@
       <c r="T133" s="6"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A134" s="9">
+        <v>45307</v>
+      </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -11774,9 +11875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4418A-3538-4357-9158-8F79507C1D9F}">
   <dimension ref="A1:XFB174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -11800,43 +11901,43 @@
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="23" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="23" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="23" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -21726,6 +21827,9 @@
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A133" s="9">
+        <v>45306</v>
+      </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -21738,6 +21842,9 @@
       <c r="Q133" s="6"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A134" s="9">
+        <v>45307</v>
+      </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -22102,7 +22209,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -22130,34 +22237,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="23" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="23" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -22516,6 +22623,9 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>45306</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -22534,6 +22644,9 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>45307</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -22732,10 +22845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -22743,9 +22856,14 @@
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
     <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -22769,739 +22887,813 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>22</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <v>63</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>27</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <v>51</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>24</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>61</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>27</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>55</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>32</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>48</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>14</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>66</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>27</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>54</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>24</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>46</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>23</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>57</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>26</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <v>53</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>25</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <v>50</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>23</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="17">
         <v>54</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>30</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="17">
         <v>52</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>30</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>52</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>13</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>65</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <v>22</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="17">
         <v>55</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="17">
         <v>27</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="17">
         <v>51</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>45231</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>25</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="17">
         <v>46</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="19">
         <v>45231</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="17">
         <v>25</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="17">
         <v>52</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="19">
         <v>45231</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="17">
         <v>27</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="17">
         <v>50</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="19">
         <v>45231</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="17">
         <v>24</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="17">
         <v>54</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="19">
         <v>45231</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="17">
         <v>23</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="17">
         <v>49</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="19">
         <v>45231</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="17">
         <v>31</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="17">
         <v>50</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="19">
         <v>45231</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="17">
         <v>14</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="17">
         <v>66</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="19">
         <v>45231</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="17">
         <v>22</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="17">
         <v>57</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="19">
         <v>45231</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="17">
         <v>24</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="17">
         <v>48</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="19">
         <v>45200</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="17">
         <v>22</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="17">
         <v>57</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="19">
         <v>45200</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="17">
         <v>17</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="17">
         <v>60</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="19">
         <v>45200</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="17">
         <v>27</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="17">
         <v>48</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="19">
         <v>45200</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="17">
         <v>24</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="17">
         <v>55</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="19">
         <v>45200</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="17">
         <v>27</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="17">
         <v>50</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="17">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="19">
         <v>45200</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="17">
         <v>28</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="17">
         <v>46</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="19">
         <v>45200</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="17">
         <v>21</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="17">
         <v>59</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="19">
         <v>45170</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="17">
         <v>34</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="17">
         <v>53</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="19">
         <v>45170</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>26</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="17">
         <v>49</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="17">
         <v>18</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H39" s="30"/>
+      <c r="I39" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H40" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="30">
+        <f>MIN(E2:E36)</f>
+        <v>46</v>
+      </c>
+      <c r="J40" s="30">
+        <f>MAX(E2:E36)</f>
+        <v>66</v>
+      </c>
+      <c r="K40" s="31">
+        <f>AVERAGE(E2:E36)</f>
+        <v>53.771428571428572</v>
+      </c>
+      <c r="L40">
+        <f>MEDIAN(E2:E36)</f>
+        <v>53</v>
+      </c>
+      <c r="M40" s="32">
+        <f>_xlfn.STDEV.S(E2:E36)</f>
+        <v>5.6207897408570888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H41" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="30">
+        <f>MIN(D2:D36)</f>
+        <v>13</v>
+      </c>
+      <c r="J41" s="30">
+        <f>MAX(D2:D36)</f>
+        <v>34</v>
+      </c>
+      <c r="K41" s="31">
+        <f>AVERAGE(D2:D36)</f>
+        <v>24.485714285714284</v>
+      </c>
+      <c r="L41">
+        <f>MEDIAN(D2:D36)</f>
+        <v>25</v>
+      </c>
+      <c r="M41" s="32">
+        <f>_xlfn.STDEV.S(D2:D36)</f>
+        <v>4.7426192103931264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H42" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC47CE33-EEC3-446C-940D-05592E4B50CB}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -23768,348 +23960,6 @@
       <c r="N8" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="F9" s="16">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="K9" s="16">
-        <v>7</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="F10" s="16">
-        <v>8</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="K10" s="16">
-        <v>8</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="F11" s="16">
-        <v>9</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="K11" s="16">
-        <v>9</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="16">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="K12" s="16">
-        <v>10</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="F13" s="16">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="K13" s="16">
-        <v>11</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="F14" s="16">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="K14" s="16">
-        <v>12</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="F15" s="16">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="K15" s="16">
-        <v>13</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="F16" s="16">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="K16" s="16">
-        <v>14</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="F17" s="16">
-        <v>15</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="K17" s="16">
-        <v>15</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="F18" s="16">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="K18" s="16">
-        <v>16</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="F19" s="16">
-        <v>17</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="K19" s="16">
-        <v>17</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="F20" s="16">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="K20" s="16">
-        <v>18</v>
-      </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="F21" s="16">
-        <v>19</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="K21" s="16">
-        <v>19</v>
-      </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="F22" s="16">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="K22" s="16">
-        <v>20</v>
-      </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="F23" s="16">
-        <v>21</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="K23" s="16">
-        <v>21</v>
-      </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="F24" s="16">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="K24" s="16">
-        <v>22</v>
-      </c>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="F25" s="16">
-        <v>23</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="K25" s="16">
-        <v>23</v>
-      </c>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="F26" s="16">
-        <v>24</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="K26" s="16">
-        <v>24</v>
-      </c>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="F27" s="16">
-        <v>25</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="K27" s="16">
-        <v>25</v>
-      </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>26</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="F28" s="16">
-        <v>26</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="K28" s="16">
-        <v>26</v>
-      </c>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="F29" s="16">
-        <v>27</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="K29" s="16">
-        <v>27</v>
-      </c>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="F30" s="16">
-        <v>28</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="K30" s="16">
-        <v>28</v>
-      </c>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="F31" s="16">
-        <v>29</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="K31" s="16">
-        <v>29</v>
-      </c>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
-        <v>30</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="F32" s="17">
-        <v>30</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="K32" s="17">
-        <v>30</v>
-      </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -24125,4 +23975,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6253801-30F8-43DE-82C9-DFADAC5698D5}">
+  <dimension ref="B6:P9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="21">
+        <v>54</v>
+      </c>
+      <c r="D8" s="21">
+        <v>63</v>
+      </c>
+      <c r="E8" s="23">
+        <v>56</v>
+      </c>
+      <c r="F8" s="23">
+        <v>56</v>
+      </c>
+      <c r="G8" s="23">
+        <v>55</v>
+      </c>
+      <c r="H8" s="23">
+        <v>54</v>
+      </c>
+      <c r="I8" s="23">
+        <v>56</v>
+      </c>
+      <c r="J8" s="23">
+        <v>56</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="21">
+        <v>25</v>
+      </c>
+      <c r="D9" s="21">
+        <v>22</v>
+      </c>
+      <c r="E9" s="23">
+        <v>25</v>
+      </c>
+      <c r="F9" s="21">
+        <v>25</v>
+      </c>
+      <c r="G9" s="23">
+        <v>25</v>
+      </c>
+      <c r="H9" s="23">
+        <v>25</v>
+      </c>
+      <c r="I9" s="23">
+        <v>25</v>
+      </c>
+      <c r="J9" s="23">
+        <v>25</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623E1B0-4C15-42DD-9373-4107ABD6828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA60880-25B1-4563-882C-8F16BFB192BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="4" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Accounts" sheetId="6" r:id="rId4"/>
     <sheet name="Polls" sheetId="20" r:id="rId5"/>
     <sheet name="Vida Post" sheetId="22" r:id="rId6"/>
-    <sheet name="Preds" sheetId="24" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>Candidate</t>
   </si>
@@ -182,22 +203,10 @@
     <t>Days</t>
   </si>
   <si>
-    <t>https://twitter.com/Claudiashein/status/1748050333274714587</t>
-  </si>
-  <si>
-    <t>https://twitter.com/XochitlGalvez/status/1748075123658117400</t>
-  </si>
-  <si>
-    <t>https://twitter.com/AlvarezMaynez/status/1748072739749945601</t>
-  </si>
-  <si>
     <t>AlvarezMaynez</t>
   </si>
   <si>
     <t>Bruta</t>
-  </si>
-  <si>
-    <t>Jan 2024</t>
   </si>
   <si>
     <t>Mitofsky</t>
@@ -215,9 +224,6 @@
     <t>Varela y Asoc / Citibanamex</t>
   </si>
   <si>
-    <t>Dec 2023</t>
-  </si>
-  <si>
     <t>Parametría</t>
   </si>
   <si>
@@ -233,9 +239,6 @@
     <t>Encuestadora</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>XG</t>
   </si>
   <si>
@@ -245,55 +248,7 @@
     <t>JAM</t>
   </si>
   <si>
-    <t>Last Result</t>
-  </si>
-  <si>
-    <t>Predictions</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>LR Scaled</t>
-  </si>
-  <si>
-    <t>LR PCA</t>
-  </si>
-  <si>
-    <t>MLP</t>
-  </si>
-  <si>
-    <t>MLP PCA</t>
-  </si>
-  <si>
-    <t>MLP Scaled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRNN </t>
-  </si>
-  <si>
-    <t>GRNN Scaled</t>
-  </si>
-  <si>
-    <t>GRNN PCA</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>SVM Scaled</t>
-  </si>
-  <si>
-    <t>SVM PCA</t>
-  </si>
-  <si>
-    <t>Claudia</t>
-  </si>
-  <si>
     <t>Galvez</t>
-  </si>
-  <si>
-    <t>Polls Average</t>
   </si>
   <si>
     <t>Min</t>
@@ -305,26 +260,35 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>Álvarez Maynez</t>
-  </si>
-  <si>
-    <t>Claudia Sheinbaum</t>
-  </si>
-  <si>
-    <t>Xóchitl Galvez</t>
-  </si>
-  <si>
     <t>Median</t>
   </si>
   <si>
     <t>StdDev</t>
+  </si>
+  <si>
+    <t>Polls</t>
+  </si>
+  <si>
+    <t>Pollster</t>
+  </si>
+  <si>
+    <t>Sheinbaum</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>AV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,31 +321,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -413,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -470,12 +416,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -517,22 +472,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,21 +494,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -880,9 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6041754-B9A0-4B1F-8AE9-569EC65B3AFE}">
   <dimension ref="A1:XFB253"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -907,43 +846,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="25" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="25" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="27"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="26"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -8429,15 +8368,15 @@
         <v>7044</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" ref="M99:M132" si="44">J99/I99</f>
+        <f t="shared" ref="M99:M138" si="44">J99/I99</f>
         <v>23440</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" ref="N99:N132" si="45">K99/I99</f>
+        <f t="shared" ref="N99:N138" si="45">K99/I99</f>
         <v>5860</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" ref="O99:O132" si="46">L99/I99</f>
+        <f t="shared" ref="O99:O138" si="46">L99/I99</f>
         <v>1408.8</v>
       </c>
       <c r="P99" s="6">
@@ -8885,7 +8824,7 @@
         <v>33845</v>
       </c>
       <c r="R105" s="8">
-        <f t="shared" ref="R105:R132" si="48">Q105/P105</f>
+        <f t="shared" ref="R105:R138" si="48">Q105/P105</f>
         <v>4835</v>
       </c>
       <c r="S105" s="6">
@@ -10155,15 +10094,15 @@
         <v>34023</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F132" si="56">C123/B123</f>
+        <f t="shared" ref="F123:F138" si="56">C123/B123</f>
         <v>482.1</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G132" si="57">D123/B123</f>
+        <f t="shared" ref="G123:G138" si="57">D123/B123</f>
         <v>1389.3</v>
       </c>
       <c r="H123" s="8">
-        <f t="shared" ref="H123:H132" si="58">E123/B123</f>
+        <f t="shared" ref="H123:H138" si="58">E123/B123</f>
         <v>3402.3</v>
       </c>
       <c r="I123" s="6">
@@ -10425,6 +10364,7 @@
         <v>175749</v>
       </c>
       <c r="U126" s="8">
+        <f>T126/S126</f>
         <v>87874.5</v>
       </c>
     </row>
@@ -10497,7 +10437,8 @@
         <v>1402700</v>
       </c>
       <c r="U127" s="8">
-        <v>87874.5</v>
+        <f t="shared" ref="U127:U136" si="59">T127/S127</f>
+        <v>467566.66666666669</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
@@ -10569,7 +10510,8 @@
         <v>350249</v>
       </c>
       <c r="U128" s="8">
-        <v>87874.5</v>
+        <f t="shared" si="59"/>
+        <v>350249</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
@@ -10641,7 +10583,8 @@
         <v>1093273</v>
       </c>
       <c r="U129" s="8">
-        <v>87874.5</v>
+        <f t="shared" si="59"/>
+        <v>364424.33333333331</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
@@ -10713,7 +10656,8 @@
         <v>256568</v>
       </c>
       <c r="U130" s="8">
-        <v>87874.5</v>
+        <f t="shared" si="59"/>
+        <v>256568</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
@@ -10785,7 +10729,8 @@
         <v>82100</v>
       </c>
       <c r="U131" s="8">
-        <v>87874.5</v>
+        <f t="shared" si="59"/>
+        <v>27366.666666666668</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
@@ -10857,100 +10802,450 @@
         <v>2993100</v>
       </c>
       <c r="U132" s="8">
-        <v>87874.5</v>
+        <f t="shared" si="59"/>
+        <v>130134.78260869565</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>45306</v>
       </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="S133" s="6"/>
-      <c r="T133" s="6"/>
+      <c r="B133" s="6">
+        <v>17</v>
+      </c>
+      <c r="C133" s="6">
+        <v>5486</v>
+      </c>
+      <c r="D133" s="6">
+        <v>22432</v>
+      </c>
+      <c r="E133" s="6">
+        <v>58501</v>
+      </c>
+      <c r="F133" s="6">
+        <f t="shared" si="56"/>
+        <v>322.70588235294116</v>
+      </c>
+      <c r="G133" s="6">
+        <f t="shared" si="57"/>
+        <v>1319.5294117647059</v>
+      </c>
+      <c r="H133" s="8">
+        <f t="shared" si="58"/>
+        <v>3441.2352941176468</v>
+      </c>
+      <c r="I133" s="6">
+        <v>15</v>
+      </c>
+      <c r="J133" s="6">
+        <v>210500</v>
+      </c>
+      <c r="K133" s="6">
+        <v>30342</v>
+      </c>
+      <c r="L133" s="6">
+        <v>12397</v>
+      </c>
+      <c r="M133" s="6">
+        <f t="shared" si="44"/>
+        <v>14033.333333333334</v>
+      </c>
+      <c r="N133" s="6">
+        <f t="shared" si="45"/>
+        <v>2022.8</v>
+      </c>
+      <c r="O133" s="8">
+        <f t="shared" si="46"/>
+        <v>826.4666666666667</v>
+      </c>
+      <c r="P133" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q133" s="6">
+        <v>116255</v>
+      </c>
+      <c r="R133" s="8">
+        <f t="shared" si="48"/>
+        <v>8303.9285714285706</v>
+      </c>
+      <c r="S133" s="6">
+        <v>4</v>
+      </c>
+      <c r="T133" s="6">
+        <v>1202654</v>
+      </c>
+      <c r="U133" s="8">
+        <f t="shared" si="59"/>
+        <v>300663.5</v>
+      </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>45307</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="S134" s="6"/>
-      <c r="T134" s="6"/>
+      <c r="B134" s="6">
+        <v>27</v>
+      </c>
+      <c r="C134" s="6">
+        <v>17336</v>
+      </c>
+      <c r="D134" s="6">
+        <v>38938</v>
+      </c>
+      <c r="E134" s="6">
+        <v>108165</v>
+      </c>
+      <c r="F134" s="6">
+        <f t="shared" si="56"/>
+        <v>642.07407407407402</v>
+      </c>
+      <c r="G134" s="6">
+        <f t="shared" si="57"/>
+        <v>1442.148148148148</v>
+      </c>
+      <c r="H134" s="8">
+        <f t="shared" si="58"/>
+        <v>4006.1111111111113</v>
+      </c>
+      <c r="I134" s="6">
+        <v>15</v>
+      </c>
+      <c r="J134" s="6">
+        <v>146700</v>
+      </c>
+      <c r="K134" s="6">
+        <v>29968</v>
+      </c>
+      <c r="L134" s="6">
+        <v>9139</v>
+      </c>
+      <c r="M134" s="6">
+        <f t="shared" si="44"/>
+        <v>9780</v>
+      </c>
+      <c r="N134" s="6">
+        <f t="shared" si="45"/>
+        <v>1997.8666666666666</v>
+      </c>
+      <c r="O134" s="8">
+        <f t="shared" si="46"/>
+        <v>609.26666666666665</v>
+      </c>
+      <c r="P134" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q134" s="6">
+        <v>97480</v>
+      </c>
+      <c r="R134" s="8">
+        <f t="shared" si="48"/>
+        <v>8123.333333333333</v>
+      </c>
+      <c r="S134" s="6">
+        <v>3</v>
+      </c>
+      <c r="T134" s="6">
+        <v>43187</v>
+      </c>
+      <c r="U134" s="8">
+        <f t="shared" si="59"/>
+        <v>14395.666666666666</v>
+      </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
+      <c r="A135" s="9">
+        <v>45308</v>
+      </c>
+      <c r="B135" s="6">
+        <v>19</v>
+      </c>
+      <c r="C135" s="6">
+        <v>6651</v>
+      </c>
+      <c r="D135" s="6">
+        <v>19705</v>
+      </c>
+      <c r="E135" s="6">
+        <v>52739</v>
+      </c>
+      <c r="F135" s="6">
+        <f t="shared" si="56"/>
+        <v>350.05263157894734</v>
+      </c>
+      <c r="G135" s="6">
+        <f t="shared" si="57"/>
+        <v>1037.1052631578948</v>
+      </c>
+      <c r="H135" s="8">
+        <f t="shared" si="58"/>
+        <v>2775.7368421052633</v>
+      </c>
+      <c r="I135" s="6">
+        <v>10</v>
+      </c>
+      <c r="J135" s="6">
+        <v>69800</v>
+      </c>
+      <c r="K135" s="6">
+        <v>15448</v>
+      </c>
+      <c r="L135" s="6">
+        <v>5361</v>
+      </c>
+      <c r="M135" s="6">
+        <f t="shared" si="44"/>
+        <v>6980</v>
+      </c>
+      <c r="N135" s="6">
+        <f t="shared" si="45"/>
+        <v>1544.8</v>
+      </c>
+      <c r="O135" s="8">
+        <f t="shared" si="46"/>
+        <v>536.1</v>
+      </c>
+      <c r="P135" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q135" s="6">
+        <v>55199</v>
+      </c>
+      <c r="R135" s="8">
+        <f t="shared" si="48"/>
+        <v>6899.875</v>
+      </c>
+      <c r="S135" s="6">
+        <v>5</v>
+      </c>
+      <c r="T135" s="6">
+        <v>187000</v>
+      </c>
+      <c r="U135" s="8">
+        <f t="shared" si="59"/>
+        <v>37400</v>
+      </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="S136" s="6"/>
+      <c r="A136" s="9">
+        <v>45309</v>
+      </c>
+      <c r="B136" s="6">
+        <v>31</v>
+      </c>
+      <c r="C136" s="6">
+        <v>8557</v>
+      </c>
+      <c r="D136" s="6">
+        <v>29679</v>
+      </c>
+      <c r="E136" s="6">
+        <v>78958</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" si="56"/>
+        <v>276.03225806451616</v>
+      </c>
+      <c r="G136" s="6">
+        <f t="shared" si="57"/>
+        <v>957.38709677419354</v>
+      </c>
+      <c r="H136" s="8">
+        <f t="shared" si="58"/>
+        <v>2547.0322580645161</v>
+      </c>
+      <c r="I136" s="6">
+        <v>16</v>
+      </c>
+      <c r="J136" s="6">
+        <v>97100</v>
+      </c>
+      <c r="K136" s="6">
+        <v>14792</v>
+      </c>
+      <c r="L136" s="6">
+        <v>8200</v>
+      </c>
+      <c r="M136" s="6">
+        <f t="shared" si="44"/>
+        <v>6068.75</v>
+      </c>
+      <c r="N136" s="6">
+        <f t="shared" si="45"/>
+        <v>924.5</v>
+      </c>
+      <c r="O136" s="8">
+        <f t="shared" si="46"/>
+        <v>512.5</v>
+      </c>
+      <c r="P136" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q136" s="6">
+        <v>51983</v>
+      </c>
+      <c r="R136" s="8">
+        <f t="shared" si="48"/>
+        <v>5198.3</v>
+      </c>
+      <c r="S136" s="6">
+        <v>8</v>
+      </c>
+      <c r="T136" s="6">
+        <v>61245</v>
+      </c>
+      <c r="U136" s="8">
+        <f t="shared" si="59"/>
+        <v>7655.625</v>
+      </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="S137" s="6"/>
-      <c r="T137" s="6"/>
+      <c r="A137" s="9">
+        <v>45310</v>
+      </c>
+      <c r="B137" s="6">
+        <v>5</v>
+      </c>
+      <c r="C137" s="6">
+        <v>6266</v>
+      </c>
+      <c r="D137" s="6">
+        <v>18900</v>
+      </c>
+      <c r="E137" s="6">
+        <v>52309</v>
+      </c>
+      <c r="F137" s="6">
+        <f t="shared" si="56"/>
+        <v>1253.2</v>
+      </c>
+      <c r="G137" s="6">
+        <f t="shared" si="57"/>
+        <v>3780</v>
+      </c>
+      <c r="H137" s="8">
+        <f t="shared" si="58"/>
+        <v>10461.799999999999</v>
+      </c>
+      <c r="I137" s="6">
+        <v>4</v>
+      </c>
+      <c r="J137" s="6">
+        <v>43500</v>
+      </c>
+      <c r="K137" s="6">
+        <v>7200</v>
+      </c>
+      <c r="L137" s="6">
+        <v>3769</v>
+      </c>
+      <c r="M137" s="6">
+        <f t="shared" si="44"/>
+        <v>10875</v>
+      </c>
+      <c r="N137" s="6">
+        <f t="shared" si="45"/>
+        <v>1800</v>
+      </c>
+      <c r="O137" s="8">
+        <f t="shared" si="46"/>
+        <v>942.25</v>
+      </c>
+      <c r="P137" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q137" s="6">
+        <v>22711</v>
+      </c>
+      <c r="R137" s="8">
+        <f t="shared" si="48"/>
+        <v>7570.333333333333</v>
+      </c>
+      <c r="S137" s="6">
+        <v>1</v>
+      </c>
+      <c r="T137" s="6">
+        <v>41000</v>
+      </c>
+      <c r="U137" s="8">
+        <v>41000</v>
+      </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="S138" s="6"/>
-      <c r="T138" s="6"/>
+      <c r="A138" s="9">
+        <v>45311</v>
+      </c>
+      <c r="B138" s="6">
+        <v>7</v>
+      </c>
+      <c r="C138" s="6">
+        <v>5108</v>
+      </c>
+      <c r="D138" s="6">
+        <v>16898</v>
+      </c>
+      <c r="E138" s="6">
+        <v>44400</v>
+      </c>
+      <c r="F138" s="6">
+        <f t="shared" si="56"/>
+        <v>729.71428571428567</v>
+      </c>
+      <c r="G138" s="6">
+        <f t="shared" si="57"/>
+        <v>2414</v>
+      </c>
+      <c r="H138" s="8">
+        <f t="shared" si="58"/>
+        <v>6342.8571428571431</v>
+      </c>
+      <c r="I138" s="6">
+        <v>7</v>
+      </c>
+      <c r="J138" s="6">
+        <v>60800</v>
+      </c>
+      <c r="K138" s="6">
+        <v>10665</v>
+      </c>
+      <c r="L138" s="6">
+        <v>4348</v>
+      </c>
+      <c r="M138" s="6">
+        <f t="shared" si="44"/>
+        <v>8685.7142857142862</v>
+      </c>
+      <c r="N138" s="6">
+        <f t="shared" si="45"/>
+        <v>1523.5714285714287</v>
+      </c>
+      <c r="O138" s="8">
+        <f t="shared" si="46"/>
+        <v>621.14285714285711</v>
+      </c>
+      <c r="P138" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q138" s="6">
+        <v>14230</v>
+      </c>
+      <c r="R138" s="8">
+        <f t="shared" si="48"/>
+        <v>4743.333333333333</v>
+      </c>
+      <c r="S138" s="6">
+        <v>0</v>
+      </c>
+      <c r="T138" s="6">
+        <v>0</v>
+      </c>
+      <c r="U138" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A139" s="9">
+        <v>45312</v>
+      </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -10961,10 +11256,11 @@
       <c r="L139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
-      <c r="S139" s="6"/>
-      <c r="T139" s="6"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A140" s="9">
+        <v>45313</v>
+      </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -11049,11 +11345,9 @@
       <c r="T145" s="6"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
-      <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
@@ -11151,7 +11445,6 @@
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
-      <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
@@ -11184,6 +11477,7 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
       <c r="S155" s="6"/>
       <c r="T155" s="6"/>
     </row>
@@ -11285,6 +11579,10 @@
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
     </row>
@@ -11876,8 +12174,8 @@
   <dimension ref="A1:XFB174"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -11901,43 +12199,43 @@
   <sheetData>
     <row r="1" spans="1:28 16259:16382" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="25" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="25" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="27"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="26"/>
     </row>
     <row r="2" spans="1:28 16259:16382" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -19240,15 +19538,15 @@
         <v>3657</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" ref="M97:M132" si="25">J97/I97</f>
+        <f t="shared" ref="M97:M138" si="25">J97/I97</f>
         <v>2936.3636363636365</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" ref="N97:N132" si="26">K97/I97</f>
+        <f t="shared" ref="N97:N138" si="26">K97/I97</f>
         <v>504.72727272727275</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" ref="O97:O132" si="27">L97/I97</f>
+        <f t="shared" ref="O97:O138" si="27">L97/I97</f>
         <v>332.45454545454544</v>
       </c>
       <c r="P97" s="6">
@@ -19696,7 +19994,7 @@
         <v>21715</v>
       </c>
       <c r="R103" s="8">
-        <f t="shared" ref="R103:R132" si="28">Q103/P103</f>
+        <f t="shared" ref="R103:R138" si="28">Q103/P103</f>
         <v>2714.375</v>
       </c>
       <c r="S103" s="6">
@@ -20967,15 +21265,15 @@
         <v>25700</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" ref="F121:F132" si="34">C121/B121</f>
+        <f t="shared" ref="F121:F138" si="34">C121/B121</f>
         <v>464.5</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" ref="G121:G132" si="35">D121/B121</f>
+        <f t="shared" ref="G121:G138" si="35">D121/B121</f>
         <v>894.1</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" ref="H121:H132" si="36">E121/B121</f>
+        <f t="shared" ref="H121:H138" si="36">E121/B121</f>
         <v>2570</v>
       </c>
       <c r="I121" s="6">
@@ -21311,7 +21609,7 @@
         <v>15700</v>
       </c>
       <c r="U125" s="8">
-        <f t="shared" ref="U125:U132" si="37">T125/S125</f>
+        <f t="shared" ref="U125:U138" si="37">T125/S125</f>
         <v>7850</v>
       </c>
     </row>
@@ -21830,81 +22128,444 @@
       <c r="A133" s="9">
         <v>45306</v>
       </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
+      <c r="B133" s="6">
+        <v>7</v>
+      </c>
+      <c r="C133" s="6">
+        <v>2935</v>
+      </c>
+      <c r="D133" s="6">
+        <v>7233</v>
+      </c>
+      <c r="E133" s="6">
+        <v>19100</v>
+      </c>
+      <c r="F133" s="6">
+        <f t="shared" si="34"/>
+        <v>419.28571428571428</v>
+      </c>
+      <c r="G133" s="6">
+        <f t="shared" si="35"/>
+        <v>1033.2857142857142</v>
+      </c>
+      <c r="H133" s="8">
+        <f t="shared" si="36"/>
+        <v>2728.5714285714284</v>
+      </c>
+      <c r="I133" s="6">
+        <v>8</v>
+      </c>
+      <c r="J133" s="6">
+        <v>97900</v>
+      </c>
+      <c r="K133" s="6">
+        <v>6769</v>
+      </c>
+      <c r="L133" s="6">
+        <v>5386</v>
+      </c>
+      <c r="M133" s="6">
+        <f t="shared" si="25"/>
+        <v>12237.5</v>
+      </c>
+      <c r="N133" s="6">
+        <f t="shared" si="26"/>
+        <v>846.125</v>
+      </c>
+      <c r="O133" s="8">
+        <f t="shared" si="27"/>
+        <v>673.25</v>
+      </c>
+      <c r="P133" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q133" s="6">
+        <v>45083</v>
+      </c>
+      <c r="R133" s="8">
+        <f t="shared" si="28"/>
+        <v>7513.833333333333</v>
+      </c>
+      <c r="S133" s="6">
+        <v>3</v>
+      </c>
+      <c r="T133" s="6">
+        <v>38315</v>
+      </c>
+      <c r="U133" s="8">
+        <f t="shared" si="37"/>
+        <v>12771.666666666666</v>
+      </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>45307</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
+      <c r="B134" s="6">
+        <v>9</v>
+      </c>
+      <c r="C134" s="6">
+        <v>6017</v>
+      </c>
+      <c r="D134" s="6">
+        <v>9755</v>
+      </c>
+      <c r="E134" s="6">
+        <v>28200</v>
+      </c>
+      <c r="F134" s="6">
+        <f t="shared" si="34"/>
+        <v>668.55555555555554</v>
+      </c>
+      <c r="G134" s="6">
+        <f t="shared" si="35"/>
+        <v>1083.8888888888889</v>
+      </c>
+      <c r="H134" s="8">
+        <f t="shared" si="36"/>
+        <v>3133.3333333333335</v>
+      </c>
+      <c r="I134" s="6">
+        <v>13</v>
+      </c>
+      <c r="J134" s="6">
+        <v>187100</v>
+      </c>
+      <c r="K134" s="6">
+        <v>12062</v>
+      </c>
+      <c r="L134" s="6">
+        <v>8638</v>
+      </c>
+      <c r="M134" s="6">
+        <f t="shared" si="25"/>
+        <v>14392.307692307691</v>
+      </c>
+      <c r="N134" s="6">
+        <f t="shared" si="26"/>
+        <v>927.84615384615381</v>
+      </c>
+      <c r="O134" s="8">
+        <f t="shared" si="27"/>
+        <v>664.46153846153845</v>
+      </c>
+      <c r="P134" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q134" s="6">
+        <v>41020</v>
+      </c>
+      <c r="R134" s="8">
+        <f t="shared" si="28"/>
+        <v>3418.3333333333335</v>
+      </c>
+      <c r="S134" s="6">
+        <v>6</v>
+      </c>
+      <c r="T134" s="6">
+        <v>276567</v>
+      </c>
+      <c r="U134" s="8">
+        <f t="shared" si="37"/>
+        <v>46094.5</v>
+      </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
+      <c r="A135" s="9">
+        <v>45308</v>
+      </c>
+      <c r="B135" s="6">
+        <v>6</v>
+      </c>
+      <c r="C135" s="6">
+        <v>3269</v>
+      </c>
+      <c r="D135" s="6">
+        <v>6633</v>
+      </c>
+      <c r="E135" s="6">
+        <v>19900</v>
+      </c>
+      <c r="F135" s="6">
+        <f t="shared" si="34"/>
+        <v>544.83333333333337</v>
+      </c>
+      <c r="G135" s="6">
+        <f t="shared" si="35"/>
+        <v>1105.5</v>
+      </c>
+      <c r="H135" s="8">
+        <f t="shared" si="36"/>
+        <v>3316.6666666666665</v>
+      </c>
+      <c r="I135" s="6">
+        <v>14</v>
+      </c>
+      <c r="J135" s="6">
+        <v>75600</v>
+      </c>
+      <c r="K135" s="6">
+        <v>7387</v>
+      </c>
+      <c r="L135" s="6">
+        <v>8662</v>
+      </c>
+      <c r="M135" s="6">
+        <f t="shared" si="25"/>
+        <v>5400</v>
+      </c>
+      <c r="N135" s="6">
+        <f t="shared" si="26"/>
+        <v>527.64285714285711</v>
+      </c>
+      <c r="O135" s="8">
+        <f t="shared" si="27"/>
+        <v>618.71428571428567</v>
+      </c>
+      <c r="P135" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q135" s="6">
+        <v>25206</v>
+      </c>
+      <c r="R135" s="8">
+        <f t="shared" si="28"/>
+        <v>3150.75</v>
+      </c>
+      <c r="S135" s="6">
+        <v>4</v>
+      </c>
+      <c r="T135" s="6">
+        <v>86600</v>
+      </c>
+      <c r="U135" s="8">
+        <f t="shared" si="37"/>
+        <v>21650</v>
+      </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
+      <c r="A136" s="9">
+        <v>45309</v>
+      </c>
+      <c r="B136" s="6">
+        <v>14</v>
+      </c>
+      <c r="C136" s="6">
+        <v>13151</v>
+      </c>
+      <c r="D136" s="6">
+        <v>25456</v>
+      </c>
+      <c r="E136" s="6">
+        <v>69000</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" si="34"/>
+        <v>939.35714285714289</v>
+      </c>
+      <c r="G136" s="6">
+        <f t="shared" si="35"/>
+        <v>1818.2857142857142</v>
+      </c>
+      <c r="H136" s="8">
+        <f t="shared" si="36"/>
+        <v>4928.5714285714284</v>
+      </c>
+      <c r="I136" s="6">
+        <v>20</v>
+      </c>
+      <c r="J136" s="6">
+        <v>166600</v>
+      </c>
+      <c r="K136" s="6">
+        <v>24800</v>
+      </c>
+      <c r="L136" s="6">
+        <v>25926</v>
+      </c>
+      <c r="M136" s="6">
+        <f t="shared" si="25"/>
+        <v>8330</v>
+      </c>
+      <c r="N136" s="6">
+        <f t="shared" si="26"/>
+        <v>1240</v>
+      </c>
+      <c r="O136" s="8">
+        <f t="shared" si="27"/>
+        <v>1296.3</v>
+      </c>
+      <c r="P136" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q136" s="6">
+        <v>86702</v>
+      </c>
+      <c r="R136" s="8">
+        <f t="shared" si="28"/>
+        <v>7225.166666666667</v>
+      </c>
+      <c r="S136" s="6">
+        <v>3</v>
+      </c>
+      <c r="T136" s="6">
+        <v>13939</v>
+      </c>
+      <c r="U136" s="8">
+        <f t="shared" si="37"/>
+        <v>4646.333333333333</v>
+      </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
+      <c r="A137" s="9">
+        <v>45310</v>
+      </c>
+      <c r="B137" s="6">
+        <v>4</v>
+      </c>
+      <c r="C137" s="6">
+        <v>2502</v>
+      </c>
+      <c r="D137" s="6">
+        <v>4527</v>
+      </c>
+      <c r="E137" s="6">
+        <v>13200</v>
+      </c>
+      <c r="F137" s="6">
+        <f t="shared" si="34"/>
+        <v>625.5</v>
+      </c>
+      <c r="G137" s="6">
+        <f t="shared" si="35"/>
+        <v>1131.75</v>
+      </c>
+      <c r="H137" s="8">
+        <f t="shared" si="36"/>
+        <v>3300</v>
+      </c>
+      <c r="I137" s="6">
+        <v>4</v>
+      </c>
+      <c r="J137" s="6">
+        <v>70200</v>
+      </c>
+      <c r="K137" s="6">
+        <v>2054</v>
+      </c>
+      <c r="L137" s="6">
+        <v>2089</v>
+      </c>
+      <c r="M137" s="6">
+        <f t="shared" si="25"/>
+        <v>17550</v>
+      </c>
+      <c r="N137" s="6">
+        <f t="shared" si="26"/>
+        <v>513.5</v>
+      </c>
+      <c r="O137" s="8">
+        <f t="shared" si="27"/>
+        <v>522.25</v>
+      </c>
+      <c r="P137" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q137" s="6">
+        <v>11214</v>
+      </c>
+      <c r="R137" s="8">
+        <f t="shared" si="28"/>
+        <v>3738</v>
+      </c>
+      <c r="S137" s="6">
+        <v>1</v>
+      </c>
+      <c r="T137" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U137" s="8">
+        <f t="shared" si="37"/>
+        <v>3000</v>
+      </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
+      <c r="A138" s="9">
+        <v>45311</v>
+      </c>
+      <c r="B138" s="6">
+        <v>1</v>
+      </c>
+      <c r="C138" s="6">
+        <v>510</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E138" s="6">
+        <v>4100</v>
+      </c>
+      <c r="F138" s="6">
+        <f t="shared" si="34"/>
+        <v>510</v>
+      </c>
+      <c r="G138" s="6">
+        <f t="shared" si="35"/>
+        <v>1500</v>
+      </c>
+      <c r="H138" s="8">
+        <f t="shared" si="36"/>
+        <v>4100</v>
+      </c>
+      <c r="I138" s="6">
+        <v>8</v>
+      </c>
+      <c r="J138" s="6">
+        <v>91400</v>
+      </c>
+      <c r="K138" s="6">
+        <v>9149</v>
+      </c>
+      <c r="L138" s="6">
+        <v>5956</v>
+      </c>
+      <c r="M138" s="6">
+        <f t="shared" si="25"/>
+        <v>11425</v>
+      </c>
+      <c r="N138" s="6">
+        <f t="shared" si="26"/>
+        <v>1143.625</v>
+      </c>
+      <c r="O138" s="8">
+        <f t="shared" si="27"/>
+        <v>744.5</v>
+      </c>
+      <c r="P138" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q138" s="6">
+        <v>21485</v>
+      </c>
+      <c r="R138" s="8">
+        <f t="shared" si="28"/>
+        <v>4297</v>
+      </c>
+      <c r="S138" s="6">
+        <v>1</v>
+      </c>
+      <c r="T138" s="6">
+        <v>4400</v>
+      </c>
+      <c r="U138" s="8">
+        <f t="shared" si="37"/>
+        <v>4400</v>
+      </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A139" s="9">
+        <v>45312</v>
+      </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -21917,6 +22578,9 @@
       <c r="Q139" s="6"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A140" s="9">
+        <v>45313</v>
+      </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -21941,6 +22605,7 @@
       <c r="Q141" s="6"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
@@ -21952,10 +22617,6 @@
       <c r="Q142" s="6"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -21988,10 +22649,6 @@
       <c r="Q145" s="6"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
@@ -22004,7 +22661,6 @@
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
-      <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
@@ -22113,6 +22769,9 @@
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
     </row>
@@ -22121,73 +22780,132 @@
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
+      <c r="I157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
     </row>
-    <row r="161" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
       <c r="P161" s="6"/>
     </row>
-    <row r="162" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
     </row>
-    <row r="163" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
     </row>
-    <row r="164" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
     </row>
-    <row r="166" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
     </row>
-    <row r="167" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
     </row>
-    <row r="169" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
     </row>
-    <row r="170" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
     </row>
-    <row r="171" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
     </row>
-    <row r="172" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I172" s="6"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
     </row>
-    <row r="173" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:17" x14ac:dyDescent="0.3">
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
     </row>
-    <row r="174" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:17" x14ac:dyDescent="0.3">
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
     </row>
@@ -22205,11 +22923,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -22237,34 +22955,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="25" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -22494,15 +23212,15 @@
         <v>640</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F6" si="0">C5/B5</f>
+        <f t="shared" ref="F5:F12" si="0">C5/B5</f>
         <v>174.28571428571428</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G6" si="1">D5/B5</f>
+        <f t="shared" ref="G5:G12" si="1">D5/B5</f>
         <v>27</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ref="H5:H6" si="2">E5/B5</f>
+        <f t="shared" ref="H5:H12" si="2">E5/B5</f>
         <v>91.428571428571431</v>
       </c>
       <c r="I5" s="6">
@@ -22518,15 +23236,15 @@
         <v>321</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M6" si="3">J5/I5</f>
+        <f t="shared" ref="M5:M12" si="3">J5/I5</f>
         <v>248.5</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" ref="N5:N6" si="4">K5/I5</f>
+        <f t="shared" ref="N5:N12" si="4">K5/I5</f>
         <v>47.6</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O6" si="5">L5/I5</f>
+        <f t="shared" ref="O5:O12" si="5">L5/I5</f>
         <v>32.1</v>
       </c>
       <c r="P5" s="6">
@@ -22536,7 +23254,7 @@
         <v>11146</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:R6" si="6">Q5/P5</f>
+        <f t="shared" ref="R5:R12" si="6">Q5/P5</f>
         <v>2786.5</v>
       </c>
       <c r="S5" s="6">
@@ -22626,20 +23344,71 @@
       <c r="A7" s="12">
         <v>45306</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="8"/>
+      <c r="B7" s="6">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1434</v>
+      </c>
+      <c r="D7" s="6">
+        <v>259</v>
+      </c>
+      <c r="E7" s="6">
+        <v>759</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>110.30769230769231</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>19.923076923076923</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
+        <v>58.384615384615387</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2455</v>
+      </c>
+      <c r="K7" s="6">
+        <v>637</v>
+      </c>
+      <c r="L7" s="6">
+        <v>254</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="3"/>
+        <v>245.5</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="4"/>
+        <v>63.7</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="5"/>
+        <v>25.4</v>
+      </c>
+      <c r="P7" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2536</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="6"/>
+        <v>1268</v>
+      </c>
       <c r="S7" s="6">
         <v>0</v>
       </c>
       <c r="T7" s="6">
         <v>0</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -22647,131 +23416,649 @@
       <c r="A8" s="12">
         <v>45307</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1006</v>
+      </c>
+      <c r="D8" s="6">
+        <v>424</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1004</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>125.75</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="2"/>
+        <v>125.5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>977</v>
+      </c>
+      <c r="K8" s="6">
+        <v>200</v>
+      </c>
+      <c r="L8" s="6">
+        <v>234</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="3"/>
+        <v>195.4</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="5"/>
+        <v>46.8</v>
+      </c>
+      <c r="P8" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>16739</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="6"/>
+        <v>3347.8</v>
+      </c>
+      <c r="S8" s="6">
+        <v>3</v>
+      </c>
+      <c r="T8" s="6">
+        <v>4189</v>
+      </c>
+      <c r="U8" s="8">
+        <f>T8/S8</f>
+        <v>1396.3333333333333</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="A9" s="12">
+        <v>45308</v>
+      </c>
+      <c r="B9" s="6">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>877</v>
+      </c>
+      <c r="D9" s="6">
+        <v>311</v>
+      </c>
+      <c r="E9" s="6">
+        <v>939</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>73.083333333333329</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>25.916666666666668</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="2"/>
+        <v>78.25</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2116</v>
+      </c>
+      <c r="K9" s="6">
+        <v>457</v>
+      </c>
+      <c r="L9" s="6">
+        <v>347</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="3"/>
+        <v>264.5</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="4"/>
+        <v>57.125</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="5"/>
+        <v>43.375</v>
+      </c>
+      <c r="P9" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>6316</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="6"/>
+        <v>1052.6666666666667</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1021</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" ref="U9:U10" si="7">T9/S9</f>
+        <v>510.5</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" s="12">
+        <v>45309</v>
+      </c>
+      <c r="B10" s="6">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1036</v>
+      </c>
+      <c r="D10" s="6">
+        <v>375</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1230</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>94.181818181818187</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>34.090909090909093</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="2"/>
+        <v>111.81818181818181</v>
+      </c>
+      <c r="I10" s="6">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5877</v>
+      </c>
+      <c r="K10" s="6">
+        <v>996</v>
+      </c>
+      <c r="L10" s="6">
+        <v>581</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="3"/>
+        <v>367.3125</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="4"/>
+        <v>62.25</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="5"/>
+        <v>36.3125</v>
+      </c>
+      <c r="P10" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>33925</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="6"/>
+        <v>1995.5882352941176</v>
+      </c>
+      <c r="S10" s="6">
+        <v>2</v>
+      </c>
+      <c r="T10" s="6">
+        <v>450</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="A11" s="12">
+        <v>45310</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>834</v>
+      </c>
+      <c r="D11" s="6">
+        <v>173</v>
+      </c>
+      <c r="E11" s="6">
+        <v>483</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>166.8</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>34.6</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
+        <v>96.6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4080</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1220</v>
+      </c>
+      <c r="L11" s="6">
+        <v>300</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="3"/>
+        <v>453.33333333333331</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="4"/>
+        <v>135.55555555555554</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="5"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1203</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="6"/>
+        <v>1203</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="A12" s="12">
+        <v>45311</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1471</v>
+      </c>
+      <c r="D12" s="6">
+        <v>346</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1011</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>147.1</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>34.6</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>101.1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3440</v>
+      </c>
+      <c r="K12" s="6">
+        <v>824</v>
+      </c>
+      <c r="L12" s="6">
+        <v>324</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="3"/>
+        <v>344</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="4"/>
+        <v>82.4</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="5"/>
+        <v>32.4</v>
+      </c>
+      <c r="P12" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>13402</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="6"/>
+        <v>1489.1111111111111</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3</v>
+      </c>
+      <c r="T12" s="6">
+        <v>953</v>
+      </c>
+      <c r="U12" s="8">
+        <f>T12/S12</f>
+        <v>317.66666666666669</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>45312</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>45313</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I23" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -22789,7 +24076,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -22834,7 +24121,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -22845,56 +24132,91 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.21875" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" customWidth="1"/>
     <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>51</v>
+      <c r="C2" s="18">
+        <v>45292</v>
       </c>
       <c r="D2" s="17">
         <v>22</v>
@@ -22905,16 +24227,55 @@
       <c r="F2" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>E2-D2</f>
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <f>MONTH(C2)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="17" t="str" cm="1">
+        <f t="array" ref="J2:J14">_xlfn.UNIQUE(B2:B36)</f>
+        <v>Simo</v>
+      </c>
+      <c r="K2" s="17">
+        <f>COUNTIF(B2:B36,J2)</f>
+        <v>3</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="19">
+        <f>MIN(E2:E36)</f>
+        <v>46</v>
+      </c>
+      <c r="O2" s="19">
+        <f>MAX(E2:E36)</f>
+        <v>66</v>
+      </c>
+      <c r="P2" s="20">
+        <f>AVERAGE(E2:E36)</f>
+        <v>53.771428571428572</v>
+      </c>
+      <c r="Q2">
+        <f>MEDIAN(E2:E36)</f>
+        <v>53</v>
+      </c>
+      <c r="R2" s="21">
+        <f>_xlfn.STDEV.S(E2:E36)</f>
+        <v>5.6207897408570888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C3" s="18">
+        <v>45292</v>
       </c>
       <c r="D3" s="17">
         <v>27</v>
@@ -22925,16 +24286,54 @@
       <c r="F3" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" ref="G3:G36" si="0">E3-D3</f>
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H36" si="1">MONTH(C3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="17" t="str">
+        <v>Mitofsky</v>
+      </c>
+      <c r="K3" s="17">
+        <f>COUNTIF(B3:B37,J3)</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="19">
+        <f>MIN(D2:D36)</f>
+        <v>13</v>
+      </c>
+      <c r="O3" s="19">
+        <f>MAX(D2:D36)</f>
+        <v>34</v>
+      </c>
+      <c r="P3" s="20">
+        <f>AVERAGE(D2:D36)</f>
+        <v>24.485714285714284</v>
+      </c>
+      <c r="Q3">
+        <f>MEDIAN(D2:D36)</f>
+        <v>25</v>
+      </c>
+      <c r="R3" s="21">
+        <f>_xlfn.STDEV.S(D2:D36)</f>
+        <v>4.7426192103931264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C4" s="18">
+        <v>45292</v>
       </c>
       <c r="D4" s="17">
         <v>24</v>
@@ -22945,16 +24344,54 @@
       <c r="F4" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="str">
+        <v>Mendoza Blanco &amp; Asoc</v>
+      </c>
+      <c r="K4" s="17">
+        <f>COUNTIF(B4:B38,J4)</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4">
+        <f>MIN(F2:F36)</f>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f>MAX(F2:F36)</f>
+        <v>18</v>
+      </c>
+      <c r="P4" s="21">
+        <f>AVERAGE(F2:F36)</f>
+        <v>7.9142857142857146</v>
+      </c>
+      <c r="Q4">
+        <f>MEDIAN(F2:F36)</f>
+        <v>7</v>
+      </c>
+      <c r="R4" s="21">
+        <f>_xlfn.STDEV.S(F2:F36)</f>
+        <v>3.8300009873399787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>51</v>
+      <c r="C5" s="18">
+        <v>45292</v>
       </c>
       <c r="D5" s="17">
         <v>27</v>
@@ -22965,16 +24402,31 @@
       <c r="F5" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="17" t="str">
+        <v>Enkoll</v>
+      </c>
+      <c r="K5" s="17">
+        <f>COUNTIF(B5:B39,J5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>51</v>
+      <c r="C6" s="18">
+        <v>45292</v>
       </c>
       <c r="D6" s="17">
         <v>32</v>
@@ -22985,16 +24437,31 @@
       <c r="F6" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="17" t="str">
+        <v>El Financiero</v>
+      </c>
+      <c r="K6" s="17">
+        <f>COUNTIF(B6:B40,J6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>51</v>
+      <c r="C7" s="18">
+        <v>45292</v>
       </c>
       <c r="D7" s="17">
         <v>14</v>
@@ -23005,16 +24472,31 @@
       <c r="F7" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="17" t="str">
+        <v>Demotecnia</v>
+      </c>
+      <c r="K7" s="17">
+        <f>COUNTIF(B7:B41,J7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="17" t="s">
         <v>51</v>
+      </c>
+      <c r="C8" s="18">
+        <v>45292</v>
       </c>
       <c r="D8" s="17">
         <v>27</v>
@@ -23025,16 +24507,31 @@
       <c r="F8" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="17" t="str">
+        <v>Berumen</v>
+      </c>
+      <c r="K8" s="17">
+        <f>COUNTIF(B8:B42,J8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C9" s="18">
+        <v>45627</v>
       </c>
       <c r="D9" s="17">
         <v>24</v>
@@ -23045,16 +24542,31 @@
       <c r="F9" s="17">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J9" s="17" t="str">
+        <v>Varela y Asoc / Citibanamex</v>
+      </c>
+      <c r="K9" s="17">
+        <f>COUNTIF(B9:B43,J9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>57</v>
+      <c r="C10" s="18">
+        <v>45627</v>
       </c>
       <c r="D10" s="17">
         <v>23</v>
@@ -23065,16 +24577,31 @@
       <c r="F10" s="17">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J10" s="17" t="str">
+        <v>Parametría</v>
+      </c>
+      <c r="K10" s="17">
+        <f>COUNTIF(B10:B44,J10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="18">
+        <v>45627</v>
       </c>
       <c r="D11" s="17">
         <v>26</v>
@@ -23085,16 +24612,31 @@
       <c r="F11" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="17" t="str">
+        <v>GEA-ISA</v>
+      </c>
+      <c r="K11" s="17">
+        <f>COUNTIF(B11:B45,J11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="18">
+        <v>45627</v>
       </c>
       <c r="D12" s="17">
         <v>25</v>
@@ -23105,16 +24647,31 @@
       <c r="F12" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J12" s="17" t="str">
+        <v>Covarrubias y Asoc</v>
+      </c>
+      <c r="K12" s="17">
+        <f>COUNTIF(B12:B46,J12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="18">
+        <v>45627</v>
       </c>
       <c r="D13" s="17">
         <v>23</v>
@@ -23125,16 +24682,31 @@
       <c r="F13" s="17">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="17" t="str">
+        <v>Reforma</v>
+      </c>
+      <c r="K13" s="17">
+        <f>COUNTIF(B13:B47,J13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>57</v>
+      <c r="C14" s="18">
+        <v>45627</v>
       </c>
       <c r="D14" s="17">
         <v>30</v>
@@ -23145,16 +24717,31 @@
       <c r="F14" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="17" t="str">
+        <v>Buendía &amp; Márquez</v>
+      </c>
+      <c r="K14" s="17">
+        <f>COUNTIF(B14:B48,J14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>57</v>
+      <c r="C15" s="18">
+        <v>45627</v>
       </c>
       <c r="D15" s="17">
         <v>30</v>
@@ -23165,16 +24752,24 @@
       <c r="F15" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>57</v>
+      <c r="C16" s="18">
+        <v>45627</v>
       </c>
       <c r="D16" s="17">
         <v>13</v>
@@ -23185,16 +24780,24 @@
       <c r="F16" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="18">
+        <v>45627</v>
       </c>
       <c r="D17" s="17">
         <v>22</v>
@@ -23205,16 +24808,24 @@
       <c r="F17" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="18">
+        <v>45627</v>
       </c>
       <c r="D18" s="17">
         <v>27</v>
@@ -23225,15 +24836,24 @@
       <c r="F18" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>45231</v>
       </c>
       <c r="D19" s="17">
@@ -23245,15 +24865,23 @@
       <c r="F19" s="17">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="19">
+        <v>53</v>
+      </c>
+      <c r="C20" s="18">
         <v>45231</v>
       </c>
       <c r="D20" s="17">
@@ -23265,15 +24893,23 @@
       <c r="F20" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="19">
+        <v>48</v>
+      </c>
+      <c r="C21" s="18">
         <v>45231</v>
       </c>
       <c r="D21" s="17">
@@ -23285,15 +24921,23 @@
       <c r="F21" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="19">
+        <v>49</v>
+      </c>
+      <c r="C22" s="18">
         <v>45231</v>
       </c>
       <c r="D22" s="17">
@@ -23305,15 +24949,24 @@
       <c r="F22" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <v>45231</v>
       </c>
       <c r="D23" s="17">
@@ -23325,15 +24978,23 @@
       <c r="F23" s="17">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>45231</v>
       </c>
       <c r="D24" s="17">
@@ -23345,15 +25006,23 @@
       <c r="F24" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>45231</v>
       </c>
       <c r="D25" s="17">
@@ -23365,15 +25034,23 @@
       <c r="F25" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="19">
+        <v>54</v>
+      </c>
+      <c r="C26" s="18">
         <v>45231</v>
       </c>
       <c r="D26" s="17">
@@ -23385,15 +25062,23 @@
       <c r="F26" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="19">
+        <v>55</v>
+      </c>
+      <c r="C27" s="18">
         <v>45231</v>
       </c>
       <c r="D27" s="17">
@@ -23405,15 +25090,23 @@
       <c r="F27" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>45200</v>
       </c>
       <c r="D28" s="17">
@@ -23425,15 +25118,23 @@
       <c r="F28" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="19">
+        <v>53</v>
+      </c>
+      <c r="C29" s="18">
         <v>45200</v>
       </c>
       <c r="D29" s="17">
@@ -23445,15 +25146,23 @@
       <c r="F29" s="17">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="19">
+        <v>48</v>
+      </c>
+      <c r="C30" s="18">
         <v>45200</v>
       </c>
       <c r="D30" s="17">
@@ -23465,15 +25174,23 @@
       <c r="F30" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="19">
+        <v>49</v>
+      </c>
+      <c r="C31" s="18">
         <v>45200</v>
       </c>
       <c r="D31" s="17">
@@ -23485,15 +25202,23 @@
       <c r="F31" s="17">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>45200</v>
       </c>
       <c r="D32" s="17">
@@ -23505,15 +25230,23 @@
       <c r="F32" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>45200</v>
       </c>
       <c r="D33" s="17">
@@ -23525,15 +25258,23 @@
       <c r="F33" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="19">
+        <v>54</v>
+      </c>
+      <c r="C34" s="18">
         <v>45200</v>
       </c>
       <c r="D34" s="17">
@@ -23545,15 +25286,23 @@
       <c r="F34" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>45170</v>
       </c>
       <c r="D35" s="17">
@@ -23565,15 +25314,23 @@
       <c r="F35" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>45170</v>
       </c>
       <c r="D36" s="17">
@@ -23585,82 +25342,17 @@
       <c r="F36" s="17">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H39" s="30"/>
-      <c r="I39" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="L39" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="M39" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H40" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I40" s="30">
-        <f>MIN(E2:E36)</f>
-        <v>46</v>
-      </c>
-      <c r="J40" s="30">
-        <f>MAX(E2:E36)</f>
-        <v>66</v>
-      </c>
-      <c r="K40" s="31">
-        <f>AVERAGE(E2:E36)</f>
-        <v>53.771428571428572</v>
-      </c>
-      <c r="L40">
-        <f>MEDIAN(E2:E36)</f>
-        <v>53</v>
-      </c>
-      <c r="M40" s="32">
-        <f>_xlfn.STDEV.S(E2:E36)</f>
-        <v>5.6207897408570888</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H41" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I41" s="30">
-        <f>MIN(D2:D36)</f>
-        <v>13</v>
-      </c>
-      <c r="J41" s="30">
-        <f>MAX(D2:D36)</f>
-        <v>34</v>
-      </c>
-      <c r="K41" s="31">
-        <f>AVERAGE(D2:D36)</f>
-        <v>24.485714285714284</v>
-      </c>
-      <c r="L41">
-        <f>MEDIAN(D2:D36)</f>
-        <v>25</v>
-      </c>
-      <c r="M41" s="32">
-        <f>_xlfn.STDEV.S(D2:D36)</f>
-        <v>4.7426192103931264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H42" s="17" t="s">
-        <v>87</v>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23670,30 +25362,30 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="F1" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="A1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="K1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -23968,173 +25660,11 @@
     <mergeCell ref="K1:N1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{5E1EDCAE-90DE-4BCC-971D-C69693A51717}"/>
-    <hyperlink ref="F1" r:id="rId2" xr:uid="{EFD34DBD-6E3F-43F5-963E-F95592BBEFB2}"/>
-    <hyperlink ref="K1" r:id="rId3" xr:uid="{6858609E-0947-46E3-8C05-5EA5FCDCA27B}"/>
+    <hyperlink ref="K1" r:id="rId1" display="https://twitter.com/AlvarezMaynez/status/1748072739749945601" xr:uid="{6858609E-0947-46E3-8C05-5EA5FCDCA27B}"/>
+    <hyperlink ref="F1" r:id="rId2" display="https://twitter.com/XochitlGalvez/status/1748075123658117400" xr:uid="{EFD34DBD-6E3F-43F5-963E-F95592BBEFB2}"/>
+    <hyperlink ref="A1" r:id="rId3" display="https://twitter.com/Claudiashein/status/1748050333274714587" xr:uid="{5E1EDCAE-90DE-4BCC-971D-C69693A51717}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6253801-30F8-43DE-82C9-DFADAC5698D5}">
-  <dimension ref="B6:P9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="21">
-        <v>54</v>
-      </c>
-      <c r="D8" s="21">
-        <v>63</v>
-      </c>
-      <c r="E8" s="23">
-        <v>56</v>
-      </c>
-      <c r="F8" s="23">
-        <v>56</v>
-      </c>
-      <c r="G8" s="23">
-        <v>55</v>
-      </c>
-      <c r="H8" s="23">
-        <v>54</v>
-      </c>
-      <c r="I8" s="23">
-        <v>56</v>
-      </c>
-      <c r="J8" s="23">
-        <v>56</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="21">
-        <v>25</v>
-      </c>
-      <c r="D9" s="21">
-        <v>22</v>
-      </c>
-      <c r="E9" s="23">
-        <v>25</v>
-      </c>
-      <c r="F9" s="21">
-        <v>25</v>
-      </c>
-      <c r="G9" s="23">
-        <v>25</v>
-      </c>
-      <c r="H9" s="23">
-        <v>25</v>
-      </c>
-      <c r="I9" s="23">
-        <v>25</v>
-      </c>
-      <c r="J9" s="23">
-        <v>25</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA60880-25B1-4563-882C-8F16BFB192BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99445184-3D8F-43F1-858F-065FA612C943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="12567" yWindow="0" windowWidth="12568" windowHeight="13523" tabRatio="819" activeTab="6" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Accounts" sheetId="6" r:id="rId4"/>
     <sheet name="Polls" sheetId="20" r:id="rId5"/>
     <sheet name="Vida Post" sheetId="22" r:id="rId6"/>
+    <sheet name="Means" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="80">
   <si>
     <t>Candidate</t>
   </si>
@@ -282,6 +283,27 @@
   </si>
   <si>
     <t>AV</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Likes in X (Daily Average)</t>
   </si>
 </sst>
 </file>
@@ -819,9 +841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6041754-B9A0-4B1F-8AE9-569EC65B3AFE}">
   <dimension ref="A1:XFB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -839,7 +861,9 @@
     <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="2"/>
+    <col min="16" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" style="2" customWidth="1"/>
@@ -8368,15 +8392,15 @@
         <v>7044</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" ref="M99:M138" si="44">J99/I99</f>
+        <f t="shared" ref="M99:M140" si="44">J99/I99</f>
         <v>23440</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" ref="N99:N138" si="45">K99/I99</f>
+        <f t="shared" ref="N99:N140" si="45">K99/I99</f>
         <v>5860</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" ref="O99:O138" si="46">L99/I99</f>
+        <f t="shared" ref="O99:O140" si="46">L99/I99</f>
         <v>1408.8</v>
       </c>
       <c r="P99" s="6">
@@ -8824,7 +8848,7 @@
         <v>33845</v>
       </c>
       <c r="R105" s="8">
-        <f t="shared" ref="R105:R138" si="48">Q105/P105</f>
+        <f t="shared" ref="R105:R140" si="48">Q105/P105</f>
         <v>4835</v>
       </c>
       <c r="S105" s="6">
@@ -10094,15 +10118,15 @@
         <v>34023</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F138" si="56">C123/B123</f>
+        <f t="shared" ref="F123:F140" si="56">C123/B123</f>
         <v>482.1</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G138" si="57">D123/B123</f>
+        <f t="shared" ref="G123:G140" si="57">D123/B123</f>
         <v>1389.3</v>
       </c>
       <c r="H123" s="8">
-        <f t="shared" ref="H123:H138" si="58">E123/B123</f>
+        <f t="shared" ref="H123:H140" si="58">E123/B123</f>
         <v>3402.3</v>
       </c>
       <c r="I123" s="6">
@@ -11246,33 +11270,146 @@
       <c r="A139" s="9">
         <v>45312</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
+      <c r="B139" s="6">
+        <v>4</v>
+      </c>
+      <c r="C139" s="6">
+        <v>2197</v>
+      </c>
+      <c r="D139" s="6">
+        <v>8947</v>
+      </c>
+      <c r="E139" s="6">
+        <v>22600</v>
+      </c>
+      <c r="F139" s="6">
+        <f t="shared" si="56"/>
+        <v>549.25</v>
+      </c>
+      <c r="G139" s="6">
+        <f t="shared" si="57"/>
+        <v>2236.75</v>
+      </c>
+      <c r="H139" s="8">
+        <f t="shared" si="58"/>
+        <v>5650</v>
+      </c>
+      <c r="I139" s="6">
+        <v>4</v>
+      </c>
+      <c r="J139" s="6">
+        <v>32500</v>
+      </c>
+      <c r="K139" s="6">
+        <v>6980</v>
+      </c>
+      <c r="L139" s="6">
+        <v>2252</v>
+      </c>
+      <c r="M139" s="6">
+        <f t="shared" si="44"/>
+        <v>8125</v>
+      </c>
+      <c r="N139" s="6">
+        <f t="shared" si="45"/>
+        <v>1745</v>
+      </c>
+      <c r="O139" s="8">
+        <f t="shared" si="46"/>
+        <v>563</v>
+      </c>
+      <c r="P139" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q139" s="6">
+        <v>16542</v>
+      </c>
+      <c r="R139" s="8">
+        <f t="shared" si="48"/>
+        <v>5514</v>
+      </c>
+      <c r="S139" s="6">
+        <v>0</v>
+      </c>
+      <c r="T139" s="6">
+        <v>0</v>
+      </c>
+      <c r="U139" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>45313</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="S140" s="6"/>
-      <c r="T140" s="6"/>
+      <c r="B140" s="6">
+        <v>7</v>
+      </c>
+      <c r="C140" s="6">
+        <v>9529</v>
+      </c>
+      <c r="D140" s="6">
+        <v>26400</v>
+      </c>
+      <c r="E140" s="6">
+        <v>64000</v>
+      </c>
+      <c r="F140" s="6">
+        <f t="shared" si="56"/>
+        <v>1361.2857142857142</v>
+      </c>
+      <c r="G140" s="6">
+        <f t="shared" si="57"/>
+        <v>3771.4285714285716</v>
+      </c>
+      <c r="H140" s="8">
+        <f t="shared" si="58"/>
+        <v>9142.8571428571431</v>
+      </c>
+      <c r="I140" s="6">
+        <v>7</v>
+      </c>
+      <c r="J140" s="6">
+        <v>55600</v>
+      </c>
+      <c r="K140" s="6">
+        <v>12846</v>
+      </c>
+      <c r="L140" s="6">
+        <v>6032</v>
+      </c>
+      <c r="M140" s="6">
+        <f t="shared" si="44"/>
+        <v>7942.8571428571431</v>
+      </c>
+      <c r="N140" s="6">
+        <f t="shared" si="45"/>
+        <v>1835.1428571428571</v>
+      </c>
+      <c r="O140" s="8">
+        <f t="shared" si="46"/>
+        <v>861.71428571428567</v>
+      </c>
+      <c r="P140" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q140" s="6">
+        <v>21074</v>
+      </c>
+      <c r="R140" s="8">
+        <f t="shared" si="48"/>
+        <v>7024.666666666667</v>
+      </c>
+      <c r="S140" s="6">
+        <v>3</v>
+      </c>
+      <c r="T140" s="6">
+        <v>25525</v>
+      </c>
+      <c r="U140" s="2">
+        <f>T140/S140</f>
+        <v>8508.3333333333339</v>
+      </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B141" s="6"/>
@@ -11345,9 +11482,11 @@
       <c r="T145" s="6"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
+      <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
@@ -11375,7 +11514,6 @@
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
-      <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
@@ -11445,6 +11583,7 @@
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
+      <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
@@ -12174,8 +12313,8 @@
   <dimension ref="A1:XFB174"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -19538,15 +19677,15 @@
         <v>3657</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" ref="M97:M138" si="25">J97/I97</f>
+        <f t="shared" ref="M97:M140" si="25">J97/I97</f>
         <v>2936.3636363636365</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" ref="N97:N138" si="26">K97/I97</f>
+        <f t="shared" ref="N97:N140" si="26">K97/I97</f>
         <v>504.72727272727275</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" ref="O97:O138" si="27">L97/I97</f>
+        <f t="shared" ref="O97:O140" si="27">L97/I97</f>
         <v>332.45454545454544</v>
       </c>
       <c r="P97" s="6">
@@ -19994,7 +20133,7 @@
         <v>21715</v>
       </c>
       <c r="R103" s="8">
-        <f t="shared" ref="R103:R138" si="28">Q103/P103</f>
+        <f t="shared" ref="R103:R140" si="28">Q103/P103</f>
         <v>2714.375</v>
       </c>
       <c r="S103" s="6">
@@ -21265,15 +21404,15 @@
         <v>25700</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" ref="F121:F138" si="34">C121/B121</f>
+        <f t="shared" ref="F121:F140" si="34">C121/B121</f>
         <v>464.5</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" ref="G121:G138" si="35">D121/B121</f>
+        <f t="shared" ref="G121:G140" si="35">D121/B121</f>
         <v>894.1</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" ref="H121:H138" si="36">E121/B121</f>
+        <f t="shared" ref="H121:H140" si="36">E121/B121</f>
         <v>2570</v>
       </c>
       <c r="I121" s="6">
@@ -22566,31 +22705,146 @@
       <c r="A139" s="9">
         <v>45312</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
+      <c r="B139" s="6">
+        <v>8</v>
+      </c>
+      <c r="C139" s="6">
+        <v>4577</v>
+      </c>
+      <c r="D139" s="6">
+        <v>10815</v>
+      </c>
+      <c r="E139" s="6">
+        <v>28800</v>
+      </c>
+      <c r="F139" s="6">
+        <f t="shared" si="34"/>
+        <v>572.125</v>
+      </c>
+      <c r="G139" s="6">
+        <f t="shared" si="35"/>
+        <v>1351.875</v>
+      </c>
+      <c r="H139" s="8">
+        <f t="shared" si="36"/>
+        <v>3600</v>
+      </c>
+      <c r="I139" s="6">
+        <v>9</v>
+      </c>
+      <c r="J139" s="6">
+        <v>40500</v>
+      </c>
+      <c r="K139" s="6">
+        <v>4456</v>
+      </c>
+      <c r="L139" s="6">
+        <v>4237</v>
+      </c>
+      <c r="M139" s="6">
+        <f t="shared" si="25"/>
+        <v>4500</v>
+      </c>
+      <c r="N139" s="6">
+        <f t="shared" si="26"/>
+        <v>495.11111111111109</v>
+      </c>
+      <c r="O139" s="8">
+        <f t="shared" si="27"/>
+        <v>470.77777777777777</v>
+      </c>
+      <c r="P139" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q139" s="6">
+        <v>37328</v>
+      </c>
+      <c r="R139" s="8">
+        <f t="shared" si="28"/>
+        <v>7465.6</v>
+      </c>
+      <c r="S139" s="6">
+        <v>0</v>
+      </c>
+      <c r="T139" s="6">
+        <v>0</v>
+      </c>
+      <c r="U139" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>45313</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
+      <c r="B140" s="6">
+        <v>3</v>
+      </c>
+      <c r="C140" s="6">
+        <v>5247</v>
+      </c>
+      <c r="D140" s="6">
+        <v>4884</v>
+      </c>
+      <c r="E140" s="6">
+        <v>13000</v>
+      </c>
+      <c r="F140" s="6">
+        <f t="shared" si="34"/>
+        <v>1749</v>
+      </c>
+      <c r="G140" s="6">
+        <f t="shared" si="35"/>
+        <v>1628</v>
+      </c>
+      <c r="H140" s="8">
+        <f t="shared" si="36"/>
+        <v>4333.333333333333</v>
+      </c>
+      <c r="I140" s="6">
+        <v>6</v>
+      </c>
+      <c r="J140" s="6">
+        <v>38300</v>
+      </c>
+      <c r="K140" s="6">
+        <v>3998</v>
+      </c>
+      <c r="L140" s="6">
+        <v>3167</v>
+      </c>
+      <c r="M140" s="6">
+        <f t="shared" si="25"/>
+        <v>6383.333333333333</v>
+      </c>
+      <c r="N140" s="6">
+        <f t="shared" si="26"/>
+        <v>666.33333333333337</v>
+      </c>
+      <c r="O140" s="8">
+        <f t="shared" si="27"/>
+        <v>527.83333333333337</v>
+      </c>
+      <c r="P140" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q140" s="6">
+        <v>25179</v>
+      </c>
+      <c r="R140" s="8">
+        <f t="shared" si="28"/>
+        <v>5035.8</v>
+      </c>
+      <c r="S140" s="6">
+        <v>2</v>
+      </c>
+      <c r="T140" s="6">
+        <v>24500</v>
+      </c>
+      <c r="U140" s="8">
+        <f>T140/S140</f>
+        <v>12250</v>
+      </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B141" s="6"/>
@@ -22617,6 +22871,10 @@
       <c r="Q142" s="6"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -22625,7 +22883,6 @@
       <c r="Q143" s="6"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
@@ -22649,6 +22906,10 @@
       <c r="Q145" s="6"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
@@ -22926,8 +23187,8 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -23212,15 +23473,15 @@
         <v>640</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F12" si="0">C5/B5</f>
+        <f t="shared" ref="F5:F14" si="0">C5/B5</f>
         <v>174.28571428571428</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G12" si="1">D5/B5</f>
+        <f t="shared" ref="G5:G14" si="1">D5/B5</f>
         <v>27</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ref="H5:H12" si="2">E5/B5</f>
+        <f t="shared" ref="H5:H14" si="2">E5/B5</f>
         <v>91.428571428571431</v>
       </c>
       <c r="I5" s="6">
@@ -23236,15 +23497,15 @@
         <v>321</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M12" si="3">J5/I5</f>
+        <f t="shared" ref="M5:M14" si="3">J5/I5</f>
         <v>248.5</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" ref="N5:N12" si="4">K5/I5</f>
+        <f t="shared" ref="N5:N14" si="4">K5/I5</f>
         <v>47.6</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O12" si="5">L5/I5</f>
+        <f t="shared" ref="O5:O14" si="5">L5/I5</f>
         <v>32.1</v>
       </c>
       <c r="P5" s="6">
@@ -23254,7 +23515,7 @@
         <v>11146</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:R12" si="6">Q5/P5</f>
+        <f t="shared" ref="R5:R14" si="6">Q5/P5</f>
         <v>2786.5</v>
       </c>
       <c r="S5" s="6">
@@ -23780,33 +24041,147 @@
       <c r="A13" s="12">
         <v>45312</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>172</v>
+      </c>
+      <c r="D13" s="6">
+        <v>99</v>
+      </c>
+      <c r="E13" s="6">
+        <v>324</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>57.333333333333336</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2541</v>
+      </c>
+      <c r="K13" s="6">
+        <v>478</v>
+      </c>
+      <c r="L13" s="6">
+        <v>299</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="3"/>
+        <v>508.2</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="4"/>
+        <v>95.6</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="5"/>
+        <v>59.8</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1188</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="6"/>
+        <v>1188</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>238</v>
+      </c>
+      <c r="U13" s="8">
+        <f>T13/S13</f>
+        <v>238</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>45313</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>585</v>
+      </c>
+      <c r="D14" s="6">
+        <v>377</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1094</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>75.400000000000006</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>218.8</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>391</v>
+      </c>
+      <c r="K14" s="6">
+        <v>88</v>
+      </c>
+      <c r="L14" s="6">
+        <v>151</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="3"/>
+        <v>391</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="P14" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>8893</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="6"/>
+        <v>1778.6</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>240</v>
+      </c>
+      <c r="U14" s="8">
+        <f>T14/S14</f>
+        <v>240</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
@@ -23819,8 +24194,6 @@
       <c r="L15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
@@ -23876,7 +24249,6 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -23888,10 +24260,6 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
@@ -23908,6 +24276,7 @@
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -24076,7 +24445,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -24134,8 +24503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -24240,7 +24609,7 @@
         <v>Simo</v>
       </c>
       <c r="K2" s="17">
-        <f>COUNTIF(B2:B36,J2)</f>
+        <f t="shared" ref="K2:K14" si="0">COUNTIF(B2:B36,J2)</f>
         <v>3</v>
       </c>
       <c r="M2" s="17" t="s">
@@ -24287,18 +24656,18 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G36" si="0">E3-D3</f>
+        <f t="shared" ref="G3:G36" si="1">E3-D3</f>
         <v>24</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H36" si="1">MONTH(C3)</f>
+        <f t="shared" ref="H3:H36" si="2">MONTH(C3)</f>
         <v>1</v>
       </c>
       <c r="J3" s="17" t="str">
         <v>Mitofsky</v>
       </c>
       <c r="K3" s="17">
-        <f>COUNTIF(B3:B37,J3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M3" s="17" t="s">
@@ -24345,18 +24714,18 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J4" s="17" t="str">
         <v>Mendoza Blanco &amp; Asoc</v>
       </c>
       <c r="K4" s="17">
-        <f>COUNTIF(B4:B38,J4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M4" s="17" t="s">
@@ -24403,18 +24772,18 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J5" s="17" t="str">
         <v>Enkoll</v>
       </c>
       <c r="K5" s="17">
-        <f>COUNTIF(B5:B39,J5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -24438,18 +24807,18 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J6" s="17" t="str">
         <v>El Financiero</v>
       </c>
       <c r="K6" s="17">
-        <f>COUNTIF(B6:B40,J6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -24473,18 +24842,18 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7" s="17" t="str">
         <v>Demotecnia</v>
       </c>
       <c r="K7" s="17">
-        <f>COUNTIF(B7:B41,J7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -24508,18 +24877,18 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J8" s="17" t="str">
         <v>Berumen</v>
       </c>
       <c r="K8" s="17">
-        <f>COUNTIF(B8:B42,J8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -24543,18 +24912,18 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J9" s="17" t="str">
         <v>Varela y Asoc / Citibanamex</v>
       </c>
       <c r="K9" s="17">
-        <f>COUNTIF(B9:B43,J9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -24578,18 +24947,18 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J10" s="17" t="str">
         <v>Parametría</v>
       </c>
       <c r="K10" s="17">
-        <f>COUNTIF(B10:B44,J10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -24613,18 +24982,18 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J11" s="17" t="str">
         <v>GEA-ISA</v>
       </c>
       <c r="K11" s="17">
-        <f>COUNTIF(B11:B45,J11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -24648,18 +25017,18 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J12" s="17" t="str">
         <v>Covarrubias y Asoc</v>
       </c>
       <c r="K12" s="17">
-        <f>COUNTIF(B12:B46,J12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -24683,18 +25052,18 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J13" s="17" t="str">
         <v>Reforma</v>
       </c>
       <c r="K13" s="17">
-        <f>COUNTIF(B13:B47,J13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -24718,18 +25087,18 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J14" s="17" t="str">
         <v>Buendía &amp; Márquez</v>
       </c>
       <c r="K14" s="17">
-        <f>COUNTIF(B14:B48,J14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -24753,11 +25122,11 @@
         <v>7</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -24781,11 +25150,11 @@
         <v>6</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -24809,11 +25178,11 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -24837,11 +25206,11 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J18" s="17"/>
@@ -24866,11 +25235,11 @@
         <v>14</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -24894,11 +25263,11 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -24922,11 +25291,11 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -24950,11 +25319,11 @@
         <v>8</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="3"/>
@@ -24979,11 +25348,11 @@
         <v>17</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -25007,11 +25376,11 @@
         <v>7</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -25035,11 +25404,11 @@
         <v>6</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -25063,11 +25432,11 @@
         <v>7</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -25091,11 +25460,11 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -25119,11 +25488,11 @@
         <v>7</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -25147,11 +25516,11 @@
         <v>9</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -25175,11 +25544,11 @@
         <v>10</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -25203,11 +25572,11 @@
         <v>9</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -25231,11 +25600,11 @@
         <v>15</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -25259,11 +25628,11 @@
         <v>8</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -25287,11 +25656,11 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -25315,11 +25684,11 @@
         <v>7</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -25343,11 +25712,11 @@
         <v>18</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -25362,7 +25731,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -25667,4 +26036,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6748DF8D-1E96-42F5-BE18-DD686141E658}">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>33426</v>
+      </c>
+      <c r="C4">
+        <v>18143</v>
+      </c>
+      <c r="D4">
+        <v>24328</v>
+      </c>
+      <c r="E4">
+        <v>24617</v>
+      </c>
+      <c r="F4">
+        <v>22640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>51000</v>
+      </c>
+      <c r="C5">
+        <v>40000</v>
+      </c>
+      <c r="D5">
+        <v>55792</v>
+      </c>
+      <c r="E5">
+        <v>43850</v>
+      </c>
+      <c r="F5">
+        <v>68864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AAB1F5-7A86-44BF-9725-E0DFBDE13C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E52567-40BF-4404-858A-73C10621D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="2" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="6" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Accounts" sheetId="6" r:id="rId4"/>
     <sheet name="Polls" sheetId="20" r:id="rId5"/>
     <sheet name="Vida Post" sheetId="22" r:id="rId6"/>
-    <sheet name="Means" sheetId="23" r:id="rId7"/>
+    <sheet name="Results" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
   <si>
     <t>Candidate</t>
   </si>
@@ -258,40 +258,25 @@
     <t>AV</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Likes in X (Daily Average)</t>
-  </si>
-  <si>
-    <t>Last Poll (%)</t>
-  </si>
-  <si>
-    <t>LR (%)</t>
-  </si>
-  <si>
-    <t>RF (%)</t>
-  </si>
-  <si>
     <t>Diff1v2</t>
   </si>
   <si>
     <t>Diff2v3</t>
+  </si>
+  <si>
+    <t>Oraculus</t>
+  </si>
+  <si>
+    <t>LR (X &amp; FB)</t>
+  </si>
+  <si>
+    <t>MLP (X &amp; FB)</t>
+  </si>
+  <si>
+    <t>LR (ALL)</t>
+  </si>
+  <si>
+    <t>MLP (AlL)</t>
   </si>
 </sst>
 </file>
@@ -446,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -515,6 +500,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,8 +828,8 @@
   <dimension ref="A1:XEU253"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -12765,15 +12753,15 @@
         <v>2727</v>
       </c>
       <c r="M163" s="6">
-        <f t="shared" ref="M163:M170" si="64">J163/I163</f>
+        <f t="shared" ref="M163:M172" si="64">J163/I163</f>
         <v>11666.666666666666</v>
       </c>
       <c r="N163" s="6">
-        <f t="shared" ref="N163:N170" si="65">K163/I163</f>
+        <f t="shared" ref="N163:N172" si="65">K163/I163</f>
         <v>2266.6666666666665</v>
       </c>
       <c r="O163" s="8">
-        <f t="shared" ref="O163:O170" si="66">L163/I163</f>
+        <f t="shared" ref="O163:O172" si="66">L163/I163</f>
         <v>909</v>
       </c>
       <c r="P163" s="6">
@@ -13033,15 +13021,15 @@
         <v>65000</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" ref="F167:F170" si="68">C167/B167</f>
+        <f t="shared" ref="F167:F172" si="68">C167/B167</f>
         <v>1966.6666666666667</v>
       </c>
       <c r="G167" s="6">
-        <f t="shared" ref="G167:G170" si="69">D167/B167</f>
+        <f t="shared" ref="G167:G172" si="69">D167/B167</f>
         <v>8100</v>
       </c>
       <c r="H167" s="8">
-        <f t="shared" ref="H167:H170" si="70">E167/B167</f>
+        <f t="shared" ref="H167:H172" si="70">E167/B167</f>
         <v>21666.666666666668</v>
       </c>
       <c r="I167" s="6">
@@ -13308,30 +13296,119 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
+      <c r="A171" s="9">
+        <v>45344</v>
+      </c>
+      <c r="B171" s="6">
+        <v>9</v>
+      </c>
+      <c r="C171" s="6">
+        <v>12963</v>
+      </c>
+      <c r="D171" s="6">
+        <v>32829</v>
+      </c>
+      <c r="E171" s="6">
+        <v>100600</v>
+      </c>
+      <c r="F171" s="6">
+        <f t="shared" si="68"/>
+        <v>1440.3333333333333</v>
+      </c>
+      <c r="G171" s="6">
+        <f t="shared" si="69"/>
+        <v>3647.6666666666665</v>
+      </c>
+      <c r="H171" s="8">
+        <f t="shared" si="70"/>
+        <v>11177.777777777777</v>
+      </c>
+      <c r="I171" s="6">
+        <v>7</v>
+      </c>
+      <c r="J171" s="6">
+        <v>95700</v>
+      </c>
+      <c r="K171" s="6">
+        <v>19961</v>
+      </c>
+      <c r="L171" s="6">
+        <v>4129</v>
+      </c>
+      <c r="M171" s="6">
+        <f t="shared" si="64"/>
+        <v>13671.428571428571</v>
+      </c>
+      <c r="N171" s="6">
+        <f t="shared" si="65"/>
+        <v>2851.5714285714284</v>
+      </c>
+      <c r="O171" s="8">
+        <f t="shared" si="66"/>
+        <v>589.85714285714289</v>
+      </c>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
+      <c r="A172" s="9">
+        <v>45345</v>
+      </c>
+      <c r="B172" s="6">
+        <v>4</v>
+      </c>
+      <c r="C172" s="6">
+        <v>5450</v>
+      </c>
+      <c r="D172" s="6">
+        <v>22100</v>
+      </c>
+      <c r="E172" s="6">
+        <v>47000</v>
+      </c>
+      <c r="F172" s="6">
+        <f t="shared" si="68"/>
+        <v>1362.5</v>
+      </c>
+      <c r="G172" s="6">
+        <f t="shared" si="69"/>
+        <v>5525</v>
+      </c>
+      <c r="H172" s="8">
+        <f t="shared" si="70"/>
+        <v>11750</v>
+      </c>
+      <c r="I172" s="6">
+        <v>4</v>
+      </c>
+      <c r="J172" s="6">
+        <v>28800</v>
+      </c>
+      <c r="K172" s="6">
+        <v>10900</v>
+      </c>
+      <c r="L172" s="6">
+        <v>3622</v>
+      </c>
+      <c r="M172" s="6">
+        <f t="shared" si="64"/>
+        <v>7200</v>
+      </c>
+      <c r="N172" s="6">
+        <f t="shared" si="65"/>
+        <v>2725</v>
+      </c>
+      <c r="O172" s="8">
+        <f t="shared" si="66"/>
+        <v>905.5</v>
+      </c>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A173" s="9">
+        <v>45346</v>
+      </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -13344,6 +13421,9 @@
       <c r="Q173" s="6"/>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A174" s="9">
+        <v>45347</v>
+      </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -13380,11 +13460,9 @@
       <c r="Q176" s="6"/>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
-      <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
@@ -13408,6 +13486,7 @@
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
+      <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
@@ -13427,6 +13506,7 @@
       <c r="Q180" s="6"/>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
@@ -13928,8 +14008,8 @@
   <dimension ref="A1:XET202"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -22748,15 +22828,15 @@
         <v>25700</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" ref="F121:F170" si="31">C121/B121</f>
+        <f t="shared" ref="F121:F172" si="31">C121/B121</f>
         <v>464.5</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" ref="G121:G170" si="32">D121/B121</f>
+        <f t="shared" ref="G121:G172" si="32">D121/B121</f>
         <v>894.1</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" ref="H121:H170" si="33">E121/B121</f>
+        <f t="shared" ref="H121:H172" si="33">E121/B121</f>
         <v>2570</v>
       </c>
       <c r="I121" s="6">
@@ -25757,15 +25837,15 @@
         <v>8422</v>
       </c>
       <c r="M162" s="6">
-        <f t="shared" ref="M162:M170" si="38">J162/I162</f>
+        <f t="shared" ref="M162:M172" si="38">J162/I162</f>
         <v>12650</v>
       </c>
       <c r="N162" s="6">
-        <f t="shared" ref="N162:N170" si="39">K162/I162</f>
+        <f t="shared" ref="N162:N172" si="39">K162/I162</f>
         <v>1410.8333333333333</v>
       </c>
       <c r="O162" s="8">
-        <f t="shared" ref="O162:O170" si="40">L162/I162</f>
+        <f t="shared" ref="O162:O172" si="40">L162/I162</f>
         <v>1403.6666666666667</v>
       </c>
       <c r="P162" s="6">
@@ -26372,30 +26452,119 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
+      <c r="A171" s="9">
+        <v>45344</v>
+      </c>
+      <c r="B171" s="6">
+        <v>3</v>
+      </c>
+      <c r="C171" s="6">
+        <v>8400</v>
+      </c>
+      <c r="D171" s="6">
+        <v>11700</v>
+      </c>
+      <c r="E171" s="6">
+        <v>27500</v>
+      </c>
+      <c r="F171" s="6">
+        <f t="shared" si="31"/>
+        <v>2800</v>
+      </c>
+      <c r="G171" s="6">
+        <f t="shared" si="32"/>
+        <v>3900</v>
+      </c>
+      <c r="H171" s="8">
+        <f t="shared" si="33"/>
+        <v>9166.6666666666661</v>
+      </c>
+      <c r="I171" s="6">
+        <v>7</v>
+      </c>
+      <c r="J171" s="6">
+        <v>64000</v>
+      </c>
+      <c r="K171" s="6">
+        <v>6032</v>
+      </c>
+      <c r="L171" s="6">
+        <v>6753</v>
+      </c>
+      <c r="M171" s="6">
+        <f t="shared" si="38"/>
+        <v>9142.8571428571431</v>
+      </c>
+      <c r="N171" s="6">
+        <f t="shared" si="39"/>
+        <v>861.71428571428567</v>
+      </c>
+      <c r="O171" s="8">
+        <f t="shared" si="40"/>
+        <v>964.71428571428567</v>
+      </c>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
+      <c r="A172" s="9">
+        <v>45345</v>
+      </c>
+      <c r="B172" s="6">
+        <v>2</v>
+      </c>
+      <c r="C172" s="6">
+        <v>5700</v>
+      </c>
+      <c r="D172" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E172" s="6">
+        <v>14600</v>
+      </c>
+      <c r="F172" s="6">
+        <f t="shared" si="31"/>
+        <v>2850</v>
+      </c>
+      <c r="G172" s="6">
+        <f t="shared" si="32"/>
+        <v>2750</v>
+      </c>
+      <c r="H172" s="8">
+        <f t="shared" si="33"/>
+        <v>7300</v>
+      </c>
+      <c r="I172" s="6">
+        <v>5</v>
+      </c>
+      <c r="J172" s="6">
+        <v>22600</v>
+      </c>
+      <c r="K172" s="6">
+        <v>2452</v>
+      </c>
+      <c r="L172" s="6">
+        <v>2854</v>
+      </c>
+      <c r="M172" s="6">
+        <f t="shared" si="38"/>
+        <v>4520</v>
+      </c>
+      <c r="N172" s="6">
+        <f t="shared" si="39"/>
+        <v>490.4</v>
+      </c>
+      <c r="O172" s="8">
+        <f t="shared" si="40"/>
+        <v>570.79999999999995</v>
+      </c>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A173" s="9">
+        <v>45346</v>
+      </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -26408,6 +26577,9 @@
       <c r="Q173" s="6"/>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A174" s="9">
+        <v>45347</v>
+      </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -26420,7 +26592,6 @@
       <c r="Q174" s="6"/>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
@@ -26456,6 +26627,7 @@
       <c r="Q177" s="6"/>
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
@@ -26495,6 +26667,7 @@
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
+      <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
@@ -26696,9 +26869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -27006,15 +27179,15 @@
         <v>321</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M44" si="4">J5/I5</f>
+        <f t="shared" ref="M5:M46" si="4">J5/I5</f>
         <v>248.5</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" ref="N5:N44" si="5">K5/I5</f>
+        <f t="shared" ref="N5:N46" si="5">K5/I5</f>
         <v>47.6</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O44" si="6">L5/I5</f>
+        <f t="shared" ref="O5:O46" si="6">L5/I5</f>
         <v>32.1</v>
       </c>
       <c r="P5" s="6">
@@ -29508,15 +29681,15 @@
         <v>160</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:F44" si="16">C40/B40</f>
+        <f t="shared" ref="F40:F46" si="16">C40/B40</f>
         <v>904</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:G44" si="17">D40/B40</f>
+        <f t="shared" ref="G40:G46" si="17">D40/B40</f>
         <v>98</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:H44" si="18">E40/B40</f>
+        <f t="shared" ref="H40:H46" si="18">E40/B40</f>
         <v>160</v>
       </c>
       <c r="I40" s="6">
@@ -29851,30 +30024,119 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="A45" s="9">
+        <v>45344</v>
+      </c>
+      <c r="B45" s="6">
+        <v>5</v>
+      </c>
+      <c r="C45" s="6">
+        <v>802</v>
+      </c>
+      <c r="D45" s="6">
+        <v>251</v>
+      </c>
+      <c r="E45" s="6">
+        <v>638</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="16"/>
+        <v>160.4</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="17"/>
+        <v>50.2</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="18"/>
+        <v>127.6</v>
+      </c>
+      <c r="I45" s="6">
+        <v>13</v>
+      </c>
+      <c r="J45" s="6">
+        <v>2896</v>
+      </c>
+      <c r="K45" s="6">
+        <v>316</v>
+      </c>
+      <c r="L45" s="6">
+        <v>389</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="4"/>
+        <v>222.76923076923077</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="5"/>
+        <v>24.307692307692307</v>
+      </c>
+      <c r="O45" s="8">
+        <f t="shared" si="6"/>
+        <v>29.923076923076923</v>
+      </c>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="A46" s="9">
+        <v>45345</v>
+      </c>
+      <c r="B46" s="6">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6">
+        <v>350</v>
+      </c>
+      <c r="D46" s="6">
+        <v>138</v>
+      </c>
+      <c r="E46" s="6">
+        <v>486</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="16"/>
+        <v>87.5</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="17"/>
+        <v>34.5</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="18"/>
+        <v>121.5</v>
+      </c>
+      <c r="I46" s="6">
+        <v>8</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1238</v>
+      </c>
+      <c r="K46" s="6">
+        <v>183</v>
+      </c>
+      <c r="L46" s="6">
+        <v>191</v>
+      </c>
+      <c r="M46" s="6">
+        <f t="shared" si="4"/>
+        <v>154.75</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="5"/>
+        <v>22.875</v>
+      </c>
+      <c r="O46" s="8">
+        <f t="shared" si="6"/>
+        <v>23.875</v>
+      </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>45346</v>
+      </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -29887,6 +30149,10 @@
       <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>45347</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -29898,6 +30164,10 @@
       <c r="Q48" s="6"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -29916,10 +30186,10 @@
       <c r="L50" s="6"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -29967,7 +30237,6 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -30076,6 +30345,12 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I67" s="6"/>
@@ -30141,7 +30416,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -30246,10 +30521,10 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -32055,120 +32330,75 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6748DF8D-1E96-42F5-BE18-DD686141E658}">
-  <dimension ref="A2:M6"/>
+  <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="6">
-        <v>63</v>
-      </c>
-      <c r="K3" s="6">
-        <v>55</v>
-      </c>
-      <c r="L3" s="6">
-        <v>54</v>
-      </c>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>33426</v>
-      </c>
-      <c r="C4">
-        <v>18143</v>
-      </c>
-      <c r="D4">
-        <v>24328</v>
-      </c>
-      <c r="E4">
-        <v>24617</v>
-      </c>
-      <c r="F4">
-        <v>22640</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="C6" s="30">
+        <v>0.64</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
-        <v>22</v>
-      </c>
-      <c r="K4" s="6">
-        <v>25</v>
-      </c>
-      <c r="L4" s="6">
-        <v>25</v>
-      </c>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>51000</v>
-      </c>
-      <c r="C5">
-        <v>40000</v>
-      </c>
-      <c r="D5">
-        <v>55792</v>
-      </c>
-      <c r="E5">
-        <v>43850</v>
-      </c>
-      <c r="F5">
-        <v>68864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
+      <c r="C7" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E52567-40BF-4404-858A-73C10621D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B92B3-3EE0-4945-81E8-E5B5CB9CA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="6" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
@@ -490,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,9 +503,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -827,9 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6041754-B9A0-4B1F-8AE9-569EC65B3AFE}">
   <dimension ref="A1:XEU253"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
+      <selection pane="bottomLeft" activeCell="R182" sqref="R182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -855,34 +855,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21 16252:16375" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="26" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="26" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21 16252:16375" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -11323,7 +11323,7 @@
         <v>20269</v>
       </c>
       <c r="R143" s="8">
-        <f t="shared" ref="R143:R170" si="59">Q143/P143</f>
+        <f t="shared" ref="R143:R174" si="59">Q143/P143</f>
         <v>6756.333333333333</v>
       </c>
       <c r="S143" s="6">
@@ -12753,15 +12753,15 @@
         <v>2727</v>
       </c>
       <c r="M163" s="6">
-        <f t="shared" ref="M163:M172" si="64">J163/I163</f>
+        <f t="shared" ref="M163:M174" si="64">J163/I163</f>
         <v>11666.666666666666</v>
       </c>
       <c r="N163" s="6">
-        <f t="shared" ref="N163:N172" si="65">K163/I163</f>
+        <f t="shared" ref="N163:N174" si="65">K163/I163</f>
         <v>2266.6666666666665</v>
       </c>
       <c r="O163" s="8">
-        <f t="shared" ref="O163:O172" si="66">L163/I163</f>
+        <f t="shared" ref="O163:O174" si="66">L163/I163</f>
         <v>909</v>
       </c>
       <c r="P163" s="6">
@@ -13021,15 +13021,15 @@
         <v>65000</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" ref="F167:F172" si="68">C167/B167</f>
+        <f t="shared" ref="F167:F174" si="68">C167/B167</f>
         <v>1966.6666666666667</v>
       </c>
       <c r="G167" s="6">
-        <f t="shared" ref="G167:G172" si="69">D167/B167</f>
+        <f t="shared" ref="G167:G174" si="69">D167/B167</f>
         <v>8100</v>
       </c>
       <c r="H167" s="8">
-        <f t="shared" ref="H167:H172" si="70">E167/B167</f>
+        <f t="shared" ref="H167:H174" si="70">E167/B167</f>
         <v>21666.666666666668</v>
       </c>
       <c r="I167" s="6">
@@ -13347,8 +13347,16 @@
         <f t="shared" si="66"/>
         <v>589.85714285714289</v>
       </c>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
+      <c r="P171" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q171" s="6">
+        <v>71668</v>
+      </c>
+      <c r="R171" s="8">
+        <f t="shared" si="59"/>
+        <v>11944.666666666666</v>
+      </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
@@ -13402,38 +13410,142 @@
         <f t="shared" si="66"/>
         <v>905.5</v>
       </c>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
+      <c r="P172" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q172" s="6">
+        <v>21804</v>
+      </c>
+      <c r="R172" s="8">
+        <f t="shared" si="59"/>
+        <v>10902</v>
+      </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>45346</v>
       </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
-      <c r="L173" s="6"/>
-      <c r="P173" s="6"/>
-      <c r="Q173" s="6"/>
+      <c r="B173" s="6">
+        <v>7</v>
+      </c>
+      <c r="C173" s="6">
+        <v>11267</v>
+      </c>
+      <c r="D173" s="6">
+        <v>34200</v>
+      </c>
+      <c r="E173" s="6">
+        <v>94600</v>
+      </c>
+      <c r="F173" s="6">
+        <f t="shared" si="68"/>
+        <v>1609.5714285714287</v>
+      </c>
+      <c r="G173" s="6">
+        <f t="shared" si="69"/>
+        <v>4885.7142857142853</v>
+      </c>
+      <c r="H173" s="8">
+        <f t="shared" si="70"/>
+        <v>13514.285714285714</v>
+      </c>
+      <c r="I173" s="6">
+        <v>5</v>
+      </c>
+      <c r="J173" s="6">
+        <v>78800</v>
+      </c>
+      <c r="K173" s="6">
+        <v>18281</v>
+      </c>
+      <c r="L173" s="6">
+        <v>5890</v>
+      </c>
+      <c r="M173" s="6">
+        <f t="shared" si="64"/>
+        <v>15760</v>
+      </c>
+      <c r="N173" s="6">
+        <f t="shared" si="65"/>
+        <v>3656.2</v>
+      </c>
+      <c r="O173" s="8">
+        <f t="shared" si="66"/>
+        <v>1178</v>
+      </c>
+      <c r="P173" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q173" s="6">
+        <v>78644</v>
+      </c>
+      <c r="R173" s="8">
+        <f t="shared" si="59"/>
+        <v>11234.857142857143</v>
+      </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>45347</v>
       </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
+      <c r="B174" s="6">
+        <v>4</v>
+      </c>
+      <c r="C174" s="6">
+        <v>10332</v>
+      </c>
+      <c r="D174" s="6">
+        <v>22100</v>
+      </c>
+      <c r="E174" s="6">
+        <v>67600</v>
+      </c>
+      <c r="F174" s="6">
+        <f t="shared" si="68"/>
+        <v>2583</v>
+      </c>
+      <c r="G174" s="6">
+        <f t="shared" si="69"/>
+        <v>5525</v>
+      </c>
+      <c r="H174" s="8">
+        <f t="shared" si="70"/>
+        <v>16900</v>
+      </c>
+      <c r="I174" s="6">
+        <v>4</v>
+      </c>
+      <c r="J174" s="6">
+        <v>80900</v>
+      </c>
+      <c r="K174" s="6">
+        <v>14700</v>
+      </c>
+      <c r="L174" s="6">
+        <v>5651</v>
+      </c>
+      <c r="M174" s="6">
+        <f t="shared" si="64"/>
+        <v>20225</v>
+      </c>
+      <c r="N174" s="6">
+        <f t="shared" si="65"/>
+        <v>3675</v>
+      </c>
+      <c r="O174" s="8">
+        <f t="shared" si="66"/>
+        <v>1412.75</v>
+      </c>
+      <c r="P174" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q174" s="6">
+        <v>116054</v>
+      </c>
+      <c r="R174" s="8">
+        <f t="shared" si="59"/>
+        <v>19342.333333333332</v>
+      </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B175" s="6"/>
@@ -13460,9 +13572,11 @@
       <c r="Q176" s="6"/>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
+      <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
@@ -13482,11 +13596,9 @@
       <c r="Q178" s="6"/>
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
-      <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
@@ -13514,8 +13626,6 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B182" s="6"/>
@@ -13611,6 +13721,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B191" s="6"/>
@@ -13618,104 +13729,119 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P192" s="6"/>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P199" s="6"/>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -14007,9 +14133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4418A-3538-4357-9158-8F79507C1D9F}">
   <dimension ref="A1:XET202"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <selection pane="bottomLeft" activeCell="R180" sqref="R180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -14032,34 +14158,34 @@
   <sheetData>
     <row r="1" spans="1:21 16251:16374" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="26" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="26" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21 16251:16374" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -22828,15 +22954,15 @@
         <v>25700</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" ref="F121:F172" si="31">C121/B121</f>
+        <f t="shared" ref="F121:F174" si="31">C121/B121</f>
         <v>464.5</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" ref="G121:G172" si="32">D121/B121</f>
+        <f t="shared" ref="G121:G174" si="32">D121/B121</f>
         <v>894.1</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" ref="H121:H172" si="33">E121/B121</f>
+        <f t="shared" ref="H121:H174" si="33">E121/B121</f>
         <v>2570</v>
       </c>
       <c r="I121" s="6">
@@ -25837,15 +25963,15 @@
         <v>8422</v>
       </c>
       <c r="M162" s="6">
-        <f t="shared" ref="M162:M172" si="38">J162/I162</f>
+        <f t="shared" ref="M162:M174" si="38">J162/I162</f>
         <v>12650</v>
       </c>
       <c r="N162" s="6">
-        <f t="shared" ref="N162:N172" si="39">K162/I162</f>
+        <f t="shared" ref="N162:N174" si="39">K162/I162</f>
         <v>1410.8333333333333</v>
       </c>
       <c r="O162" s="8">
-        <f t="shared" ref="O162:O172" si="40">L162/I162</f>
+        <f t="shared" ref="O162:O174" si="40">L162/I162</f>
         <v>1403.6666666666667</v>
       </c>
       <c r="P162" s="6">
@@ -26218,7 +26344,7 @@
         <v>74697</v>
       </c>
       <c r="R167" s="8">
-        <f t="shared" ref="R167:R170" si="42">Q167/P167</f>
+        <f t="shared" ref="R167:R174" si="42">Q167/P167</f>
         <v>10671</v>
       </c>
       <c r="S167" s="6">
@@ -26503,8 +26629,16 @@
         <f t="shared" si="40"/>
         <v>964.71428571428567</v>
       </c>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
+      <c r="P171" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q171" s="6">
+        <v>55319</v>
+      </c>
+      <c r="R171" s="8">
+        <f t="shared" si="42"/>
+        <v>13829.75</v>
+      </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
@@ -26558,40 +26692,145 @@
         <f t="shared" si="40"/>
         <v>570.79999999999995</v>
       </c>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
+      <c r="P172" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q172" s="6">
+        <v>9835</v>
+      </c>
+      <c r="R172" s="8">
+        <f t="shared" si="42"/>
+        <v>4917.5</v>
+      </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>45346</v>
       </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
-      <c r="L173" s="6"/>
-      <c r="P173" s="6"/>
-      <c r="Q173" s="6"/>
+      <c r="B173" s="6">
+        <v>5</v>
+      </c>
+      <c r="C173" s="6">
+        <v>21633</v>
+      </c>
+      <c r="D173" s="6">
+        <v>18200</v>
+      </c>
+      <c r="E173" s="6">
+        <v>48500</v>
+      </c>
+      <c r="F173" s="6">
+        <f t="shared" si="31"/>
+        <v>4326.6000000000004</v>
+      </c>
+      <c r="G173" s="6">
+        <f t="shared" si="32"/>
+        <v>3640</v>
+      </c>
+      <c r="H173" s="8">
+        <f t="shared" si="33"/>
+        <v>9700</v>
+      </c>
+      <c r="I173" s="6">
+        <v>6</v>
+      </c>
+      <c r="J173" s="6">
+        <v>52600</v>
+      </c>
+      <c r="K173" s="6">
+        <v>8724</v>
+      </c>
+      <c r="L173" s="6">
+        <v>5841</v>
+      </c>
+      <c r="M173" s="6">
+        <f t="shared" si="38"/>
+        <v>8766.6666666666661</v>
+      </c>
+      <c r="N173" s="6">
+        <f t="shared" si="39"/>
+        <v>1454</v>
+      </c>
+      <c r="O173" s="8">
+        <f t="shared" si="40"/>
+        <v>973.5</v>
+      </c>
+      <c r="P173" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q173" s="6">
+        <v>36240</v>
+      </c>
+      <c r="R173" s="8">
+        <f t="shared" si="42"/>
+        <v>7248</v>
+      </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>45347</v>
       </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
+      <c r="B174" s="6">
+        <v>4</v>
+      </c>
+      <c r="C174" s="6">
+        <v>5177</v>
+      </c>
+      <c r="D174" s="6">
+        <v>9600</v>
+      </c>
+      <c r="E174" s="6">
+        <v>26500</v>
+      </c>
+      <c r="F174" s="6">
+        <f t="shared" si="31"/>
+        <v>1294.25</v>
+      </c>
+      <c r="G174" s="6">
+        <f t="shared" si="32"/>
+        <v>2400</v>
+      </c>
+      <c r="H174" s="8">
+        <f t="shared" si="33"/>
+        <v>6625</v>
+      </c>
+      <c r="I174" s="6">
+        <v>7</v>
+      </c>
+      <c r="J174" s="6">
+        <v>66000</v>
+      </c>
+      <c r="K174" s="6">
+        <v>2579</v>
+      </c>
+      <c r="L174" s="6">
+        <v>4038</v>
+      </c>
+      <c r="M174" s="6">
+        <f t="shared" si="38"/>
+        <v>9428.5714285714294</v>
+      </c>
+      <c r="N174" s="6">
+        <f t="shared" si="39"/>
+        <v>368.42857142857144</v>
+      </c>
+      <c r="O174" s="8">
+        <f t="shared" si="40"/>
+        <v>576.85714285714289</v>
+      </c>
+      <c r="P174" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q174" s="6">
+        <v>44454</v>
+      </c>
+      <c r="R174" s="8">
+        <f t="shared" si="42"/>
+        <v>11113.5</v>
+      </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
@@ -26679,7 +26918,6 @@
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
-      <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
@@ -26867,11 +27105,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -26898,34 +27136,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="26" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="26" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -27179,15 +27417,15 @@
         <v>321</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M46" si="4">J5/I5</f>
+        <f t="shared" ref="M5:M48" si="4">J5/I5</f>
         <v>248.5</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" ref="N5:N46" si="5">K5/I5</f>
+        <f t="shared" ref="N5:N48" si="5">K5/I5</f>
         <v>47.6</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O46" si="6">L5/I5</f>
+        <f t="shared" ref="O5:O48" si="6">L5/I5</f>
         <v>32.1</v>
       </c>
       <c r="P5" s="6">
@@ -28505,7 +28743,7 @@
         <v>8328</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:R44" si="12">Q23/P23</f>
+        <f t="shared" ref="R23:R48" si="12">Q23/P23</f>
         <v>1189.7142857142858</v>
       </c>
       <c r="S23" s="6">
@@ -29681,15 +29919,15 @@
         <v>160</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:F46" si="16">C40/B40</f>
+        <f t="shared" ref="F40:F48" si="16">C40/B40</f>
         <v>904</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:G46" si="17">D40/B40</f>
+        <f t="shared" ref="G40:G48" si="17">D40/B40</f>
         <v>98</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:H46" si="18">E40/B40</f>
+        <f t="shared" ref="H40:H48" si="18">E40/B40</f>
         <v>160</v>
       </c>
       <c r="I40" s="6">
@@ -30075,8 +30313,16 @@
         <f t="shared" si="6"/>
         <v>29.923076923076923</v>
       </c>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
+      <c r="P45" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>10674</v>
+      </c>
+      <c r="R45" s="8">
+        <f t="shared" si="12"/>
+        <v>970.36363636363637</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
@@ -30130,38 +30376,142 @@
         <f t="shared" si="6"/>
         <v>23.875</v>
       </c>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
+      <c r="P46" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>9507</v>
+      </c>
+      <c r="R46" s="8">
+        <f t="shared" si="12"/>
+        <v>950.7</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>45346</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
+      <c r="B47" s="6">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6">
+        <v>318</v>
+      </c>
+      <c r="D47" s="6">
+        <v>88</v>
+      </c>
+      <c r="E47" s="6">
+        <v>276</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="16"/>
+        <v>63.6</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="17"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" si="18"/>
+        <v>55.2</v>
+      </c>
+      <c r="I47" s="6">
+        <v>8</v>
+      </c>
+      <c r="J47" s="6">
+        <v>2892</v>
+      </c>
+      <c r="K47" s="6">
+        <v>628</v>
+      </c>
+      <c r="L47" s="6">
+        <v>198</v>
+      </c>
+      <c r="M47" s="6">
+        <f t="shared" si="4"/>
+        <v>361.5</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="5"/>
+        <v>78.5</v>
+      </c>
+      <c r="O47" s="8">
+        <f t="shared" si="6"/>
+        <v>24.75</v>
+      </c>
+      <c r="P47" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>5256</v>
+      </c>
+      <c r="R47" s="8">
+        <f t="shared" si="12"/>
+        <v>584</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>45347</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
+      <c r="B48" s="6">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6">
+        <v>583</v>
+      </c>
+      <c r="D48" s="6">
+        <v>142</v>
+      </c>
+      <c r="E48" s="6">
+        <v>503</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="16"/>
+        <v>97.166666666666671</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="17"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="18"/>
+        <v>83.833333333333329</v>
+      </c>
+      <c r="I48" s="6">
+        <v>6</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1030</v>
+      </c>
+      <c r="K48" s="6">
+        <v>161</v>
+      </c>
+      <c r="L48" s="6">
+        <v>124</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" si="4"/>
+        <v>171.66666666666666</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="5"/>
+        <v>26.833333333333332</v>
+      </c>
+      <c r="O48" s="8">
+        <f t="shared" si="6"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="P48" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>3623</v>
+      </c>
+      <c r="R48" s="8">
+        <f t="shared" si="12"/>
+        <v>517.57142857142856</v>
+      </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
@@ -30186,6 +30536,7 @@
       <c r="L50" s="6"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -30233,7 +30584,6 @@
       <c r="Q54" s="6"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -30289,6 +30639,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
@@ -30299,6 +30650,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
+      <c r="P60" s="6"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
@@ -30309,6 +30661,8 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
@@ -30319,6 +30673,8 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
@@ -30329,6 +30685,8 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
@@ -30339,66 +30697,145 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-    </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-    </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-    </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-    </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-    </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-    </row>
-    <row r="70" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-    </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-    </row>
-    <row r="73" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-    </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P89" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -32027,24 +32464,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -32333,7 +32770,7 @@
   <dimension ref="B2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -32380,7 +32817,7 @@
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <v>0.64</v>
       </c>
       <c r="D6" s="6"/>
@@ -32392,12 +32829,12 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="26">
         <v>0.3</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="6"/>
     </row>
   </sheetData>

--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B92B3-3EE0-4945-81E8-E5B5CB9CA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA772D-494B-444E-8192-B490C3DFFCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="6" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
@@ -827,9 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6041754-B9A0-4B1F-8AE9-569EC65B3AFE}">
   <dimension ref="A1:XEU253"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R182" sqref="R182"/>
+      <selection pane="bottomLeft" activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -13548,6 +13548,9 @@
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A175" s="9">
+        <v>45348</v>
+      </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -13560,6 +13563,9 @@
       <c r="Q175" s="6"/>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A176" s="9">
+        <v>45349</v>
+      </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -14133,9 +14139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4418A-3538-4357-9158-8F79507C1D9F}">
   <dimension ref="A1:XET202"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R180" sqref="R180"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -26830,6 +26836,9 @@
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A175" s="9">
+        <v>45348</v>
+      </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -26842,6 +26851,9 @@
       <c r="Q175" s="6"/>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A176" s="9">
+        <v>45349</v>
+      </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -27107,9 +27119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R51" sqref="R51"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -30513,7 +30525,10 @@
         <v>517.57142857142856</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>45348</v>
+      </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -30525,7 +30540,10 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>45349</v>
+      </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -30535,7 +30553,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -30547,7 +30565,7 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -30559,7 +30577,7 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -30571,7 +30589,7 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -30583,7 +30601,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -30593,7 +30611,7 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -30605,7 +30623,7 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -30617,7 +30635,7 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -30629,7 +30647,7 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -30641,7 +30659,7 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -30652,7 +30670,7 @@
       <c r="L60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -30664,7 +30682,7 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -30676,7 +30694,7 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -30688,7 +30706,7 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -32458,7 +32476,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -32770,7 +32788,7 @@
   <dimension ref="B2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -32820,10 +32838,18 @@
       <c r="C6" s="26">
         <v>0.64</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="26">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.64</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -32832,10 +32858,18 @@
       <c r="C7" s="26">
         <v>0.3</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA772D-494B-444E-8192-B490C3DFFCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C9092D-D4D4-4DCB-9A4D-A5707E2C270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="6" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="12567" yWindow="0" windowWidth="12568" windowHeight="13523" tabRatio="819" activeTab="2" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -431,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -503,6 +503,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -828,8 +831,8 @@
   <dimension ref="A1:XEU253"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D180" sqref="D180"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -11323,7 +11326,7 @@
         <v>20269</v>
       </c>
       <c r="R143" s="8">
-        <f t="shared" ref="R143:R174" si="59">Q143/P143</f>
+        <f t="shared" ref="R143:R176" si="59">Q143/P143</f>
         <v>6756.333333333333</v>
       </c>
       <c r="S143" s="6">
@@ -12753,15 +12756,15 @@
         <v>2727</v>
       </c>
       <c r="M163" s="6">
-        <f t="shared" ref="M163:M174" si="64">J163/I163</f>
+        <f t="shared" ref="M163:M176" si="64">J163/I163</f>
         <v>11666.666666666666</v>
       </c>
       <c r="N163" s="6">
-        <f t="shared" ref="N163:N174" si="65">K163/I163</f>
+        <f t="shared" ref="N163:N176" si="65">K163/I163</f>
         <v>2266.6666666666665</v>
       </c>
       <c r="O163" s="8">
-        <f t="shared" ref="O163:O174" si="66">L163/I163</f>
+        <f t="shared" ref="O163:O176" si="66">L163/I163</f>
         <v>909</v>
       </c>
       <c r="P163" s="6">
@@ -13021,15 +13024,15 @@
         <v>65000</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" ref="F167:F174" si="68">C167/B167</f>
+        <f t="shared" ref="F167:F176" si="68">C167/B167</f>
         <v>1966.6666666666667</v>
       </c>
       <c r="G167" s="6">
-        <f t="shared" ref="G167:G174" si="69">D167/B167</f>
+        <f t="shared" ref="G167:G176" si="69">D167/B167</f>
         <v>8100</v>
       </c>
       <c r="H167" s="8">
-        <f t="shared" ref="H167:H174" si="70">E167/B167</f>
+        <f t="shared" ref="H167:H176" si="70">E167/B167</f>
         <v>21666.666666666668</v>
       </c>
       <c r="I167" s="6">
@@ -13357,6 +13360,16 @@
         <f t="shared" si="59"/>
         <v>11944.666666666666</v>
       </c>
+      <c r="S171" s="6">
+        <v>1</v>
+      </c>
+      <c r="T171" s="6">
+        <v>11000</v>
+      </c>
+      <c r="U171" s="8">
+        <f t="shared" ref="U171:U176" si="71">T171/S171</f>
+        <v>11000</v>
+      </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
@@ -13420,6 +13433,16 @@
         <f t="shared" si="59"/>
         <v>10902</v>
       </c>
+      <c r="S172" s="6">
+        <v>1</v>
+      </c>
+      <c r="T172" s="6">
+        <v>9900</v>
+      </c>
+      <c r="U172" s="8">
+        <f t="shared" si="71"/>
+        <v>9900</v>
+      </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
@@ -13483,6 +13506,16 @@
         <f t="shared" si="59"/>
         <v>11234.857142857143</v>
       </c>
+      <c r="S173" s="6">
+        <v>2</v>
+      </c>
+      <c r="T173" s="6">
+        <v>90000</v>
+      </c>
+      <c r="U173" s="8">
+        <f t="shared" si="71"/>
+        <v>45000</v>
+      </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
@@ -13546,36 +13579,161 @@
         <f t="shared" si="59"/>
         <v>19342.333333333332</v>
       </c>
+      <c r="S174" s="6">
+        <v>2</v>
+      </c>
+      <c r="T174" s="6">
+        <v>168000</v>
+      </c>
+      <c r="U174" s="8">
+        <f t="shared" si="71"/>
+        <v>84000</v>
+      </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>45348</v>
       </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
+      <c r="B175" s="6">
+        <v>5</v>
+      </c>
+      <c r="C175" s="6">
+        <v>6874</v>
+      </c>
+      <c r="D175" s="6">
+        <v>19600</v>
+      </c>
+      <c r="E175" s="6">
+        <v>45800</v>
+      </c>
+      <c r="F175" s="6">
+        <f t="shared" si="68"/>
+        <v>1374.8</v>
+      </c>
+      <c r="G175" s="6">
+        <f t="shared" si="69"/>
+        <v>3920</v>
+      </c>
+      <c r="H175" s="8">
+        <f t="shared" si="70"/>
+        <v>9160</v>
+      </c>
+      <c r="I175" s="6">
+        <v>5</v>
+      </c>
+      <c r="J175" s="6">
+        <v>39400</v>
+      </c>
+      <c r="K175" s="6">
+        <v>12000</v>
+      </c>
+      <c r="L175" s="6">
+        <v>3966</v>
+      </c>
+      <c r="M175" s="6">
+        <f t="shared" si="64"/>
+        <v>7880</v>
+      </c>
+      <c r="N175" s="6">
+        <f t="shared" si="65"/>
+        <v>2400</v>
+      </c>
+      <c r="O175" s="8">
+        <f t="shared" si="66"/>
+        <v>793.2</v>
+      </c>
+      <c r="P175" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q175" s="6">
+        <v>39559</v>
+      </c>
+      <c r="R175" s="8">
+        <f t="shared" si="59"/>
+        <v>9889.75</v>
+      </c>
+      <c r="S175" s="6">
+        <v>3</v>
+      </c>
+      <c r="T175" s="6">
+        <v>61100</v>
+      </c>
+      <c r="U175" s="8">
+        <f t="shared" si="71"/>
+        <v>20366.666666666668</v>
+      </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>45349</v>
       </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
+      <c r="B176" s="6">
+        <v>5</v>
+      </c>
+      <c r="C176" s="6">
+        <v>6837</v>
+      </c>
+      <c r="D176" s="6">
+        <v>29400</v>
+      </c>
+      <c r="E176" s="6">
+        <v>67100</v>
+      </c>
+      <c r="F176" s="6">
+        <f t="shared" si="68"/>
+        <v>1367.4</v>
+      </c>
+      <c r="G176" s="6">
+        <f t="shared" si="69"/>
+        <v>5880</v>
+      </c>
+      <c r="H176" s="8">
+        <f t="shared" si="70"/>
+        <v>13420</v>
+      </c>
+      <c r="I176" s="6">
+        <v>3</v>
+      </c>
+      <c r="J176" s="6">
+        <v>20600</v>
+      </c>
+      <c r="K176" s="6">
+        <v>5400</v>
+      </c>
+      <c r="L176" s="6">
+        <v>2043</v>
+      </c>
+      <c r="M176" s="6">
+        <f t="shared" si="64"/>
+        <v>6866.666666666667</v>
+      </c>
+      <c r="N176" s="6">
+        <f t="shared" si="65"/>
+        <v>1800</v>
+      </c>
+      <c r="O176" s="8">
+        <f t="shared" si="66"/>
+        <v>681</v>
+      </c>
+      <c r="P176" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q176" s="6">
+        <v>43145</v>
+      </c>
+      <c r="R176" s="8">
+        <f t="shared" si="59"/>
+        <v>14381.666666666666</v>
+      </c>
+      <c r="S176" s="31">
+        <v>0</v>
+      </c>
+      <c r="T176" s="31">
+        <v>0</v>
+      </c>
+      <c r="U176" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B177" s="6"/>
@@ -13602,9 +13760,11 @@
       <c r="Q178" s="6"/>
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
+      <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
@@ -13616,7 +13776,6 @@
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
-      <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
@@ -13632,9 +13791,9 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
+      <c r="P181" s="6"/>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
@@ -14139,9 +14298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4418A-3538-4357-9158-8F79507C1D9F}">
   <dimension ref="A1:XET202"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <selection pane="bottomLeft" activeCell="T184" sqref="T184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -22960,15 +23119,15 @@
         <v>25700</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" ref="F121:F174" si="31">C121/B121</f>
+        <f t="shared" ref="F121:F176" si="31">C121/B121</f>
         <v>464.5</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" ref="G121:G174" si="32">D121/B121</f>
+        <f t="shared" ref="G121:G176" si="32">D121/B121</f>
         <v>894.1</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" ref="H121:H174" si="33">E121/B121</f>
+        <f t="shared" ref="H121:H176" si="33">E121/B121</f>
         <v>2570</v>
       </c>
       <c r="I121" s="6">
@@ -25969,15 +26128,15 @@
         <v>8422</v>
       </c>
       <c r="M162" s="6">
-        <f t="shared" ref="M162:M174" si="38">J162/I162</f>
+        <f t="shared" ref="M162:M176" si="38">J162/I162</f>
         <v>12650</v>
       </c>
       <c r="N162" s="6">
-        <f t="shared" ref="N162:N174" si="39">K162/I162</f>
+        <f t="shared" ref="N162:N176" si="39">K162/I162</f>
         <v>1410.8333333333333</v>
       </c>
       <c r="O162" s="8">
-        <f t="shared" ref="O162:O174" si="40">L162/I162</f>
+        <f t="shared" ref="O162:O176" si="40">L162/I162</f>
         <v>1403.6666666666667</v>
       </c>
       <c r="P162" s="6">
@@ -26287,7 +26446,7 @@
         <v>33048</v>
       </c>
       <c r="U166" s="8">
-        <f t="shared" ref="U166:U170" si="41">T166/S166</f>
+        <f t="shared" ref="U166:U176" si="41">T166/S166</f>
         <v>11016</v>
       </c>
     </row>
@@ -26350,7 +26509,7 @@
         <v>74697</v>
       </c>
       <c r="R167" s="8">
-        <f t="shared" ref="R167:R174" si="42">Q167/P167</f>
+        <f t="shared" ref="R167:R176" si="42">Q167/P167</f>
         <v>10671</v>
       </c>
       <c r="S167" s="6">
@@ -26645,6 +26804,15 @@
         <f t="shared" si="42"/>
         <v>13829.75</v>
       </c>
+      <c r="S171" s="6">
+        <v>0</v>
+      </c>
+      <c r="T171" s="6">
+        <v>0</v>
+      </c>
+      <c r="U171" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
@@ -26708,6 +26876,16 @@
         <f t="shared" si="42"/>
         <v>4917.5</v>
       </c>
+      <c r="S172" s="6">
+        <v>2</v>
+      </c>
+      <c r="T172" s="6">
+        <v>420000</v>
+      </c>
+      <c r="U172" s="8">
+        <f t="shared" si="41"/>
+        <v>210000</v>
+      </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
@@ -26771,6 +26949,15 @@
         <f t="shared" si="42"/>
         <v>7248</v>
       </c>
+      <c r="S173" s="6">
+        <v>0</v>
+      </c>
+      <c r="T173" s="6">
+        <v>0</v>
+      </c>
+      <c r="U173" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
@@ -26834,36 +27021,162 @@
         <f t="shared" si="42"/>
         <v>11113.5</v>
       </c>
+      <c r="S174" s="6">
+        <v>1</v>
+      </c>
+      <c r="T174" s="6">
+        <v>27000</v>
+      </c>
+      <c r="U174" s="8">
+        <f>T174/S174</f>
+        <v>27000</v>
+      </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>45348</v>
       </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
+      <c r="B175" s="6">
+        <v>7</v>
+      </c>
+      <c r="C175" s="6">
+        <v>6432</v>
+      </c>
+      <c r="D175" s="6">
+        <v>11952</v>
+      </c>
+      <c r="E175" s="6">
+        <v>29300</v>
+      </c>
+      <c r="F175" s="6">
+        <f t="shared" si="31"/>
+        <v>918.85714285714289</v>
+      </c>
+      <c r="G175" s="6">
+        <f t="shared" si="32"/>
+        <v>1707.4285714285713</v>
+      </c>
+      <c r="H175" s="8">
+        <f t="shared" si="33"/>
+        <v>4185.7142857142853</v>
+      </c>
+      <c r="I175" s="6">
+        <v>7</v>
+      </c>
+      <c r="J175" s="6">
+        <v>39600</v>
+      </c>
+      <c r="K175" s="6">
+        <v>3800</v>
+      </c>
+      <c r="L175" s="6">
+        <v>4862</v>
+      </c>
+      <c r="M175" s="6">
+        <f t="shared" si="38"/>
+        <v>5657.1428571428569</v>
+      </c>
+      <c r="N175" s="6">
+        <f t="shared" si="39"/>
+        <v>542.85714285714289</v>
+      </c>
+      <c r="O175" s="8">
+        <f t="shared" si="40"/>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="P175" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q175" s="6">
+        <v>22764</v>
+      </c>
+      <c r="R175" s="8">
+        <f t="shared" si="42"/>
+        <v>7588</v>
+      </c>
+      <c r="S175" s="6">
+        <v>4</v>
+      </c>
+      <c r="T175" s="6">
+        <v>280200</v>
+      </c>
+      <c r="U175" s="8">
+        <f t="shared" si="41"/>
+        <v>70050</v>
+      </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>45349</v>
       </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
+      <c r="B176" s="6">
+        <v>6</v>
+      </c>
+      <c r="C176" s="6">
+        <v>8063</v>
+      </c>
+      <c r="D176" s="6">
+        <v>11600</v>
+      </c>
+      <c r="E176" s="6">
+        <v>32500</v>
+      </c>
+      <c r="F176" s="6">
+        <f t="shared" si="31"/>
+        <v>1343.8333333333333</v>
+      </c>
+      <c r="G176" s="6">
+        <f t="shared" si="32"/>
+        <v>1933.3333333333333</v>
+      </c>
+      <c r="H176" s="8">
+        <f t="shared" si="33"/>
+        <v>5416.666666666667</v>
+      </c>
+      <c r="I176" s="6">
+        <v>8</v>
+      </c>
+      <c r="J176" s="6">
+        <v>53300</v>
+      </c>
+      <c r="K176" s="6">
+        <v>4982</v>
+      </c>
+      <c r="L176" s="6">
+        <v>4583</v>
+      </c>
+      <c r="M176" s="6">
+        <f t="shared" si="38"/>
+        <v>6662.5</v>
+      </c>
+      <c r="N176" s="6">
+        <f t="shared" si="39"/>
+        <v>622.75</v>
+      </c>
+      <c r="O176" s="8">
+        <f t="shared" si="40"/>
+        <v>572.875</v>
+      </c>
+      <c r="P176" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q176" s="6">
+        <v>30097</v>
+      </c>
+      <c r="R176" s="8">
+        <f t="shared" si="42"/>
+        <v>6019.4</v>
+      </c>
+      <c r="S176" s="6">
+        <v>3</v>
+      </c>
+      <c r="T176" s="6">
+        <v>2406900</v>
+      </c>
+      <c r="U176" s="8">
+        <f t="shared" si="41"/>
+        <v>802300</v>
+      </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B177" s="6"/>
@@ -26930,6 +27243,7 @@
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
+      <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
@@ -26937,7 +27251,6 @@
       <c r="Q182" s="6"/>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
@@ -27033,6 +27346,7 @@
       <c r="Q190" s="6"/>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B191" s="6"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
@@ -27119,9 +27433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -27429,15 +27743,15 @@
         <v>321</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M48" si="4">J5/I5</f>
+        <f t="shared" ref="M5:M50" si="4">J5/I5</f>
         <v>248.5</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" ref="N5:N48" si="5">K5/I5</f>
+        <f t="shared" ref="N5:N50" si="5">K5/I5</f>
         <v>47.6</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O48" si="6">L5/I5</f>
+        <f t="shared" ref="O5:O50" si="6">L5/I5</f>
         <v>32.1</v>
       </c>
       <c r="P5" s="6">
@@ -28755,7 +29069,7 @@
         <v>8328</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:R48" si="12">Q23/P23</f>
+        <f t="shared" ref="R23:R50" si="12">Q23/P23</f>
         <v>1189.7142857142858</v>
       </c>
       <c r="S23" s="6">
@@ -29931,15 +30245,15 @@
         <v>160</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:F48" si="16">C40/B40</f>
+        <f t="shared" ref="F40:F50" si="16">C40/B40</f>
         <v>904</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:G48" si="17">D40/B40</f>
+        <f t="shared" ref="G40:G50" si="17">D40/B40</f>
         <v>98</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:H48" si="18">E40/B40</f>
+        <f t="shared" ref="H40:H50" si="18">E40/B40</f>
         <v>160</v>
       </c>
       <c r="I40" s="6">
@@ -30335,6 +30649,16 @@
         <f t="shared" si="12"/>
         <v>970.36363636363637</v>
       </c>
+      <c r="S45" s="6">
+        <v>1</v>
+      </c>
+      <c r="T45" s="6">
+        <v>2400</v>
+      </c>
+      <c r="U45" s="8">
+        <f>T45/S45</f>
+        <v>2400</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
@@ -30398,6 +30722,15 @@
         <f t="shared" si="12"/>
         <v>950.7</v>
       </c>
+      <c r="S46" s="6">
+        <v>0</v>
+      </c>
+      <c r="T46" s="6">
+        <v>0</v>
+      </c>
+      <c r="U46" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
@@ -30461,6 +30794,16 @@
         <f t="shared" si="12"/>
         <v>584</v>
       </c>
+      <c r="S47" s="6">
+        <v>1</v>
+      </c>
+      <c r="T47" s="6">
+        <v>612</v>
+      </c>
+      <c r="U47" s="8">
+        <f t="shared" ref="U46:U50" si="19">T47/S47</f>
+        <v>612</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
@@ -30524,36 +30867,162 @@
         <f t="shared" si="12"/>
         <v>517.57142857142856</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S48" s="6">
+        <v>1</v>
+      </c>
+      <c r="T48" s="6">
+        <v>373</v>
+      </c>
+      <c r="U48" s="8">
+        <f t="shared" si="19"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>45348</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B49" s="6">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1574</v>
+      </c>
+      <c r="D49" s="6">
+        <v>480</v>
+      </c>
+      <c r="E49" s="6">
+        <v>802</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="16"/>
+        <v>314.8</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="18"/>
+        <v>160.4</v>
+      </c>
+      <c r="I49" s="6">
+        <v>4</v>
+      </c>
+      <c r="J49" s="6">
+        <v>578</v>
+      </c>
+      <c r="K49" s="6">
+        <v>50</v>
+      </c>
+      <c r="L49" s="6">
+        <v>105</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="4"/>
+        <v>144.5</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" si="6"/>
+        <v>26.25</v>
+      </c>
+      <c r="P49" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>3588</v>
+      </c>
+      <c r="R49" s="8">
+        <f t="shared" si="12"/>
+        <v>897</v>
+      </c>
+      <c r="S49" s="6">
+        <v>0</v>
+      </c>
+      <c r="T49" s="6">
+        <v>0</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>45349</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B50" s="6">
+        <v>11</v>
+      </c>
+      <c r="C50" s="6">
+        <v>701</v>
+      </c>
+      <c r="D50" s="6">
+        <v>294</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="16"/>
+        <v>63.727272727272727</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="17"/>
+        <v>26.727272727272727</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="18"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="I50" s="6">
+        <v>8</v>
+      </c>
+      <c r="J50" s="6">
+        <v>2131</v>
+      </c>
+      <c r="K50" s="6">
+        <v>430</v>
+      </c>
+      <c r="L50" s="6">
+        <v>217</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" si="4"/>
+        <v>266.375</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" si="5"/>
+        <v>53.75</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="6"/>
+        <v>27.125</v>
+      </c>
+      <c r="P50" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>2910</v>
+      </c>
+      <c r="R50" s="8">
+        <f t="shared" si="12"/>
+        <v>582</v>
+      </c>
+      <c r="S50" s="6">
+        <v>0</v>
+      </c>
+      <c r="T50" s="6">
+        <v>0</v>
+      </c>
+      <c r="U50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -30565,7 +31034,7 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -30577,7 +31046,7 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -30589,7 +31058,7 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -30601,17 +31070,19 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -30623,7 +31094,7 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -30635,7 +31106,7 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -30647,19 +31118,18 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-      <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -30669,8 +31139,9 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="P60" s="6"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -30682,8 +31153,7 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -30694,7 +31164,7 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -30706,7 +31176,7 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -30718,7 +31188,11 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -30726,7 +31200,11 @@
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -30734,7 +31212,11 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -30742,7 +31224,7 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -30750,7 +31232,7 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
     </row>
-    <row r="69" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -30758,7 +31240,7 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -30766,14 +31248,14 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -30781,7 +31263,7 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
     </row>
-    <row r="73" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -30789,7 +31271,7 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
     </row>
-    <row r="74" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -30797,27 +31279,27 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
     </row>
-    <row r="75" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
     </row>
-    <row r="76" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
     </row>
-    <row r="77" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
     </row>
-    <row r="78" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
     </row>
-    <row r="79" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
     </row>
-    <row r="80" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
     </row>
@@ -30871,7 +31353,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -32787,8 +33269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6748DF8D-1E96-42F5-BE18-DD686141E658}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C9092D-D4D4-4DCB-9A4D-A5707E2C270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E88518-F7A6-4216-9FA1-FEEFB5DA0069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12567" yWindow="0" windowWidth="12568" windowHeight="13523" tabRatio="819" activeTab="2" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="1" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="82">
   <si>
     <t>Candidate</t>
   </si>
@@ -278,6 +278,39 @@
   <si>
     <t>MLP (AlL)</t>
   </si>
+  <si>
+    <t>LR (X&amp;FB)</t>
+  </si>
+  <si>
+    <t>MLP (ALL)</t>
+  </si>
+  <si>
+    <t>MLP (X&amp;FB)</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
 </sst>
 </file>
 
@@ -431,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -493,6 +526,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,9 +542,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -831,8 +867,8 @@
   <dimension ref="A1:XEU253"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P200" sqref="P200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -853,39 +889,39 @@
     <col min="16" max="17" width="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21 16252:16375" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="28" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="27" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="27" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21 16252:16375" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -11326,7 +11362,7 @@
         <v>20269</v>
       </c>
       <c r="R143" s="8">
-        <f t="shared" ref="R143:R176" si="59">Q143/P143</f>
+        <f t="shared" ref="R143:R192" si="59">Q143/P143</f>
         <v>6756.333333333333</v>
       </c>
       <c r="S143" s="6">
@@ -12756,15 +12792,15 @@
         <v>2727</v>
       </c>
       <c r="M163" s="6">
-        <f t="shared" ref="M163:M176" si="64">J163/I163</f>
+        <f t="shared" ref="M163:M178" si="64">J163/I163</f>
         <v>11666.666666666666</v>
       </c>
       <c r="N163" s="6">
-        <f t="shared" ref="N163:N176" si="65">K163/I163</f>
+        <f t="shared" ref="N163:N178" si="65">K163/I163</f>
         <v>2266.6666666666665</v>
       </c>
       <c r="O163" s="8">
-        <f t="shared" ref="O163:O176" si="66">L163/I163</f>
+        <f t="shared" ref="O163:O178" si="66">L163/I163</f>
         <v>909</v>
       </c>
       <c r="P163" s="6">
@@ -13367,7 +13403,7 @@
         <v>11000</v>
       </c>
       <c r="U171" s="8">
-        <f t="shared" ref="U171:U176" si="71">T171/S171</f>
+        <f t="shared" ref="U171:U175" si="71">T171/S171</f>
         <v>11000</v>
       </c>
     </row>
@@ -13725,189 +13761,1173 @@
         <f t="shared" si="59"/>
         <v>14381.666666666666</v>
       </c>
-      <c r="S176" s="31">
+      <c r="S176" s="27">
         <v>0</v>
       </c>
-      <c r="T176" s="31">
+      <c r="T176" s="27">
         <v>0</v>
       </c>
       <c r="U176" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-      <c r="P181" s="6"/>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
-      <c r="K182" s="6"/>
-      <c r="L182" s="6"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="6"/>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-      <c r="L184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
-      <c r="P187" s="6"/>
-      <c r="Q187" s="6"/>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="P192" s="6"/>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A177" s="9">
+        <v>45350</v>
+      </c>
+      <c r="B177" s="6">
+        <v>2</v>
+      </c>
+      <c r="C177" s="6">
+        <v>3900</v>
+      </c>
+      <c r="D177" s="6">
+        <v>6900</v>
+      </c>
+      <c r="E177" s="6">
+        <v>19300</v>
+      </c>
+      <c r="F177" s="6">
+        <f>C177/B177</f>
+        <v>1950</v>
+      </c>
+      <c r="G177" s="6">
+        <f>D177/B177</f>
+        <v>3450</v>
+      </c>
+      <c r="H177" s="8">
+        <f>E177/B177</f>
+        <v>9650</v>
+      </c>
+      <c r="I177" s="6">
+        <v>2</v>
+      </c>
+      <c r="J177" s="6">
+        <v>17600</v>
+      </c>
+      <c r="K177" s="6">
+        <v>5500</v>
+      </c>
+      <c r="L177" s="6">
+        <v>1139</v>
+      </c>
+      <c r="M177" s="6">
+        <f t="shared" si="64"/>
+        <v>8800</v>
+      </c>
+      <c r="N177" s="6">
+        <f t="shared" si="65"/>
+        <v>2750</v>
+      </c>
+      <c r="O177" s="8">
+        <f t="shared" si="66"/>
+        <v>569.5</v>
+      </c>
+      <c r="P177" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q177" s="6">
+        <v>42882</v>
+      </c>
+      <c r="R177" s="8">
+        <f t="shared" si="59"/>
+        <v>14294</v>
+      </c>
+      <c r="S177" s="6">
+        <v>1</v>
+      </c>
+      <c r="T177" s="6">
+        <v>23502</v>
+      </c>
+      <c r="U177" s="8">
+        <f>T177/S177</f>
+        <v>23502</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A178" s="9">
+        <v>45351</v>
+      </c>
+      <c r="B178" s="6">
+        <v>15</v>
+      </c>
+      <c r="C178" s="6">
+        <v>13294</v>
+      </c>
+      <c r="D178" s="6">
+        <v>53983</v>
+      </c>
+      <c r="E178" s="6">
+        <v>152400</v>
+      </c>
+      <c r="F178" s="6">
+        <f>C178/B178</f>
+        <v>886.26666666666665</v>
+      </c>
+      <c r="G178" s="6">
+        <f>D178/B178</f>
+        <v>3598.8666666666668</v>
+      </c>
+      <c r="H178" s="8">
+        <f>E178/B178</f>
+        <v>10160</v>
+      </c>
+      <c r="I178" s="6">
+        <v>15</v>
+      </c>
+      <c r="J178" s="6">
+        <v>149800</v>
+      </c>
+      <c r="K178" s="6">
+        <v>38454</v>
+      </c>
+      <c r="L178" s="6">
+        <v>15305</v>
+      </c>
+      <c r="M178" s="6">
+        <f t="shared" si="64"/>
+        <v>9986.6666666666661</v>
+      </c>
+      <c r="N178" s="6">
+        <f t="shared" si="65"/>
+        <v>2563.6</v>
+      </c>
+      <c r="O178" s="8">
+        <f t="shared" si="66"/>
+        <v>1020.3333333333334</v>
+      </c>
+      <c r="P178" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q178" s="6">
+        <v>94931</v>
+      </c>
+      <c r="R178" s="8">
+        <f t="shared" si="59"/>
+        <v>11866.375</v>
+      </c>
+      <c r="S178" s="6">
+        <v>5</v>
+      </c>
+      <c r="T178" s="6">
+        <v>168393</v>
+      </c>
+      <c r="U178" s="8">
+        <f t="shared" ref="U178:U190" si="72">T178/S178</f>
+        <v>33678.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A179" s="9">
+        <v>45352</v>
+      </c>
+      <c r="B179" s="6">
+        <v>15</v>
+      </c>
+      <c r="C179" s="6">
+        <v>21235</v>
+      </c>
+      <c r="D179" s="6">
+        <v>75700</v>
+      </c>
+      <c r="E179" s="6">
+        <v>180200</v>
+      </c>
+      <c r="F179" s="6">
+        <f t="shared" ref="F179:F180" si="73">C179/B179</f>
+        <v>1415.6666666666667</v>
+      </c>
+      <c r="G179" s="6">
+        <f t="shared" ref="G179:G180" si="74">D179/B179</f>
+        <v>5046.666666666667</v>
+      </c>
+      <c r="H179" s="8">
+        <f t="shared" ref="H179:H180" si="75">E179/B179</f>
+        <v>12013.333333333334</v>
+      </c>
+      <c r="I179" s="6">
+        <v>16</v>
+      </c>
+      <c r="J179" s="6">
+        <v>548800</v>
+      </c>
+      <c r="K179" s="6">
+        <v>128200</v>
+      </c>
+      <c r="L179" s="6">
+        <v>40802</v>
+      </c>
+      <c r="M179" s="6">
+        <f>J179/I179</f>
+        <v>34300</v>
+      </c>
+      <c r="N179" s="6">
+        <f>K179/I179</f>
+        <v>8012.5</v>
+      </c>
+      <c r="O179" s="8">
+        <f>L179/I179</f>
+        <v>2550.125</v>
+      </c>
+      <c r="P179" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q179" s="6">
+        <v>336425</v>
+      </c>
+      <c r="R179" s="8">
+        <f t="shared" si="59"/>
+        <v>24030.357142857141</v>
+      </c>
+      <c r="S179" s="6">
+        <v>4</v>
+      </c>
+      <c r="T179" s="6">
+        <v>3417700</v>
+      </c>
+      <c r="U179" s="8">
+        <f t="shared" si="72"/>
+        <v>854425</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A180" s="9">
+        <v>45353</v>
+      </c>
+      <c r="B180" s="6">
+        <v>11</v>
+      </c>
+      <c r="C180" s="6">
+        <v>8387</v>
+      </c>
+      <c r="D180" s="6">
+        <v>37600</v>
+      </c>
+      <c r="E180" s="6">
+        <v>91600</v>
+      </c>
+      <c r="F180" s="6">
+        <f t="shared" si="73"/>
+        <v>762.4545454545455</v>
+      </c>
+      <c r="G180" s="6">
+        <f t="shared" si="74"/>
+        <v>3418.181818181818</v>
+      </c>
+      <c r="H180" s="8">
+        <f t="shared" si="75"/>
+        <v>8327.2727272727279</v>
+      </c>
+      <c r="I180" s="6">
+        <v>11</v>
+      </c>
+      <c r="J180" s="6">
+        <v>224800</v>
+      </c>
+      <c r="K180" s="6">
+        <v>58566</v>
+      </c>
+      <c r="L180" s="6">
+        <v>19539</v>
+      </c>
+      <c r="M180" s="6">
+        <f>J180/I180</f>
+        <v>20436.363636363636</v>
+      </c>
+      <c r="N180" s="6">
+        <f>K180/I180</f>
+        <v>5324.181818181818</v>
+      </c>
+      <c r="O180" s="8">
+        <f>L180/I180</f>
+        <v>1776.2727272727273</v>
+      </c>
+      <c r="P180" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q180" s="6">
+        <v>102405</v>
+      </c>
+      <c r="R180" s="8">
+        <f t="shared" si="59"/>
+        <v>11378.333333333334</v>
+      </c>
+      <c r="S180" s="6">
+        <v>2</v>
+      </c>
+      <c r="T180" s="6">
+        <v>23300</v>
+      </c>
+      <c r="U180" s="8">
+        <f t="shared" si="72"/>
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A181" s="9">
+        <v>45354</v>
+      </c>
+      <c r="B181" s="6">
+        <v>11</v>
+      </c>
+      <c r="C181" s="6">
+        <v>10126</v>
+      </c>
+      <c r="D181" s="6">
+        <v>41500</v>
+      </c>
+      <c r="E181" s="6">
+        <v>103200</v>
+      </c>
+      <c r="F181" s="6">
+        <f>C181/B181</f>
+        <v>920.5454545454545</v>
+      </c>
+      <c r="G181" s="6">
+        <f>D181/B181</f>
+        <v>3772.7272727272725</v>
+      </c>
+      <c r="H181" s="8">
+        <f>E181/B181</f>
+        <v>9381.818181818182</v>
+      </c>
+      <c r="I181" s="6">
+        <v>11</v>
+      </c>
+      <c r="J181" s="6">
+        <v>203000</v>
+      </c>
+      <c r="K181" s="6">
+        <v>55367</v>
+      </c>
+      <c r="L181" s="6">
+        <v>13477</v>
+      </c>
+      <c r="M181" s="6">
+        <f>J181/I181</f>
+        <v>18454.545454545456</v>
+      </c>
+      <c r="N181" s="6">
+        <f>K181/I181</f>
+        <v>5033.363636363636</v>
+      </c>
+      <c r="O181" s="8">
+        <f>L181/I181</f>
+        <v>1225.1818181818182</v>
+      </c>
+      <c r="P181" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q181" s="6">
+        <v>109731</v>
+      </c>
+      <c r="R181" s="8">
+        <f t="shared" si="59"/>
+        <v>13716.375</v>
+      </c>
+      <c r="S181" s="6">
+        <v>5</v>
+      </c>
+      <c r="T181" s="6">
+        <v>469600</v>
+      </c>
+      <c r="U181" s="8">
+        <f t="shared" si="72"/>
+        <v>93920</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A182" s="9">
+        <v>45355</v>
+      </c>
+      <c r="B182" s="6">
+        <v>11</v>
+      </c>
+      <c r="C182" s="6">
+        <v>7658</v>
+      </c>
+      <c r="D182" s="6">
+        <v>32100</v>
+      </c>
+      <c r="E182" s="6">
+        <v>80900</v>
+      </c>
+      <c r="F182" s="6">
+        <f>C182/B182</f>
+        <v>696.18181818181813</v>
+      </c>
+      <c r="G182" s="6">
+        <f>D182/B182</f>
+        <v>2918.181818181818</v>
+      </c>
+      <c r="H182" s="8">
+        <f>E182/B182</f>
+        <v>7354.545454545455</v>
+      </c>
+      <c r="I182" s="6">
+        <v>10</v>
+      </c>
+      <c r="J182" s="6">
+        <v>234400</v>
+      </c>
+      <c r="K182" s="6">
+        <v>55000</v>
+      </c>
+      <c r="L182" s="6">
+        <v>15824</v>
+      </c>
+      <c r="M182" s="6">
+        <f>J182/I182</f>
+        <v>23440</v>
+      </c>
+      <c r="N182" s="6">
+        <f>K182/I182</f>
+        <v>5500</v>
+      </c>
+      <c r="O182" s="8">
+        <f>L182/I182</f>
+        <v>1582.4</v>
+      </c>
+      <c r="P182" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q182" s="6">
+        <v>155729</v>
+      </c>
+      <c r="R182" s="8">
+        <f t="shared" si="59"/>
+        <v>14157.181818181818</v>
+      </c>
+      <c r="S182" s="6">
+        <v>3</v>
+      </c>
+      <c r="T182" s="6">
+        <v>2815000</v>
+      </c>
+      <c r="U182" s="8">
+        <f t="shared" si="72"/>
+        <v>938333.33333333337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A183" s="9">
+        <v>45356</v>
+      </c>
+      <c r="B183" s="6">
+        <v>10</v>
+      </c>
+      <c r="C183" s="6">
+        <v>12453</v>
+      </c>
+      <c r="D183" s="6">
+        <v>44100</v>
+      </c>
+      <c r="E183" s="6">
+        <v>119000</v>
+      </c>
+      <c r="F183" s="6">
+        <f t="shared" ref="F183:F188" si="76">C183/B183</f>
+        <v>1245.3</v>
+      </c>
+      <c r="G183" s="6">
+        <f t="shared" ref="G183:G188" si="77">D183/B183</f>
+        <v>4410</v>
+      </c>
+      <c r="H183" s="8">
+        <f t="shared" ref="H183:H188" si="78">E183/B183</f>
+        <v>11900</v>
+      </c>
+      <c r="I183" s="6">
+        <v>8</v>
+      </c>
+      <c r="J183" s="6">
+        <v>177200</v>
+      </c>
+      <c r="K183" s="6">
+        <v>40629</v>
+      </c>
+      <c r="L183" s="6">
+        <v>11059</v>
+      </c>
+      <c r="M183" s="6">
+        <f t="shared" ref="M183:M192" si="79">J183/I183</f>
+        <v>22150</v>
+      </c>
+      <c r="N183" s="6">
+        <f t="shared" ref="N183:N192" si="80">K183/I183</f>
+        <v>5078.625</v>
+      </c>
+      <c r="O183" s="8">
+        <f t="shared" ref="O183:O192" si="81">L183/I183</f>
+        <v>1382.375</v>
+      </c>
+      <c r="P183" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q183" s="6">
+        <v>64330</v>
+      </c>
+      <c r="R183" s="8">
+        <f t="shared" si="59"/>
+        <v>9190</v>
+      </c>
+      <c r="S183" s="6">
+        <v>2</v>
+      </c>
+      <c r="T183" s="6">
+        <v>2456000</v>
+      </c>
+      <c r="U183" s="8">
+        <f t="shared" si="72"/>
+        <v>1228000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A184" s="9">
+        <v>45357</v>
+      </c>
+      <c r="B184" s="6">
+        <v>14</v>
+      </c>
+      <c r="C184" s="6">
+        <v>10993</v>
+      </c>
+      <c r="D184" s="6">
+        <v>45100</v>
+      </c>
+      <c r="E184" s="6">
+        <v>109100</v>
+      </c>
+      <c r="F184" s="6">
+        <f t="shared" si="76"/>
+        <v>785.21428571428567</v>
+      </c>
+      <c r="G184" s="6">
+        <f t="shared" si="77"/>
+        <v>3221.4285714285716</v>
+      </c>
+      <c r="H184" s="8">
+        <f t="shared" si="78"/>
+        <v>7792.8571428571431</v>
+      </c>
+      <c r="I184" s="6">
+        <v>13</v>
+      </c>
+      <c r="J184" s="6">
+        <v>130300</v>
+      </c>
+      <c r="K184" s="6">
+        <v>34077</v>
+      </c>
+      <c r="L184" s="6">
+        <v>9418</v>
+      </c>
+      <c r="M184" s="6">
+        <f t="shared" si="79"/>
+        <v>10023.076923076924</v>
+      </c>
+      <c r="N184" s="6">
+        <f t="shared" si="80"/>
+        <v>2621.3076923076924</v>
+      </c>
+      <c r="O184" s="8">
+        <f t="shared" si="81"/>
+        <v>724.46153846153845</v>
+      </c>
+      <c r="P184" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q184" s="6">
+        <v>94791</v>
+      </c>
+      <c r="R184" s="8">
+        <f t="shared" si="59"/>
+        <v>9479.1</v>
+      </c>
+      <c r="S184" s="6">
+        <v>5</v>
+      </c>
+      <c r="T184" s="6">
+        <v>117600</v>
+      </c>
+      <c r="U184" s="8">
+        <f t="shared" si="72"/>
+        <v>23520</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A185" s="9">
+        <v>45358</v>
+      </c>
+      <c r="B185" s="6">
+        <v>14</v>
+      </c>
+      <c r="C185" s="6">
+        <v>11102</v>
+      </c>
+      <c r="D185" s="6">
+        <v>52904</v>
+      </c>
+      <c r="E185" s="6">
+        <v>130500</v>
+      </c>
+      <c r="F185" s="6">
+        <f t="shared" si="76"/>
+        <v>793</v>
+      </c>
+      <c r="G185" s="6">
+        <f t="shared" si="77"/>
+        <v>3778.8571428571427</v>
+      </c>
+      <c r="H185" s="8">
+        <f t="shared" si="78"/>
+        <v>9321.4285714285706</v>
+      </c>
+      <c r="I185" s="6">
+        <v>14</v>
+      </c>
+      <c r="J185" s="6">
+        <v>257000</v>
+      </c>
+      <c r="K185" s="6">
+        <v>51606</v>
+      </c>
+      <c r="L185" s="6">
+        <v>16911</v>
+      </c>
+      <c r="M185" s="6">
+        <f t="shared" si="79"/>
+        <v>18357.142857142859</v>
+      </c>
+      <c r="N185" s="6">
+        <f t="shared" si="80"/>
+        <v>3686.1428571428573</v>
+      </c>
+      <c r="O185" s="8">
+        <f t="shared" si="81"/>
+        <v>1207.9285714285713</v>
+      </c>
+      <c r="P185" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q185" s="6">
+        <v>117531</v>
+      </c>
+      <c r="R185" s="8">
+        <f t="shared" si="59"/>
+        <v>13059</v>
+      </c>
+      <c r="S185" s="6">
+        <v>5</v>
+      </c>
+      <c r="T185" s="6">
+        <v>8707600</v>
+      </c>
+      <c r="U185" s="8">
+        <f t="shared" si="72"/>
+        <v>1741520</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A186" s="9">
+        <v>45359</v>
+      </c>
+      <c r="B186" s="6">
+        <v>9</v>
+      </c>
+      <c r="C186" s="6">
+        <v>5182</v>
+      </c>
+      <c r="D186" s="6">
+        <v>23201</v>
+      </c>
+      <c r="E186" s="6">
+        <v>57400</v>
+      </c>
+      <c r="F186" s="6">
+        <f t="shared" si="76"/>
+        <v>575.77777777777783</v>
+      </c>
+      <c r="G186" s="6">
+        <f t="shared" si="77"/>
+        <v>2577.8888888888887</v>
+      </c>
+      <c r="H186" s="8">
+        <f t="shared" si="78"/>
+        <v>6377.7777777777774</v>
+      </c>
+      <c r="I186" s="6">
+        <v>7</v>
+      </c>
+      <c r="J186" s="6">
+        <v>132300</v>
+      </c>
+      <c r="K186" s="6">
+        <v>24680</v>
+      </c>
+      <c r="L186" s="6">
+        <v>7852</v>
+      </c>
+      <c r="M186" s="6">
+        <f t="shared" si="79"/>
+        <v>18900</v>
+      </c>
+      <c r="N186" s="6">
+        <f t="shared" si="80"/>
+        <v>3525.7142857142858</v>
+      </c>
+      <c r="O186" s="8">
+        <f t="shared" si="81"/>
+        <v>1121.7142857142858</v>
+      </c>
+      <c r="P186" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q186" s="6">
+        <v>42086</v>
+      </c>
+      <c r="R186" s="8">
+        <f t="shared" si="59"/>
+        <v>10521.5</v>
+      </c>
+      <c r="S186" s="6">
+        <v>4</v>
+      </c>
+      <c r="T186" s="6">
+        <v>1048300</v>
+      </c>
+      <c r="U186" s="8">
+        <f t="shared" si="72"/>
+        <v>262075</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A187" s="9">
+        <v>45360</v>
+      </c>
+      <c r="B187" s="6">
+        <v>9</v>
+      </c>
+      <c r="C187" s="6">
+        <v>9129</v>
+      </c>
+      <c r="D187" s="6">
+        <v>27600</v>
+      </c>
+      <c r="E187" s="6">
+        <v>77600</v>
+      </c>
+      <c r="F187" s="6">
+        <f t="shared" si="76"/>
+        <v>1014.3333333333334</v>
+      </c>
+      <c r="G187" s="6">
+        <f t="shared" si="77"/>
+        <v>3066.6666666666665</v>
+      </c>
+      <c r="H187" s="8">
+        <f t="shared" si="78"/>
+        <v>8622.2222222222226</v>
+      </c>
+      <c r="I187" s="6">
+        <v>8</v>
+      </c>
+      <c r="J187" s="6">
+        <v>73100</v>
+      </c>
+      <c r="K187" s="6">
+        <v>16601</v>
+      </c>
+      <c r="L187" s="6">
+        <v>6526</v>
+      </c>
+      <c r="M187" s="6">
+        <f t="shared" si="79"/>
+        <v>9137.5</v>
+      </c>
+      <c r="N187" s="6">
+        <f t="shared" si="80"/>
+        <v>2075.125</v>
+      </c>
+      <c r="O187" s="8">
+        <f t="shared" si="81"/>
+        <v>815.75</v>
+      </c>
+      <c r="P187" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q187" s="6">
+        <v>100818</v>
+      </c>
+      <c r="R187" s="8">
+        <f t="shared" si="59"/>
+        <v>11202</v>
+      </c>
+      <c r="S187" s="6">
+        <v>3</v>
+      </c>
+      <c r="T187" s="6">
+        <v>136500</v>
+      </c>
+      <c r="U187" s="8">
+        <f t="shared" si="72"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A188" s="9">
+        <v>45361</v>
+      </c>
+      <c r="B188" s="6">
+        <v>9</v>
+      </c>
+      <c r="C188" s="6">
+        <v>11330</v>
+      </c>
+      <c r="D188" s="6">
+        <v>37900</v>
+      </c>
+      <c r="E188" s="6">
+        <v>95700</v>
+      </c>
+      <c r="F188" s="6">
+        <f t="shared" si="76"/>
+        <v>1258.8888888888889</v>
+      </c>
+      <c r="G188" s="6">
+        <f t="shared" si="77"/>
+        <v>4211.1111111111113</v>
+      </c>
+      <c r="H188" s="8">
+        <f t="shared" si="78"/>
+        <v>10633.333333333334</v>
+      </c>
+      <c r="I188" s="6">
+        <v>9</v>
+      </c>
+      <c r="J188" s="6">
+        <v>235700</v>
+      </c>
+      <c r="K188" s="6">
+        <v>40380</v>
+      </c>
+      <c r="L188" s="6">
+        <v>13545</v>
+      </c>
+      <c r="M188" s="6">
+        <f t="shared" si="79"/>
+        <v>26188.888888888891</v>
+      </c>
+      <c r="N188" s="6">
+        <f t="shared" si="80"/>
+        <v>4486.666666666667</v>
+      </c>
+      <c r="O188" s="8">
+        <f t="shared" si="81"/>
+        <v>1505</v>
+      </c>
+      <c r="P188" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q188" s="6">
+        <v>100734</v>
+      </c>
+      <c r="R188" s="8">
+        <f t="shared" si="59"/>
+        <v>11192.666666666666</v>
+      </c>
+      <c r="S188" s="6">
+        <v>1</v>
+      </c>
+      <c r="T188" s="6">
+        <v>11000</v>
+      </c>
+      <c r="U188" s="8">
+        <f t="shared" si="72"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A189" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B189" s="6">
+        <v>13</v>
+      </c>
+      <c r="C189" s="6">
+        <v>21907</v>
+      </c>
+      <c r="D189" s="6">
+        <v>67900</v>
+      </c>
+      <c r="E189" s="6">
+        <v>162600</v>
+      </c>
+      <c r="F189" s="6">
+        <f>C189/B189</f>
+        <v>1685.1538461538462</v>
+      </c>
+      <c r="G189" s="6">
+        <f>D189/B189</f>
+        <v>5223.0769230769229</v>
+      </c>
+      <c r="H189" s="8">
+        <f>E189/B189</f>
+        <v>12507.692307692309</v>
+      </c>
+      <c r="I189" s="6">
+        <v>12</v>
+      </c>
+      <c r="J189" s="6">
+        <v>343400</v>
+      </c>
+      <c r="K189" s="6">
+        <v>55800</v>
+      </c>
+      <c r="L189" s="6">
+        <v>26050</v>
+      </c>
+      <c r="M189" s="6">
+        <f t="shared" si="79"/>
+        <v>28616.666666666668</v>
+      </c>
+      <c r="N189" s="6">
+        <f t="shared" si="80"/>
+        <v>4650</v>
+      </c>
+      <c r="O189" s="8">
+        <f t="shared" si="81"/>
+        <v>2170.8333333333335</v>
+      </c>
+      <c r="P189" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q189" s="6">
+        <v>117826</v>
+      </c>
+      <c r="R189" s="8">
+        <f t="shared" si="59"/>
+        <v>13091.777777777777</v>
+      </c>
+      <c r="S189" s="6">
+        <v>3</v>
+      </c>
+      <c r="T189" s="6">
+        <v>4006100</v>
+      </c>
+      <c r="U189" s="8">
+        <f t="shared" si="72"/>
+        <v>1335366.6666666667</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A190" s="9">
+        <v>45363</v>
+      </c>
+      <c r="B190" s="6">
+        <v>11</v>
+      </c>
+      <c r="C190" s="6">
+        <v>8414</v>
+      </c>
+      <c r="D190" s="6">
+        <v>30100</v>
+      </c>
+      <c r="E190" s="6">
+        <v>78500</v>
+      </c>
+      <c r="F190" s="6">
+        <f>C190/B190</f>
+        <v>764.90909090909088</v>
+      </c>
+      <c r="G190" s="6">
+        <f>D190/B190</f>
+        <v>2736.3636363636365</v>
+      </c>
+      <c r="H190" s="8">
+        <f>E190/B190</f>
+        <v>7136.363636363636</v>
+      </c>
+      <c r="I190" s="6">
+        <v>11</v>
+      </c>
+      <c r="J190" s="6">
+        <v>247600</v>
+      </c>
+      <c r="K190" s="6">
+        <v>48342</v>
+      </c>
+      <c r="L190" s="6">
+        <v>13884</v>
+      </c>
+      <c r="M190" s="6">
+        <f t="shared" si="79"/>
+        <v>22509.090909090908</v>
+      </c>
+      <c r="N190" s="6">
+        <f t="shared" si="80"/>
+        <v>4394.727272727273</v>
+      </c>
+      <c r="O190" s="8">
+        <f t="shared" si="81"/>
+        <v>1262.1818181818182</v>
+      </c>
+      <c r="P190" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q190" s="6">
+        <v>154630</v>
+      </c>
+      <c r="R190" s="8">
+        <f t="shared" si="59"/>
+        <v>11894.615384615385</v>
+      </c>
+      <c r="S190" s="6">
+        <v>2</v>
+      </c>
+      <c r="T190" s="6">
+        <v>39300</v>
+      </c>
+      <c r="U190" s="8">
+        <f t="shared" si="72"/>
+        <v>19650</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A191" s="9">
+        <v>45364</v>
+      </c>
+      <c r="B191" s="6">
+        <v>8</v>
+      </c>
+      <c r="C191" s="6">
+        <v>6250</v>
+      </c>
+      <c r="D191" s="6">
+        <v>20900</v>
+      </c>
+      <c r="E191" s="6">
+        <v>47600</v>
+      </c>
+      <c r="F191" s="6">
+        <f t="shared" ref="F191:F192" si="82">C191/B191</f>
+        <v>781.25</v>
+      </c>
+      <c r="G191" s="6">
+        <f t="shared" ref="G191:G192" si="83">D191/B191</f>
+        <v>2612.5</v>
+      </c>
+      <c r="H191" s="8">
+        <f t="shared" ref="H191:H192" si="84">E191/B191</f>
+        <v>5950</v>
+      </c>
+      <c r="I191" s="6">
+        <v>8</v>
+      </c>
+      <c r="J191" s="6">
+        <v>143200</v>
+      </c>
+      <c r="K191" s="6">
+        <v>28785</v>
+      </c>
+      <c r="L191" s="6">
+        <v>7363</v>
+      </c>
+      <c r="M191" s="6">
+        <f t="shared" si="79"/>
+        <v>17900</v>
+      </c>
+      <c r="N191" s="6">
+        <f t="shared" si="80"/>
+        <v>3598.125</v>
+      </c>
+      <c r="O191" s="8">
+        <f t="shared" si="81"/>
+        <v>920.375</v>
+      </c>
+      <c r="P191" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q191" s="6">
+        <v>58537</v>
+      </c>
+      <c r="R191" s="8">
+        <f t="shared" si="59"/>
+        <v>8362.4285714285706</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A192" s="9">
+        <v>45365</v>
+      </c>
+      <c r="B192" s="6">
+        <v>7</v>
+      </c>
+      <c r="C192" s="6">
+        <v>6483</v>
+      </c>
+      <c r="D192" s="6">
+        <v>20400</v>
+      </c>
+      <c r="E192" s="6">
+        <v>46800</v>
+      </c>
+      <c r="F192" s="6">
+        <f t="shared" si="82"/>
+        <v>926.14285714285711</v>
+      </c>
+      <c r="G192" s="6">
+        <f t="shared" si="83"/>
+        <v>2914.2857142857142</v>
+      </c>
+      <c r="H192" s="8">
+        <f t="shared" si="84"/>
+        <v>6685.7142857142853</v>
+      </c>
+      <c r="I192" s="6">
+        <v>7</v>
+      </c>
+      <c r="J192" s="6">
+        <v>236400</v>
+      </c>
+      <c r="K192" s="6">
+        <v>55700</v>
+      </c>
+      <c r="L192" s="6">
+        <v>13622</v>
+      </c>
+      <c r="M192" s="6">
+        <f t="shared" si="79"/>
+        <v>33771.428571428572</v>
+      </c>
+      <c r="N192" s="6">
+        <f t="shared" si="80"/>
+        <v>7957.1428571428569</v>
+      </c>
+      <c r="O192" s="8">
+        <f t="shared" si="81"/>
+        <v>1946</v>
+      </c>
+      <c r="P192" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q192" s="6">
+        <v>37857</v>
+      </c>
+      <c r="R192" s="8">
+        <f t="shared" si="59"/>
+        <v>5408.1428571428569</v>
+      </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
     </row>
@@ -13916,14 +14936,22 @@
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
+      <c r="C195" s="28"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
+      <c r="E195" s="28"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
@@ -13932,6 +14960,10 @@
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
@@ -13940,6 +14972,10 @@
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
@@ -13948,6 +14984,10 @@
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
@@ -13956,327 +14996,471 @@
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
       <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+    </row>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+    </row>
+    <row r="214" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+    </row>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+    </row>
+    <row r="216" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+    </row>
+    <row r="217" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+    </row>
+    <row r="218" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+    </row>
+    <row r="219" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+    </row>
+    <row r="220" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P220" s="6"/>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+    </row>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+    </row>
+    <row r="223" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+    </row>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+    </row>
+    <row r="225" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+    </row>
+    <row r="226" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+    </row>
+    <row r="227" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+    </row>
+    <row r="228" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+    </row>
+    <row r="229" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+    </row>
+    <row r="231" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6"/>
+    </row>
+    <row r="232" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+    </row>
+    <row r="233" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+    </row>
+    <row r="234" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+    </row>
+    <row r="235" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+    </row>
+    <row r="236" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+    </row>
+    <row r="237" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+    </row>
+    <row r="238" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+    </row>
+    <row r="239" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+    </row>
+    <row r="240" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6"/>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P241" s="6"/>
+    </row>
+    <row r="242" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -14296,11 +15480,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4418A-3538-4357-9158-8F79507C1D9F}">
-  <dimension ref="A1:XET202"/>
+  <dimension ref="A1:XET220"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T184" sqref="T184"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R198" sqref="R198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -14323,34 +15507,34 @@
   <sheetData>
     <row r="1" spans="1:21 16251:16374" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="28" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="27" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="27" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21 16251:16374" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -23119,15 +24303,15 @@
         <v>25700</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" ref="F121:F176" si="31">C121/B121</f>
+        <f t="shared" ref="F121:F185" si="31">C121/B121</f>
         <v>464.5</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" ref="G121:G176" si="32">D121/B121</f>
+        <f t="shared" ref="G121:G185" si="32">D121/B121</f>
         <v>894.1</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" ref="H121:H176" si="33">E121/B121</f>
+        <f t="shared" ref="H121:H185" si="33">E121/B121</f>
         <v>2570</v>
       </c>
       <c r="I121" s="6">
@@ -26128,15 +27312,15 @@
         <v>8422</v>
       </c>
       <c r="M162" s="6">
-        <f t="shared" ref="M162:M176" si="38">J162/I162</f>
+        <f t="shared" ref="M162:M192" si="38">J162/I162</f>
         <v>12650</v>
       </c>
       <c r="N162" s="6">
-        <f t="shared" ref="N162:N176" si="39">K162/I162</f>
+        <f t="shared" ref="N162:N192" si="39">K162/I162</f>
         <v>1410.8333333333333</v>
       </c>
       <c r="O162" s="8">
-        <f t="shared" ref="O162:O176" si="40">L162/I162</f>
+        <f t="shared" ref="O162:O192" si="40">L162/I162</f>
         <v>1403.6666666666667</v>
       </c>
       <c r="P162" s="6">
@@ -26509,7 +27693,7 @@
         <v>74697</v>
       </c>
       <c r="R167" s="8">
-        <f t="shared" ref="R167:R176" si="42">Q167/P167</f>
+        <f t="shared" ref="R167:R192" si="42">Q167/P167</f>
         <v>10671</v>
       </c>
       <c r="S167" s="6">
@@ -27178,191 +28362,1158 @@
         <v>802300</v>
       </c>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
-      <c r="K182" s="6"/>
-      <c r="L182" s="6"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="6"/>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-      <c r="L184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
-      <c r="P187" s="6"/>
-      <c r="Q187" s="6"/>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6"/>
-      <c r="L190" s="6"/>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="6"/>
-      <c r="L191" s="6"/>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-      <c r="K192" s="6"/>
-      <c r="L192" s="6"/>
-      <c r="P192" s="6"/>
-      <c r="Q192" s="6"/>
-    </row>
-    <row r="193" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A177" s="9">
+        <v>45350</v>
+      </c>
+      <c r="B177" s="6">
+        <v>3</v>
+      </c>
+      <c r="C177" s="6">
+        <v>7290</v>
+      </c>
+      <c r="D177" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E177" s="6">
+        <v>25400</v>
+      </c>
+      <c r="F177" s="6">
+        <f t="shared" si="31"/>
+        <v>2430</v>
+      </c>
+      <c r="G177" s="6">
+        <f t="shared" si="32"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="H177" s="8">
+        <f t="shared" si="33"/>
+        <v>8466.6666666666661</v>
+      </c>
+      <c r="I177" s="6">
+        <v>4</v>
+      </c>
+      <c r="J177" s="6">
+        <v>50400</v>
+      </c>
+      <c r="K177" s="6">
+        <v>5847</v>
+      </c>
+      <c r="L177" s="6">
+        <v>5223</v>
+      </c>
+      <c r="M177" s="6">
+        <f t="shared" si="38"/>
+        <v>12600</v>
+      </c>
+      <c r="N177" s="6">
+        <f t="shared" si="39"/>
+        <v>1461.75</v>
+      </c>
+      <c r="O177" s="8">
+        <f t="shared" si="40"/>
+        <v>1305.75</v>
+      </c>
+      <c r="P177" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q177" s="6">
+        <v>16194</v>
+      </c>
+      <c r="R177" s="8">
+        <f t="shared" si="42"/>
+        <v>8097</v>
+      </c>
+      <c r="S177" s="6">
+        <v>0</v>
+      </c>
+      <c r="T177" s="6">
+        <v>0</v>
+      </c>
+      <c r="U177" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A178" s="9">
+        <v>45351</v>
+      </c>
+      <c r="B178" s="6">
+        <v>4</v>
+      </c>
+      <c r="C178" s="6">
+        <v>5803</v>
+      </c>
+      <c r="D178" s="6">
+        <v>9800</v>
+      </c>
+      <c r="E178" s="6">
+        <v>25300</v>
+      </c>
+      <c r="F178" s="6">
+        <f t="shared" si="31"/>
+        <v>1450.75</v>
+      </c>
+      <c r="G178" s="6">
+        <f t="shared" si="32"/>
+        <v>2450</v>
+      </c>
+      <c r="H178" s="8">
+        <f t="shared" si="33"/>
+        <v>6325</v>
+      </c>
+      <c r="I178" s="6">
+        <v>10</v>
+      </c>
+      <c r="J178" s="6">
+        <v>140800</v>
+      </c>
+      <c r="K178" s="6">
+        <v>13596</v>
+      </c>
+      <c r="L178" s="6">
+        <v>16994</v>
+      </c>
+      <c r="M178" s="6">
+        <f t="shared" si="38"/>
+        <v>14080</v>
+      </c>
+      <c r="N178" s="6">
+        <f t="shared" si="39"/>
+        <v>1359.6</v>
+      </c>
+      <c r="O178" s="8">
+        <f t="shared" si="40"/>
+        <v>1699.4</v>
+      </c>
+      <c r="P178" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q178" s="6">
+        <v>94789</v>
+      </c>
+      <c r="R178" s="8">
+        <f t="shared" si="42"/>
+        <v>15798.166666666666</v>
+      </c>
+      <c r="S178" s="6">
+        <v>3</v>
+      </c>
+      <c r="T178" s="6">
+        <v>537000</v>
+      </c>
+      <c r="U178" s="8">
+        <f>T178/S178</f>
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A179" s="9">
+        <v>45352</v>
+      </c>
+      <c r="B179" s="6">
+        <v>25</v>
+      </c>
+      <c r="C179" s="6">
+        <v>29960</v>
+      </c>
+      <c r="D179" s="6">
+        <v>59629</v>
+      </c>
+      <c r="E179" s="6">
+        <v>169300</v>
+      </c>
+      <c r="F179" s="6">
+        <f t="shared" si="31"/>
+        <v>1198.4000000000001</v>
+      </c>
+      <c r="G179" s="6">
+        <f t="shared" si="32"/>
+        <v>2385.16</v>
+      </c>
+      <c r="H179" s="8">
+        <f t="shared" si="33"/>
+        <v>6772</v>
+      </c>
+      <c r="I179" s="6">
+        <v>25</v>
+      </c>
+      <c r="J179" s="6">
+        <v>456100</v>
+      </c>
+      <c r="K179" s="6">
+        <v>58244</v>
+      </c>
+      <c r="L179" s="6">
+        <v>64152</v>
+      </c>
+      <c r="M179" s="6">
+        <f t="shared" si="38"/>
+        <v>18244</v>
+      </c>
+      <c r="N179" s="6">
+        <f t="shared" si="39"/>
+        <v>2329.7600000000002</v>
+      </c>
+      <c r="O179" s="8">
+        <f t="shared" si="40"/>
+        <v>2566.08</v>
+      </c>
+      <c r="P179" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q179" s="6">
+        <v>185097</v>
+      </c>
+      <c r="R179" s="8">
+        <f t="shared" si="42"/>
+        <v>20566.333333333332</v>
+      </c>
+      <c r="S179" s="6">
+        <v>14</v>
+      </c>
+      <c r="T179" s="6">
+        <v>195200</v>
+      </c>
+      <c r="U179" s="8">
+        <f t="shared" ref="U179:U190" si="43">T179/S179</f>
+        <v>13942.857142857143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A180" s="9">
+        <v>45353</v>
+      </c>
+      <c r="B180" s="6">
+        <v>13</v>
+      </c>
+      <c r="C180" s="6">
+        <v>7094</v>
+      </c>
+      <c r="D180" s="6">
+        <v>21021</v>
+      </c>
+      <c r="E180" s="6">
+        <v>57500</v>
+      </c>
+      <c r="F180" s="6">
+        <f t="shared" si="31"/>
+        <v>545.69230769230774</v>
+      </c>
+      <c r="G180" s="6">
+        <f t="shared" si="32"/>
+        <v>1617</v>
+      </c>
+      <c r="H180" s="8">
+        <f t="shared" si="33"/>
+        <v>4423.0769230769229</v>
+      </c>
+      <c r="I180" s="6">
+        <v>14</v>
+      </c>
+      <c r="J180" s="6">
+        <v>216200</v>
+      </c>
+      <c r="K180" s="6">
+        <v>17997</v>
+      </c>
+      <c r="L180" s="6">
+        <v>23006</v>
+      </c>
+      <c r="M180" s="6">
+        <f t="shared" si="38"/>
+        <v>15442.857142857143</v>
+      </c>
+      <c r="N180" s="6">
+        <f t="shared" si="39"/>
+        <v>1285.5</v>
+      </c>
+      <c r="O180" s="8">
+        <f t="shared" si="40"/>
+        <v>1643.2857142857142</v>
+      </c>
+      <c r="P180" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q180" s="6">
+        <v>78785</v>
+      </c>
+      <c r="R180" s="8">
+        <f t="shared" si="42"/>
+        <v>9848.125</v>
+      </c>
+      <c r="S180" s="6">
+        <v>6</v>
+      </c>
+      <c r="T180" s="6">
+        <v>709400</v>
+      </c>
+      <c r="U180" s="8">
+        <f t="shared" si="43"/>
+        <v>118233.33333333333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A181" s="9">
+        <v>45354</v>
+      </c>
+      <c r="B181" s="6">
+        <v>9</v>
+      </c>
+      <c r="C181" s="6">
+        <v>8194</v>
+      </c>
+      <c r="D181" s="6">
+        <v>14528</v>
+      </c>
+      <c r="E181" s="6">
+        <v>49100</v>
+      </c>
+      <c r="F181" s="6">
+        <f t="shared" si="31"/>
+        <v>910.44444444444446</v>
+      </c>
+      <c r="G181" s="6">
+        <f t="shared" si="32"/>
+        <v>1614.2222222222222</v>
+      </c>
+      <c r="H181" s="8">
+        <f t="shared" si="33"/>
+        <v>5455.5555555555557</v>
+      </c>
+      <c r="I181" s="6">
+        <v>12</v>
+      </c>
+      <c r="J181" s="6">
+        <v>143300</v>
+      </c>
+      <c r="K181" s="6">
+        <v>12411</v>
+      </c>
+      <c r="L181" s="6">
+        <v>10796</v>
+      </c>
+      <c r="M181" s="6">
+        <f t="shared" si="38"/>
+        <v>11941.666666666666</v>
+      </c>
+      <c r="N181" s="6">
+        <f t="shared" si="39"/>
+        <v>1034.25</v>
+      </c>
+      <c r="O181" s="8">
+        <f t="shared" si="40"/>
+        <v>899.66666666666663</v>
+      </c>
+      <c r="P181" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q181" s="6">
+        <v>95740</v>
+      </c>
+      <c r="R181" s="8">
+        <f t="shared" si="42"/>
+        <v>10637.777777777777</v>
+      </c>
+      <c r="S181" s="6">
+        <v>2</v>
+      </c>
+      <c r="T181" s="6">
+        <v>176000</v>
+      </c>
+      <c r="U181" s="8">
+        <f t="shared" si="43"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A182" s="9">
+        <v>45355</v>
+      </c>
+      <c r="B182" s="6">
+        <v>11</v>
+      </c>
+      <c r="C182" s="6">
+        <v>9783</v>
+      </c>
+      <c r="D182" s="6">
+        <v>15825</v>
+      </c>
+      <c r="E182" s="6">
+        <v>39800</v>
+      </c>
+      <c r="F182" s="6">
+        <f t="shared" si="31"/>
+        <v>889.36363636363637</v>
+      </c>
+      <c r="G182" s="6">
+        <f t="shared" si="32"/>
+        <v>1438.6363636363637</v>
+      </c>
+      <c r="H182" s="8">
+        <f t="shared" si="33"/>
+        <v>3618.181818181818</v>
+      </c>
+      <c r="I182" s="6">
+        <v>13</v>
+      </c>
+      <c r="J182" s="6">
+        <v>181400</v>
+      </c>
+      <c r="K182" s="6">
+        <v>15015</v>
+      </c>
+      <c r="L182" s="6">
+        <v>15250</v>
+      </c>
+      <c r="M182" s="6">
+        <f t="shared" si="38"/>
+        <v>13953.846153846154</v>
+      </c>
+      <c r="N182" s="6">
+        <f t="shared" si="39"/>
+        <v>1155</v>
+      </c>
+      <c r="O182" s="8">
+        <f t="shared" si="40"/>
+        <v>1173.0769230769231</v>
+      </c>
+      <c r="P182" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q182" s="6">
+        <v>71243</v>
+      </c>
+      <c r="R182" s="8">
+        <f t="shared" si="42"/>
+        <v>8905.375</v>
+      </c>
+      <c r="S182" s="6">
+        <v>5</v>
+      </c>
+      <c r="T182" s="6">
+        <v>268500</v>
+      </c>
+      <c r="U182" s="8">
+        <f t="shared" si="43"/>
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A183" s="9">
+        <v>45356</v>
+      </c>
+      <c r="B183" s="6">
+        <v>9</v>
+      </c>
+      <c r="C183" s="6">
+        <v>8188</v>
+      </c>
+      <c r="D183" s="6">
+        <v>18268</v>
+      </c>
+      <c r="E183" s="6">
+        <v>51000</v>
+      </c>
+      <c r="F183" s="6">
+        <f t="shared" si="31"/>
+        <v>909.77777777777783</v>
+      </c>
+      <c r="G183" s="6">
+        <f t="shared" si="32"/>
+        <v>2029.7777777777778</v>
+      </c>
+      <c r="H183" s="8">
+        <f t="shared" si="33"/>
+        <v>5666.666666666667</v>
+      </c>
+      <c r="I183" s="6">
+        <v>10</v>
+      </c>
+      <c r="J183" s="6">
+        <v>208200</v>
+      </c>
+      <c r="K183" s="6">
+        <v>14578</v>
+      </c>
+      <c r="L183" s="6">
+        <v>15490</v>
+      </c>
+      <c r="M183" s="6">
+        <f t="shared" si="38"/>
+        <v>20820</v>
+      </c>
+      <c r="N183" s="6">
+        <f t="shared" si="39"/>
+        <v>1457.8</v>
+      </c>
+      <c r="O183" s="8">
+        <f t="shared" si="40"/>
+        <v>1549</v>
+      </c>
+      <c r="P183" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q183" s="6">
+        <v>48041</v>
+      </c>
+      <c r="R183" s="8">
+        <f t="shared" si="42"/>
+        <v>5337.8888888888887</v>
+      </c>
+      <c r="S183" s="6">
+        <v>3</v>
+      </c>
+      <c r="T183" s="6">
+        <v>130000</v>
+      </c>
+      <c r="U183" s="8">
+        <f t="shared" si="43"/>
+        <v>43333.333333333336</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A184" s="9">
+        <v>45357</v>
+      </c>
+      <c r="B184" s="6">
+        <v>13</v>
+      </c>
+      <c r="C184" s="6">
+        <v>12557</v>
+      </c>
+      <c r="D184" s="6">
+        <v>20631</v>
+      </c>
+      <c r="E184" s="6">
+        <v>68589</v>
+      </c>
+      <c r="F184" s="6">
+        <f t="shared" si="31"/>
+        <v>965.92307692307691</v>
+      </c>
+      <c r="G184" s="6">
+        <f t="shared" si="32"/>
+        <v>1587</v>
+      </c>
+      <c r="H184" s="8">
+        <f t="shared" si="33"/>
+        <v>5276.0769230769229</v>
+      </c>
+      <c r="I184" s="6">
+        <v>16</v>
+      </c>
+      <c r="J184" s="6">
+        <v>143500</v>
+      </c>
+      <c r="K184" s="6">
+        <v>11267</v>
+      </c>
+      <c r="L184" s="6">
+        <v>13111</v>
+      </c>
+      <c r="M184" s="6">
+        <f t="shared" si="38"/>
+        <v>8968.75</v>
+      </c>
+      <c r="N184" s="6">
+        <f t="shared" si="39"/>
+        <v>704.1875</v>
+      </c>
+      <c r="O184" s="8">
+        <f t="shared" si="40"/>
+        <v>819.4375</v>
+      </c>
+      <c r="P184" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q184" s="6">
+        <v>67356</v>
+      </c>
+      <c r="R184" s="8">
+        <f t="shared" si="42"/>
+        <v>5613</v>
+      </c>
+      <c r="S184" s="6">
+        <v>6</v>
+      </c>
+      <c r="T184" s="6">
+        <v>71300</v>
+      </c>
+      <c r="U184" s="8">
+        <f t="shared" si="43"/>
+        <v>11883.333333333334</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A185" s="9">
+        <v>45358</v>
+      </c>
+      <c r="B185" s="6">
+        <v>11</v>
+      </c>
+      <c r="C185" s="6">
+        <v>8201</v>
+      </c>
+      <c r="D185" s="6">
+        <v>17842</v>
+      </c>
+      <c r="E185" s="6">
+        <v>45300</v>
+      </c>
+      <c r="F185" s="6">
+        <f t="shared" si="31"/>
+        <v>745.5454545454545</v>
+      </c>
+      <c r="G185" s="6">
+        <f t="shared" si="32"/>
+        <v>1622</v>
+      </c>
+      <c r="H185" s="8">
+        <f t="shared" si="33"/>
+        <v>4118.181818181818</v>
+      </c>
+      <c r="I185" s="6">
+        <v>13</v>
+      </c>
+      <c r="J185" s="6">
+        <v>254200</v>
+      </c>
+      <c r="K185" s="6">
+        <v>18266</v>
+      </c>
+      <c r="L185" s="6">
+        <v>18707</v>
+      </c>
+      <c r="M185" s="6">
+        <f t="shared" si="38"/>
+        <v>19553.846153846152</v>
+      </c>
+      <c r="N185" s="6">
+        <f t="shared" si="39"/>
+        <v>1405.0769230769231</v>
+      </c>
+      <c r="O185" s="8">
+        <f t="shared" si="40"/>
+        <v>1439</v>
+      </c>
+      <c r="P185" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q185" s="6">
+        <v>72114</v>
+      </c>
+      <c r="R185" s="8">
+        <f t="shared" si="42"/>
+        <v>6555.818181818182</v>
+      </c>
+      <c r="S185" s="6">
+        <v>4</v>
+      </c>
+      <c r="T185" s="6">
+        <v>422000</v>
+      </c>
+      <c r="U185" s="8">
+        <f t="shared" si="43"/>
+        <v>105500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A186" s="9">
+        <v>45359</v>
+      </c>
+      <c r="B186" s="6">
+        <v>10</v>
+      </c>
+      <c r="C186" s="6">
+        <v>8025</v>
+      </c>
+      <c r="D186" s="6">
+        <v>16429</v>
+      </c>
+      <c r="E186" s="6">
+        <v>39900</v>
+      </c>
+      <c r="F186" s="6">
+        <f t="shared" ref="F186:F192" si="44">C186/B186</f>
+        <v>802.5</v>
+      </c>
+      <c r="G186" s="6">
+        <f t="shared" ref="G186:G192" si="45">D186/B186</f>
+        <v>1642.9</v>
+      </c>
+      <c r="H186" s="8">
+        <f t="shared" ref="H186:H192" si="46">E186/B186</f>
+        <v>3990</v>
+      </c>
+      <c r="I186" s="6">
+        <v>11</v>
+      </c>
+      <c r="J186" s="6">
+        <v>83000</v>
+      </c>
+      <c r="K186" s="6">
+        <v>7995</v>
+      </c>
+      <c r="L186" s="6">
+        <v>10430</v>
+      </c>
+      <c r="M186" s="6">
+        <f t="shared" si="38"/>
+        <v>7545.454545454545</v>
+      </c>
+      <c r="N186" s="6">
+        <f t="shared" si="39"/>
+        <v>726.81818181818187</v>
+      </c>
+      <c r="O186" s="8">
+        <f t="shared" si="40"/>
+        <v>948.18181818181813</v>
+      </c>
+      <c r="P186" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q186" s="6">
+        <v>44174</v>
+      </c>
+      <c r="R186" s="8">
+        <f t="shared" si="42"/>
+        <v>5521.75</v>
+      </c>
+      <c r="S186" s="6">
+        <v>2</v>
+      </c>
+      <c r="T186" s="6">
+        <v>78000</v>
+      </c>
+      <c r="U186" s="8">
+        <f t="shared" si="43"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A187" s="9">
+        <v>45360</v>
+      </c>
+      <c r="B187" s="6">
+        <v>9</v>
+      </c>
+      <c r="C187" s="6">
+        <v>5879</v>
+      </c>
+      <c r="D187" s="6">
+        <v>14866</v>
+      </c>
+      <c r="E187" s="6">
+        <v>37200</v>
+      </c>
+      <c r="F187" s="6">
+        <f t="shared" si="44"/>
+        <v>653.22222222222217</v>
+      </c>
+      <c r="G187" s="6">
+        <f t="shared" si="45"/>
+        <v>1651.7777777777778</v>
+      </c>
+      <c r="H187" s="8">
+        <f t="shared" si="46"/>
+        <v>4133.333333333333</v>
+      </c>
+      <c r="I187" s="6">
+        <v>11</v>
+      </c>
+      <c r="J187" s="6">
+        <v>257400</v>
+      </c>
+      <c r="K187" s="6">
+        <v>21002</v>
+      </c>
+      <c r="L187" s="6">
+        <v>22514</v>
+      </c>
+      <c r="M187" s="6">
+        <f t="shared" si="38"/>
+        <v>23400</v>
+      </c>
+      <c r="N187" s="6">
+        <f t="shared" si="39"/>
+        <v>1909.2727272727273</v>
+      </c>
+      <c r="O187" s="8">
+        <f t="shared" si="40"/>
+        <v>2046.7272727272727</v>
+      </c>
+      <c r="P187" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q187" s="6">
+        <v>66653</v>
+      </c>
+      <c r="R187" s="8">
+        <f t="shared" si="42"/>
+        <v>7405.8888888888887</v>
+      </c>
+      <c r="S187" s="6">
+        <v>2</v>
+      </c>
+      <c r="T187" s="6">
+        <v>172000</v>
+      </c>
+      <c r="U187" s="8">
+        <f t="shared" si="43"/>
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A188" s="9">
+        <v>45361</v>
+      </c>
+      <c r="B188" s="6">
+        <v>12</v>
+      </c>
+      <c r="C188" s="6">
+        <v>9213</v>
+      </c>
+      <c r="D188" s="6">
+        <v>18673</v>
+      </c>
+      <c r="E188" s="6">
+        <v>51100</v>
+      </c>
+      <c r="F188" s="6">
+        <f t="shared" si="44"/>
+        <v>767.75</v>
+      </c>
+      <c r="G188" s="6">
+        <f t="shared" si="45"/>
+        <v>1556.0833333333333</v>
+      </c>
+      <c r="H188" s="8">
+        <f t="shared" si="46"/>
+        <v>4258.333333333333</v>
+      </c>
+      <c r="I188" s="6">
+        <v>11</v>
+      </c>
+      <c r="J188" s="6">
+        <v>233600</v>
+      </c>
+      <c r="K188" s="6">
+        <v>22144</v>
+      </c>
+      <c r="L188" s="6">
+        <v>19640</v>
+      </c>
+      <c r="M188" s="6">
+        <f t="shared" si="38"/>
+        <v>21236.363636363636</v>
+      </c>
+      <c r="N188" s="6">
+        <f t="shared" si="39"/>
+        <v>2013.090909090909</v>
+      </c>
+      <c r="O188" s="8">
+        <f t="shared" si="40"/>
+        <v>1785.4545454545455</v>
+      </c>
+      <c r="P188" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q188" s="6">
+        <v>105237</v>
+      </c>
+      <c r="R188" s="8">
+        <f t="shared" si="42"/>
+        <v>7516.9285714285716</v>
+      </c>
+      <c r="S188" s="6">
+        <v>1</v>
+      </c>
+      <c r="T188" s="6">
+        <v>35000</v>
+      </c>
+      <c r="U188" s="8">
+        <f t="shared" si="43"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A189" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B189" s="6">
+        <v>8</v>
+      </c>
+      <c r="C189" s="6">
+        <v>7354</v>
+      </c>
+      <c r="D189" s="6">
+        <v>15073</v>
+      </c>
+      <c r="E189" s="6">
+        <v>30200</v>
+      </c>
+      <c r="F189" s="6">
+        <f t="shared" si="44"/>
+        <v>919.25</v>
+      </c>
+      <c r="G189" s="6">
+        <f t="shared" si="45"/>
+        <v>1884.125</v>
+      </c>
+      <c r="H189" s="8">
+        <f t="shared" si="46"/>
+        <v>3775</v>
+      </c>
+      <c r="I189" s="6">
+        <v>11</v>
+      </c>
+      <c r="J189" s="6">
+        <v>209800</v>
+      </c>
+      <c r="K189" s="6">
+        <v>13652</v>
+      </c>
+      <c r="L189" s="6">
+        <v>17548</v>
+      </c>
+      <c r="M189" s="6">
+        <f t="shared" si="38"/>
+        <v>19072.727272727272</v>
+      </c>
+      <c r="N189" s="6">
+        <f t="shared" si="39"/>
+        <v>1241.090909090909</v>
+      </c>
+      <c r="O189" s="8">
+        <f t="shared" si="40"/>
+        <v>1595.2727272727273</v>
+      </c>
+      <c r="P189" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q189" s="6">
+        <v>50024</v>
+      </c>
+      <c r="R189" s="8">
+        <f t="shared" si="42"/>
+        <v>7146.2857142857147</v>
+      </c>
+      <c r="S189" s="6">
+        <v>4</v>
+      </c>
+      <c r="T189" s="6">
+        <v>495000</v>
+      </c>
+      <c r="U189" s="8">
+        <f t="shared" si="43"/>
+        <v>123750</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A190" s="9">
+        <v>45363</v>
+      </c>
+      <c r="B190" s="6">
+        <v>10</v>
+      </c>
+      <c r="C190" s="6">
+        <v>5613</v>
+      </c>
+      <c r="D190" s="6">
+        <v>14419</v>
+      </c>
+      <c r="E190" s="6">
+        <v>32200</v>
+      </c>
+      <c r="F190" s="6">
+        <f t="shared" si="44"/>
+        <v>561.29999999999995</v>
+      </c>
+      <c r="G190" s="6">
+        <f t="shared" si="45"/>
+        <v>1441.9</v>
+      </c>
+      <c r="H190" s="8">
+        <f t="shared" si="46"/>
+        <v>3220</v>
+      </c>
+      <c r="I190" s="6">
+        <v>15</v>
+      </c>
+      <c r="J190" s="6">
+        <v>156700</v>
+      </c>
+      <c r="K190" s="6">
+        <v>14681</v>
+      </c>
+      <c r="L190" s="6">
+        <v>13687</v>
+      </c>
+      <c r="M190" s="6">
+        <f t="shared" si="38"/>
+        <v>10446.666666666666</v>
+      </c>
+      <c r="N190" s="6">
+        <f t="shared" si="39"/>
+        <v>978.73333333333335</v>
+      </c>
+      <c r="O190" s="8">
+        <f t="shared" si="40"/>
+        <v>912.4666666666667</v>
+      </c>
+      <c r="P190" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q190" s="6">
+        <v>86800</v>
+      </c>
+      <c r="R190" s="8">
+        <f t="shared" si="42"/>
+        <v>5786.666666666667</v>
+      </c>
+      <c r="S190" s="6">
+        <v>4</v>
+      </c>
+      <c r="T190" s="6">
+        <v>326000</v>
+      </c>
+      <c r="U190" s="8">
+        <f t="shared" si="43"/>
+        <v>81500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A191" s="9">
+        <v>45364</v>
+      </c>
+      <c r="B191" s="6">
+        <v>7</v>
+      </c>
+      <c r="C191" s="6">
+        <v>6593</v>
+      </c>
+      <c r="D191" s="6">
+        <v>16879</v>
+      </c>
+      <c r="E191" s="6">
+        <v>42700</v>
+      </c>
+      <c r="F191" s="6">
+        <f t="shared" si="44"/>
+        <v>941.85714285714289</v>
+      </c>
+      <c r="G191" s="6">
+        <f t="shared" si="45"/>
+        <v>2411.2857142857142</v>
+      </c>
+      <c r="H191" s="8">
+        <f t="shared" si="46"/>
+        <v>6100</v>
+      </c>
+      <c r="I191" s="6">
+        <v>11</v>
+      </c>
+      <c r="J191" s="6">
+        <v>195500</v>
+      </c>
+      <c r="K191" s="6">
+        <v>11284</v>
+      </c>
+      <c r="L191" s="6">
+        <v>14329</v>
+      </c>
+      <c r="M191" s="6">
+        <f t="shared" si="38"/>
+        <v>17772.727272727272</v>
+      </c>
+      <c r="N191" s="6">
+        <f t="shared" si="39"/>
+        <v>1025.8181818181818</v>
+      </c>
+      <c r="O191" s="8">
+        <f t="shared" si="40"/>
+        <v>1302.6363636363637</v>
+      </c>
+      <c r="P191" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q191" s="6">
+        <v>96075</v>
+      </c>
+      <c r="R191" s="8">
+        <f t="shared" si="42"/>
+        <v>7390.3846153846152</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A192" s="9">
+        <v>45365</v>
+      </c>
+      <c r="B192" s="6">
+        <v>11</v>
+      </c>
+      <c r="C192" s="6">
+        <v>8488</v>
+      </c>
+      <c r="D192" s="6">
+        <v>19259</v>
+      </c>
+      <c r="E192" s="6">
+        <v>48900</v>
+      </c>
+      <c r="F192" s="6">
+        <f t="shared" si="44"/>
+        <v>771.63636363636363</v>
+      </c>
+      <c r="G192" s="6">
+        <f t="shared" si="45"/>
+        <v>1750.8181818181818</v>
+      </c>
+      <c r="H192" s="8">
+        <f t="shared" si="46"/>
+        <v>4445.454545454545</v>
+      </c>
+      <c r="I192" s="6">
+        <v>15</v>
+      </c>
+      <c r="J192" s="6">
+        <v>301500</v>
+      </c>
+      <c r="K192" s="6">
+        <v>16693</v>
+      </c>
+      <c r="L192" s="6">
+        <v>25058</v>
+      </c>
+      <c r="M192" s="6">
+        <f t="shared" si="38"/>
+        <v>20100</v>
+      </c>
+      <c r="N192" s="6">
+        <f t="shared" si="39"/>
+        <v>1112.8666666666666</v>
+      </c>
+      <c r="O192" s="8">
+        <f t="shared" si="40"/>
+        <v>1670.5333333333333</v>
+      </c>
+      <c r="P192" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q192" s="6">
+        <v>45409</v>
+      </c>
+      <c r="R192" s="8">
+        <f t="shared" si="42"/>
+        <v>5045.4444444444443</v>
+      </c>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
@@ -27370,7 +29521,11 @@
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
     </row>
-    <row r="194" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
@@ -27378,7 +29533,11 @@
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
     </row>
-    <row r="195" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
@@ -27386,7 +29545,11 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="196" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
@@ -27394,29 +29557,277 @@
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
-    <row r="197" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
       <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
-    <row r="198" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
-    <row r="199" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
     </row>
-    <row r="200" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
     </row>
-    <row r="201" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
       <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+    </row>
+    <row r="204" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+    </row>
+    <row r="205" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+    </row>
+    <row r="206" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+    </row>
+    <row r="207" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+    </row>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+    </row>
+    <row r="214" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+    </row>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+    </row>
+    <row r="216" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="P216" s="6"/>
+    </row>
+    <row r="217" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+    </row>
+    <row r="218" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B220" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -27431,11 +29842,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T51" sqref="T51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -27457,39 +29868,39 @@
     <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="28" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="27" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="27" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -27573,15 +29984,15 @@
         <v>1883</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F14" si="0">C3/B3</f>
+        <f t="shared" ref="F3:F28" si="0">C3/B3</f>
         <v>225.8235294117647</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G14" si="1">D3/B3</f>
+        <f t="shared" ref="G3:G28" si="1">D3/B3</f>
         <v>36.588235294117645</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H14" si="2">E3/B3</f>
+        <f t="shared" ref="H3:H28" si="2">E3/B3</f>
         <v>110.76470588235294</v>
       </c>
       <c r="I3" s="6">
@@ -27597,15 +30008,15 @@
         <v>244</v>
       </c>
       <c r="M3" s="6">
-        <f>J3/I3</f>
+        <f t="shared" ref="M3:M34" si="3">J3/I3</f>
         <v>319.60000000000002</v>
       </c>
       <c r="N3" s="6">
-        <f>K3/I3</f>
+        <f t="shared" ref="N3:N34" si="4">K3/I3</f>
         <v>58.5</v>
       </c>
       <c r="O3" s="8">
-        <f>L3/I3</f>
+        <f t="shared" ref="O3:O34" si="5">L3/I3</f>
         <v>24.4</v>
       </c>
       <c r="P3" s="6">
@@ -27615,7 +30026,7 @@
         <v>17381</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:R14" si="3">Q3/P3</f>
+        <f t="shared" ref="R3:R14" si="6">Q3/P3</f>
         <v>1931.2222222222222</v>
       </c>
       <c r="S3" s="6">
@@ -27670,15 +30081,15 @@
         <v>180</v>
       </c>
       <c r="M4" s="6">
-        <f>J4/I4</f>
+        <f t="shared" si="3"/>
         <v>184.4</v>
       </c>
       <c r="N4" s="6">
-        <f>K4/I4</f>
+        <f t="shared" si="4"/>
         <v>29.5</v>
       </c>
       <c r="O4" s="8">
-        <f>L4/I4</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="P4" s="6">
@@ -27688,7 +30099,7 @@
         <v>45110</v>
       </c>
       <c r="R4" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9022</v>
       </c>
       <c r="S4" s="6">
@@ -27743,15 +30154,15 @@
         <v>321</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M50" si="4">J5/I5</f>
+        <f t="shared" si="3"/>
         <v>248.5</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" ref="N5:N50" si="5">K5/I5</f>
+        <f t="shared" si="4"/>
         <v>47.6</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O50" si="6">L5/I5</f>
+        <f t="shared" si="5"/>
         <v>32.1</v>
       </c>
       <c r="P5" s="6">
@@ -27761,7 +30172,7 @@
         <v>11146</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2786.5</v>
       </c>
       <c r="S5" s="6">
@@ -27815,15 +30226,15 @@
         <v>142</v>
       </c>
       <c r="M6" s="6">
+        <f t="shared" si="3"/>
+        <v>371.77777777777777</v>
+      </c>
+      <c r="N6" s="6">
         <f t="shared" si="4"/>
-        <v>371.77777777777777</v>
-      </c>
-      <c r="N6" s="6">
+        <v>171.44444444444446</v>
+      </c>
+      <c r="O6" s="8">
         <f t="shared" si="5"/>
-        <v>171.44444444444446</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="6"/>
         <v>15.777777777777779</v>
       </c>
       <c r="P6" s="6">
@@ -27833,7 +30244,7 @@
         <v>1918</v>
       </c>
       <c r="R6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>959</v>
       </c>
       <c r="S6" s="6">
@@ -27888,15 +30299,15 @@
         <v>254</v>
       </c>
       <c r="M7" s="6">
+        <f t="shared" si="3"/>
+        <v>245.5</v>
+      </c>
+      <c r="N7" s="6">
         <f t="shared" si="4"/>
-        <v>245.5</v>
-      </c>
-      <c r="N7" s="6">
+        <v>63.7</v>
+      </c>
+      <c r="O7" s="8">
         <f t="shared" si="5"/>
-        <v>63.7</v>
-      </c>
-      <c r="O7" s="8">
-        <f t="shared" si="6"/>
         <v>25.4</v>
       </c>
       <c r="P7" s="6">
@@ -27906,7 +30317,7 @@
         <v>2536</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1268</v>
       </c>
       <c r="S7" s="6">
@@ -27960,15 +30371,15 @@
         <v>234</v>
       </c>
       <c r="M8" s="6">
+        <f t="shared" si="3"/>
+        <v>195.4</v>
+      </c>
+      <c r="N8" s="6">
         <f t="shared" si="4"/>
-        <v>195.4</v>
-      </c>
-      <c r="N8" s="6">
+        <v>40</v>
+      </c>
+      <c r="O8" s="8">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="6"/>
         <v>46.8</v>
       </c>
       <c r="P8" s="6">
@@ -27978,7 +30389,7 @@
         <v>16739</v>
       </c>
       <c r="R8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3347.8</v>
       </c>
       <c r="S8" s="6">
@@ -28033,15 +30444,15 @@
         <v>347</v>
       </c>
       <c r="M9" s="6">
+        <f t="shared" si="3"/>
+        <v>264.5</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="4"/>
-        <v>264.5</v>
-      </c>
-      <c r="N9" s="6">
+        <v>57.125</v>
+      </c>
+      <c r="O9" s="8">
         <f t="shared" si="5"/>
-        <v>57.125</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="6"/>
         <v>43.375</v>
       </c>
       <c r="P9" s="6">
@@ -28051,7 +30462,7 @@
         <v>6316</v>
       </c>
       <c r="R9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1052.6666666666667</v>
       </c>
       <c r="S9" s="6">
@@ -28106,15 +30517,15 @@
         <v>581</v>
       </c>
       <c r="M10" s="6">
+        <f t="shared" si="3"/>
+        <v>367.3125</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="4"/>
-        <v>367.3125</v>
-      </c>
-      <c r="N10" s="6">
+        <v>62.25</v>
+      </c>
+      <c r="O10" s="8">
         <f t="shared" si="5"/>
-        <v>62.25</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="6"/>
         <v>36.3125</v>
       </c>
       <c r="P10" s="6">
@@ -28124,7 +30535,7 @@
         <v>33925</v>
       </c>
       <c r="R10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1995.5882352941176</v>
       </c>
       <c r="S10" s="6">
@@ -28179,15 +30590,15 @@
         <v>300</v>
       </c>
       <c r="M11" s="6">
+        <f t="shared" si="3"/>
+        <v>453.33333333333331</v>
+      </c>
+      <c r="N11" s="6">
         <f t="shared" si="4"/>
-        <v>453.33333333333331</v>
-      </c>
-      <c r="N11" s="6">
+        <v>135.55555555555554</v>
+      </c>
+      <c r="O11" s="8">
         <f t="shared" si="5"/>
-        <v>135.55555555555554</v>
-      </c>
-      <c r="O11" s="8">
-        <f t="shared" si="6"/>
         <v>33.333333333333336</v>
       </c>
       <c r="P11" s="6">
@@ -28197,7 +30608,7 @@
         <v>1203</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1203</v>
       </c>
       <c r="S11" s="6">
@@ -28251,15 +30662,15 @@
         <v>324</v>
       </c>
       <c r="M12" s="6">
+        <f t="shared" si="3"/>
+        <v>344</v>
+      </c>
+      <c r="N12" s="6">
         <f t="shared" si="4"/>
-        <v>344</v>
-      </c>
-      <c r="N12" s="6">
+        <v>82.4</v>
+      </c>
+      <c r="O12" s="8">
         <f t="shared" si="5"/>
-        <v>82.4</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" si="6"/>
         <v>32.4</v>
       </c>
       <c r="P12" s="6">
@@ -28269,7 +30680,7 @@
         <v>13402</v>
       </c>
       <c r="R12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1489.1111111111111</v>
       </c>
       <c r="S12" s="6">
@@ -28324,15 +30735,15 @@
         <v>299</v>
       </c>
       <c r="M13" s="6">
+        <f t="shared" si="3"/>
+        <v>508.2</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>508.2</v>
-      </c>
-      <c r="N13" s="6">
+        <v>95.6</v>
+      </c>
+      <c r="O13" s="8">
         <f t="shared" si="5"/>
-        <v>95.6</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" si="6"/>
         <v>59.8</v>
       </c>
       <c r="P13" s="6">
@@ -28342,7 +30753,7 @@
         <v>1188</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1188</v>
       </c>
       <c r="S13" s="6">
@@ -28397,15 +30808,15 @@
         <v>151</v>
       </c>
       <c r="M14" s="6">
+        <f t="shared" si="3"/>
+        <v>391</v>
+      </c>
+      <c r="N14" s="6">
         <f t="shared" si="4"/>
-        <v>391</v>
-      </c>
-      <c r="N14" s="6">
+        <v>88</v>
+      </c>
+      <c r="O14" s="8">
         <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="P14" s="6">
@@ -28415,7 +30826,7 @@
         <v>8893</v>
       </c>
       <c r="R14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1778.6</v>
       </c>
       <c r="S14" s="6">
@@ -28446,15 +30857,15 @@
         <v>225</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F28" si="8">C15/B15</f>
+        <f t="shared" si="0"/>
         <v>41.333333333333336</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G28" si="9">D15/B15</f>
+        <f t="shared" si="1"/>
         <v>14.333333333333334</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" ref="H15:H28" si="10">E15/B15</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="I15" s="6">
@@ -28470,15 +30881,15 @@
         <v>143</v>
       </c>
       <c r="M15" s="6">
+        <f t="shared" si="3"/>
+        <v>196.33333333333334</v>
+      </c>
+      <c r="N15" s="6">
         <f t="shared" si="4"/>
-        <v>196.33333333333334</v>
-      </c>
-      <c r="N15" s="6">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="O15" s="8">
         <f t="shared" si="5"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="6"/>
         <v>23.833333333333332</v>
       </c>
       <c r="P15" s="6">
@@ -28488,7 +30899,7 @@
         <v>2040</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" ref="R15:R19" si="11">Q15/P15</f>
+        <f t="shared" ref="R15:R19" si="8">Q15/P15</f>
         <v>680</v>
       </c>
       <c r="S15" s="6">
@@ -28518,15 +30929,15 @@
         <v>92</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="I16" s="6">
@@ -28542,15 +30953,15 @@
         <v>112</v>
       </c>
       <c r="M16" s="6">
+        <f t="shared" si="3"/>
+        <v>249.16666666666666</v>
+      </c>
+      <c r="N16" s="6">
         <f t="shared" si="4"/>
-        <v>249.16666666666666</v>
-      </c>
-      <c r="N16" s="6">
+        <v>42.166666666666664</v>
+      </c>
+      <c r="O16" s="8">
         <f t="shared" si="5"/>
-        <v>42.166666666666664</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="6"/>
         <v>18.666666666666668</v>
       </c>
       <c r="P16" s="6">
@@ -28560,7 +30971,7 @@
         <v>1834</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>917</v>
       </c>
       <c r="S16" s="6">
@@ -28590,15 +31001,15 @@
         <v>1685</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>124.6</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>72.900000000000006</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>168.5</v>
       </c>
       <c r="I17" s="6">
@@ -28614,15 +31025,15 @@
         <v>327</v>
       </c>
       <c r="M17" s="6">
+        <f t="shared" si="3"/>
+        <v>264.5</v>
+      </c>
+      <c r="N17" s="6">
         <f t="shared" si="4"/>
-        <v>264.5</v>
-      </c>
-      <c r="N17" s="6">
+        <v>87.166666666666671</v>
+      </c>
+      <c r="O17" s="8">
         <f t="shared" si="5"/>
-        <v>87.166666666666671</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="P17" s="6">
@@ -28632,7 +31043,7 @@
         <v>3564</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1782</v>
       </c>
       <c r="S17" s="6">
@@ -28663,15 +31074,15 @@
         <v>150</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>27.666666666666668</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>14.333333333333334</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I18" s="6">
@@ -28687,15 +31098,15 @@
         <v>129</v>
       </c>
       <c r="M18" s="6">
+        <f t="shared" si="3"/>
+        <v>161.4</v>
+      </c>
+      <c r="N18" s="6">
         <f t="shared" si="4"/>
-        <v>161.4</v>
-      </c>
-      <c r="N18" s="6">
+        <v>27.8</v>
+      </c>
+      <c r="O18" s="8">
         <f t="shared" si="5"/>
-        <v>27.8</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="6"/>
         <v>25.8</v>
       </c>
       <c r="P18" s="6">
@@ -28705,7 +31116,7 @@
         <v>2629</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1314.5</v>
       </c>
       <c r="S18" s="6">
@@ -28736,15 +31147,15 @@
         <v>47</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="I19" s="6">
@@ -28760,15 +31171,15 @@
         <v>84</v>
       </c>
       <c r="M19" s="6">
+        <f t="shared" si="3"/>
+        <v>313.5</v>
+      </c>
+      <c r="N19" s="6">
         <f t="shared" si="4"/>
-        <v>313.5</v>
-      </c>
-      <c r="N19" s="6">
+        <v>67.75</v>
+      </c>
+      <c r="O19" s="8">
         <f t="shared" si="5"/>
-        <v>67.75</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="P19" s="6">
@@ -28778,7 +31189,7 @@
         <v>4166</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1041.5</v>
       </c>
       <c r="S19" s="6">
@@ -28809,15 +31220,15 @@
         <v>699</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>139.5</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>38.25</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>174.75</v>
       </c>
       <c r="I20" s="6">
@@ -28833,15 +31244,15 @@
         <v>6</v>
       </c>
       <c r="M20" s="6">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="N20" s="6">
         <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="N20" s="6">
+        <v>11</v>
+      </c>
+      <c r="O20" s="8">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="O20" s="8">
-        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P20" s="6">
@@ -28881,15 +31292,15 @@
         <v>601</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>60.857142857142854</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>28.428571428571427</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>85.857142857142861</v>
       </c>
       <c r="I21" s="6">
@@ -28905,15 +31316,15 @@
         <v>117</v>
       </c>
       <c r="M21" s="6">
+        <f t="shared" si="3"/>
+        <v>227.2</v>
+      </c>
+      <c r="N21" s="6">
         <f t="shared" si="4"/>
-        <v>227.2</v>
-      </c>
-      <c r="N21" s="6">
+        <v>93.4</v>
+      </c>
+      <c r="O21" s="8">
         <f t="shared" si="5"/>
-        <v>93.4</v>
-      </c>
-      <c r="O21" s="8">
-        <f t="shared" si="6"/>
         <v>23.4</v>
       </c>
       <c r="P21" s="6">
@@ -28954,15 +31365,15 @@
         <v>569</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>135.5</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>58.25</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>142.25</v>
       </c>
       <c r="I22" s="6">
@@ -28978,15 +31389,15 @@
         <v>178</v>
       </c>
       <c r="M22" s="6">
+        <f t="shared" si="3"/>
+        <v>133.30000000000001</v>
+      </c>
+      <c r="N22" s="6">
         <f t="shared" si="4"/>
-        <v>133.30000000000001</v>
-      </c>
-      <c r="N22" s="6">
+        <v>44.1</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="5"/>
-        <v>44.1</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="6"/>
         <v>17.8</v>
       </c>
       <c r="P22" s="6">
@@ -29027,15 +31438,15 @@
         <v>379</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>153.5</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>189.5</v>
       </c>
       <c r="I23" s="6">
@@ -29051,15 +31462,15 @@
         <v>645</v>
       </c>
       <c r="M23" s="6">
+        <f t="shared" si="3"/>
+        <v>306.66666666666669</v>
+      </c>
+      <c r="N23" s="6">
         <f t="shared" si="4"/>
-        <v>306.66666666666669</v>
-      </c>
-      <c r="N23" s="6">
+        <v>18.777777777777779</v>
+      </c>
+      <c r="O23" s="8">
         <f t="shared" si="5"/>
-        <v>18.777777777777779</v>
-      </c>
-      <c r="O23" s="8">
-        <f t="shared" si="6"/>
         <v>71.666666666666671</v>
       </c>
       <c r="P23" s="6">
@@ -29069,7 +31480,7 @@
         <v>8328</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:R50" si="12">Q23/P23</f>
+        <f t="shared" ref="R23:R66" si="9">Q23/P23</f>
         <v>1189.7142857142858</v>
       </c>
       <c r="S23" s="6">
@@ -29100,15 +31511,15 @@
         <v>119</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="I24" s="6">
@@ -29124,15 +31535,15 @@
         <v>35</v>
       </c>
       <c r="M24" s="6">
+        <f t="shared" si="3"/>
+        <v>38.777777777777779</v>
+      </c>
+      <c r="N24" s="6">
         <f t="shared" si="4"/>
-        <v>38.777777777777779</v>
-      </c>
-      <c r="N24" s="6">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="O24" s="8">
         <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="6"/>
         <v>3.8888888888888888</v>
       </c>
       <c r="P24" s="6">
@@ -29142,7 +31553,7 @@
         <v>2201</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1100.5</v>
       </c>
       <c r="S24" s="6">
@@ -29172,15 +31583,15 @@
         <v>188</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>46.5</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>31.333333333333332</v>
       </c>
       <c r="I25" s="6">
@@ -29196,15 +31607,15 @@
         <v>35</v>
       </c>
       <c r="M25" s="6">
+        <f t="shared" si="3"/>
+        <v>56.375</v>
+      </c>
+      <c r="N25" s="6">
         <f t="shared" si="4"/>
-        <v>56.375</v>
-      </c>
-      <c r="N25" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="O25" s="8">
         <f t="shared" si="5"/>
-        <v>9.5</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" si="6"/>
         <v>4.375</v>
       </c>
       <c r="P25" s="6">
@@ -29214,7 +31625,7 @@
         <v>2803</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>934.33333333333337</v>
       </c>
       <c r="S25" s="6">
@@ -29244,15 +31655,15 @@
         <v>86</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
       <c r="I26" s="6">
@@ -29268,15 +31679,15 @@
         <v>193</v>
       </c>
       <c r="M26" s="6">
+        <f t="shared" si="3"/>
+        <v>222.625</v>
+      </c>
+      <c r="N26" s="6">
         <f t="shared" si="4"/>
-        <v>222.625</v>
-      </c>
-      <c r="N26" s="6">
+        <v>8.875</v>
+      </c>
+      <c r="O26" s="8">
         <f t="shared" si="5"/>
-        <v>8.875</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="6"/>
         <v>24.125</v>
       </c>
       <c r="P26" s="6">
@@ -29286,7 +31697,7 @@
         <v>2661</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1330.5</v>
       </c>
       <c r="S26" s="6">
@@ -29316,15 +31727,15 @@
         <v>21</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I27" s="6">
@@ -29340,15 +31751,15 @@
         <v>222</v>
       </c>
       <c r="M27" s="6">
+        <f t="shared" si="3"/>
+        <v>223.4</v>
+      </c>
+      <c r="N27" s="6">
         <f t="shared" si="4"/>
-        <v>223.4</v>
-      </c>
-      <c r="N27" s="6">
+        <v>14</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="6"/>
         <v>44.4</v>
       </c>
       <c r="P27" s="6">
@@ -29387,15 +31798,15 @@
         <v>238</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>17.75</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
       <c r="I28" s="6">
@@ -29411,15 +31822,15 @@
         <v>124</v>
       </c>
       <c r="M28" s="6">
+        <f t="shared" si="3"/>
+        <v>132.28571428571428</v>
+      </c>
+      <c r="N28" s="6">
         <f t="shared" si="4"/>
-        <v>132.28571428571428</v>
-      </c>
-      <c r="N28" s="6">
+        <v>10.857142857142858</v>
+      </c>
+      <c r="O28" s="8">
         <f t="shared" si="5"/>
-        <v>10.857142857142858</v>
-      </c>
-      <c r="O28" s="8">
-        <f t="shared" si="6"/>
         <v>17.714285714285715</v>
       </c>
       <c r="P28" s="6">
@@ -29429,7 +31840,7 @@
         <v>5034</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>719.14285714285711</v>
       </c>
       <c r="S28" s="6">
@@ -29480,15 +31891,15 @@
         <v>29</v>
       </c>
       <c r="M29" s="6">
+        <f t="shared" si="3"/>
+        <v>133.6</v>
+      </c>
+      <c r="N29" s="6">
         <f t="shared" si="4"/>
-        <v>133.6</v>
-      </c>
-      <c r="N29" s="6">
+        <v>21.4</v>
+      </c>
+      <c r="O29" s="8">
         <f t="shared" si="5"/>
-        <v>21.4</v>
-      </c>
-      <c r="O29" s="8">
-        <f t="shared" si="6"/>
         <v>5.8</v>
       </c>
       <c r="P29" s="6">
@@ -29498,7 +31909,7 @@
         <v>3042</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>507</v>
       </c>
       <c r="S29" s="6">
@@ -29528,15 +31939,15 @@
         <v>42</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" ref="F30:F38" si="13">C30/B30</f>
+        <f t="shared" ref="F30:F38" si="10">C30/B30</f>
         <v>13</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" ref="G30:G38" si="14">D30/B30</f>
+        <f t="shared" ref="G30:G38" si="11">D30/B30</f>
         <v>8</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" ref="H30:H38" si="15">E30/B30</f>
+        <f t="shared" ref="H30:H38" si="12">E30/B30</f>
         <v>21</v>
       </c>
       <c r="I30" s="6">
@@ -29552,15 +31963,15 @@
         <v>214</v>
       </c>
       <c r="M30" s="6">
+        <f t="shared" si="3"/>
+        <v>122.28571428571429</v>
+      </c>
+      <c r="N30" s="6">
         <f t="shared" si="4"/>
-        <v>122.28571428571429</v>
-      </c>
-      <c r="N30" s="6">
+        <v>14</v>
+      </c>
+      <c r="O30" s="8">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="O30" s="8">
-        <f t="shared" si="6"/>
         <v>30.571428571428573</v>
       </c>
       <c r="P30" s="6">
@@ -29570,7 +31981,7 @@
         <v>3724</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>620.66666666666663</v>
       </c>
       <c r="S30" s="6">
@@ -29600,15 +32011,15 @@
         <v>246</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>34.666666666666664</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="I31" s="6">
@@ -29624,15 +32035,15 @@
         <v>129</v>
       </c>
       <c r="M31" s="6">
+        <f t="shared" si="3"/>
+        <v>157.25</v>
+      </c>
+      <c r="N31" s="6">
         <f t="shared" si="4"/>
-        <v>157.25</v>
-      </c>
-      <c r="N31" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="O31" s="8">
         <f t="shared" si="5"/>
-        <v>10.5</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="6"/>
         <v>16.125</v>
       </c>
       <c r="P31" s="6">
@@ -29642,7 +32053,7 @@
         <v>1906</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>635.33333333333337</v>
       </c>
       <c r="S31" s="6">
@@ -29672,15 +32083,15 @@
         <v>931</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>83.333333333333329</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>51.166666666666664</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>155.16666666666666</v>
       </c>
       <c r="I32" s="6">
@@ -29696,15 +32107,15 @@
         <v>443</v>
       </c>
       <c r="M32" s="6">
+        <f t="shared" si="3"/>
+        <v>505.71428571428572</v>
+      </c>
+      <c r="N32" s="6">
         <f t="shared" si="4"/>
-        <v>505.71428571428572</v>
-      </c>
-      <c r="N32" s="6">
+        <v>16.285714285714285</v>
+      </c>
+      <c r="O32" s="8">
         <f t="shared" si="5"/>
-        <v>16.285714285714285</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="6"/>
         <v>63.285714285714285</v>
       </c>
       <c r="P32" s="6">
@@ -29714,7 +32125,7 @@
         <v>6068</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1213.5999999999999</v>
       </c>
       <c r="S32" s="6">
@@ -29744,15 +32155,15 @@
         <v>1607</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>377.83333333333331</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>267.83333333333331</v>
       </c>
       <c r="I33" s="6">
@@ -29768,15 +32179,15 @@
         <v>508</v>
       </c>
       <c r="M33" s="6">
+        <f t="shared" si="3"/>
+        <v>610.84615384615381</v>
+      </c>
+      <c r="N33" s="6">
         <f t="shared" si="4"/>
-        <v>610.84615384615381</v>
-      </c>
-      <c r="N33" s="6">
+        <v>115.69230769230769</v>
+      </c>
+      <c r="O33" s="8">
         <f t="shared" si="5"/>
-        <v>115.69230769230769</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="6"/>
         <v>39.07692307692308</v>
       </c>
       <c r="P33" s="6">
@@ -29786,7 +32197,7 @@
         <v>1370</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>685</v>
       </c>
       <c r="S33" s="6">
@@ -29816,15 +32227,15 @@
         <v>1871</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>225.64705882352942</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>36.294117647058826</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>110.05882352941177</v>
       </c>
       <c r="I34" s="6">
@@ -29840,15 +32251,15 @@
         <v>238</v>
       </c>
       <c r="M34" s="6">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="N34" s="6">
         <f t="shared" si="4"/>
-        <v>320</v>
-      </c>
-      <c r="N34" s="6">
+        <v>58.6</v>
+      </c>
+      <c r="O34" s="8">
         <f t="shared" si="5"/>
-        <v>58.6</v>
-      </c>
-      <c r="O34" s="8">
-        <f t="shared" si="6"/>
         <v>23.8</v>
       </c>
       <c r="P34" s="6">
@@ -29858,7 +32269,7 @@
         <v>813</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>406.5</v>
       </c>
       <c r="S34" s="6">
@@ -29888,15 +32299,15 @@
         <v>293</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>301</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="H35" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>97.666666666666671</v>
       </c>
       <c r="I35" s="23">
@@ -29912,15 +32323,15 @@
         <v>113</v>
       </c>
       <c r="M35" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M35:M52" si="13">J35/I35</f>
         <v>253.25</v>
       </c>
       <c r="N35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N35:N52" si="14">K35/I35</f>
         <v>94.125</v>
       </c>
       <c r="O35" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="O35:O52" si="15">L35/I35</f>
         <v>14.125</v>
       </c>
       <c r="P35" s="23">
@@ -29930,7 +32341,7 @@
         <v>5073</v>
       </c>
       <c r="R35" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1268.25</v>
       </c>
       <c r="S35" s="23">
@@ -29960,15 +32371,15 @@
         <v>467</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1851</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>302.5</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>233.5</v>
       </c>
       <c r="I36" s="6">
@@ -29984,15 +32395,15 @@
         <v>130</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>314.39999999999998</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>131.4</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="P36" s="6">
@@ -30002,7 +32413,7 @@
         <v>2566</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>855.33333333333337</v>
       </c>
       <c r="S36" s="6">
@@ -30032,15 +32443,15 @@
         <v>224</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>23.666666666666668</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>74.666666666666671</v>
       </c>
       <c r="I37" s="6">
@@ -30056,15 +32467,15 @@
         <v>99</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>248.22222222222223</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>91.111111111111114</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="P37" s="6">
@@ -30074,7 +32485,7 @@
         <v>1680</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>560</v>
       </c>
       <c r="S37" s="6">
@@ -30104,15 +32515,15 @@
         <v>62</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>337</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="I38" s="6">
@@ -30128,15 +32539,15 @@
         <v>62</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>120.83333333333333</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>25.666666666666668</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>10.333333333333334</v>
       </c>
       <c r="P38" s="6">
@@ -30146,7 +32557,7 @@
         <v>484</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>484</v>
       </c>
       <c r="S38" s="6">
@@ -30197,15 +32608,15 @@
         <v>194</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>480.57142857142856</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>27.714285714285715</v>
       </c>
       <c r="P39" s="6">
@@ -30215,7 +32626,7 @@
         <v>3242</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>810.5</v>
       </c>
       <c r="S39" s="6">
@@ -30245,15 +32656,15 @@
         <v>160</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:F50" si="16">C40/B40</f>
+        <f t="shared" ref="F40:F54" si="16">C40/B40</f>
         <v>904</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:G50" si="17">D40/B40</f>
+        <f t="shared" ref="G40:G54" si="17">D40/B40</f>
         <v>98</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:H50" si="18">E40/B40</f>
+        <f t="shared" ref="H40:H54" si="18">E40/B40</f>
         <v>160</v>
       </c>
       <c r="I40" s="6">
@@ -30269,15 +32680,15 @@
         <v>65</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>95.285714285714292</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>9.2857142857142865</v>
       </c>
       <c r="P40" s="6">
@@ -30340,15 +32751,15 @@
         <v>112</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>155.27272727272728</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43.363636363636367</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>10.181818181818182</v>
       </c>
       <c r="P41" s="6">
@@ -30358,7 +32769,7 @@
         <v>2150</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>716.66666666666663</v>
       </c>
       <c r="S41" s="6">
@@ -30412,15 +32823,15 @@
         <v>108</v>
       </c>
       <c r="M42" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>85.4</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>20.3</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>10.8</v>
       </c>
       <c r="P42" s="6">
@@ -30430,7 +32841,7 @@
         <v>4795</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>959</v>
       </c>
       <c r="S42" s="6">
@@ -30484,15 +32895,15 @@
         <v>97</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>129.14285714285714</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>33.142857142857146</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>13.857142857142858</v>
       </c>
       <c r="P43" s="6">
@@ -30502,7 +32913,7 @@
         <v>2563</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>512.6</v>
       </c>
       <c r="S43" s="6">
@@ -30556,15 +32967,15 @@
         <v>198</v>
       </c>
       <c r="M44" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>107</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>16.333333333333332</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="P44" s="6">
@@ -30574,7 +32985,7 @@
         <v>2503</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>834.33333333333337</v>
       </c>
       <c r="S44" s="6">
@@ -30628,15 +33039,15 @@
         <v>389</v>
       </c>
       <c r="M45" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>222.76923076923077</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>24.307692307692307</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>29.923076923076923</v>
       </c>
       <c r="P45" s="6">
@@ -30646,7 +33057,7 @@
         <v>10674</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>970.36363636363637</v>
       </c>
       <c r="S45" s="6">
@@ -30701,15 +33112,15 @@
         <v>191</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>154.75</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>22.875</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>23.875</v>
       </c>
       <c r="P46" s="6">
@@ -30719,7 +33130,7 @@
         <v>9507</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>950.7</v>
       </c>
       <c r="S46" s="6">
@@ -30773,15 +33184,15 @@
         <v>198</v>
       </c>
       <c r="M47" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>361.5</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>78.5</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>24.75</v>
       </c>
       <c r="P47" s="6">
@@ -30791,7 +33202,7 @@
         <v>5256</v>
       </c>
       <c r="R47" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>584</v>
       </c>
       <c r="S47" s="6">
@@ -30801,7 +33212,7 @@
         <v>612</v>
       </c>
       <c r="U47" s="8">
-        <f t="shared" ref="U46:U50" si="19">T47/S47</f>
+        <f t="shared" ref="U47:U48" si="19">T47/S47</f>
         <v>612</v>
       </c>
     </row>
@@ -30846,15 +33257,15 @@
         <v>124</v>
       </c>
       <c r="M48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>171.66666666666666</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>26.833333333333332</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>20.666666666666668</v>
       </c>
       <c r="P48" s="6">
@@ -30864,7 +33275,7 @@
         <v>3623</v>
       </c>
       <c r="R48" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>517.57142857142856</v>
       </c>
       <c r="S48" s="6">
@@ -30919,15 +33330,15 @@
         <v>105</v>
       </c>
       <c r="M49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>144.5</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>12.5</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>26.25</v>
       </c>
       <c r="P49" s="6">
@@ -30937,7 +33348,7 @@
         <v>3588</v>
       </c>
       <c r="R49" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>897</v>
       </c>
       <c r="S49" s="6">
@@ -30991,15 +33402,15 @@
         <v>217</v>
       </c>
       <c r="M50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>266.375</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>53.75</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>27.125</v>
       </c>
       <c r="P50" s="6">
@@ -31009,7 +33420,7 @@
         <v>2910</v>
       </c>
       <c r="R50" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>582</v>
       </c>
       <c r="S50" s="6">
@@ -31023,196 +33434,1148 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
+      <c r="A51" s="9">
+        <v>45350</v>
+      </c>
+      <c r="B51" s="6">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6">
+        <v>235</v>
+      </c>
+      <c r="D51" s="6">
+        <v>91</v>
+      </c>
+      <c r="E51" s="6">
+        <v>321</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="16"/>
+        <v>58.75</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="17"/>
+        <v>22.75</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" si="18"/>
+        <v>80.25</v>
+      </c>
+      <c r="I51" s="6">
+        <v>6</v>
+      </c>
+      <c r="J51" s="6">
+        <v>954</v>
+      </c>
+      <c r="K51" s="6">
+        <v>157</v>
+      </c>
+      <c r="L51" s="6">
+        <v>178</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="13"/>
+        <v>159</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="14"/>
+        <v>26.166666666666668</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" si="15"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="P51" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>1406</v>
+      </c>
+      <c r="R51" s="8">
+        <f t="shared" si="9"/>
+        <v>468.66666666666669</v>
+      </c>
+      <c r="S51" s="6">
+        <v>0</v>
+      </c>
+      <c r="T51" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
+      <c r="A52" s="9">
+        <v>45351</v>
+      </c>
+      <c r="B52" s="6">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1098</v>
+      </c>
+      <c r="D52" s="6">
+        <v>466</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1315</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="16"/>
+        <v>366</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="17"/>
+        <v>155.33333333333334</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="18"/>
+        <v>438.33333333333331</v>
+      </c>
+      <c r="I52" s="6">
+        <v>11</v>
+      </c>
+      <c r="J52" s="6">
+        <v>4569</v>
+      </c>
+      <c r="K52" s="6">
+        <v>606</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1646</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" si="13"/>
+        <v>415.36363636363637</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" si="14"/>
+        <v>55.090909090909093</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="15"/>
+        <v>149.63636363636363</v>
+      </c>
+      <c r="P52" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>4834</v>
+      </c>
+      <c r="R52" s="8">
+        <f t="shared" si="9"/>
+        <v>690.57142857142856</v>
+      </c>
+      <c r="S52" s="6">
+        <v>1</v>
+      </c>
+      <c r="T52" s="6">
+        <v>13000000</v>
+      </c>
+      <c r="U52" s="8">
+        <f>T52/S52</f>
+        <v>13000000</v>
+      </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
+      <c r="A53" s="9">
+        <v>45352</v>
+      </c>
+      <c r="B53" s="6">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2194</v>
+      </c>
+      <c r="D53" s="6">
+        <v>724</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2036</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="16"/>
+        <v>219.4</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="17"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="H53" s="8">
+        <f t="shared" si="18"/>
+        <v>203.6</v>
+      </c>
+      <c r="I53" s="6">
+        <v>8</v>
+      </c>
+      <c r="J53" s="6">
+        <v>41675</v>
+      </c>
+      <c r="K53" s="6">
+        <v>8566</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1798</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" ref="M53:M66" si="20">J53/I53</f>
+        <v>5209.375</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" ref="N53:N66" si="21">K53/I53</f>
+        <v>1070.75</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" ref="O53:O66" si="22">L53/I53</f>
+        <v>224.75</v>
+      </c>
+      <c r="P53" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>18804</v>
+      </c>
+      <c r="R53" s="8">
+        <f t="shared" si="9"/>
+        <v>2350.5</v>
+      </c>
+      <c r="S53" s="6">
+        <v>1</v>
+      </c>
+      <c r="T53" s="6">
+        <v>8800000</v>
+      </c>
+      <c r="U53" s="8">
+        <f t="shared" ref="U53:U59" si="23">T53/S53</f>
+        <v>8800000</v>
+      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
+      <c r="A54" s="9">
+        <v>45353</v>
+      </c>
+      <c r="B54" s="6">
+        <v>9</v>
+      </c>
+      <c r="C54" s="6">
+        <v>964</v>
+      </c>
+      <c r="D54" s="6">
+        <v>274</v>
+      </c>
+      <c r="E54" s="6">
+        <v>862</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="16"/>
+        <v>107.11111111111111</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="17"/>
+        <v>30.444444444444443</v>
+      </c>
+      <c r="H54" s="8">
+        <f t="shared" si="18"/>
+        <v>95.777777777777771</v>
+      </c>
+      <c r="I54" s="6">
+        <v>7</v>
+      </c>
+      <c r="J54" s="6">
+        <v>4455</v>
+      </c>
+      <c r="K54" s="6">
+        <v>457</v>
+      </c>
+      <c r="L54" s="6">
+        <v>477</v>
+      </c>
+      <c r="M54" s="6">
+        <f t="shared" si="20"/>
+        <v>636.42857142857144</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="21"/>
+        <v>65.285714285714292</v>
+      </c>
+      <c r="O54" s="8">
+        <f t="shared" si="22"/>
+        <v>68.142857142857139</v>
+      </c>
+      <c r="P54" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>6367</v>
+      </c>
+      <c r="R54" s="8">
+        <f t="shared" si="9"/>
+        <v>909.57142857142856</v>
+      </c>
+      <c r="S54" s="6">
+        <v>15</v>
+      </c>
+      <c r="T54" s="6">
+        <v>26115000</v>
+      </c>
+      <c r="U54" s="8">
+        <f t="shared" si="23"/>
+        <v>1741000</v>
+      </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
+      <c r="A55" s="9">
+        <v>45354</v>
+      </c>
+      <c r="B55" s="6">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>924</v>
+      </c>
+      <c r="D55" s="6">
+        <v>458</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1181</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" ref="F55:F62" si="24">C55/B55</f>
+        <v>115.5</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" ref="G55:G62" si="25">D55/B55</f>
+        <v>57.25</v>
+      </c>
+      <c r="H55" s="8">
+        <f t="shared" ref="H55:H62" si="26">E55/B55</f>
+        <v>147.625</v>
+      </c>
+      <c r="I55" s="6">
+        <v>4</v>
+      </c>
+      <c r="J55" s="6">
+        <v>13762</v>
+      </c>
+      <c r="K55" s="6">
+        <v>2427</v>
+      </c>
+      <c r="L55" s="6">
+        <v>779</v>
+      </c>
+      <c r="M55" s="6">
+        <f t="shared" si="20"/>
+        <v>3440.5</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="21"/>
+        <v>606.75</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="22"/>
+        <v>194.75</v>
+      </c>
+      <c r="P55" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>12200</v>
+      </c>
+      <c r="R55" s="8">
+        <f t="shared" si="9"/>
+        <v>6100</v>
+      </c>
+      <c r="S55" s="6">
+        <v>10</v>
+      </c>
+      <c r="T55" s="6">
+        <v>26176000</v>
+      </c>
+      <c r="U55" s="8">
+        <f t="shared" si="23"/>
+        <v>2617600</v>
+      </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
+      <c r="A56" s="9">
+        <v>45355</v>
+      </c>
+      <c r="B56" s="6">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6">
+        <v>605</v>
+      </c>
+      <c r="D56" s="6">
+        <v>216</v>
+      </c>
+      <c r="E56" s="6">
+        <v>651</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="24"/>
+        <v>121</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="25"/>
+        <v>43.2</v>
+      </c>
+      <c r="H56" s="8">
+        <f t="shared" si="26"/>
+        <v>130.19999999999999</v>
+      </c>
+      <c r="I56" s="6">
+        <v>4</v>
+      </c>
+      <c r="J56" s="6">
+        <v>6646</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1134</v>
+      </c>
+      <c r="L56" s="6">
+        <v>410</v>
+      </c>
+      <c r="M56" s="6">
+        <f t="shared" si="20"/>
+        <v>1661.5</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="21"/>
+        <v>283.5</v>
+      </c>
+      <c r="O56" s="8">
+        <f t="shared" si="22"/>
+        <v>102.5</v>
+      </c>
+      <c r="P56" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>11155</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" si="9"/>
+        <v>1593.5714285714287</v>
+      </c>
+      <c r="S56" s="6">
+        <v>7</v>
+      </c>
+      <c r="T56" s="6">
+        <v>2985000</v>
+      </c>
+      <c r="U56" s="8">
+        <f t="shared" si="23"/>
+        <v>426428.57142857142</v>
+      </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
+      <c r="A57" s="9">
+        <v>45356</v>
+      </c>
+      <c r="B57" s="6">
+        <v>5</v>
+      </c>
+      <c r="C57" s="6">
+        <v>234</v>
+      </c>
+      <c r="D57" s="6">
+        <v>617</v>
+      </c>
+      <c r="E57" s="6">
+        <v>415</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="24"/>
+        <v>46.8</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="25"/>
+        <v>123.4</v>
+      </c>
+      <c r="H57" s="8">
+        <f t="shared" si="26"/>
+        <v>83</v>
+      </c>
+      <c r="I57" s="6">
+        <v>3</v>
+      </c>
+      <c r="J57" s="6">
+        <v>11900</v>
+      </c>
+      <c r="K57" s="6">
+        <v>2016</v>
+      </c>
+      <c r="L57" s="6">
+        <v>535</v>
+      </c>
+      <c r="M57" s="6">
+        <f t="shared" si="20"/>
+        <v>3966.6666666666665</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="21"/>
+        <v>672</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" si="22"/>
+        <v>178.33333333333334</v>
+      </c>
+      <c r="P57" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>22800</v>
+      </c>
+      <c r="R57" s="8">
+        <f t="shared" si="9"/>
+        <v>4560</v>
+      </c>
+      <c r="S57" s="6">
+        <v>1</v>
+      </c>
+      <c r="T57" s="6">
+        <v>49000</v>
+      </c>
+      <c r="U57" s="8">
+        <f t="shared" si="23"/>
+        <v>49000</v>
+      </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
+      <c r="A58" s="9">
+        <v>45357</v>
+      </c>
+      <c r="B58" s="6">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6">
+        <v>448</v>
+      </c>
+      <c r="D58" s="6">
+        <v>571</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1210</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="25"/>
+        <v>71.375</v>
+      </c>
+      <c r="H58" s="8">
+        <f t="shared" si="26"/>
+        <v>151.25</v>
+      </c>
+      <c r="I58" s="6">
+        <v>9</v>
+      </c>
+      <c r="J58" s="6">
+        <v>13137</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1483</v>
+      </c>
+      <c r="L58" s="6">
+        <v>760</v>
+      </c>
+      <c r="M58" s="6">
+        <f t="shared" si="20"/>
+        <v>1459.6666666666667</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="21"/>
+        <v>164.77777777777777</v>
+      </c>
+      <c r="O58" s="8">
+        <f t="shared" si="22"/>
+        <v>84.444444444444443</v>
+      </c>
+      <c r="P58" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>46244</v>
+      </c>
+      <c r="R58" s="8">
+        <f t="shared" si="9"/>
+        <v>5780.5</v>
+      </c>
+      <c r="S58" s="6">
+        <v>1</v>
+      </c>
+      <c r="T58" s="6">
+        <v>38000</v>
+      </c>
+      <c r="U58" s="8">
+        <f t="shared" si="23"/>
+        <v>38000</v>
+      </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
+      <c r="A59" s="9">
+        <v>45358</v>
+      </c>
+      <c r="B59" s="6">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6">
+        <v>634</v>
+      </c>
+      <c r="D59" s="6">
+        <v>347</v>
+      </c>
+      <c r="E59" s="6">
+        <v>958</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="24"/>
+        <v>90.571428571428569</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="25"/>
+        <v>49.571428571428569</v>
+      </c>
+      <c r="H59" s="8">
+        <f t="shared" si="26"/>
+        <v>136.85714285714286</v>
+      </c>
+      <c r="I59" s="6">
+        <v>5</v>
+      </c>
+      <c r="J59" s="6">
+        <v>8354</v>
+      </c>
+      <c r="K59" s="6">
+        <v>926</v>
+      </c>
+      <c r="L59" s="6">
+        <v>425</v>
+      </c>
+      <c r="M59" s="6">
+        <f t="shared" si="20"/>
+        <v>1670.8</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" si="21"/>
+        <v>185.2</v>
+      </c>
+      <c r="O59" s="8">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
+      <c r="P59" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>7549</v>
+      </c>
+      <c r="R59" s="8">
+        <f t="shared" si="9"/>
+        <v>1078.4285714285713</v>
+      </c>
+      <c r="S59" s="6">
+        <v>2</v>
+      </c>
+      <c r="T59" s="6">
+        <v>71000</v>
+      </c>
+      <c r="U59" s="8">
+        <f t="shared" si="23"/>
+        <v>35500</v>
+      </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
+      <c r="A60" s="9">
+        <v>45359</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2</v>
+      </c>
+      <c r="C60" s="6">
+        <v>112</v>
+      </c>
+      <c r="D60" s="6">
+        <v>407</v>
+      </c>
+      <c r="E60" s="6">
+        <v>480</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="25"/>
+        <v>203.5</v>
+      </c>
+      <c r="H60" s="8">
+        <f t="shared" si="26"/>
+        <v>240</v>
+      </c>
+      <c r="I60" s="6">
+        <v>5</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1902</v>
+      </c>
+      <c r="K60" s="6">
+        <v>314</v>
+      </c>
+      <c r="L60" s="6">
+        <v>357</v>
+      </c>
+      <c r="M60" s="6">
+        <f t="shared" si="20"/>
+        <v>380.4</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" si="21"/>
+        <v>62.8</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" si="22"/>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="P60" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>3351</v>
+      </c>
+      <c r="R60" s="8">
+        <f t="shared" si="9"/>
+        <v>1675.5</v>
+      </c>
+      <c r="S60" s="6">
+        <v>0</v>
+      </c>
+      <c r="T60" s="6">
+        <v>0</v>
+      </c>
+      <c r="U60" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
+      <c r="A61" s="9">
+        <v>45360</v>
+      </c>
+      <c r="B61" s="6">
+        <v>6</v>
+      </c>
+      <c r="C61" s="6">
+        <v>409</v>
+      </c>
+      <c r="D61" s="6">
+        <v>300</v>
+      </c>
+      <c r="E61" s="6">
+        <v>776</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="24"/>
+        <v>68.166666666666671</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="H61" s="8">
+        <f t="shared" si="26"/>
+        <v>129.33333333333334</v>
+      </c>
+      <c r="I61" s="6">
+        <v>6</v>
+      </c>
+      <c r="J61" s="6">
+        <v>16985</v>
+      </c>
+      <c r="K61" s="6">
+        <v>2079</v>
+      </c>
+      <c r="L61" s="6">
+        <v>638</v>
+      </c>
+      <c r="M61" s="6">
+        <f t="shared" si="20"/>
+        <v>2830.8333333333335</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" si="21"/>
+        <v>346.5</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="22"/>
+        <v>106.33333333333333</v>
+      </c>
+      <c r="P61" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>24369</v>
+      </c>
+      <c r="R61" s="8">
+        <f t="shared" si="9"/>
+        <v>3046.125</v>
+      </c>
+      <c r="S61" s="6">
+        <v>0</v>
+      </c>
+      <c r="T61" s="6">
+        <v>0</v>
+      </c>
+      <c r="U61" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
+      <c r="A62" s="9">
+        <v>45361</v>
+      </c>
+      <c r="B62" s="6">
+        <v>7</v>
+      </c>
+      <c r="C62" s="6">
+        <v>453</v>
+      </c>
+      <c r="D62" s="6">
+        <v>376</v>
+      </c>
+      <c r="E62" s="6">
+        <v>969</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="24"/>
+        <v>64.714285714285708</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="25"/>
+        <v>53.714285714285715</v>
+      </c>
+      <c r="H62" s="8">
+        <f t="shared" si="26"/>
+        <v>138.42857142857142</v>
+      </c>
+      <c r="I62" s="6">
+        <v>5</v>
+      </c>
+      <c r="J62" s="6">
+        <v>9245</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1167</v>
+      </c>
+      <c r="L62" s="6">
+        <v>523</v>
+      </c>
+      <c r="M62" s="6">
+        <f t="shared" si="20"/>
+        <v>1849</v>
+      </c>
+      <c r="N62" s="6">
+        <f t="shared" si="21"/>
+        <v>233.4</v>
+      </c>
+      <c r="O62" s="8">
+        <f t="shared" si="22"/>
+        <v>104.6</v>
+      </c>
+      <c r="P62" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>20695</v>
+      </c>
+      <c r="R62" s="8">
+        <f t="shared" si="9"/>
+        <v>4139</v>
+      </c>
+      <c r="S62" s="6">
+        <v>1</v>
+      </c>
+      <c r="T62" s="6">
+        <v>163000</v>
+      </c>
+      <c r="U62" s="8">
+        <f>T62/S62</f>
+        <v>163000</v>
+      </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
+      <c r="A63" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B63" s="6">
+        <v>7</v>
+      </c>
+      <c r="C63" s="6">
+        <v>281</v>
+      </c>
+      <c r="D63" s="6">
+        <v>275</v>
+      </c>
+      <c r="E63" s="6">
+        <v>681</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" ref="F63:F66" si="27">C63/B63</f>
+        <v>40.142857142857146</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" ref="G63:G66" si="28">D63/B63</f>
+        <v>39.285714285714285</v>
+      </c>
+      <c r="H63" s="8">
+        <f t="shared" ref="H63:H66" si="29">E63/B63</f>
+        <v>97.285714285714292</v>
+      </c>
+      <c r="I63" s="6">
+        <v>6</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1648</v>
+      </c>
+      <c r="K63" s="6">
+        <v>129</v>
+      </c>
+      <c r="L63" s="6">
+        <v>346</v>
+      </c>
+      <c r="M63" s="6">
+        <f t="shared" si="20"/>
+        <v>274.66666666666669</v>
+      </c>
+      <c r="N63" s="6">
+        <f t="shared" si="21"/>
+        <v>21.5</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="22"/>
+        <v>57.666666666666664</v>
+      </c>
+      <c r="P63" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>6627</v>
+      </c>
+      <c r="R63" s="8">
+        <f t="shared" si="9"/>
+        <v>1325.4</v>
+      </c>
+      <c r="S63" s="6">
+        <v>9</v>
+      </c>
+      <c r="T63" s="6">
+        <v>16721000</v>
+      </c>
+      <c r="U63" s="8">
+        <f t="shared" ref="U63:U64" si="30">T63/S63</f>
+        <v>1857888.888888889</v>
+      </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>45363</v>
+      </c>
+      <c r="B64" s="6">
+        <v>7</v>
+      </c>
+      <c r="C64" s="6">
+        <v>208</v>
+      </c>
+      <c r="D64" s="6">
+        <v>365</v>
+      </c>
+      <c r="E64" s="6">
+        <v>798</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="27"/>
+        <v>29.714285714285715</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="28"/>
+        <v>52.142857142857146</v>
+      </c>
+      <c r="H64" s="8">
+        <f t="shared" si="29"/>
+        <v>114</v>
+      </c>
+      <c r="I64" s="6">
+        <v>5</v>
+      </c>
+      <c r="J64" s="6">
+        <v>9277</v>
+      </c>
+      <c r="K64" s="6">
+        <v>1657</v>
+      </c>
+      <c r="L64" s="6">
+        <v>1026</v>
+      </c>
+      <c r="M64" s="6">
+        <f t="shared" si="20"/>
+        <v>1855.4</v>
+      </c>
+      <c r="N64" s="6">
+        <f t="shared" si="21"/>
+        <v>331.4</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="22"/>
+        <v>205.2</v>
+      </c>
+      <c r="P64" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>3052</v>
+      </c>
+      <c r="R64" s="8">
+        <f t="shared" si="9"/>
+        <v>508.66666666666669</v>
+      </c>
+      <c r="S64" s="6">
+        <v>1</v>
+      </c>
+      <c r="T64" s="6">
+        <v>97000</v>
+      </c>
+      <c r="U64" s="8">
+        <f t="shared" si="30"/>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>45364</v>
+      </c>
+      <c r="B65" s="6">
+        <v>5</v>
+      </c>
+      <c r="C65" s="6">
+        <v>236</v>
+      </c>
+      <c r="D65" s="6">
+        <v>261</v>
+      </c>
+      <c r="E65" s="6">
+        <v>391</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="27"/>
+        <v>47.2</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="28"/>
+        <v>52.2</v>
+      </c>
+      <c r="H65" s="8">
+        <f t="shared" si="29"/>
+        <v>78.2</v>
+      </c>
+      <c r="I65" s="6">
+        <v>4</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1275</v>
+      </c>
+      <c r="K65" s="6">
+        <v>218</v>
+      </c>
+      <c r="L65" s="6">
+        <v>954</v>
+      </c>
+      <c r="M65" s="6">
+        <f t="shared" si="20"/>
+        <v>318.75</v>
+      </c>
+      <c r="N65" s="6">
+        <f t="shared" si="21"/>
+        <v>54.5</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="22"/>
+        <v>238.5</v>
+      </c>
+      <c r="P65" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>1376</v>
+      </c>
+      <c r="R65" s="8">
+        <f t="shared" si="9"/>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>45365</v>
+      </c>
+      <c r="B66" s="6">
+        <v>8</v>
+      </c>
+      <c r="C66" s="6">
+        <v>553</v>
+      </c>
+      <c r="D66" s="6">
+        <v>339</v>
+      </c>
+      <c r="E66" s="6">
+        <v>892</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="27"/>
+        <v>69.125</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="28"/>
+        <v>42.375</v>
+      </c>
+      <c r="H66" s="8">
+        <f t="shared" si="29"/>
+        <v>111.5</v>
+      </c>
+      <c r="I66" s="6">
+        <v>8</v>
+      </c>
+      <c r="J66" s="6">
+        <v>7446</v>
+      </c>
+      <c r="K66" s="6">
+        <v>1266</v>
+      </c>
+      <c r="L66" s="6">
+        <v>696</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" si="20"/>
+        <v>930.75</v>
+      </c>
+      <c r="N66" s="6">
+        <f t="shared" si="21"/>
+        <v>158.25</v>
+      </c>
+      <c r="O66" s="8">
+        <f t="shared" si="22"/>
+        <v>87</v>
+      </c>
+      <c r="P66" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>6150</v>
+      </c>
+      <c r="R66" s="8">
+        <f t="shared" si="9"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -31224,7 +34587,11 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -31232,7 +34599,11 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -31240,7 +34611,11 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -31248,14 +34623,23 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="P71" s="6"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -31263,7 +34647,11 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -31271,7 +34659,11 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -31279,63 +34671,290 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
     </row>
-    <row r="81" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
       <c r="P81" s="6"/>
-    </row>
-    <row r="82" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
     </row>
-    <row r="83" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
     </row>
-    <row r="84" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
     </row>
-    <row r="85" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
     </row>
-    <row r="86" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
     </row>
-    <row r="87" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
     </row>
-    <row r="88" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
     </row>
-    <row r="89" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
       <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I108" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31353,7 +34972,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -31409,11 +35028,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -31426,19 +35045,19 @@
     <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" customWidth="1"/>
+    <col min="10" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -31466,30 +35085,33 @@
       <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -31520,39 +35142,42 @@
         <f>MONTH(C2)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="15" t="str" cm="1">
-        <f t="array" ref="K2:K14">_xlfn.UNIQUE(B2:B42)</f>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="15" t="str" cm="1">
+        <f t="array" ref="L2:L14">_xlfn.UNIQUE(B2:B42)</f>
         <v>Simo</v>
       </c>
-      <c r="L2" s="15">
-        <f>COUNTIF(B2:B42,K2)</f>
+      <c r="M2" s="15">
+        <f>COUNTIF(B2:B42,L2)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="17">
+      <c r="P2" s="17">
         <f>MIN(E8:E42)</f>
         <v>46</v>
       </c>
-      <c r="P2" s="17">
+      <c r="Q2" s="17">
         <f>MAX(E8:E42)</f>
         <v>66</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="R2" s="18">
         <f>AVERAGE(E8:E42)</f>
         <v>53.771428571428572</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <f>MEDIAN(E8:E42)</f>
         <v>53</v>
       </c>
-      <c r="S2" s="19">
+      <c r="T2" s="19">
         <f>_xlfn.STDEV.S(E8:E42)</f>
         <v>5.6207897408570888</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -31583,38 +35208,41 @@
         <f t="shared" ref="I3:I7" si="2">MONTH(C3)</f>
         <v>2</v>
       </c>
-      <c r="K3" s="15" t="str">
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="15" t="str">
         <v>Mitofsky</v>
       </c>
-      <c r="L3" s="15">
-        <f t="shared" ref="L3:L14" si="3">COUNTIF(B3:B43,K3)</f>
+      <c r="M3" s="15">
+        <f t="shared" ref="M3:M14" si="3">COUNTIF(B3:B43,L3)</f>
         <v>5</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="17">
+      <c r="P3" s="17">
         <f>MIN(D8:D42)</f>
         <v>13</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="17">
         <f>MAX(D8:D42)</f>
         <v>34</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="R3" s="18">
         <f>AVERAGE(D8:D42)</f>
         <v>24.485714285714284</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f>MEDIAN(D8:D42)</f>
         <v>25</v>
       </c>
-      <c r="S3" s="19">
+      <c r="T3" s="19">
         <f>_xlfn.STDEV.S(D8:D42)</f>
         <v>4.7426192103931264</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -31645,20 +35273,21 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K4" s="15" t="str">
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="15" t="str">
         <v>El Financiero</v>
       </c>
-      <c r="L4" s="15">
+      <c r="M4" s="15">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="19"/>
-      <c r="S4" s="19"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O4" s="15"/>
+      <c r="R4" s="19"/>
+      <c r="T4" s="19"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -31689,15 +35318,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K5" s="15" t="str">
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="15" t="str">
         <v>Demotecnia</v>
       </c>
-      <c r="L5" s="15">
+      <c r="M5" s="15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -31728,15 +35360,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K6" s="15" t="str">
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="15" t="str">
         <v>Buendía &amp; Márquez</v>
       </c>
-      <c r="L6" s="15">
+      <c r="M6" s="15">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -31767,15 +35402,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K7" s="15" t="str">
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="15" t="str">
         <v>Berumen</v>
       </c>
-      <c r="L7" s="15">
+      <c r="M7" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
@@ -31806,15 +35444,18 @@
         <f>MONTH(C8)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="15" t="str">
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="15" t="str">
         <v>Mendoza Blanco &amp; Asoc</v>
       </c>
-      <c r="L8" s="15">
+      <c r="M8" s="15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>39</v>
       </c>
@@ -31845,15 +35486,18 @@
         <f t="shared" ref="I9:I42" si="5">MONTH(C9)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="15" t="str">
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="15" t="str">
         <v>Enkoll</v>
       </c>
-      <c r="L9" s="15">
+      <c r="M9" s="15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>39</v>
       </c>
@@ -31884,15 +35528,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K10" s="15" t="str">
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="15" t="str">
         <v>Varela y Asoc / Citibanamex</v>
       </c>
-      <c r="L10" s="15">
+      <c r="M10" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
@@ -31923,15 +35570,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K11" s="15" t="str">
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="15" t="str">
         <v>Parametría</v>
       </c>
-      <c r="L11" s="15">
+      <c r="M11" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
@@ -31962,15 +35612,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K12" s="15" t="str">
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="15" t="str">
         <v>GEA-ISA</v>
       </c>
-      <c r="L12" s="15">
+      <c r="M12" s="15">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>39</v>
       </c>
@@ -32001,15 +35654,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K13" s="15" t="str">
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="15" t="str">
         <v>Covarrubias y Asoc</v>
       </c>
-      <c r="L13" s="15">
+      <c r="M13" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
@@ -32040,15 +35696,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K14" s="15" t="str">
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="15" t="str">
         <v>Reforma</v>
       </c>
-      <c r="L14" s="15">
+      <c r="M14" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
@@ -32079,8 +35738,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>39</v>
       </c>
@@ -32111,8 +35773,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>39</v>
       </c>
@@ -32143,8 +35808,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>39</v>
       </c>
@@ -32175,9 +35843,12 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
@@ -32208,8 +35879,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>39</v>
       </c>
@@ -32240,8 +35914,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
@@ -32272,8 +35949,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
@@ -32304,9 +35984,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -32337,8 +36019,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>39</v>
       </c>
@@ -32369,8 +36054,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
@@ -32401,8 +36089,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
@@ -32433,8 +36124,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
@@ -32465,8 +36159,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
@@ -32497,8 +36194,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
@@ -32529,8 +36229,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -32561,8 +36264,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>39</v>
       </c>
@@ -32593,8 +36299,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>39</v>
       </c>
@@ -32625,8 +36334,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>39</v>
       </c>
@@ -32657,8 +36369,11 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>39</v>
       </c>
@@ -32689,8 +36404,11 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>39</v>
       </c>
@@ -32721,8 +36439,11 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>39</v>
       </c>
@@ -32753,8 +36474,11 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>39</v>
       </c>
@@ -32785,8 +36509,11 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>39</v>
       </c>
@@ -32817,8 +36544,11 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
@@ -32849,8 +36579,11 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
@@ -32881,8 +36614,11 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>39</v>
       </c>
@@ -32913,8 +36649,11 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>39</v>
       </c>
@@ -32944,6 +36683,9 @@
       <c r="I42">
         <f t="shared" si="5"/>
         <v>9</v>
+      </c>
+      <c r="J42" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -32958,30 +36700,30 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -33267,10 +37009,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6748DF8D-1E96-42F5-BE18-DD686141E658}">
-  <dimension ref="B2:M7"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -33292,7 +37034,6 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
@@ -33312,6 +37053,9 @@
       <c r="G5" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="L5" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -33332,6 +37076,12 @@
       <c r="G6" s="26">
         <v>0.56000000000000005</v>
       </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -33352,8 +37102,31 @@
       <c r="G7" s="26">
         <v>0.25</v>
       </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9">
+        <v>6.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -2,24 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E88518-F7A6-4216-9FA1-FEEFB5DA0069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AC85F-25B3-4C4C-8821-C068DAE75C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="1" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="2" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
     <sheet name="Claudia" sheetId="18" r:id="rId2"/>
     <sheet name="Maynez" sheetId="21" r:id="rId3"/>
-    <sheet name="Accounts" sheetId="6" r:id="rId4"/>
-    <sheet name="Polls" sheetId="20" r:id="rId5"/>
-    <sheet name="Vida Post" sheetId="22" r:id="rId6"/>
-    <sheet name="Results" sheetId="23" r:id="rId7"/>
+    <sheet name="Describe" sheetId="24" r:id="rId4"/>
+    <sheet name="Accounts" sheetId="6" r:id="rId5"/>
+    <sheet name="Polls" sheetId="20" r:id="rId6"/>
+    <sheet name="Vida Post" sheetId="22" r:id="rId7"/>
+    <sheet name="Results" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
   <si>
     <t>Candidate</t>
   </si>
@@ -310,6 +311,15 @@
   </si>
   <si>
     <t>MonthName</t>
+  </si>
+  <si>
+    <t>Xposts</t>
+  </si>
+  <si>
+    <t>Fbreacts</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -867,8 +877,8 @@
   <dimension ref="A1:XEU253"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P200" sqref="P200"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -11362,7 +11372,7 @@
         <v>20269</v>
       </c>
       <c r="R143" s="8">
-        <f t="shared" ref="R143:R192" si="59">Q143/P143</f>
+        <f t="shared" ref="R143:R194" si="59">Q143/P143</f>
         <v>6756.333333333333</v>
       </c>
       <c r="S143" s="6">
@@ -13913,7 +13923,7 @@
         <v>168393</v>
       </c>
       <c r="U178" s="8">
-        <f t="shared" ref="U178:U190" si="72">T178/S178</f>
+        <f t="shared" ref="U178:U194" si="72">T178/S178</f>
         <v>33678.6</v>
       </c>
     </row>
@@ -14250,15 +14260,15 @@
         <v>11059</v>
       </c>
       <c r="M183" s="6">
-        <f t="shared" ref="M183:M192" si="79">J183/I183</f>
+        <f t="shared" ref="M183:M194" si="79">J183/I183</f>
         <v>22150</v>
       </c>
       <c r="N183" s="6">
-        <f t="shared" ref="N183:N192" si="80">K183/I183</f>
+        <f t="shared" ref="N183:N194" si="80">K183/I183</f>
         <v>5078.625</v>
       </c>
       <c r="O183" s="8">
-        <f t="shared" ref="O183:O192" si="81">L183/I183</f>
+        <f t="shared" ref="O183:O194" si="81">L183/I183</f>
         <v>1382.375</v>
       </c>
       <c r="P183" s="6">
@@ -14810,15 +14820,15 @@
         <v>47600</v>
       </c>
       <c r="F191" s="6">
-        <f t="shared" ref="F191:F192" si="82">C191/B191</f>
+        <f t="shared" ref="F191:F194" si="82">C191/B191</f>
         <v>781.25</v>
       </c>
       <c r="G191" s="6">
-        <f t="shared" ref="G191:G192" si="83">D191/B191</f>
+        <f t="shared" ref="G191:G194" si="83">D191/B191</f>
         <v>2612.5</v>
       </c>
       <c r="H191" s="8">
-        <f t="shared" ref="H191:H192" si="84">E191/B191</f>
+        <f t="shared" ref="H191:H194" si="84">E191/B191</f>
         <v>5950</v>
       </c>
       <c r="I191" s="6">
@@ -14855,6 +14865,16 @@
         <f t="shared" si="59"/>
         <v>8362.4285714285706</v>
       </c>
+      <c r="S191" s="6">
+        <v>3</v>
+      </c>
+      <c r="T191" s="6">
+        <v>1512700</v>
+      </c>
+      <c r="U191" s="8">
+        <f t="shared" si="72"/>
+        <v>504233.33333333331</v>
+      </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="9">
@@ -14918,32 +14938,167 @@
         <f t="shared" si="59"/>
         <v>5408.1428571428569</v>
       </c>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="6"/>
-      <c r="L193" s="6"/>
-      <c r="P193" s="6"/>
-      <c r="Q193" s="6"/>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
-      <c r="L194" s="6"/>
-      <c r="P194" s="6"/>
-      <c r="Q194" s="6"/>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S192" s="6">
+        <v>2</v>
+      </c>
+      <c r="T192" s="6">
+        <v>2570000</v>
+      </c>
+      <c r="U192" s="8">
+        <f t="shared" si="72"/>
+        <v>1285000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A193" s="9">
+        <v>45366</v>
+      </c>
+      <c r="B193" s="6">
+        <v>10</v>
+      </c>
+      <c r="C193" s="6">
+        <v>9082</v>
+      </c>
+      <c r="D193" s="6">
+        <v>29000</v>
+      </c>
+      <c r="E193" s="6">
+        <v>71000</v>
+      </c>
+      <c r="F193" s="6">
+        <f t="shared" si="82"/>
+        <v>908.2</v>
+      </c>
+      <c r="G193" s="6">
+        <f t="shared" si="83"/>
+        <v>2900</v>
+      </c>
+      <c r="H193" s="8">
+        <f t="shared" si="84"/>
+        <v>7100</v>
+      </c>
+      <c r="I193" s="6">
+        <v>10</v>
+      </c>
+      <c r="J193" s="6">
+        <v>265900</v>
+      </c>
+      <c r="K193" s="6">
+        <v>54348</v>
+      </c>
+      <c r="L193" s="6">
+        <v>10313</v>
+      </c>
+      <c r="M193" s="6">
+        <f t="shared" si="79"/>
+        <v>26590</v>
+      </c>
+      <c r="N193" s="6">
+        <f t="shared" si="80"/>
+        <v>5434.8</v>
+      </c>
+      <c r="O193" s="8">
+        <f t="shared" si="81"/>
+        <v>1031.3</v>
+      </c>
+      <c r="P193" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q193" s="6">
+        <v>48775</v>
+      </c>
+      <c r="R193" s="8">
+        <f t="shared" si="59"/>
+        <v>6967.8571428571431</v>
+      </c>
+      <c r="S193" s="6">
+        <v>2</v>
+      </c>
+      <c r="T193" s="6">
+        <v>8200000</v>
+      </c>
+      <c r="U193" s="8">
+        <f t="shared" si="72"/>
+        <v>4100000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A194" s="9">
+        <v>45367</v>
+      </c>
+      <c r="B194" s="6">
+        <v>9</v>
+      </c>
+      <c r="C194" s="6">
+        <v>9586</v>
+      </c>
+      <c r="D194" s="6">
+        <v>35400</v>
+      </c>
+      <c r="E194" s="6">
+        <v>86000</v>
+      </c>
+      <c r="F194" s="6">
+        <f t="shared" si="82"/>
+        <v>1065.1111111111111</v>
+      </c>
+      <c r="G194" s="6">
+        <f t="shared" si="83"/>
+        <v>3933.3333333333335</v>
+      </c>
+      <c r="H194" s="8">
+        <f t="shared" si="84"/>
+        <v>9555.5555555555547</v>
+      </c>
+      <c r="I194" s="6">
+        <v>9</v>
+      </c>
+      <c r="J194" s="6">
+        <v>117800</v>
+      </c>
+      <c r="K194" s="6">
+        <v>29659</v>
+      </c>
+      <c r="L194" s="6">
+        <v>10580</v>
+      </c>
+      <c r="M194" s="6">
+        <f t="shared" si="79"/>
+        <v>13088.888888888889</v>
+      </c>
+      <c r="N194" s="6">
+        <f t="shared" si="80"/>
+        <v>3295.4444444444443</v>
+      </c>
+      <c r="O194" s="8">
+        <f t="shared" si="81"/>
+        <v>1175.5555555555557</v>
+      </c>
+      <c r="P194" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q194" s="6">
+        <v>66700</v>
+      </c>
+      <c r="R194" s="8">
+        <f t="shared" si="59"/>
+        <v>8337.5</v>
+      </c>
+      <c r="S194" s="6">
+        <v>2</v>
+      </c>
+      <c r="T194" s="6">
+        <v>26500</v>
+      </c>
+      <c r="U194" s="8">
+        <f t="shared" si="72"/>
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A195" s="9">
+        <v>45368</v>
+      </c>
       <c r="B195" s="6"/>
       <c r="C195" s="28"/>
       <c r="D195" s="6"/>
@@ -14955,7 +15110,10 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A196" s="9">
+        <v>45369</v>
+      </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -14967,7 +15125,7 @@
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -14979,7 +15137,7 @@
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -14991,7 +15149,7 @@
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -15003,7 +15161,8 @@
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
@@ -15014,7 +15173,7 @@
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -15026,7 +15185,7 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -15038,7 +15197,7 @@
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
     </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -15050,8 +15209,7 @@
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
     </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B204" s="6"/>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -15062,7 +15220,7 @@
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
     </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -15074,7 +15232,7 @@
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
     </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -15086,7 +15244,7 @@
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
     </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -15098,7 +15256,7 @@
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -15187,6 +15345,7 @@
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
+      <c r="I215" s="6"/>
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
     </row>
@@ -15482,9 +15641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4418A-3538-4357-9158-8F79507C1D9F}">
   <dimension ref="A1:XET220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R198" sqref="R198"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -27312,15 +27471,15 @@
         <v>8422</v>
       </c>
       <c r="M162" s="6">
-        <f t="shared" ref="M162:M192" si="38">J162/I162</f>
+        <f t="shared" ref="M162:M194" si="38">J162/I162</f>
         <v>12650</v>
       </c>
       <c r="N162" s="6">
-        <f t="shared" ref="N162:N192" si="39">K162/I162</f>
+        <f t="shared" ref="N162:N194" si="39">K162/I162</f>
         <v>1410.8333333333333</v>
       </c>
       <c r="O162" s="8">
-        <f t="shared" ref="O162:O192" si="40">L162/I162</f>
+        <f t="shared" ref="O162:O194" si="40">L162/I162</f>
         <v>1403.6666666666667</v>
       </c>
       <c r="P162" s="6">
@@ -27693,7 +27852,7 @@
         <v>74697</v>
       </c>
       <c r="R167" s="8">
-        <f t="shared" ref="R167:R192" si="42">Q167/P167</f>
+        <f t="shared" ref="R167:R194" si="42">Q167/P167</f>
         <v>10671</v>
       </c>
       <c r="S167" s="6">
@@ -28576,7 +28735,7 @@
         <v>195200</v>
       </c>
       <c r="U179" s="8">
-        <f t="shared" ref="U179:U190" si="43">T179/S179</f>
+        <f t="shared" ref="U179:U194" si="43">T179/S179</f>
         <v>13942.857142857143</v>
       </c>
     </row>
@@ -29035,15 +29194,15 @@
         <v>39900</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" ref="F186:F192" si="44">C186/B186</f>
+        <f t="shared" ref="F186:F194" si="44">C186/B186</f>
         <v>802.5</v>
       </c>
       <c r="G186" s="6">
-        <f t="shared" ref="G186:G192" si="45">D186/B186</f>
+        <f t="shared" ref="G186:G194" si="45">D186/B186</f>
         <v>1642.9</v>
       </c>
       <c r="H186" s="8">
-        <f t="shared" ref="H186:H192" si="46">E186/B186</f>
+        <f t="shared" ref="H186:H194" si="46">E186/B186</f>
         <v>3990</v>
       </c>
       <c r="I186" s="6">
@@ -29445,6 +29604,16 @@
         <f t="shared" si="42"/>
         <v>7390.3846153846152</v>
       </c>
+      <c r="S191" s="6">
+        <v>4</v>
+      </c>
+      <c r="T191" s="6">
+        <v>407000</v>
+      </c>
+      <c r="U191" s="8">
+        <f t="shared" si="43"/>
+        <v>101750</v>
+      </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="9">
@@ -29508,32 +29677,167 @@
         <f t="shared" si="42"/>
         <v>5045.4444444444443</v>
       </c>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="6"/>
-      <c r="L193" s="6"/>
-      <c r="P193" s="6"/>
-      <c r="Q193" s="6"/>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
-      <c r="L194" s="6"/>
-      <c r="P194" s="6"/>
-      <c r="Q194" s="6"/>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S192" s="6">
+        <v>4</v>
+      </c>
+      <c r="T192" s="6">
+        <v>546800</v>
+      </c>
+      <c r="U192" s="8">
+        <f t="shared" si="43"/>
+        <v>136700</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A193" s="9">
+        <v>45366</v>
+      </c>
+      <c r="B193" s="6">
+        <v>7</v>
+      </c>
+      <c r="C193" s="6">
+        <v>3947</v>
+      </c>
+      <c r="D193" s="6">
+        <v>10951</v>
+      </c>
+      <c r="E193" s="6">
+        <v>27200</v>
+      </c>
+      <c r="F193" s="6">
+        <f t="shared" si="44"/>
+        <v>563.85714285714289</v>
+      </c>
+      <c r="G193" s="6">
+        <f t="shared" si="45"/>
+        <v>1564.4285714285713</v>
+      </c>
+      <c r="H193" s="8">
+        <f t="shared" si="46"/>
+        <v>3885.7142857142858</v>
+      </c>
+      <c r="I193" s="6">
+        <v>13</v>
+      </c>
+      <c r="J193" s="6">
+        <v>245300</v>
+      </c>
+      <c r="K193" s="6">
+        <v>13692</v>
+      </c>
+      <c r="L193" s="6">
+        <v>16844</v>
+      </c>
+      <c r="M193" s="6">
+        <f t="shared" si="38"/>
+        <v>18869.23076923077</v>
+      </c>
+      <c r="N193" s="6">
+        <f t="shared" si="39"/>
+        <v>1053.2307692307693</v>
+      </c>
+      <c r="O193" s="8">
+        <f t="shared" si="40"/>
+        <v>1295.6923076923076</v>
+      </c>
+      <c r="P193" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q193" s="6">
+        <v>43574</v>
+      </c>
+      <c r="R193" s="8">
+        <f t="shared" si="42"/>
+        <v>4841.5555555555557</v>
+      </c>
+      <c r="S193" s="6">
+        <v>3</v>
+      </c>
+      <c r="T193" s="6">
+        <v>111500</v>
+      </c>
+      <c r="U193" s="8">
+        <f t="shared" si="43"/>
+        <v>37166.666666666664</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A194" s="9">
+        <v>45367</v>
+      </c>
+      <c r="B194" s="6">
+        <v>7</v>
+      </c>
+      <c r="C194" s="6">
+        <v>4506</v>
+      </c>
+      <c r="D194" s="6">
+        <v>12100</v>
+      </c>
+      <c r="E194" s="6">
+        <v>28400</v>
+      </c>
+      <c r="F194" s="6">
+        <f t="shared" si="44"/>
+        <v>643.71428571428567</v>
+      </c>
+      <c r="G194" s="6">
+        <f t="shared" si="45"/>
+        <v>1728.5714285714287</v>
+      </c>
+      <c r="H194" s="8">
+        <f t="shared" si="46"/>
+        <v>4057.1428571428573</v>
+      </c>
+      <c r="I194" s="6">
+        <v>9</v>
+      </c>
+      <c r="J194" s="6">
+        <v>78200</v>
+      </c>
+      <c r="K194" s="6">
+        <v>5355</v>
+      </c>
+      <c r="L194" s="6">
+        <v>9672</v>
+      </c>
+      <c r="M194" s="6">
+        <f t="shared" si="38"/>
+        <v>8688.8888888888887</v>
+      </c>
+      <c r="N194" s="6">
+        <f t="shared" si="39"/>
+        <v>595</v>
+      </c>
+      <c r="O194" s="8">
+        <f t="shared" si="40"/>
+        <v>1074.6666666666667</v>
+      </c>
+      <c r="P194" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q194" s="6">
+        <v>29592</v>
+      </c>
+      <c r="R194" s="8">
+        <f t="shared" si="42"/>
+        <v>3288</v>
+      </c>
+      <c r="S194" s="6">
+        <v>5</v>
+      </c>
+      <c r="T194" s="6">
+        <v>246400</v>
+      </c>
+      <c r="U194" s="8">
+        <f t="shared" si="43"/>
+        <v>49280</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A195" s="9">
+        <v>45368</v>
+      </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -29545,7 +29849,10 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A196" s="9">
+        <v>45369</v>
+      </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -29557,7 +29864,7 @@
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -29569,7 +29876,7 @@
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -29581,7 +29888,7 @@
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -29593,7 +29900,7 @@
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -29605,7 +29912,7 @@
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -29617,8 +29924,7 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B202" s="6"/>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
@@ -29629,7 +29935,7 @@
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
     </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -29641,7 +29947,7 @@
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
     </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -29653,7 +29959,7 @@
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
     </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -29665,7 +29971,7 @@
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
     </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -29677,7 +29983,7 @@
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
     </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -29689,7 +29995,7 @@
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -29844,9 +30150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -31480,7 +31786,7 @@
         <v>8328</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:R66" si="9">Q23/P23</f>
+        <f t="shared" ref="R23:R68" si="9">Q23/P23</f>
         <v>1189.7142857142858</v>
       </c>
       <c r="S23" s="6">
@@ -33616,15 +33922,15 @@
         <v>1798</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" ref="M53:M66" si="20">J53/I53</f>
+        <f t="shared" ref="M53:M68" si="20">J53/I53</f>
         <v>5209.375</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" ref="N53:N66" si="21">K53/I53</f>
+        <f t="shared" ref="N53:N68" si="21">K53/I53</f>
         <v>1070.75</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" ref="O53:O66" si="22">L53/I53</f>
+        <f t="shared" ref="O53:O68" si="22">L53/I53</f>
         <v>224.75</v>
       </c>
       <c r="P53" s="6">
@@ -34320,15 +34626,15 @@
         <v>681</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" ref="F63:F66" si="27">C63/B63</f>
+        <f t="shared" ref="F63:F68" si="27">C63/B63</f>
         <v>40.142857142857146</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" ref="G63:G66" si="28">D63/B63</f>
+        <f t="shared" ref="G63:G68" si="28">D63/B63</f>
         <v>39.285714285714285</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" ref="H63:H66" si="29">E63/B63</f>
+        <f t="shared" ref="H63:H68" si="29">E63/B63</f>
         <v>97.285714285714292</v>
       </c>
       <c r="I63" s="6">
@@ -34372,7 +34678,7 @@
         <v>16721000</v>
       </c>
       <c r="U63" s="8">
-        <f t="shared" ref="U63:U64" si="30">T63/S63</f>
+        <f t="shared" ref="U63:U68" si="30">T63/S63</f>
         <v>1857888.888888889</v>
       </c>
     </row>
@@ -34449,7 +34755,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>45364</v>
       </c>
@@ -34511,8 +34817,18 @@
         <f t="shared" si="9"/>
         <v>688</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65" s="6">
+        <v>1</v>
+      </c>
+      <c r="T65" s="6">
+        <v>237000</v>
+      </c>
+      <c r="U65" s="8">
+        <f t="shared" si="30"/>
+        <v>237000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>45365</v>
       </c>
@@ -34574,32 +34890,167 @@
         <f t="shared" si="9"/>
         <v>1025</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66" s="6">
+        <v>5</v>
+      </c>
+      <c r="T66" s="6">
+        <v>1267000</v>
+      </c>
+      <c r="U66" s="8">
+        <f t="shared" si="30"/>
+        <v>253400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>45366</v>
+      </c>
+      <c r="B67" s="6">
+        <v>5</v>
+      </c>
+      <c r="C67" s="6">
+        <v>303</v>
+      </c>
+      <c r="D67" s="6">
+        <v>207</v>
+      </c>
+      <c r="E67" s="6">
+        <v>458</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="27"/>
+        <v>60.6</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="28"/>
+        <v>41.4</v>
+      </c>
+      <c r="H67" s="8">
+        <f t="shared" si="29"/>
+        <v>91.6</v>
+      </c>
+      <c r="I67" s="6">
+        <v>9</v>
+      </c>
+      <c r="J67" s="6">
+        <v>15567</v>
+      </c>
+      <c r="K67" s="6">
+        <v>3946</v>
+      </c>
+      <c r="L67" s="6">
+        <v>1162</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" si="20"/>
+        <v>1729.6666666666667</v>
+      </c>
+      <c r="N67" s="6">
+        <f t="shared" si="21"/>
+        <v>438.44444444444446</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" si="22"/>
+        <v>129.11111111111111</v>
+      </c>
+      <c r="P67" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>5949</v>
+      </c>
+      <c r="R67" s="8">
+        <f t="shared" si="9"/>
+        <v>849.85714285714289</v>
+      </c>
+      <c r="S67" s="6">
+        <v>2</v>
+      </c>
+      <c r="T67" s="6">
+        <v>819000</v>
+      </c>
+      <c r="U67" s="8">
+        <f t="shared" si="30"/>
+        <v>409500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>45367</v>
+      </c>
+      <c r="B68" s="6">
+        <v>5</v>
+      </c>
+      <c r="C68" s="6">
+        <v>227</v>
+      </c>
+      <c r="D68" s="6">
+        <v>191</v>
+      </c>
+      <c r="E68" s="6">
+        <v>436</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="27"/>
+        <v>45.4</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="28"/>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H68" s="8">
+        <f t="shared" si="29"/>
+        <v>87.2</v>
+      </c>
+      <c r="I68" s="6">
+        <v>7</v>
+      </c>
+      <c r="J68" s="6">
+        <v>9573</v>
+      </c>
+      <c r="K68" s="6">
+        <v>2335</v>
+      </c>
+      <c r="L68" s="6">
+        <v>1152</v>
+      </c>
+      <c r="M68" s="6">
+        <f t="shared" si="20"/>
+        <v>1367.5714285714287</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="21"/>
+        <v>333.57142857142856</v>
+      </c>
+      <c r="O68" s="8">
+        <f t="shared" si="22"/>
+        <v>164.57142857142858</v>
+      </c>
+      <c r="P68" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>4955</v>
+      </c>
+      <c r="R68" s="8">
+        <f t="shared" si="9"/>
+        <v>707.85714285714289</v>
+      </c>
+      <c r="S68" s="6">
+        <v>8</v>
+      </c>
+      <c r="T68" s="6">
+        <v>4521000</v>
+      </c>
+      <c r="U68" s="8">
+        <f t="shared" si="30"/>
+        <v>565125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>45368</v>
+      </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -34611,7 +35062,10 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>45369</v>
+      </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -34623,7 +35077,7 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -34635,7 +35089,7 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -34647,7 +35101,7 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -34659,8 +35113,7 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B74" s="6"/>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -34671,17 +35124,19 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
+      <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -34693,7 +35148,7 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -34705,7 +35160,7 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -34717,7 +35172,7 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -34729,7 +35184,7 @@
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -34968,6 +35423,485 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346A044C-6F3E-436F-84AC-DB98BA731517}">
+  <dimension ref="A2:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>919</v>
+      </c>
+      <c r="C3">
+        <v>681403</v>
+      </c>
+      <c r="D3">
+        <v>1230276</v>
+      </c>
+      <c r="E3">
+        <v>3481884</v>
+      </c>
+      <c r="F3">
+        <v>1248</v>
+      </c>
+      <c r="G3">
+        <v>7505763</v>
+      </c>
+      <c r="H3">
+        <v>931280</v>
+      </c>
+      <c r="I3">
+        <v>707847</v>
+      </c>
+      <c r="J3">
+        <v>923</v>
+      </c>
+      <c r="K3">
+        <v>4848438</v>
+      </c>
+      <c r="L3">
+        <v>349</v>
+      </c>
+      <c r="M3">
+        <v>10688244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>510</v>
+      </c>
+      <c r="D4">
+        <v>1500</v>
+      </c>
+      <c r="E4">
+        <v>4100</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>9500</v>
+      </c>
+      <c r="I4">
+        <v>1279</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>13151</v>
+      </c>
+      <c r="D5">
+        <v>25456</v>
+      </c>
+      <c r="E5">
+        <v>81468</v>
+      </c>
+      <c r="G5">
+        <v>187100</v>
+      </c>
+      <c r="H5">
+        <v>24800</v>
+      </c>
+      <c r="I5">
+        <v>25926</v>
+      </c>
+      <c r="K5">
+        <v>161665</v>
+      </c>
+      <c r="M5">
+        <v>847671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>4635.3945578231296</v>
+      </c>
+      <c r="D6">
+        <v>8369.224489795919</v>
+      </c>
+      <c r="E6">
+        <v>23686.285714285714</v>
+      </c>
+      <c r="G6">
+        <v>51059.612244897959</v>
+      </c>
+      <c r="H6">
+        <v>6335.2380952380954</v>
+      </c>
+      <c r="I6">
+        <v>4815.2857142857147</v>
+      </c>
+      <c r="K6">
+        <v>32982.571428571428</v>
+      </c>
+      <c r="M6">
+        <v>72709.142857142855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>3917</v>
+      </c>
+      <c r="D7">
+        <v>7700</v>
+      </c>
+      <c r="E7">
+        <v>22100</v>
+      </c>
+      <c r="G7">
+        <v>38400</v>
+      </c>
+      <c r="H7">
+        <v>5474</v>
+      </c>
+      <c r="I7">
+        <v>4422</v>
+      </c>
+      <c r="K7">
+        <v>28016</v>
+      </c>
+      <c r="M7">
+        <v>18395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>2623.895375038468</v>
+      </c>
+      <c r="D8">
+        <v>3842.9305202547876</v>
+      </c>
+      <c r="E8">
+        <v>11596.721585614037</v>
+      </c>
+      <c r="G8">
+        <v>37255.368355915067</v>
+      </c>
+      <c r="H8">
+        <v>4025.0868370337184</v>
+      </c>
+      <c r="I8">
+        <v>2682.5965238158797</v>
+      </c>
+      <c r="K8">
+        <v>22670.2202970123</v>
+      </c>
+      <c r="M8">
+        <v>131648.55887015644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>681403</v>
+      </c>
+      <c r="C12">
+        <v>510</v>
+      </c>
+      <c r="D12">
+        <v>13151</v>
+      </c>
+      <c r="E12">
+        <v>4635.3945578231296</v>
+      </c>
+      <c r="F12">
+        <v>3917</v>
+      </c>
+      <c r="G12">
+        <v>2623.895375038468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>1230276</v>
+      </c>
+      <c r="C13">
+        <v>1500</v>
+      </c>
+      <c r="D13">
+        <v>25456</v>
+      </c>
+      <c r="E13">
+        <v>8369.224489795919</v>
+      </c>
+      <c r="F13">
+        <v>7700</v>
+      </c>
+      <c r="G13">
+        <v>3842.9305202547876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3481884</v>
+      </c>
+      <c r="C14">
+        <v>4100</v>
+      </c>
+      <c r="D14">
+        <v>81468</v>
+      </c>
+      <c r="E14">
+        <v>23686.285714285714</v>
+      </c>
+      <c r="F14">
+        <v>22100</v>
+      </c>
+      <c r="G14">
+        <v>11596.721585614037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>7505763</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>187100</v>
+      </c>
+      <c r="E16">
+        <v>51059.612244897959</v>
+      </c>
+      <c r="F16">
+        <v>38400</v>
+      </c>
+      <c r="G16">
+        <v>37255.368355915067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>931280</v>
+      </c>
+      <c r="C17">
+        <v>9500</v>
+      </c>
+      <c r="D17">
+        <v>24800</v>
+      </c>
+      <c r="E17">
+        <v>6335.2380952380954</v>
+      </c>
+      <c r="F17">
+        <v>5474</v>
+      </c>
+      <c r="G17">
+        <v>4025.0868370337184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>707847</v>
+      </c>
+      <c r="C18">
+        <v>1279</v>
+      </c>
+      <c r="D18">
+        <v>25926</v>
+      </c>
+      <c r="E18">
+        <v>4815.2857142857147</v>
+      </c>
+      <c r="F18">
+        <v>4422</v>
+      </c>
+      <c r="G18">
+        <v>2682.5965238158797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>4848438</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>161665</v>
+      </c>
+      <c r="E20">
+        <v>32982.571428571428</v>
+      </c>
+      <c r="F20">
+        <v>28016</v>
+      </c>
+      <c r="G20">
+        <v>22670.2202970123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>10688244</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>847671</v>
+      </c>
+      <c r="E22">
+        <v>72709.142857142855</v>
+      </c>
+      <c r="F22">
+        <v>18395</v>
+      </c>
+      <c r="G22">
+        <v>131648.55887015644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AAE58A-8A5A-4C93-AE14-DE5004288388}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -35026,7 +35960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
   <dimension ref="A1:T42"/>
   <sheetViews>
@@ -36695,7 +37629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC47CE33-EEC3-446C-940D-05592E4B50CB}">
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -37007,7 +37941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6748DF8D-1E96-42F5-BE18-DD686141E658}">
   <dimension ref="B2:M9"/>
   <sheetViews>

--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AC85F-25B3-4C4C-8821-C068DAE75C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B983CA6F-D5CA-46BD-81AB-EE30E709010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" activeTab="2" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="12567" yWindow="0" windowWidth="12568" windowHeight="13523" tabRatio="819" activeTab="2" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
     <sheet name="Claudia" sheetId="18" r:id="rId2"/>
     <sheet name="Maynez" sheetId="21" r:id="rId3"/>
-    <sheet name="Describe" sheetId="24" r:id="rId4"/>
-    <sheet name="Accounts" sheetId="6" r:id="rId5"/>
-    <sheet name="Polls" sheetId="20" r:id="rId6"/>
-    <sheet name="Vida Post" sheetId="22" r:id="rId7"/>
-    <sheet name="Results" sheetId="23" r:id="rId8"/>
+    <sheet name="Accounts" sheetId="6" r:id="rId4"/>
+    <sheet name="Polls" sheetId="20" r:id="rId5"/>
+    <sheet name="Vida Post" sheetId="22" r:id="rId6"/>
+    <sheet name="Results" sheetId="23" r:id="rId7"/>
+    <sheet name="Describe" sheetId="24" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -474,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -537,9 +537,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,7 +875,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -904,34 +901,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21 16252:16375" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="29" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="31"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21 16252:16375" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -11372,7 +11369,7 @@
         <v>20269</v>
       </c>
       <c r="R143" s="8">
-        <f t="shared" ref="R143:R194" si="59">Q143/P143</f>
+        <f t="shared" ref="R143:R196" si="59">Q143/P143</f>
         <v>6756.333333333333</v>
       </c>
       <c r="S143" s="6">
@@ -14260,15 +14257,15 @@
         <v>11059</v>
       </c>
       <c r="M183" s="6">
-        <f t="shared" ref="M183:M194" si="79">J183/I183</f>
+        <f t="shared" ref="M183:M196" si="79">J183/I183</f>
         <v>22150</v>
       </c>
       <c r="N183" s="6">
-        <f t="shared" ref="N183:N194" si="80">K183/I183</f>
+        <f t="shared" ref="N183:N196" si="80">K183/I183</f>
         <v>5078.625</v>
       </c>
       <c r="O183" s="8">
-        <f t="shared" ref="O183:O194" si="81">L183/I183</f>
+        <f t="shared" ref="O183:O196" si="81">L183/I183</f>
         <v>1382.375</v>
       </c>
       <c r="P183" s="6">
@@ -14820,15 +14817,15 @@
         <v>47600</v>
       </c>
       <c r="F191" s="6">
-        <f t="shared" ref="F191:F194" si="82">C191/B191</f>
+        <f t="shared" ref="F191:F196" si="82">C191/B191</f>
         <v>781.25</v>
       </c>
       <c r="G191" s="6">
-        <f t="shared" ref="G191:G194" si="83">D191/B191</f>
+        <f t="shared" ref="G191:G196" si="83">D191/B191</f>
         <v>2612.5</v>
       </c>
       <c r="H191" s="8">
-        <f t="shared" ref="H191:H194" si="84">E191/B191</f>
+        <f t="shared" ref="H191:H196" si="84">E191/B191</f>
         <v>5950</v>
       </c>
       <c r="I191" s="6">
@@ -15099,31 +15096,127 @@
       <c r="A195" s="9">
         <v>45368</v>
       </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="28"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
-      <c r="L195" s="6"/>
-      <c r="P195" s="6"/>
-      <c r="Q195" s="6"/>
+      <c r="B195" s="6">
+        <v>9</v>
+      </c>
+      <c r="C195" s="6">
+        <v>7655</v>
+      </c>
+      <c r="D195" s="6">
+        <v>27700</v>
+      </c>
+      <c r="E195" s="6">
+        <v>75700</v>
+      </c>
+      <c r="F195" s="6">
+        <f t="shared" si="82"/>
+        <v>850.55555555555554</v>
+      </c>
+      <c r="G195" s="6">
+        <f t="shared" si="83"/>
+        <v>3077.7777777777778</v>
+      </c>
+      <c r="H195" s="8">
+        <f t="shared" si="84"/>
+        <v>8411.1111111111113</v>
+      </c>
+      <c r="I195" s="6">
+        <v>10</v>
+      </c>
+      <c r="J195" s="6">
+        <v>256200</v>
+      </c>
+      <c r="K195" s="6">
+        <v>81986</v>
+      </c>
+      <c r="L195" s="6">
+        <v>14503</v>
+      </c>
+      <c r="M195" s="6">
+        <f t="shared" si="79"/>
+        <v>25620</v>
+      </c>
+      <c r="N195" s="6">
+        <f t="shared" si="80"/>
+        <v>8198.6</v>
+      </c>
+      <c r="O195" s="8">
+        <f t="shared" si="81"/>
+        <v>1450.3</v>
+      </c>
+      <c r="P195" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q195" s="6">
+        <v>113729</v>
+      </c>
+      <c r="R195" s="8">
+        <f t="shared" si="59"/>
+        <v>14216.125</v>
+      </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="9">
         <v>45369</v>
       </c>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
-      <c r="L196" s="6"/>
-      <c r="P196" s="6"/>
-      <c r="Q196" s="6"/>
+      <c r="B196" s="6">
+        <v>13</v>
+      </c>
+      <c r="C196" s="6">
+        <v>11618</v>
+      </c>
+      <c r="D196" s="6">
+        <v>37758</v>
+      </c>
+      <c r="E196" s="6">
+        <v>90600</v>
+      </c>
+      <c r="F196" s="6">
+        <f t="shared" si="82"/>
+        <v>893.69230769230774</v>
+      </c>
+      <c r="G196" s="6">
+        <f t="shared" si="83"/>
+        <v>2904.4615384615386</v>
+      </c>
+      <c r="H196" s="8">
+        <f t="shared" si="84"/>
+        <v>6969.2307692307695</v>
+      </c>
+      <c r="I196" s="6">
+        <v>12</v>
+      </c>
+      <c r="J196" s="6">
+        <v>343200</v>
+      </c>
+      <c r="K196" s="6">
+        <v>76724</v>
+      </c>
+      <c r="L196" s="6">
+        <v>16974</v>
+      </c>
+      <c r="M196" s="6">
+        <f t="shared" si="79"/>
+        <v>28600</v>
+      </c>
+      <c r="N196" s="6">
+        <f t="shared" si="80"/>
+        <v>6393.666666666667</v>
+      </c>
+      <c r="O196" s="8">
+        <f t="shared" si="81"/>
+        <v>1414.5</v>
+      </c>
+      <c r="P196" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q196" s="6">
+        <v>41233</v>
+      </c>
+      <c r="R196" s="8">
+        <f t="shared" si="59"/>
+        <v>5890.4285714285716</v>
+      </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B197" s="6"/>
@@ -15210,6 +15303,7 @@
       <c r="Q203" s="6"/>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -15346,6 +15440,9 @@
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
     </row>
@@ -15354,6 +15451,10 @@
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
     </row>
@@ -15362,6 +15463,10 @@
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
       <c r="P217" s="6"/>
       <c r="Q217" s="6"/>
     </row>
@@ -15370,6 +15475,10 @@
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
     </row>
@@ -15378,6 +15487,10 @@
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
     </row>
@@ -15386,6 +15499,7 @@
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
+      <c r="I220" s="6"/>
       <c r="P220" s="6"/>
     </row>
     <row r="221" spans="2:17" x14ac:dyDescent="0.3">
@@ -15639,11 +15753,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4418A-3538-4357-9158-8F79507C1D9F}">
-  <dimension ref="A1:XET220"/>
+  <dimension ref="A1:XET225"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T208" sqref="T208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -15666,34 +15780,34 @@
   <sheetData>
     <row r="1" spans="1:21 16251:16374" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="29" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="31"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21 16251:16374" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -27471,15 +27585,15 @@
         <v>8422</v>
       </c>
       <c r="M162" s="6">
-        <f t="shared" ref="M162:M194" si="38">J162/I162</f>
+        <f t="shared" ref="M162:M196" si="38">J162/I162</f>
         <v>12650</v>
       </c>
       <c r="N162" s="6">
-        <f t="shared" ref="N162:N194" si="39">K162/I162</f>
+        <f t="shared" ref="N162:N196" si="39">K162/I162</f>
         <v>1410.8333333333333</v>
       </c>
       <c r="O162" s="8">
-        <f t="shared" ref="O162:O194" si="40">L162/I162</f>
+        <f t="shared" ref="O162:O196" si="40">L162/I162</f>
         <v>1403.6666666666667</v>
       </c>
       <c r="P162" s="6">
@@ -27852,7 +27966,7 @@
         <v>74697</v>
       </c>
       <c r="R167" s="8">
-        <f t="shared" ref="R167:R194" si="42">Q167/P167</f>
+        <f t="shared" ref="R167:R196" si="42">Q167/P167</f>
         <v>10671</v>
       </c>
       <c r="S167" s="6">
@@ -29194,15 +29308,15 @@
         <v>39900</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" ref="F186:F194" si="44">C186/B186</f>
+        <f t="shared" ref="F186:F196" si="44">C186/B186</f>
         <v>802.5</v>
       </c>
       <c r="G186" s="6">
-        <f t="shared" ref="G186:G194" si="45">D186/B186</f>
+        <f t="shared" ref="G186:G196" si="45">D186/B186</f>
         <v>1642.9</v>
       </c>
       <c r="H186" s="8">
-        <f t="shared" ref="H186:H194" si="46">E186/B186</f>
+        <f t="shared" ref="H186:H196" si="46">E186/B186</f>
         <v>3990</v>
       </c>
       <c r="I186" s="6">
@@ -29838,31 +29952,127 @@
       <c r="A195" s="9">
         <v>45368</v>
       </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
-      <c r="L195" s="6"/>
-      <c r="P195" s="6"/>
-      <c r="Q195" s="6"/>
+      <c r="B195" s="6">
+        <v>8</v>
+      </c>
+      <c r="C195" s="6">
+        <v>7075</v>
+      </c>
+      <c r="D195" s="6">
+        <v>16100</v>
+      </c>
+      <c r="E195" s="6">
+        <v>43900</v>
+      </c>
+      <c r="F195" s="6">
+        <f t="shared" si="44"/>
+        <v>884.375</v>
+      </c>
+      <c r="G195" s="6">
+        <f t="shared" si="45"/>
+        <v>2012.5</v>
+      </c>
+      <c r="H195" s="8">
+        <f t="shared" si="46"/>
+        <v>5487.5</v>
+      </c>
+      <c r="I195" s="6">
+        <v>7</v>
+      </c>
+      <c r="J195" s="6">
+        <v>152000</v>
+      </c>
+      <c r="K195" s="6">
+        <v>10232</v>
+      </c>
+      <c r="L195" s="6">
+        <v>12499</v>
+      </c>
+      <c r="M195" s="6">
+        <f t="shared" si="38"/>
+        <v>21714.285714285714</v>
+      </c>
+      <c r="N195" s="6">
+        <f t="shared" si="39"/>
+        <v>1461.7142857142858</v>
+      </c>
+      <c r="O195" s="8">
+        <f t="shared" si="40"/>
+        <v>1785.5714285714287</v>
+      </c>
+      <c r="P195" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q195" s="6">
+        <v>111801</v>
+      </c>
+      <c r="R195" s="8">
+        <f t="shared" si="42"/>
+        <v>6211.166666666667</v>
+      </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="9">
         <v>45369</v>
       </c>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
-      <c r="L196" s="6"/>
-      <c r="P196" s="6"/>
-      <c r="Q196" s="6"/>
+      <c r="B196" s="6">
+        <v>8</v>
+      </c>
+      <c r="C196" s="6">
+        <v>4469</v>
+      </c>
+      <c r="D196" s="6">
+        <v>11434</v>
+      </c>
+      <c r="E196" s="6">
+        <v>29700</v>
+      </c>
+      <c r="F196" s="6">
+        <f t="shared" si="44"/>
+        <v>558.625</v>
+      </c>
+      <c r="G196" s="6">
+        <f t="shared" si="45"/>
+        <v>1429.25</v>
+      </c>
+      <c r="H196" s="8">
+        <f t="shared" si="46"/>
+        <v>3712.5</v>
+      </c>
+      <c r="I196" s="6">
+        <v>11</v>
+      </c>
+      <c r="J196" s="6">
+        <v>79000</v>
+      </c>
+      <c r="K196" s="6">
+        <v>6379</v>
+      </c>
+      <c r="L196" s="6">
+        <v>8512</v>
+      </c>
+      <c r="M196" s="6">
+        <f t="shared" si="38"/>
+        <v>7181.818181818182</v>
+      </c>
+      <c r="N196" s="6">
+        <f t="shared" si="39"/>
+        <v>579.90909090909088</v>
+      </c>
+      <c r="O196" s="8">
+        <f t="shared" si="40"/>
+        <v>773.81818181818187</v>
+      </c>
+      <c r="P196" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q196" s="6">
+        <v>51182</v>
+      </c>
+      <c r="R196" s="8">
+        <f t="shared" si="42"/>
+        <v>5686.8888888888887</v>
+      </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B197" s="6"/>
@@ -29925,6 +30135,7 @@
       <c r="Q201" s="6"/>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
@@ -30101,6 +30312,7 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
     </row>
     <row r="217" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B217" s="6"/>
@@ -30111,6 +30323,8 @@
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
     </row>
     <row r="218" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B218" s="6"/>
@@ -30121,6 +30335,8 @@
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
     </row>
     <row r="219" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B219" s="6"/>
@@ -30131,9 +30347,32 @@
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+    </row>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+    </row>
+    <row r="223" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+    </row>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+    </row>
+    <row r="225" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P225" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -30152,7 +30391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -30179,34 +30418,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="29" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="31"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -31786,7 +32025,7 @@
         <v>8328</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:R68" si="9">Q23/P23</f>
+        <f t="shared" ref="R23:R70" si="9">Q23/P23</f>
         <v>1189.7142857142858</v>
       </c>
       <c r="S23" s="6">
@@ -33922,15 +34161,15 @@
         <v>1798</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" ref="M53:M68" si="20">J53/I53</f>
+        <f t="shared" ref="M53:M70" si="20">J53/I53</f>
         <v>5209.375</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" ref="N53:N68" si="21">K53/I53</f>
+        <f t="shared" ref="N53:N70" si="21">K53/I53</f>
         <v>1070.75</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" ref="O53:O68" si="22">L53/I53</f>
+        <f t="shared" ref="O53:O70" si="22">L53/I53</f>
         <v>224.75</v>
       </c>
       <c r="P53" s="6">
@@ -34626,15 +34865,15 @@
         <v>681</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" ref="F63:F68" si="27">C63/B63</f>
+        <f t="shared" ref="F63:F70" si="27">C63/B63</f>
         <v>40.142857142857146</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" ref="G63:G68" si="28">D63/B63</f>
+        <f t="shared" ref="G63:G70" si="28">D63/B63</f>
         <v>39.285714285714285</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" ref="H63:H68" si="29">E63/B63</f>
+        <f t="shared" ref="H63:H70" si="29">E63/B63</f>
         <v>97.285714285714292</v>
       </c>
       <c r="I63" s="6">
@@ -35051,31 +35290,127 @@
       <c r="A69" s="9">
         <v>45368</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
+      <c r="B69" s="6">
+        <v>9</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1490</v>
+      </c>
+      <c r="D69" s="6">
+        <v>471</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1501</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="27"/>
+        <v>165.55555555555554</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="28"/>
+        <v>52.333333333333336</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" si="29"/>
+        <v>166.77777777777777</v>
+      </c>
+      <c r="I69" s="6">
+        <v>11</v>
+      </c>
+      <c r="J69" s="6">
+        <v>22003</v>
+      </c>
+      <c r="K69" s="6">
+        <v>2973</v>
+      </c>
+      <c r="L69" s="6">
+        <v>1390</v>
+      </c>
+      <c r="M69" s="6">
+        <f t="shared" si="20"/>
+        <v>2000.2727272727273</v>
+      </c>
+      <c r="N69" s="6">
+        <f t="shared" si="21"/>
+        <v>270.27272727272725</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" si="22"/>
+        <v>126.36363636363636</v>
+      </c>
+      <c r="P69" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>9174</v>
+      </c>
+      <c r="R69" s="8">
+        <f t="shared" si="9"/>
+        <v>1529</v>
+      </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>45369</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
+      <c r="B70" s="6">
+        <v>8</v>
+      </c>
+      <c r="C70" s="6">
+        <v>323</v>
+      </c>
+      <c r="D70" s="6">
+        <v>426</v>
+      </c>
+      <c r="E70" s="6">
+        <v>821</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="27"/>
+        <v>40.375</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="28"/>
+        <v>53.25</v>
+      </c>
+      <c r="H70" s="8">
+        <f t="shared" si="29"/>
+        <v>102.625</v>
+      </c>
+      <c r="I70" s="6">
+        <v>11</v>
+      </c>
+      <c r="J70" s="6">
+        <v>23471</v>
+      </c>
+      <c r="K70" s="6">
+        <v>5692</v>
+      </c>
+      <c r="L70" s="6">
+        <v>1317</v>
+      </c>
+      <c r="M70" s="6">
+        <f t="shared" si="20"/>
+        <v>2133.7272727272725</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="21"/>
+        <v>517.4545454545455</v>
+      </c>
+      <c r="O70" s="8">
+        <f t="shared" si="22"/>
+        <v>119.72727272727273</v>
+      </c>
+      <c r="P70" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>15345</v>
+      </c>
+      <c r="R70" s="8">
+        <f t="shared" si="9"/>
+        <v>3069</v>
+      </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
@@ -35114,6 +35449,7 @@
       <c r="Q73" s="6"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -35311,6 +35647,9 @@
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I92" s="6"/>
@@ -35423,485 +35762,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346A044C-6F3E-436F-84AC-DB98BA731517}">
-  <dimension ref="A2:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3">
-        <v>919</v>
-      </c>
-      <c r="C3">
-        <v>681403</v>
-      </c>
-      <c r="D3">
-        <v>1230276</v>
-      </c>
-      <c r="E3">
-        <v>3481884</v>
-      </c>
-      <c r="F3">
-        <v>1248</v>
-      </c>
-      <c r="G3">
-        <v>7505763</v>
-      </c>
-      <c r="H3">
-        <v>931280</v>
-      </c>
-      <c r="I3">
-        <v>707847</v>
-      </c>
-      <c r="J3">
-        <v>923</v>
-      </c>
-      <c r="K3">
-        <v>4848438</v>
-      </c>
-      <c r="L3">
-        <v>349</v>
-      </c>
-      <c r="M3">
-        <v>10688244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <v>510</v>
-      </c>
-      <c r="D4">
-        <v>1500</v>
-      </c>
-      <c r="E4">
-        <v>4100</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>9500</v>
-      </c>
-      <c r="I4">
-        <v>1279</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>13151</v>
-      </c>
-      <c r="D5">
-        <v>25456</v>
-      </c>
-      <c r="E5">
-        <v>81468</v>
-      </c>
-      <c r="G5">
-        <v>187100</v>
-      </c>
-      <c r="H5">
-        <v>24800</v>
-      </c>
-      <c r="I5">
-        <v>25926</v>
-      </c>
-      <c r="K5">
-        <v>161665</v>
-      </c>
-      <c r="M5">
-        <v>847671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6">
-        <v>4635.3945578231296</v>
-      </c>
-      <c r="D6">
-        <v>8369.224489795919</v>
-      </c>
-      <c r="E6">
-        <v>23686.285714285714</v>
-      </c>
-      <c r="G6">
-        <v>51059.612244897959</v>
-      </c>
-      <c r="H6">
-        <v>6335.2380952380954</v>
-      </c>
-      <c r="I6">
-        <v>4815.2857142857147</v>
-      </c>
-      <c r="K6">
-        <v>32982.571428571428</v>
-      </c>
-      <c r="M6">
-        <v>72709.142857142855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>3917</v>
-      </c>
-      <c r="D7">
-        <v>7700</v>
-      </c>
-      <c r="E7">
-        <v>22100</v>
-      </c>
-      <c r="G7">
-        <v>38400</v>
-      </c>
-      <c r="H7">
-        <v>5474</v>
-      </c>
-      <c r="I7">
-        <v>4422</v>
-      </c>
-      <c r="K7">
-        <v>28016</v>
-      </c>
-      <c r="M7">
-        <v>18395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8">
-        <v>2623.895375038468</v>
-      </c>
-      <c r="D8">
-        <v>3842.9305202547876</v>
-      </c>
-      <c r="E8">
-        <v>11596.721585614037</v>
-      </c>
-      <c r="G8">
-        <v>37255.368355915067</v>
-      </c>
-      <c r="H8">
-        <v>4025.0868370337184</v>
-      </c>
-      <c r="I8">
-        <v>2682.5965238158797</v>
-      </c>
-      <c r="K8">
-        <v>22670.2202970123</v>
-      </c>
-      <c r="M8">
-        <v>131648.55887015644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>681403</v>
-      </c>
-      <c r="C12">
-        <v>510</v>
-      </c>
-      <c r="D12">
-        <v>13151</v>
-      </c>
-      <c r="E12">
-        <v>4635.3945578231296</v>
-      </c>
-      <c r="F12">
-        <v>3917</v>
-      </c>
-      <c r="G12">
-        <v>2623.895375038468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>1230276</v>
-      </c>
-      <c r="C13">
-        <v>1500</v>
-      </c>
-      <c r="D13">
-        <v>25456</v>
-      </c>
-      <c r="E13">
-        <v>8369.224489795919</v>
-      </c>
-      <c r="F13">
-        <v>7700</v>
-      </c>
-      <c r="G13">
-        <v>3842.9305202547876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3481884</v>
-      </c>
-      <c r="C14">
-        <v>4100</v>
-      </c>
-      <c r="D14">
-        <v>81468</v>
-      </c>
-      <c r="E14">
-        <v>23686.285714285714</v>
-      </c>
-      <c r="F14">
-        <v>22100</v>
-      </c>
-      <c r="G14">
-        <v>11596.721585614037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16">
-        <v>7505763</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>187100</v>
-      </c>
-      <c r="E16">
-        <v>51059.612244897959</v>
-      </c>
-      <c r="F16">
-        <v>38400</v>
-      </c>
-      <c r="G16">
-        <v>37255.368355915067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>931280</v>
-      </c>
-      <c r="C17">
-        <v>9500</v>
-      </c>
-      <c r="D17">
-        <v>24800</v>
-      </c>
-      <c r="E17">
-        <v>6335.2380952380954</v>
-      </c>
-      <c r="F17">
-        <v>5474</v>
-      </c>
-      <c r="G17">
-        <v>4025.0868370337184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>707847</v>
-      </c>
-      <c r="C18">
-        <v>1279</v>
-      </c>
-      <c r="D18">
-        <v>25926</v>
-      </c>
-      <c r="E18">
-        <v>4815.2857142857147</v>
-      </c>
-      <c r="F18">
-        <v>4422</v>
-      </c>
-      <c r="G18">
-        <v>2682.5965238158797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>4848438</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>161665</v>
-      </c>
-      <c r="E20">
-        <v>32982.571428571428</v>
-      </c>
-      <c r="F20">
-        <v>28016</v>
-      </c>
-      <c r="G20">
-        <v>22670.2202970123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>10688244</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>847671</v>
-      </c>
-      <c r="E22">
-        <v>72709.142857142855</v>
-      </c>
-      <c r="F22">
-        <v>18395</v>
-      </c>
-      <c r="G22">
-        <v>131648.55887015644</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AAE58A-8A5A-4C93-AE14-DE5004288388}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -35960,7 +35820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
   <dimension ref="A1:T42"/>
   <sheetViews>
@@ -37629,7 +37489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC47CE33-EEC3-446C-940D-05592E4B50CB}">
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -37640,24 +37500,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="K1" s="32" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -37941,7 +37801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6748DF8D-1E96-42F5-BE18-DD686141E658}">
   <dimension ref="B2:M9"/>
   <sheetViews>
@@ -38063,4 +37923,483 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346A044C-6F3E-436F-84AC-DB98BA731517}">
+  <dimension ref="A2:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>919</v>
+      </c>
+      <c r="C3">
+        <v>681403</v>
+      </c>
+      <c r="D3">
+        <v>1230276</v>
+      </c>
+      <c r="E3">
+        <v>3481884</v>
+      </c>
+      <c r="F3">
+        <v>1248</v>
+      </c>
+      <c r="G3">
+        <v>7505763</v>
+      </c>
+      <c r="H3">
+        <v>931280</v>
+      </c>
+      <c r="I3">
+        <v>707847</v>
+      </c>
+      <c r="J3">
+        <v>923</v>
+      </c>
+      <c r="K3">
+        <v>4848438</v>
+      </c>
+      <c r="L3">
+        <v>349</v>
+      </c>
+      <c r="M3">
+        <v>10688244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>510</v>
+      </c>
+      <c r="D4">
+        <v>1500</v>
+      </c>
+      <c r="E4">
+        <v>4100</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>9500</v>
+      </c>
+      <c r="I4">
+        <v>1279</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>13151</v>
+      </c>
+      <c r="D5">
+        <v>25456</v>
+      </c>
+      <c r="E5">
+        <v>81468</v>
+      </c>
+      <c r="G5">
+        <v>187100</v>
+      </c>
+      <c r="H5">
+        <v>24800</v>
+      </c>
+      <c r="I5">
+        <v>25926</v>
+      </c>
+      <c r="K5">
+        <v>161665</v>
+      </c>
+      <c r="M5">
+        <v>847671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>4635.3945578231296</v>
+      </c>
+      <c r="D6">
+        <v>8369.224489795919</v>
+      </c>
+      <c r="E6">
+        <v>23686.285714285714</v>
+      </c>
+      <c r="G6">
+        <v>51059.612244897959</v>
+      </c>
+      <c r="H6">
+        <v>6335.2380952380954</v>
+      </c>
+      <c r="I6">
+        <v>4815.2857142857147</v>
+      </c>
+      <c r="K6">
+        <v>32982.571428571428</v>
+      </c>
+      <c r="M6">
+        <v>72709.142857142855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>3917</v>
+      </c>
+      <c r="D7">
+        <v>7700</v>
+      </c>
+      <c r="E7">
+        <v>22100</v>
+      </c>
+      <c r="G7">
+        <v>38400</v>
+      </c>
+      <c r="H7">
+        <v>5474</v>
+      </c>
+      <c r="I7">
+        <v>4422</v>
+      </c>
+      <c r="K7">
+        <v>28016</v>
+      </c>
+      <c r="M7">
+        <v>18395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>2623.895375038468</v>
+      </c>
+      <c r="D8">
+        <v>3842.9305202547876</v>
+      </c>
+      <c r="E8">
+        <v>11596.721585614037</v>
+      </c>
+      <c r="G8">
+        <v>37255.368355915067</v>
+      </c>
+      <c r="H8">
+        <v>4025.0868370337184</v>
+      </c>
+      <c r="I8">
+        <v>2682.5965238158797</v>
+      </c>
+      <c r="K8">
+        <v>22670.2202970123</v>
+      </c>
+      <c r="M8">
+        <v>131648.55887015644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>681403</v>
+      </c>
+      <c r="C12">
+        <v>510</v>
+      </c>
+      <c r="D12">
+        <v>13151</v>
+      </c>
+      <c r="E12">
+        <v>4635.3945578231296</v>
+      </c>
+      <c r="F12">
+        <v>3917</v>
+      </c>
+      <c r="G12">
+        <v>2623.895375038468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>1230276</v>
+      </c>
+      <c r="C13">
+        <v>1500</v>
+      </c>
+      <c r="D13">
+        <v>25456</v>
+      </c>
+      <c r="E13">
+        <v>8369.224489795919</v>
+      </c>
+      <c r="F13">
+        <v>7700</v>
+      </c>
+      <c r="G13">
+        <v>3842.9305202547876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3481884</v>
+      </c>
+      <c r="C14">
+        <v>4100</v>
+      </c>
+      <c r="D14">
+        <v>81468</v>
+      </c>
+      <c r="E14">
+        <v>23686.285714285714</v>
+      </c>
+      <c r="F14">
+        <v>22100</v>
+      </c>
+      <c r="G14">
+        <v>11596.721585614037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>7505763</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>187100</v>
+      </c>
+      <c r="E16">
+        <v>51059.612244897959</v>
+      </c>
+      <c r="F16">
+        <v>38400</v>
+      </c>
+      <c r="G16">
+        <v>37255.368355915067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>931280</v>
+      </c>
+      <c r="C17">
+        <v>9500</v>
+      </c>
+      <c r="D17">
+        <v>24800</v>
+      </c>
+      <c r="E17">
+        <v>6335.2380952380954</v>
+      </c>
+      <c r="F17">
+        <v>5474</v>
+      </c>
+      <c r="G17">
+        <v>4025.0868370337184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>707847</v>
+      </c>
+      <c r="C18">
+        <v>1279</v>
+      </c>
+      <c r="D18">
+        <v>25926</v>
+      </c>
+      <c r="E18">
+        <v>4815.2857142857147</v>
+      </c>
+      <c r="F18">
+        <v>4422</v>
+      </c>
+      <c r="G18">
+        <v>2682.5965238158797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>4848438</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>161665</v>
+      </c>
+      <c r="E20">
+        <v>32982.571428571428</v>
+      </c>
+      <c r="F20">
+        <v>28016</v>
+      </c>
+      <c r="G20">
+        <v>22670.2202970123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>10688244</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>847671</v>
+      </c>
+      <c r="E22">
+        <v>72709.142857142855</v>
+      </c>
+      <c r="F22">
+        <v>18395</v>
+      </c>
+      <c r="G22">
+        <v>131648.55887015644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/New_DB.xlsx
+++ b/New_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\MCC\Thesis\Project\2024_Project\new_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88C860-34A9-4ED3-AD97-7E479EFEB258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93974176-9676-43B3-ABC9-0ECFCF83A29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12567" windowHeight="13523" tabRatio="819" activeTab="4" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="819" xr2:uid="{13AFDAF7-A95F-4D3C-B348-D29B9628D89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Galvez" sheetId="13" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="Accounts" sheetId="6" r:id="rId4"/>
     <sheet name="Polls" sheetId="20" r:id="rId5"/>
     <sheet name="Results" sheetId="23" r:id="rId6"/>
-    <sheet name="Describe" sheetId="24" r:id="rId7"/>
-    <sheet name="Vida Post" sheetId="22" r:id="rId8"/>
+    <sheet name="Vida Post" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="81">
   <si>
     <t>Candidate</t>
   </si>
@@ -268,30 +267,6 @@
     <t>Oraculus</t>
   </si>
   <si>
-    <t>LR (X &amp; FB)</t>
-  </si>
-  <si>
-    <t>MLP (X &amp; FB)</t>
-  </si>
-  <si>
-    <t>LR (ALL)</t>
-  </si>
-  <si>
-    <t>MLP (AlL)</t>
-  </si>
-  <si>
-    <t>LR (X&amp;FB)</t>
-  </si>
-  <si>
-    <t>MLP (ALL)</t>
-  </si>
-  <si>
-    <t>MLP (X&amp;FB)</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
     <t>Sep</t>
   </si>
   <si>
@@ -327,12 +302,18 @@
   <si>
     <t>Mode</t>
   </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +353,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -476,9 +472,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -539,9 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,26 +551,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -895,9 +895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6041754-B9A0-4B1F-8AE9-569EC65B3AFE}">
   <dimension ref="A1:XEU362"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -923,34 +923,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21 16252:16375" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="28" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21 16252:16375" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -13790,10 +13790,10 @@
         <f t="shared" si="59"/>
         <v>14381.666666666666</v>
       </c>
-      <c r="S176" s="27">
+      <c r="S176" s="26">
         <v>0</v>
       </c>
-      <c r="T176" s="27">
+      <c r="T176" s="26">
         <v>0</v>
       </c>
       <c r="U176" s="8">
@@ -19784,6 +19784,9 @@
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A259" s="9">
+        <v>45432</v>
+      </c>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -19796,6 +19799,9 @@
       <c r="Q259" s="6"/>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A260" s="9">
+        <v>45433</v>
+      </c>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -21029,7 +21035,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G273" sqref="G273"/>
+      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -21052,34 +21058,34 @@
   <sheetData>
     <row r="1" spans="1:21 16251:16374" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="28" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21 16251:16374" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -39873,6 +39879,9 @@
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A259" s="9">
+        <v>45432</v>
+      </c>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -39885,6 +39894,9 @@
       <c r="Q259" s="6"/>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A260" s="9">
+        <v>45433</v>
+      </c>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -40333,11 +40345,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF91097-4FB7-4052-890B-7AEB04A1F433}">
-  <dimension ref="A1:U132"/>
+  <dimension ref="A1:U134"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -40366,34 +40378,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="28" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -49877,6 +49889,16 @@
       <c r="U132" s="8">
         <f t="shared" si="47"/>
         <v>943714.28571428568</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A133" s="9">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A134" s="9">
+        <v>45433</v>
       </c>
     </row>
   </sheetData>
@@ -49953,9 +49975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C3539-067A-49FB-A3DE-0B279692F912}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -50009,7 +50031,7 @@
         <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>60</v>
@@ -50034,49 +50056,49 @@
         <v>58</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="16">
         <v>45427</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="15">
         <v>28</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="15">
         <v>49</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="15">
         <v>10</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="15">
         <f>E2-D2</f>
         <v>21</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="15">
         <f>D2-F2</f>
         <v>18</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="15">
         <f>MONTH(C2)</f>
         <v>5</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>83</v>
+      <c r="J2" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="L2" s="15" t="str" cm="1">
         <f t="array" ref="L2:L15">_xlfn.UNIQUE(B2:B65)</f>
         <v>Mitofsky</v>
       </c>
       <c r="M2" s="15">
-        <f>COUNTIF(B2:B65,L2)</f>
+        <f t="shared" ref="M2:M15" si="0">COUNTIF(B2:B65,L2)</f>
         <v>8</v>
       </c>
       <c r="O2" s="15" t="s">
@@ -50102,50 +50124,50 @@
         <f>_xlfn.STDEV.S(E2:E65)</f>
         <v>5.2717566949541261</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2">
         <f>_xlfn.MODE.SNGL(E2:E65)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="16">
         <v>45427</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="15">
         <v>29</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="15">
         <v>50</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="15">
         <v>9</v>
       </c>
-      <c r="G3" s="33">
-        <f t="shared" ref="G3:G24" si="0">E3-D3</f>
+      <c r="G3" s="15">
+        <f t="shared" ref="G3:G24" si="1">E3-D3</f>
         <v>21</v>
       </c>
-      <c r="H3" s="33">
-        <f t="shared" ref="H3:H24" si="1">D3-F3</f>
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H24" si="2">D3-F3</f>
         <v>20</v>
       </c>
-      <c r="I3" s="33">
-        <f t="shared" ref="I3:I24" si="2">MONTH(C3)</f>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I24" si="3">MONTH(C3)</f>
         <v>5</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>83</v>
+      <c r="J3" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="L3" s="15" t="str">
         <v>Berumen</v>
       </c>
       <c r="M3" s="15">
-        <f>COUNTIF(B3:B66,L3)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O3" s="15" t="s">
@@ -50171,986 +50193,986 @@
         <f>_xlfn.STDEV.S(D2:D65)</f>
         <v>5.5763104374880434</v>
       </c>
-      <c r="U3" s="32">
+      <c r="U3">
         <f>_xlfn.MODE.SNGL(D2:D65)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="16">
         <v>45427</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="15">
         <v>40</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="15">
         <v>50</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="15">
         <v>7</v>
       </c>
-      <c r="G4" s="33">
-        <f t="shared" si="0"/>
+      <c r="G4" s="15">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H4" s="33">
-        <f t="shared" si="1"/>
+      <c r="H4" s="15">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="I4" s="33">
-        <f t="shared" si="2"/>
+      <c r="I4" s="15">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>83</v>
+      <c r="J4" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="L4" s="15" t="str">
         <v>Altica</v>
       </c>
       <c r="M4" s="15">
-        <f>COUNTIF(B4:B67,L4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="17">
         <f>MIN(F2:F65)</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="17">
         <f>MAX(F2:F65)</f>
         <v>18</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="17">
         <f>AVERAGE(F2:F65)</f>
         <v>7.0625</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="17">
         <f>MEDIAN(F2:F65)</f>
         <v>7</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="17">
         <f>_xlfn.STDEV.S(F2:F65)</f>
         <v>3.3184190154205604</v>
       </c>
-      <c r="U4" s="32">
+      <c r="U4">
         <f>_xlfn.MODE.SNGL(F2:F65)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="16">
         <v>45397</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="15">
         <v>29</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="15">
         <v>47</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="15">
         <v>7</v>
       </c>
-      <c r="G5" s="33">
-        <f t="shared" si="0"/>
+      <c r="G5" s="15">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H5" s="33">
-        <f t="shared" si="1"/>
+      <c r="H5" s="15">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I5" s="33">
-        <f t="shared" si="2"/>
+      <c r="I5" s="15">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>84</v>
+      <c r="J5" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="L5" s="15" t="str">
         <v>Varela y Asoc / Citibanamex</v>
       </c>
       <c r="M5" s="15">
-        <f>COUNTIF(B5:B68,L5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-    </row>
-    <row r="6" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="16">
         <v>45397</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="15">
         <v>31</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="15">
         <v>44</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="15">
         <v>8</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="15" t="str">
+        <v>Parametría</v>
+      </c>
+      <c r="M6" s="15">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H6" s="33">
+        <v>4</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="16">
+        <v>45397</v>
+      </c>
+      <c r="D7" s="15">
+        <v>27</v>
+      </c>
+      <c r="E7" s="15">
+        <v>51</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="15" t="str">
+        <v>Mendoza Blanco &amp; Asoc</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="16">
+        <v>45397</v>
+      </c>
+      <c r="D8" s="15">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15">
+        <v>51</v>
+      </c>
+      <c r="F8" s="15">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="15" t="str">
+        <v>GEA-ISA</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="16">
+        <v>45397</v>
+      </c>
+      <c r="D9" s="15">
+        <v>34</v>
+      </c>
+      <c r="E9" s="15">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="15" t="str">
+        <v>Enkoll</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="16">
+        <v>45397</v>
+      </c>
+      <c r="D10" s="15">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15">
+        <v>55</v>
+      </c>
+      <c r="F10" s="15">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="15" t="str">
+        <v>El Financiero</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45397</v>
+      </c>
+      <c r="D11" s="15">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15">
+        <v>49</v>
+      </c>
+      <c r="F11" s="15">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="15" t="str">
+        <v>Covarrubias y Asoc</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45397</v>
+      </c>
+      <c r="D12" s="15">
+        <v>27</v>
+      </c>
+      <c r="E12" s="15">
+        <v>52</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="15" t="str">
+        <v>Reforma</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="16">
+        <v>45397</v>
+      </c>
+      <c r="D13" s="15">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15">
+        <v>50</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="15" t="str">
+        <v>Demotecnia</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="16">
+        <v>45397</v>
+      </c>
+      <c r="D14" s="15">
+        <v>39</v>
+      </c>
+      <c r="E14" s="15">
+        <v>51</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="15" t="str">
+        <v>Simo</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="16">
+        <v>45366</v>
+      </c>
+      <c r="D15" s="15">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15">
+        <v>52</v>
+      </c>
+      <c r="F15" s="15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I6" s="33">
+      <c r="H15" s="15">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="15" t="str">
-        <v>Parametría</v>
-      </c>
-      <c r="M6" s="15">
-        <f>COUNTIF(B6:B69,L6)</f>
-        <v>4</v>
-      </c>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-    </row>
-    <row r="7" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="15" t="str">
+        <v>Buendía &amp; Márquez</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="35">
-        <v>45397</v>
-      </c>
-      <c r="D7" s="33">
-        <v>27</v>
-      </c>
-      <c r="E7" s="33">
-        <v>51</v>
-      </c>
-      <c r="F7" s="33">
-        <v>9</v>
-      </c>
-      <c r="G7" s="33">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H7" s="33">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I7" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="15" t="str">
-        <v>Mendoza Blanco &amp; Asoc</v>
-      </c>
-      <c r="M7" s="15">
-        <f>COUNTIF(B7:B70,L7)</f>
-        <v>6</v>
-      </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-    </row>
-    <row r="8" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="35">
-        <v>45397</v>
-      </c>
-      <c r="D8" s="33">
-        <v>25</v>
-      </c>
-      <c r="E8" s="33">
-        <v>51</v>
-      </c>
-      <c r="F8" s="33">
-        <v>11</v>
-      </c>
-      <c r="G8" s="33">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H8" s="33">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="I8" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="15" t="str">
-        <v>GEA-ISA</v>
-      </c>
-      <c r="M8" s="15">
-        <f>COUNTIF(B8:B71,L8)</f>
-        <v>4</v>
-      </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-    </row>
-    <row r="9" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="35">
-        <v>45397</v>
-      </c>
-      <c r="D9" s="33">
-        <v>34</v>
-      </c>
-      <c r="E9" s="33">
-        <v>49</v>
-      </c>
-      <c r="F9" s="33">
-        <v>6</v>
-      </c>
-      <c r="G9" s="33">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H9" s="33">
-        <f t="shared" si="1"/>
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="16">
+        <v>45366</v>
+      </c>
+      <c r="D16" s="15">
         <v>28</v>
       </c>
-      <c r="I9" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="15" t="str">
-        <v>Enkoll</v>
-      </c>
-      <c r="M9" s="15">
-        <f>COUNTIF(B9:B72,L9)</f>
-        <v>5</v>
-      </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-    </row>
-    <row r="10" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="35">
-        <v>45397</v>
-      </c>
-      <c r="D10" s="33">
-        <v>30</v>
-      </c>
-      <c r="E10" s="33">
-        <v>55</v>
-      </c>
-      <c r="F10" s="33">
-        <v>6</v>
-      </c>
-      <c r="G10" s="33">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H10" s="33">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I10" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="15" t="str">
-        <v>El Financiero</v>
-      </c>
-      <c r="M10" s="15">
-        <f>COUNTIF(B10:B73,L10)</f>
+      <c r="E16" s="15">
+        <v>48</v>
+      </c>
+      <c r="F16" s="15">
         <v>7</v>
       </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-    </row>
-    <row r="11" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="35">
-        <v>45397</v>
-      </c>
-      <c r="D11" s="33">
-        <v>32</v>
-      </c>
-      <c r="E11" s="33">
-        <v>49</v>
-      </c>
-      <c r="F11" s="33">
-        <v>8</v>
-      </c>
-      <c r="G11" s="33">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H11" s="33">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I11" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="15" t="str">
-        <v>Covarrubias y Asoc</v>
-      </c>
-      <c r="M11" s="15">
-        <f>COUNTIF(B11:B74,L11)</f>
-        <v>5</v>
-      </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-    </row>
-    <row r="12" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="35">
-        <v>45397</v>
-      </c>
-      <c r="D12" s="33">
-        <v>27</v>
-      </c>
-      <c r="E12" s="33">
-        <v>52</v>
-      </c>
-      <c r="F12" s="33">
-        <v>7</v>
-      </c>
-      <c r="G12" s="33">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H12" s="33">
+      <c r="G16" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I12" s="33">
+      <c r="H16" s="15">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="15" t="str">
-        <v>Reforma</v>
-      </c>
-      <c r="M12" s="15">
-        <f>COUNTIF(B12:B75,L12)</f>
-        <v>2</v>
-      </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-    </row>
-    <row r="13" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="35">
-        <v>45397</v>
-      </c>
-      <c r="D13" s="33">
+      <c r="B17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="16">
+        <v>45366</v>
+      </c>
+      <c r="D17" s="15">
         <v>29</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E17" s="15">
         <v>50</v>
       </c>
-      <c r="F13" s="33">
-        <v>4</v>
-      </c>
-      <c r="G13" s="33">
-        <f t="shared" si="0"/>
+      <c r="F17" s="15">
+        <v>5</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H17" s="15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="16">
+        <v>45366</v>
+      </c>
+      <c r="D18" s="15">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15">
+        <v>54</v>
+      </c>
+      <c r="F18" s="15">
+        <v>6</v>
+      </c>
+      <c r="G18" s="15">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I13" s="33">
+      <c r="H18" s="15">
         <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="16">
+        <v>45366</v>
+      </c>
+      <c r="D19" s="15">
+        <v>33</v>
+      </c>
+      <c r="E19" s="15">
+        <v>52</v>
+      </c>
+      <c r="F19" s="15">
         <v>4</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="15" t="str">
-        <v>Demotecnia</v>
-      </c>
-      <c r="M13" s="15">
-        <f>COUNTIF(B13:B76,L13)</f>
+      <c r="G19" s="15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="16">
+        <v>45366</v>
+      </c>
+      <c r="D20" s="15">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15">
+        <v>51</v>
+      </c>
+      <c r="F20" s="15">
+        <v>7</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="16">
+        <v>45366</v>
+      </c>
+      <c r="D21" s="15">
+        <v>15</v>
+      </c>
+      <c r="E21" s="15">
+        <v>63</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="16">
+        <v>45366</v>
+      </c>
+      <c r="D22" s="15">
+        <v>27</v>
+      </c>
+      <c r="E22" s="15">
+        <v>54</v>
+      </c>
+      <c r="F22" s="15">
         <v>5</v>
       </c>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-    </row>
-    <row r="14" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="35">
-        <v>45397</v>
-      </c>
-      <c r="D14" s="33">
-        <v>39</v>
-      </c>
-      <c r="E14" s="33">
-        <v>51</v>
-      </c>
-      <c r="F14" s="33">
-        <v>5</v>
-      </c>
-      <c r="G14" s="33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H14" s="33">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="I14" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="33" t="str">
-        <v>Simo</v>
-      </c>
-      <c r="M14" s="15">
-        <f>COUNTIF(B14:B77,L14)</f>
-        <v>4</v>
-      </c>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-    </row>
-    <row r="15" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="35">
-        <v>45366</v>
-      </c>
-      <c r="D15" s="33">
-        <v>29</v>
-      </c>
-      <c r="E15" s="33">
-        <v>52</v>
-      </c>
-      <c r="F15" s="33">
-        <v>5</v>
-      </c>
-      <c r="G15" s="33">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H15" s="33">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I15" s="33">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="33" t="str">
-        <v>Buendía &amp; Márquez</v>
-      </c>
-      <c r="M15" s="15">
-        <f>COUNTIF(B15:B78,L15)</f>
-        <v>2</v>
-      </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="35">
-        <v>45366</v>
-      </c>
-      <c r="D16" s="33">
-        <v>28</v>
-      </c>
-      <c r="E16" s="33">
-        <v>48</v>
-      </c>
-      <c r="F16" s="33">
-        <v>7</v>
-      </c>
-      <c r="G16" s="33">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H16" s="33">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="I16" s="33">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-    </row>
-    <row r="17" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="35">
-        <v>45366</v>
-      </c>
-      <c r="D17" s="33">
-        <v>29</v>
-      </c>
-      <c r="E17" s="33">
-        <v>50</v>
-      </c>
-      <c r="F17" s="33">
-        <v>5</v>
-      </c>
-      <c r="G17" s="33">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H17" s="33">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I17" s="33">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-    </row>
-    <row r="18" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="35">
-        <v>45366</v>
-      </c>
-      <c r="D18" s="33">
-        <v>29</v>
-      </c>
-      <c r="E18" s="33">
-        <v>54</v>
-      </c>
-      <c r="F18" s="33">
-        <v>6</v>
-      </c>
-      <c r="G18" s="33">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H18" s="33">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="I18" s="33">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-    </row>
-    <row r="19" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="35">
-        <v>45366</v>
-      </c>
-      <c r="D19" s="33">
-        <v>33</v>
-      </c>
-      <c r="E19" s="33">
-        <v>52</v>
-      </c>
-      <c r="F19" s="33">
-        <v>4</v>
-      </c>
-      <c r="G19" s="33">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H19" s="33">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="I19" s="33">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-    </row>
-    <row r="20" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="35">
-        <v>45366</v>
-      </c>
-      <c r="D20" s="33">
-        <v>34</v>
-      </c>
-      <c r="E20" s="33">
-        <v>51</v>
-      </c>
-      <c r="F20" s="33">
-        <v>7</v>
-      </c>
-      <c r="G20" s="33">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="G22" s="15">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I20" s="33">
+      <c r="H22" s="15">
         <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-    </row>
-    <row r="21" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="J22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="35">
+      <c r="B23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="16">
         <v>45366</v>
       </c>
-      <c r="D21" s="33">
-        <v>15</v>
-      </c>
-      <c r="E21" s="33">
-        <v>63</v>
-      </c>
-      <c r="F21" s="33">
-        <v>2</v>
-      </c>
-      <c r="G21" s="33">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H21" s="33">
+      <c r="D23" s="15">
+        <v>29</v>
+      </c>
+      <c r="E23" s="15">
+        <v>55</v>
+      </c>
+      <c r="F23" s="15">
+        <v>4</v>
+      </c>
+      <c r="G23" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="I21" s="33">
+        <v>26</v>
+      </c>
+      <c r="H23" s="15">
         <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-    </row>
-    <row r="22" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="J23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="35">
+      <c r="B24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="16">
         <v>45366</v>
       </c>
-      <c r="D22" s="33">
-        <v>27</v>
-      </c>
-      <c r="E22" s="33">
-        <v>54</v>
-      </c>
-      <c r="F22" s="33">
-        <v>5</v>
-      </c>
-      <c r="G22" s="33">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="D24" s="15">
+        <v>38</v>
+      </c>
+      <c r="E24" s="15">
+        <v>50</v>
+      </c>
+      <c r="F24" s="15">
+        <v>6</v>
+      </c>
+      <c r="G24" s="15">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="I22" s="33">
+        <v>12</v>
+      </c>
+      <c r="H24" s="15">
         <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J22" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-    </row>
-    <row r="23" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="35">
-        <v>45366</v>
-      </c>
-      <c r="D23" s="33">
-        <v>29</v>
-      </c>
-      <c r="E23" s="33">
-        <v>55</v>
-      </c>
-      <c r="F23" s="33">
-        <v>4</v>
-      </c>
-      <c r="G23" s="33">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H23" s="33">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I23" s="33">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-    </row>
-    <row r="24" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="35">
-        <v>45366</v>
-      </c>
-      <c r="D24" s="33">
-        <v>38</v>
-      </c>
-      <c r="E24" s="33">
-        <v>50</v>
-      </c>
-      <c r="F24" s="33">
-        <v>6</v>
-      </c>
-      <c r="G24" s="33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H24" s="33">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="I24" s="33">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
+      <c r="J24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="16">
@@ -51178,14 +51200,14 @@
         <v>2</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="16">
@@ -51201,26 +51223,26 @@
         <v>5</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" ref="G26:G30" si="3">E26-D26</f>
+        <f t="shared" ref="G26:G30" si="4">E26-D26</f>
         <v>24</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" ref="H26:H65" si="4">D26-F26</f>
+        <f t="shared" ref="H26:H65" si="5">D26-F26</f>
         <v>23</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" ref="I26:I30" si="5">MONTH(C26)</f>
+        <f t="shared" ref="I26:I30" si="6">MONTH(C26)</f>
         <v>2</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="16">
@@ -51236,19 +51258,19 @@
         <v>8</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O27" s="15"/>
       <c r="R27" s="19"/>
@@ -51258,7 +51280,7 @@
       <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="16">
@@ -51274,26 +51296,26 @@
         <v>2</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="16">
@@ -51309,26 +51331,26 @@
         <v>4</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="16">
@@ -51344,19 +51366,19 @@
         <v>5</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -51383,7 +51405,7 @@
         <v>41</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="I31" s="15">
@@ -51391,7 +51413,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -51414,19 +51436,19 @@
         <v>5</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" ref="G32:G65" si="6">E32-D32</f>
+        <f t="shared" ref="G32:G65" si="7">E32-D32</f>
         <v>24</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" ref="I32:I65" si="7">MONTH(C32)</f>
+        <f t="shared" ref="I32:I65" si="8">MONTH(C32)</f>
         <v>1</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -51449,19 +51471,19 @@
         <v>5</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -51484,19 +51506,19 @@
         <v>2</v>
       </c>
       <c r="G34" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -51519,19 +51541,19 @@
         <v>10</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -51554,19 +51576,19 @@
         <v>2</v>
       </c>
       <c r="G36" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="H36" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="I36" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -51589,19 +51611,19 @@
         <v>3</v>
       </c>
       <c r="G37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I37" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -51624,19 +51646,19 @@
         <v>11</v>
       </c>
       <c r="G38" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -51659,19 +51681,19 @@
         <v>9</v>
       </c>
       <c r="G39" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -51694,19 +51716,19 @@
         <v>5</v>
       </c>
       <c r="G40" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -51729,19 +51751,19 @@
         <v>6</v>
       </c>
       <c r="G41" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L41" s="15"/>
     </row>
@@ -51765,19 +51787,19 @@
         <v>9</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -51800,19 +51822,19 @@
         <v>10</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="I43" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -51835,19 +51857,19 @@
         <v>7</v>
       </c>
       <c r="G44" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -51870,19 +51892,19 @@
         <v>6</v>
       </c>
       <c r="G45" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="H45" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I45" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -51905,19 +51927,19 @@
         <v>5</v>
       </c>
       <c r="G46" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -51940,19 +51962,19 @@
         <v>3</v>
       </c>
       <c r="G47" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -51975,19 +51997,19 @@
         <v>14</v>
       </c>
       <c r="G48" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="I48" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -52010,19 +52032,19 @@
         <v>10</v>
       </c>
       <c r="G49" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -52045,19 +52067,19 @@
         <v>10</v>
       </c>
       <c r="G50" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="I50" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -52080,19 +52102,19 @@
         <v>8</v>
       </c>
       <c r="G51" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I51" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -52115,19 +52137,19 @@
         <v>17</v>
       </c>
       <c r="G52" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="H52" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -52150,19 +52172,19 @@
         <v>7</v>
       </c>
       <c r="G53" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="H53" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -52185,19 +52207,19 @@
         <v>6</v>
       </c>
       <c r="G54" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -52220,19 +52242,19 @@
         <v>7</v>
       </c>
       <c r="G55" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -52255,19 +52277,19 @@
         <v>8</v>
       </c>
       <c r="G56" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -52290,19 +52312,19 @@
         <v>7</v>
       </c>
       <c r="G57" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -52325,19 +52347,19 @@
         <v>9</v>
       </c>
       <c r="G58" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -52360,19 +52382,19 @@
         <v>10</v>
       </c>
       <c r="G59" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="H59" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="I59" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -52395,19 +52417,19 @@
         <v>9</v>
       </c>
       <c r="G60" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -52430,19 +52452,19 @@
         <v>15</v>
       </c>
       <c r="G61" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -52465,19 +52487,19 @@
         <v>8</v>
       </c>
       <c r="G62" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="I62" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -52500,19 +52522,19 @@
         <v>5</v>
       </c>
       <c r="G63" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I63" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -52535,19 +52557,19 @@
         <v>7</v>
       </c>
       <c r="G64" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="I64" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -52570,19 +52592,19 @@
         <v>18</v>
       </c>
       <c r="G65" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="I65" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -52594,121 +52616,124 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6748DF8D-1E96-42F5-BE18-DD686141E658}">
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="D5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="26">
-        <v>0.64</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0.59</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0.64</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C6" s="34">
+        <v>58</v>
+      </c>
+      <c r="D6" s="35">
+        <v>50.04</v>
+      </c>
+      <c r="E6" s="35">
+        <v>49.11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.27</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0.18</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0.41</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8">
+      <c r="C7" s="34">
+        <v>34</v>
+      </c>
+      <c r="D7" s="35">
+        <v>37.85</v>
+      </c>
+      <c r="E7" s="6">
+        <v>28.67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="36">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9">
-        <v>6.5</v>
-      </c>
+      <c r="D8" s="37">
+        <v>-5.13</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52717,52 +52742,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346A044C-6F3E-436F-84AC-DB98BA731517}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC47CE33-EEC3-446C-940D-05592E4B50CB}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
